--- a/就活.xlsx
+++ b/就活.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC494A5-B4CA-4686-89C8-F4934E9FE8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1230B1F-0C47-4529-9C90-C76FB9861844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="203">
   <si>
     <t>SIer</t>
     <phoneticPr fontId="1"/>
@@ -3176,12 +3176,23 @@
     <t>c9n1022602</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
+    <t>fnets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fsastech</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HS1808797</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">후지쯔네트워크솔루션즈
@@ -3193,7 +3204,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans JP Light"/>
         <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>富士通ネットワークソリューションズ</t>
     </r>
@@ -3203,28 +3213,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fnets</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">에프서스 테크놀로지스
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에프서스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">테크놀로지스
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>エフサステクノロジーズ</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fsastech</t>
+    <t>chaehan12#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MD1000508</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3232,7 +3267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3293,13 +3328,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Noto Sans JP Light"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Noto Sans JP Light"/>
       <family val="2"/>
@@ -3319,14 +3347,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="맑은 고딕 Semilight"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <name val="Noto Sans JP Light"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP Light"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -3432,7 +3460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3472,40 +3500,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3517,8 +3512,44 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3857,8 +3888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC70DC4-F0DC-4C6F-8135-CC403CCD1BBE}">
   <dimension ref="A1:R227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B120" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3875,27 +3906,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3925,32 +3956,32 @@
       <c r="K2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="23"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="17">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="13" t="s">
         <v>180</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -3961,36 +3992,36 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="15"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="22"/>
       <c r="F4" s="8">
         <v>45684.427083333336</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="9"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -4001,20 +4032,20 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="15"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="15">
+      <c r="A7" s="22">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4028,32 +4059,32 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="15">
+      <c r="A9" s="22">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="13" t="s">
         <v>183</v>
       </c>
       <c r="L9" s="7" t="s">
@@ -4064,31 +4095,31 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="D10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="15">
+      <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="7" t="s">
@@ -4099,19 +4130,19 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="22"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A13" s="15">
+      <c r="A13" s="22">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -4123,10 +4154,10 @@
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="13" t="s">
         <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
@@ -4137,8 +4168,8 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -4149,7 +4180,7 @@
       <c r="F14" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="22"/>
       <c r="L14" s="7" t="s">
         <v>16</v>
       </c>
@@ -4157,22 +4188,22 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A15" s="15">
+      <c r="A15" s="22">
         <v>7</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="7" t="s">
@@ -4183,28 +4214,28 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="D16" s="22"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A17" s="15">
+      <c r="A17" s="22">
         <v>8</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="7" t="s">
@@ -4215,19 +4246,19 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="D18" s="22"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A19" s="15">
+      <c r="A19" s="22">
         <v>9</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4236,13 +4267,13 @@
       <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="22" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="13" t="s">
         <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
@@ -4253,8 +4284,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
@@ -4262,19 +4293,19 @@
         <v>45667.541666666664</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A21" s="15">
+      <c r="A21" s="22">
         <v>10</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L21" s="7" t="s">
@@ -4285,24 +4316,24 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A23" s="15">
+      <c r="A23" s="22">
         <v>11</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L23" s="7" t="s">
@@ -4313,24 +4344,24 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A25" s="15">
+      <c r="A25" s="22">
         <v>12</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L25" s="7" t="s">
@@ -4341,21 +4372,21 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="22"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A27" s="15">
+      <c r="A27" s="22">
         <v>13</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="23" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -4364,7 +4395,7 @@
       <c r="F27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L27" s="7" t="s">
@@ -4375,22 +4406,22 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="22"/>
       <c r="L28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A29" s="15">
+      <c r="A29" s="22">
         <v>14</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -4402,7 +4433,7 @@
       <c r="F29" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L29" s="7" t="s">
@@ -4413,8 +4444,8 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="4" t="s">
         <v>0</v>
       </c>
@@ -4422,15 +4453,15 @@
         <v>45681.604166666664</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="15"/>
+      <c r="G30" s="22"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A31" s="15">
+      <c r="A31" s="22">
         <v>15</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -4442,7 +4473,7 @@
       <c r="F31" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="22" t="s">
         <v>1</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -4456,26 +4487,26 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="22"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="15">
+      <c r="A33" s="22">
         <v>16</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="23" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L33" s="7" t="s">
@@ -4486,26 +4517,26 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="22"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A35" s="15">
+      <c r="A35" s="22">
         <v>17</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="22" t="s">
         <v>1</v>
       </c>
       <c r="K35" s="4" t="s">
@@ -4519,20 +4550,20 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="15"/>
+      <c r="G36" s="22"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A37" s="15">
+      <c r="A37" s="22">
         <v>18</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4544,7 +4575,7 @@
       <c r="F37" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L37" s="7" t="s">
@@ -4555,18 +4586,18 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="15"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A39" s="15">
+      <c r="A39" s="22">
         <v>19</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -4575,7 +4606,7 @@
       <c r="F39" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L39" s="7" t="s">
@@ -4586,18 +4617,18 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="15"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A41" s="15">
+      <c r="A41" s="22">
         <v>20</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4606,7 +4637,7 @@
       <c r="F41" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L41" s="7" t="s">
@@ -4617,24 +4648,24 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A43" s="15">
+      <c r="A43" s="22">
         <v>21</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L43" s="7" t="s">
@@ -4645,24 +4676,24 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A45" s="15">
+      <c r="A45" s="22">
         <v>22</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L45" s="7" t="s">
@@ -4673,24 +4704,24 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="15"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A47" s="15">
+      <c r="A47" s="22">
         <v>23</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="23" t="s">
         <v>91</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L47" s="7" t="s">
@@ -4701,20 +4732,20 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="15"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="G48" s="15"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A49" s="15">
+      <c r="A49" s="22">
         <v>24</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="23" t="s">
         <v>92</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -4728,22 +4759,25 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="15"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A51" s="15">
+      <c r="A51" s="22">
         <v>25</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="K51" s="19">
+        <v>25055733</v>
+      </c>
       <c r="L51" s="7" t="s">
         <v>43</v>
       </c>
@@ -4753,17 +4787,20 @@
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="15"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="K52" s="20" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A53" s="15">
+      <c r="A53" s="22">
         <v>26</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="23" t="s">
         <v>94</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4777,17 +4814,17 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="15"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A55" s="15">
+      <c r="A55" s="22">
         <v>27</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="23" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -4801,17 +4838,17 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="15"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A57" s="15">
+      <c r="A57" s="22">
         <v>28</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="23" t="s">
         <v>97</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -4825,17 +4862,17 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="15"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="15">
+      <c r="A59" s="22">
         <v>29</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -4852,17 +4889,17 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A61" s="15">
+      <c r="A61" s="22">
         <v>30</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="23" t="s">
         <v>98</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -4885,17 +4922,17 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="15"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A63" s="15">
+      <c r="A63" s="22">
         <v>31</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="23" t="s">
         <v>99</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -4910,23 +4947,23 @@
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="15"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="15">
+      <c r="A65" s="22">
         <v>32</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K65" s="25" t="s">
+      <c r="K65" s="13" t="s">
         <v>179</v>
       </c>
       <c r="L65" s="7" t="s">
@@ -4937,17 +4974,17 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A67" s="15">
+      <c r="A67" s="22">
         <v>33</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="23" t="s">
         <v>100</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -4961,17 +4998,17 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="15"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A69" s="15">
+      <c r="A69" s="22">
         <v>34</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -4985,22 +5022,25 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="15"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A71" s="15">
+      <c r="A71" s="22">
         <v>35</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="K71" s="16" t="s">
+        <v>198</v>
+      </c>
       <c r="L71" s="7" t="s">
         <v>55</v>
       </c>
@@ -5009,17 +5049,17 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="15"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A73" s="15">
+      <c r="A73" s="22">
         <v>36</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -5033,17 +5073,17 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="15"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A75" s="15">
+      <c r="A75" s="22">
         <v>37</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="23" t="s">
         <v>103</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -5060,17 +5100,17 @@
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="15"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A77" s="15">
+      <c r="A77" s="22">
         <v>38</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -5084,23 +5124,23 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="15"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A79" s="15">
+      <c r="A79" s="22">
         <v>39</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="23" t="s">
         <v>138</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K79" s="26" t="s">
+      <c r="K79" s="14" t="s">
         <v>177</v>
       </c>
       <c r="L79" s="7" t="s">
@@ -5111,17 +5151,17 @@
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="15"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A81" s="15">
+      <c r="A81" s="22">
         <v>40</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="23" t="s">
         <v>139</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -5135,17 +5175,17 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="15"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A83" s="15">
+      <c r="A83" s="22">
         <v>41</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="23" t="s">
         <v>140</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -5159,17 +5199,17 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="15"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="15">
+      <c r="A85" s="22">
         <v>42</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="22" t="s">
         <v>141</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -5183,17 +5223,17 @@
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A87" s="15">
+      <c r="A87" s="22">
         <v>43</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="23" t="s">
         <v>142</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -5207,17 +5247,17 @@
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="15"/>
-      <c r="B88" s="14"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A89" s="15">
+      <c r="A89" s="22">
         <v>44</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="23" t="s">
         <v>143</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -5231,17 +5271,17 @@
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="15"/>
-      <c r="B90" s="14"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A91" s="15">
+      <c r="A91" s="22">
         <v>45</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="23" t="s">
         <v>144</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -5255,17 +5295,17 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="15"/>
-      <c r="B92" s="14"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A93" s="15">
+      <c r="A93" s="22">
         <v>46</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="23" t="s">
         <v>145</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -5279,17 +5319,17 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="15"/>
-      <c r="B94" s="14"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
       <c r="C94" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A95" s="15">
+      <c r="A95" s="22">
         <v>47</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="23" t="s">
         <v>146</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -5306,17 +5346,17 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="15"/>
-      <c r="B96" s="14"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
       <c r="C96" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A97" s="15">
+      <c r="A97" s="22">
         <v>48</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="23" t="s">
         <v>148</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -5330,17 +5370,17 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="15"/>
-      <c r="B98" s="14"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
       <c r="C98" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A99" s="15">
+      <c r="A99" s="22">
         <v>49</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="23" t="s">
         <v>150</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -5354,17 +5394,17 @@
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="15"/>
-      <c r="B100" s="14"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
       <c r="C100" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A101" s="15">
+      <c r="A101" s="22">
         <v>50</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="23" t="s">
         <v>151</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -5378,22 +5418,25 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="15"/>
-      <c r="B102" s="14"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A103" s="15">
+      <c r="A103" s="22">
         <v>51</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="23" t="s">
         <v>152</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="K103" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="L103" s="7" t="s">
         <v>120</v>
       </c>
@@ -5402,17 +5445,17 @@
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="15"/>
-      <c r="B104" s="14"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A105" s="15">
+      <c r="A105" s="22">
         <v>52</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="23" t="s">
         <v>153</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -5426,17 +5469,17 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="15"/>
-      <c r="B106" s="14"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A107" s="15">
+      <c r="A107" s="22">
         <v>53</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="23" t="s">
         <v>154</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -5450,17 +5493,17 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="15"/>
-      <c r="B108" s="14"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A109" s="15">
+      <c r="A109" s="22">
         <v>54</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="23" t="s">
         <v>155</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -5474,17 +5517,17 @@
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="15"/>
-      <c r="B110" s="14"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A111" s="15">
+      <c r="A111" s="22">
         <v>55</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="23" t="s">
         <v>156</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -5498,17 +5541,17 @@
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="15"/>
-      <c r="B112" s="14"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="15">
+      <c r="A113" s="22">
         <v>56</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="22" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -5522,8 +5565,8 @@
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="4" t="s">
         <v>147</v>
       </c>
@@ -5532,10 +5575,10 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A115" s="15">
+      <c r="A115" s="22">
         <v>57</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="23" t="s">
         <v>157</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -5549,17 +5592,17 @@
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="15"/>
-      <c r="B116" s="14"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A117" s="15">
+      <c r="A117" s="22">
         <v>58</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="23" t="s">
         <v>158</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -5573,17 +5616,17 @@
       </c>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="15"/>
-      <c r="B118" s="14"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A119" s="15">
+      <c r="A119" s="22">
         <v>59</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="23" t="s">
         <v>159</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -5597,17 +5640,17 @@
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="15"/>
-      <c r="B120" s="14"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A121" s="15">
+      <c r="A121" s="22">
         <v>60</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="23" t="s">
         <v>160</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -5621,22 +5664,23 @@
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="15"/>
-      <c r="B122" s="14"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="15">
+      <c r="A123" s="22">
         <v>61</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="22" t="s">
         <v>131</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="K123" s="17"/>
       <c r="L123" s="7" t="s">
         <v>132</v>
       </c>
@@ -5645,17 +5689,18 @@
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
+      <c r="A124" s="22"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="K124" s="17"/>
     </row>
     <row r="125" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A125" s="15">
+      <c r="A125" s="22">
         <v>62</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="23" t="s">
         <v>161</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -5664,7 +5709,7 @@
       <c r="E125" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="K125" s="27" t="s">
+      <c r="K125" s="16" t="s">
         <v>174</v>
       </c>
       <c r="L125" s="7" t="s">
@@ -5675,17 +5720,17 @@
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="15"/>
-      <c r="B126" s="14"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="15">
+      <c r="A127" s="22">
         <v>63</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="22" t="s">
         <v>134</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -5699,17 +5744,17 @@
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A129" s="15">
+      <c r="A129" s="22">
         <v>64</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="23" t="s">
         <v>162</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -5723,17 +5768,17 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="15"/>
-      <c r="B130" s="14"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A131" s="15">
+      <c r="A131" s="22">
         <v>65</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="23" t="s">
         <v>163</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -5747,17 +5792,17 @@
       </c>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="15"/>
-      <c r="B132" s="14"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A133" s="15">
+      <c r="A133" s="22">
         <v>66</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="23" t="s">
         <v>165</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -5771,17 +5816,17 @@
       </c>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="15"/>
-      <c r="B134" s="14"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A135" s="15">
+      <c r="A135" s="22">
         <v>67</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="23" t="s">
         <v>192</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -5790,7 +5835,7 @@
       <c r="D135" s="8">
         <v>45680.583333333336</v>
       </c>
-      <c r="K135" s="28" t="s">
+      <c r="K135" s="15" t="s">
         <v>195</v>
       </c>
       <c r="L135" s="7" t="s">
@@ -5801,23 +5846,23 @@
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="15"/>
-      <c r="B136" s="14"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A137" s="15">
+      <c r="A137" s="22">
         <v>68</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="23" t="s">
         <v>193</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K137" s="1" t="s">
+      <c r="K137" s="4" t="s">
         <v>194</v>
       </c>
       <c r="L137" s="7" t="s">
@@ -5828,193 +5873,203 @@
       </c>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="15"/>
-      <c r="B138" s="14"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="15">
+      <c r="A139" s="22">
         <v>69</v>
       </c>
-      <c r="B139" s="18" t="s">
-        <v>196</v>
+      <c r="B139" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>75</v>
       </c>
       <c r="L139" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M139" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="15"/>
-      <c r="B140" s="15"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="15">
+      <c r="A141" s="22">
         <v>70</v>
       </c>
-      <c r="B141" s="13" t="s">
-        <v>198</v>
+      <c r="B141" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>75</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M141" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="15"/>
-      <c r="B142" s="15"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="15">
+      <c r="A143" s="22">
         <v>71</v>
       </c>
+      <c r="B143" s="21"/>
+      <c r="C143" s="20"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="15"/>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="15">
+      <c r="A144" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="20"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="22">
         <v>72</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="15"/>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="15">
+      <c r="B145" s="21"/>
+      <c r="C145" s="20"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="22"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="20"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="22">
         <v>73</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="15"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="15">
+    <row r="148" spans="1:3">
+      <c r="A148" s="22"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="22">
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="15"/>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="15">
+    <row r="150" spans="1:3">
+      <c r="A150" s="22"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="22">
         <v>75</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="15"/>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="15">
+    <row r="152" spans="1:3">
+      <c r="A152" s="22"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="22">
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="15"/>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="15">
+    <row r="154" spans="1:3">
+      <c r="A154" s="22"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="22">
         <v>77</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="15"/>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="15">
+    <row r="156" spans="1:3">
+      <c r="A156" s="22"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="22">
         <v>78</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="15"/>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="15">
+    <row r="158" spans="1:3">
+      <c r="A158" s="22"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="22">
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="15"/>
+    <row r="160" spans="1:3">
+      <c r="A160" s="22"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="15">
+      <c r="A161" s="22">
         <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="15"/>
+      <c r="A162" s="22"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="15"/>
+      <c r="A163" s="22"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="15"/>
+      <c r="A164" s="22"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="15"/>
+      <c r="A165" s="22"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="15"/>
+      <c r="A166" s="22"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="15"/>
+      <c r="A167" s="22"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="15"/>
+      <c r="A168" s="22"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="15"/>
+      <c r="A169" s="22"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="15"/>
+      <c r="A170" s="22"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="15"/>
+      <c r="A171" s="22"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="15"/>
+      <c r="A172" s="22"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="15"/>
+      <c r="A173" s="22"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="15"/>
+      <c r="A174" s="22"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="15"/>
+      <c r="A175" s="22"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="15"/>
+      <c r="A176" s="22"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="15"/>
+      <c r="A177" s="22"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="15"/>
+      <c r="A178" s="22"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="15"/>
+      <c r="A179" s="22"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="15"/>
+      <c r="A180" s="22"/>
     </row>
     <row r="218" spans="12:13">
       <c r="M218" s="10"/>
@@ -6056,10 +6111,16 @@
       <c r="M227" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="190">
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
+  <mergeCells count="192">
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="G47:G48"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
@@ -6067,6 +6128,9 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="G35:G36"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
@@ -6077,16 +6141,9 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="G37:G38"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="B15:B16"/>
@@ -6097,15 +6154,6 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="G41:G42"/>
@@ -6129,6 +6177,7 @@
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B53:B54"/>
@@ -6141,6 +6190,13 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B74"/>
@@ -6165,10 +6221,6 @@
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="A89:A90"/>
@@ -6236,6 +6288,8 @@
     <mergeCell ref="A153:A154"/>
     <mergeCell ref="A155:A156"/>
     <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
     <mergeCell ref="B135:B136"/>
     <mergeCell ref="B125:B126"/>
     <mergeCell ref="B127:B128"/>
@@ -6247,6 +6301,9 @@
     <mergeCell ref="B119:B120"/>
     <mergeCell ref="B121:B122"/>
     <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/就活.xlsx
+++ b/就活.xlsx
@@ -2,21 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9124D57B-ED8B-4152-AFD5-1B55F9B2D16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7996843-6FE0-4DCD-A650-CA30294BAA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="220">
   <si>
     <t>SIer</t>
     <phoneticPr fontId="1"/>
@@ -3557,14 +3556,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3580,7 +3579,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3716,7 +3715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3760,9 +3759,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3771,10 +3776,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4114,11 +4116,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC70DC4-F0DC-4C6F-8135-CC403CCD1BBE}">
   <dimension ref="A1:R223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="I145" sqref="I145"/>
+    <sheetView tabSelected="1" topLeftCell="E97" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="6.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="4" customWidth="1"/>
@@ -4132,21 +4134,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
@@ -4182,16 +4184,16 @@
       <c r="K2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="19"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -4205,29 +4207,29 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="11" t="s">
@@ -4241,31 +4243,31 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="15"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -4276,19 +4278,19 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -4300,7 +4302,7 @@
       <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="11" t="s">
@@ -4314,8 +4316,8 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4326,7 +4328,7 @@
       <c r="F10" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
       <c r="L10" s="6" t="s">
         <v>13</v>
       </c>
@@ -4334,22 +4336,22 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="L11" s="6" t="s">
@@ -4360,28 +4362,28 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -4392,19 +4394,19 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>7</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -4413,7 +4415,7 @@
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -4430,8 +4432,8 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
@@ -4439,19 +4441,19 @@
         <v>45667.541666666664</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>8</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>4</v>
       </c>
       <c r="L17" s="6" t="s">
@@ -4462,24 +4464,24 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>9</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>4</v>
       </c>
       <c r="L19" s="6" t="s">
@@ -4490,24 +4492,24 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>10</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>4</v>
       </c>
       <c r="L21" s="6" t="s">
@@ -4518,21 +4520,21 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="14"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>11</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -4541,7 +4543,7 @@
       <c r="F23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>4</v>
       </c>
       <c r="L23" s="6" t="s">
@@ -4552,22 +4554,22 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="14"/>
       <c r="L24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>12</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -4579,7 +4581,7 @@
       <c r="F25" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L25" s="6" t="s">
@@ -4590,8 +4592,8 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="4" t="s">
         <v>0</v>
       </c>
@@ -4599,15 +4601,15 @@
         <v>45681.604166666664</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="14"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>13</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -4619,7 +4621,7 @@
       <c r="F27" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K27" s="4" t="s">
@@ -4633,26 +4635,31 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="L28" s="6"/>
+      <c r="F28" s="7">
+        <v>45692.5</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="L28" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>14</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K29" s="13" t="s">
@@ -4666,26 +4673,26 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="15"/>
+      <c r="G30" s="14"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A31" s="15">
+      <c r="A31" s="14">
         <v>15</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -4699,20 +4706,20 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="14"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <v>16</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -4724,7 +4731,7 @@
       <c r="F33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L33" s="6" t="s">
@@ -4735,18 +4742,18 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <v>17</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -4755,7 +4762,7 @@
       <c r="F35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L35" s="6" t="s">
@@ -4766,18 +4773,18 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="15"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A37" s="15">
+      <c r="A37" s="14">
         <v>18</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4786,7 +4793,7 @@
       <c r="F37" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L37" s="6" t="s">
@@ -4797,24 +4804,24 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="15"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A39" s="15">
+      <c r="A39" s="14">
         <v>19</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L39" s="6" t="s">
@@ -4825,24 +4832,24 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="15"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A41" s="15">
+      <c r="A41" s="14">
         <v>20</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L41" s="6" t="s">
@@ -4853,24 +4860,24 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A43" s="15">
+      <c r="A43" s="14">
         <v>21</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L43" s="6" t="s">
@@ -4881,20 +4888,20 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="G44" s="15"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A45" s="15">
+      <c r="A45" s="14">
         <v>22</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -4908,17 +4915,17 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="15"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A47" s="15">
+      <c r="A47" s="14">
         <v>23</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -4936,8 +4943,8 @@
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="15"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="4" t="s">
         <v>0</v>
       </c>
@@ -4946,10 +4953,10 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A49" s="15">
+      <c r="A49" s="14">
         <v>24</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -4963,17 +4970,17 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="15"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A51" s="15">
+      <c r="A51" s="14">
         <v>25</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -4993,17 +5000,17 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="15"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A53" s="15">
+      <c r="A53" s="14">
         <v>26</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -5017,17 +5024,17 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="15"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="15">
+      <c r="A55" s="14">
         <v>27</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -5044,17 +5051,17 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A57" s="15">
+      <c r="A57" s="14">
         <v>28</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -5077,17 +5084,17 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="15"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A59" s="15">
+      <c r="A59" s="14">
         <v>29</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -5102,17 +5109,17 @@
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="15"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="15">
+      <c r="A61" s="14">
         <v>30</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -5129,17 +5136,17 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A63" s="15">
+      <c r="A63" s="14">
         <v>31</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -5153,17 +5160,17 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="15"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A65" s="15">
+      <c r="A65" s="14">
         <v>32</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -5177,17 +5184,17 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="15"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A67" s="15">
+      <c r="A67" s="14">
         <v>33</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -5204,17 +5211,17 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="15"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A69" s="15">
+      <c r="A69" s="14">
         <v>34</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -5228,17 +5235,17 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="15"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A71" s="15">
+      <c r="A71" s="14">
         <v>35</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -5255,17 +5262,17 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="15"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A73" s="15">
+      <c r="A73" s="14">
         <v>36</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -5279,17 +5286,17 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="15"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A75" s="15">
+      <c r="A75" s="14">
         <v>37</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="15" t="s">
         <v>116</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -5306,17 +5313,17 @@
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="15"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A77" s="15">
+      <c r="A77" s="14">
         <v>38</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="15" t="s">
         <v>117</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -5330,17 +5337,17 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="15"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A79" s="15">
+      <c r="A79" s="14">
         <v>39</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -5354,17 +5361,17 @@
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="15"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="15">
+      <c r="A81" s="14">
         <v>40</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -5378,17 +5385,17 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A83" s="15">
+      <c r="A83" s="14">
         <v>41</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="15" t="s">
         <v>120</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -5402,17 +5409,17 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="15"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A85" s="15">
+      <c r="A85" s="14">
         <v>42</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -5426,17 +5433,17 @@
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="15"/>
-      <c r="B86" s="14"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A87" s="15">
+      <c r="A87" s="14">
         <v>43</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -5450,17 +5457,17 @@
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="15"/>
-      <c r="B88" s="14"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A89" s="15">
+      <c r="A89" s="14">
         <v>44</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -5474,17 +5481,17 @@
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="15"/>
-      <c r="B90" s="14"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A91" s="15">
+      <c r="A91" s="14">
         <v>45</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="15" t="s">
         <v>124</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -5501,17 +5508,17 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="15"/>
-      <c r="B92" s="14"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A93" s="15">
+      <c r="A93" s="14">
         <v>46</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -5525,17 +5532,17 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="15"/>
-      <c r="B94" s="14"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A95" s="15">
+      <c r="A95" s="14">
         <v>47</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -5549,17 +5556,17 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="15"/>
-      <c r="B96" s="14"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="15"/>
       <c r="C96" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A97" s="15">
+      <c r="A97" s="14">
         <v>48</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -5573,17 +5580,17 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="15"/>
-      <c r="B98" s="14"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A99" s="15">
+      <c r="A99" s="14">
         <v>49</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -5600,17 +5607,17 @@
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="15"/>
-      <c r="B100" s="14"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A101" s="15">
+      <c r="A101" s="14">
         <v>50</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -5624,17 +5631,17 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="15"/>
-      <c r="B102" s="14"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A103" s="15">
+      <c r="A103" s="14">
         <v>51</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -5648,17 +5655,17 @@
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="15"/>
-      <c r="B104" s="14"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="15"/>
       <c r="C104" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A105" s="15">
+      <c r="A105" s="14">
         <v>52</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -5672,17 +5679,17 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="15"/>
-      <c r="B106" s="14"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A107" s="15">
+      <c r="A107" s="14">
         <v>53</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -5696,17 +5703,17 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="15"/>
-      <c r="B108" s="14"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="15"/>
       <c r="C108" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="15">
+      <c r="A109" s="14">
         <v>54</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -5723,8 +5730,8 @@
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="4" t="s">
         <v>125</v>
       </c>
@@ -5733,10 +5740,10 @@
       </c>
     </row>
     <row r="111" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A111" s="15">
+      <c r="A111" s="14">
         <v>55</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="15" t="s">
         <v>136</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -5750,17 +5757,17 @@
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="15"/>
-      <c r="B112" s="14"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="15"/>
       <c r="C112" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A113" s="15">
+      <c r="A113" s="14">
         <v>56</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="15" t="s">
         <v>161</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -5780,17 +5787,17 @@
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="15"/>
-      <c r="B114" s="14"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A115" s="15">
+      <c r="A115" s="14">
         <v>57</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="15" t="s">
         <v>162</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -5807,17 +5814,17 @@
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="15"/>
-      <c r="B116" s="14"/>
+      <c r="A116" s="14"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A117" s="15">
+      <c r="A117" s="14">
         <v>58</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -5834,17 +5841,17 @@
       </c>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
       <c r="C118" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A119" s="15">
+      <c r="A119" s="14">
         <v>59</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="15" t="s">
         <v>182</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -5858,17 +5865,17 @@
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="15"/>
-      <c r="B120" s="14"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A121" s="15">
+      <c r="A121" s="14">
         <v>60</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -5882,8 +5889,8 @@
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="15"/>
-      <c r="B122" s="14"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="15"/>
       <c r="C122" s="4" t="s">
         <v>0</v>
       </c>
@@ -5892,10 +5899,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A123" s="15">
+      <c r="A123" s="14">
         <v>61</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="15" t="s">
         <v>184</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -5909,8 +5916,8 @@
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="15"/>
-      <c r="B124" s="14"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="15"/>
       <c r="C124" s="4" t="s">
         <v>0</v>
       </c>
@@ -5918,10 +5925,10 @@
       <c r="M124" s="6"/>
     </row>
     <row r="125" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A125" s="15">
+      <c r="A125" s="14">
         <v>62</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="15" t="s">
         <v>185</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -5935,8 +5942,8 @@
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="15"/>
-      <c r="B126" s="14"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="4" t="s">
         <v>0</v>
       </c>
@@ -5944,10 +5951,10 @@
       <c r="M126" s="6"/>
     </row>
     <row r="127" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A127" s="15">
+      <c r="A127" s="14">
         <v>63</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="15" t="s">
         <v>187</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -5967,17 +5974,17 @@
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="15"/>
-      <c r="B128" s="14"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A129" s="15">
+      <c r="A129" s="14">
         <v>64</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="15" t="s">
         <v>200</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -5994,17 +6001,17 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="15"/>
-      <c r="B130" s="14"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A131" s="15">
-        <v>65</v>
-      </c>
-      <c r="B131" s="14" t="s">
+      <c r="A131" s="14">
+        <v>65</v>
+      </c>
+      <c r="B131" s="15" t="s">
         <v>201</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -6018,17 +6025,17 @@
       </c>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="15"/>
-      <c r="B132" s="14"/>
+      <c r="A132" s="14"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A133" s="15">
+      <c r="A133" s="14">
         <v>66</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="15" t="s">
         <v>202</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -6042,17 +6049,17 @@
       </c>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="15"/>
-      <c r="B134" s="14"/>
+      <c r="A134" s="14"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A135" s="15">
+      <c r="A135" s="14">
         <v>67</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -6066,17 +6073,17 @@
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="15"/>
-      <c r="B136" s="14"/>
+      <c r="A136" s="14"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="15">
+      <c r="A137" s="14">
         <v>68</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="14" t="s">
         <v>196</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -6090,17 +6097,17 @@
       </c>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="15"/>
-      <c r="B138" s="15"/>
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="15">
+      <c r="A139" s="14">
         <v>69</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="15" t="s">
         <v>207</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -6114,17 +6121,17 @@
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="15"/>
-      <c r="B140" s="15"/>
+      <c r="A140" s="14"/>
+      <c r="B140" s="14"/>
       <c r="C140" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="15">
+      <c r="A141" s="14">
         <v>70</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="15" t="s">
         <v>215</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -6138,17 +6145,17 @@
       </c>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="15"/>
-      <c r="B142" s="15"/>
+      <c r="A142" s="14"/>
+      <c r="B142" s="14"/>
       <c r="C142" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="15">
+      <c r="A143" s="14">
         <v>71</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -6162,8 +6169,8 @@
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="15"/>
-      <c r="B144" s="15"/>
+      <c r="A144" s="14"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="4" t="s">
         <v>0</v>
       </c>
@@ -6172,10 +6179,10 @@
       </c>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="15">
+      <c r="A145" s="14">
         <v>72</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="15" t="s">
         <v>217</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -6192,8 +6199,8 @@
       </c>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
       <c r="C146" s="4" t="s">
         <v>0</v>
       </c>
@@ -6202,10 +6209,10 @@
       </c>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="15">
+      <c r="A147" s="14">
         <v>73</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -6222,109 +6229,109 @@
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
+      <c r="A148" s="14"/>
+      <c r="B148" s="14"/>
       <c r="C148" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="15">
+      <c r="A149" s="14">
         <v>74</v>
       </c>
     </row>
     <row r="150" spans="1:13">
-      <c r="A150" s="15"/>
+      <c r="A150" s="14"/>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="15">
+      <c r="A151" s="14">
         <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:13">
-      <c r="A152" s="15"/>
+      <c r="A152" s="14"/>
     </row>
     <row r="153" spans="1:13">
-      <c r="A153" s="15">
+      <c r="A153" s="14">
         <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="15"/>
+      <c r="A154" s="14"/>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="15">
+      <c r="A155" s="14">
         <v>77</v>
       </c>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="15"/>
+      <c r="A156" s="14"/>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="15">
+      <c r="A157" s="14">
         <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="15"/>
+      <c r="A158" s="14"/>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="15">
+      <c r="A159" s="14">
         <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:13">
-      <c r="A160" s="15"/>
+      <c r="A160" s="14"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="15">
+      <c r="A161" s="14">
         <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="15"/>
+      <c r="A162" s="14"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="15"/>
+      <c r="A163" s="14"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="15"/>
+      <c r="A164" s="14"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="15"/>
+      <c r="A165" s="14"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="15"/>
+      <c r="A166" s="14"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="15"/>
+      <c r="A167" s="14"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="15"/>
+      <c r="A168" s="14"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="15"/>
+      <c r="A169" s="14"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="15"/>
+      <c r="A170" s="14"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="15"/>
+      <c r="A171" s="14"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="15"/>
+      <c r="A172" s="14"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="15"/>
+      <c r="A173" s="14"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="15"/>
+      <c r="A174" s="14"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="15"/>
+      <c r="A175" s="14"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="15"/>
+      <c r="A176" s="14"/>
     </row>
     <row r="214" spans="12:13">
       <c r="M214" s="9"/>
@@ -6367,151 +6374,23 @@
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B59:B60"/>
     <mergeCell ref="A169:A170"/>
     <mergeCell ref="A171:A172"/>
     <mergeCell ref="A173:A174"/>
@@ -6536,23 +6415,151 @@
     <mergeCell ref="A149:A150"/>
     <mergeCell ref="A151:A152"/>
     <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -6708,6 +6715,7 @@
     <hyperlink ref="L146" r:id="rId150" xr:uid="{81AA5F90-5087-42CB-838F-F17B8252FDD3}"/>
     <hyperlink ref="M147" r:id="rId151" xr:uid="{3599A19F-D8C7-4741-A8A4-AAF082462D2E}"/>
     <hyperlink ref="L147" r:id="rId152" xr:uid="{A993A709-ED05-468B-B98F-27F803371EC9}"/>
+    <hyperlink ref="L28" r:id="rId153" xr:uid="{AF98BC69-035E-4CA9-8025-82DB477244E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/就活.xlsx
+++ b/就活.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3C59C5-E849-44F9-A29E-59CD345D0D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027DE542-0E85-4CFE-96FE-E3BE5FFB4656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="日程" sheetId="1" r:id="rId1"/>
+    <sheet name="ES" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="265">
   <si>
     <t>SIer</t>
     <phoneticPr fontId="1"/>
@@ -60,19 +60,6 @@
   </si>
   <si>
     <t>openwork</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기업명</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -412,10 +399,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>con-panasonic</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -540,10 +523,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SPI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>S26020360</t>
   </si>
   <si>
@@ -613,7 +592,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">25-2-7 </t>
+      <t xml:space="preserve">25-2-2 </t>
     </r>
     <r>
       <rPr>
@@ -628,22 +607,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">25-2-2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>까지</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MK001079</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -748,22 +711,6 @@
   </si>
   <si>
     <r>
-      <t>1-31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>까지</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>2-17</t>
     </r>
     <r>
@@ -830,92 +777,114 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>졸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취활</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계획</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분류</t>
-    </r>
+    <t>CAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ds008488</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f1v1048759</t>
+  </si>
+  <si>
+    <t>s5h1041050</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ND00329678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉手箱</t>
+    <rPh sb="0" eb="3">
+      <t>タマテバコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己PR</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｺ</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>志望動機</t>
+    <rPh sb="0" eb="4">
+      <t>ｼﾎﾞｳﾄﾞｳｷ</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣味・特技</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｭﾐ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ﾄｸｷﾞ</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入社後でやりたいこと</t>
+    <rPh sb="0" eb="3">
+      <t>ﾆｭｳｼｬｱﾄ</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣味は音楽鑑賞です。 特に日本の歌を聴き、元気な歌詞に元気をもらっています。 特技は文章を書くことです。中学生の頃から記者の仕事をしたことがあるくらい、自分の考えを文章で表現することが好きです。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は常に同僚と積極的にコミュニケーションを図り、自ら業務を推進する自信があります。放送演出職としてタイのゲーム番組に出張した際、現地スタッフと連携しながら放送進行や場面転換の指示を行いました。事前のミーティングでは簡単な英語を用い、明確かつ効率的に情報交換を行い、無事に放送を完遂することができました。この経験から、慣れない環境でも円滑なコミュニケーションを通じて主体的に業務に取り組めば問題は解決できると確信しております。貴社においても、その姿勢を活かして積極的に業務に貢献したいと考えております。</t>
+  </si>
+  <si>
+    <t>まず、独立系SIerとして幅広い分野において強みを発揮しており、要件定義から運用までの全工程を責任を持って手がけられるため、リリースまでのプロセスを明確に把握しながら多くの経験を積むことができる最適な環境だと感じました。また、moreNOTEなどの自社サービスを展開し、AIS-CRMなど新技術の開拓に積極的に取り組む環境が整っているため、貴社で成長し続けるエンジニアとして貢献できると確信しました。</t>
+  </si>
+  <si>
+    <t>IT技術の発展に伴い急速に変化する社会において、DXを通じて社会の発展に直接的に貢献し、日本社会の一員として役割を果たしたいと考えています。 そのため、特定の分野にとらわれず、できるだけ多くの分野や技術を学び、幅広いスキルと専門知識を習得し、どのような業務にも対応できる人材、その経験をもとに、次の世代にも喜んでノウハウを伝授できる人材を目指しています。</t>
+  </si>
+  <si>
+    <t>ゼミ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卒業チームプロジェクトで、Unityを使って同時接続3Dゲームを作りました。遅延のない環境構築に重点を置き、サーバーとクライアントの開発に注力し、短いプレイ時間でも楽しめるコンテンツ企画にも力を注ぎました。 また、企画や要件定義からレポートを作成し、全工程をしっかり経験することができました。 最終的には、直接デモができるほどの完成度を備えた点が高く評価され、最優秀賞を受賞することができました。</t>
+  </si>
+  <si>
+    <t>F26513226</t>
+  </si>
+  <si>
+    <t>NE1002728</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NF000315</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openwork</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nttd-es</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r3g1116499</t>
+  </si>
+  <si>
+    <t>r3g1116499</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mynavi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s6p1035872</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -933,9 +902,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -967,9 +935,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>富士通ネットワークソリューションズ</t>
     </r>
@@ -997,9 +964,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータ</t>
     </r>
@@ -1024,9 +990,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTコムウェア</t>
     </r>
@@ -1050,9 +1015,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1071,9 +1035,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータアイ</t>
     </r>
@@ -1098,9 +1061,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTT PC コミュニケーションズ</t>
     </r>
@@ -1124,9 +1086,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1144,9 +1105,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>(NTT-AT)
 NTTアドバンステクノロジー</t>
@@ -1169,9 +1129,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日本電子計算</t>
     </r>
@@ -1198,9 +1157,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1218,9 +1176,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1239,9 +1196,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータグローバルソリューションズ</t>
     </r>
@@ -1265,9 +1221,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1285,9 +1240,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1306,9 +1260,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータビジネスシステムズ</t>
     </r>
@@ -1332,9 +1285,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1352,9 +1304,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1373,9 +1324,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータ先端技術</t>
     </r>
@@ -1402,9 +1352,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1422,9 +1371,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1443,9 +1391,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータビジネスブレインズ</t>
     </r>
@@ -1469,9 +1416,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1490,9 +1436,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータソフィア</t>
     </r>
@@ -1516,9 +1461,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1536,9 +1480,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1557,9 +1500,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータフィナンシャルテクノロジー</t>
     </r>
@@ -1583,9 +1525,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> CCS
 NTTデータCCS</t>
@@ -1610,9 +1551,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> MSE
 NTTデータMSE</t>
@@ -1634,9 +1574,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>(NEC)
 日本電気</t>
@@ -1664,9 +1603,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1685,9 +1623,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NECソリューションイノベーター</t>
     </r>
@@ -1712,9 +1649,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NECネクサソリューションズ</t>
     </r>
@@ -1739,9 +1675,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NECプラットフォームズ</t>
     </r>
@@ -1766,9 +1701,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NECネッツエスアイ</t>
     </r>
@@ -1793,9 +1727,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NECフィールディング</t>
     </r>
@@ -1817,9 +1750,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日本電気通信システム</t>
     </r>
@@ -1843,9 +1775,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>(FUJITSU)
 富士通</t>
@@ -1870,9 +1801,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1891,9 +1821,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>エフサステクノロジーズ</t>
     </r>
@@ -1915,9 +1844,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>ソニーグロバルソリューションズ</t>
     </r>
@@ -1938,9 +1866,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1959,9 +1886,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日本オラクル</t>
     </r>
@@ -1986,9 +1912,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>富士ソフト</t>
     </r>
@@ -2013,11 +1938,26 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>ワークスアプリケーションズ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sier, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자사개발</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -2037,9 +1977,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>大塚商会</t>
     </r>
@@ -2064,9 +2003,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日立システムズ</t>
     </r>
@@ -2091,9 +2029,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日立製作所</t>
     </r>
@@ -2118,9 +2055,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日立ソリューションズ</t>
     </r>
@@ -2144,9 +2080,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2165,9 +2100,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>Microsoft</t>
     </r>
@@ -2188,9 +2122,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>, SIer</t>
     </r>
@@ -2212,9 +2145,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日鉄ソリューションズ</t>
     </r>
@@ -2238,9 +2170,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> IBM </t>
     </r>
@@ -2258,9 +2189,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2279,9 +2209,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日本アイ・ビー・エムデジタルサービス</t>
     </r>
@@ -2305,9 +2234,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>IT</t>
     </r>
@@ -2326,9 +2254,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>キャノンITソリューションズ</t>
     </r>
@@ -2350,9 +2277,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>オービック</t>
     </r>
@@ -2374,9 +2300,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日本総合研究所</t>
     </r>
@@ -2400,9 +2325,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>, SIer</t>
     </r>
@@ -2423,9 +2347,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2443,9 +2366,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2464,9 +2386,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日本ビジネスシステムズ</t>
     </r>
@@ -2490,9 +2411,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2511,9 +2431,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>田津総研</t>
     </r>
@@ -2541,9 +2460,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>LINEヤフー</t>
     </r>
@@ -2564,9 +2482,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2585,9 +2502,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>大和総研</t>
     </r>
@@ -2611,9 +2527,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2632,9 +2547,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>パナソニックコネクト</t>
     </r>
@@ -2656,9 +2570,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>ヤマトシステム開発</t>
     </r>
@@ -2682,9 +2595,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>DCS
 三菱総研DCS</t>
@@ -2709,9 +2621,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2730,9 +2641,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日立ソリューションズ・クリエイト</t>
     </r>
@@ -2756,9 +2666,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2777,9 +2686,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日立システムズエンジニアリングサービス</t>
     </r>
@@ -2806,9 +2714,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> SMS
 NTTデータSMS</t>
@@ -2833,9 +2740,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2853,9 +2759,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2874,9 +2779,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータカスタマーサービス</t>
     </r>
@@ -2900,9 +2804,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2921,9 +2824,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータイントラマート</t>
     </r>
@@ -2948,9 +2850,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>CTCテクノロジー</t>
     </r>
@@ -2972,9 +2873,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>三井情報</t>
     </r>
@@ -2999,9 +2899,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>さくら情報システム</t>
     </r>
@@ -3025,9 +2924,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3046,9 +2944,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータルウィーブ</t>
     </r>
@@ -3072,9 +2969,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3093,9 +2989,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTデータフォース</t>
     </r>
@@ -3119,9 +3014,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> NJK
 NTTデータNJK</t>
@@ -3147,9 +3041,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>NTTテクノクロス</t>
     </r>
@@ -3171,9 +3064,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>アビームコンサルティング</t>
     </r>
@@ -3195,9 +3087,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>丸紅情報システムズ</t>
     </r>
@@ -3221,9 +3112,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3242,9 +3132,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>トヨタシステムサービス</t>
     </r>
@@ -3266,9 +3155,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>アビームシステムズ</t>
     </r>
@@ -3289,9 +3177,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3309,9 +3196,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3330,9 +3216,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>パナソニックインフォメーションシステムズ</t>
     </r>
@@ -3353,9 +3238,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3373,9 +3257,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3394,9 +3277,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>ニッセイ情報テクノロジー</t>
     </r>
@@ -3424,9 +3306,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>ANAシステムズ</t>
     </r>
@@ -3450,9 +3331,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3470,9 +3350,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3491,9 +3370,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>JR東日本情報システム</t>
     </r>
@@ -3520,9 +3398,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3541,9 +3418,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Meiryo"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
       </rPr>
       <t>日本ヒューレットパッカード</t>
     </r>
@@ -3553,22 +3429,622 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CAB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ds008488</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f1v1048759</t>
-  </si>
-  <si>
-    <t>s5h1041050</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ND00329678</t>
+    <r>
+      <t>NTT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔지니어링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">시스템즈
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>NTTデータエンジニアリングシステムズ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IBM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">엔지니어링
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>日本IBMシステムエンジニアリング</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미쓰비시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UFJ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인포메이션테크놀로지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>三菱UFJインフォメーションテクノロジー</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>ミツビシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타타</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨설팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">서비스
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>日本タタ・コンサルタンシー・サービス</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tcs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dxc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>it.mufg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB000973</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z7b1089542</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그룹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코테</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>/PPT/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과제</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DXC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테크놀로지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">재팬
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>DXCテクノロジージャパン</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEB(i-web LIVE)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業名</t>
+    <rPh sb="0" eb="3">
+      <t>キギョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職種</t>
+    <rPh sb="0" eb="2">
+      <t>ショクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>26卒就活 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : 提出 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : 脱落 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : 合格)</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>ソツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウカツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ダツラク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>富士ソフト</t>
+  </si>
+  <si>
+    <t>NTTデータフィナンシャルテクノロジー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語会話サークルでは、毎週テーマを決めてディスカッションを行い、楽しく日本語を勉強しました。
+「Gabob」という開発チームで、3Dゲームプロジェクトを作り、校内大会で受賞しました。</t>
+    <rPh sb="0" eb="5">
+      <t>ニホンゴカイワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マイシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コウナイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジュショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語能力試験(JLPT)　N1
+TOEIC　720点
+運転免許(2種普通、韓国)</t>
+    <rPh sb="0" eb="7">
+      <t>ニホンゴノウリョクシケン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ウンテンメンキョ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>シュフツウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>趣味・特技についてご記載下さい。
+（全角100文字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラブ・サークルについてご記載下さい。
+（全角100文字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格についてご記載下さい。
+（全角50文字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得意な科目・研究課題についてご記載下さい。
+（全角200文字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志望動機をご記載下さい。
+（300文字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたが学生時代に最も力を入れて取り組んだことを記載下さい。
+（全角600文字以内）
+その際、下記の点を意識して記載してください。
+・取組みが集団での取組みであった場合、ご自身の立ち位置
+・ご自身が能動的にとった行動とその理由
+・行動の結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>趣味は音楽鑑賞です。 特に日本の歌を聴き、元気な歌詞に元気をもらっています。
+特技は文章を書くことです。中学生の頃から記者の仕事をしたことがあるくらい、自分の考えを文章で表現することが好きです。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己PRをご記載下さい。
+※他者との関わりがわかるエピソードを入れてください。
+（全角300文字以内）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3576,18 +4052,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3603,63 +4079,76 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Meiryo"/>
+      <name val="Noto Sans JP Light"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Noto Sans JP Light"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Meiryo"/>
+      <name val="Noto Sans JP Light"/>
       <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Meiryo"/>
+      <name val="Noto Sans JP Light"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Meiryo"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Meiryo"/>
+      <name val="Noto Sans JP Light"/>
       <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Noto Sans JP Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Noto Sans JP Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Noto Sans JP Light"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3672,8 +4161,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3742,6 +4249,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3751,7 +4366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3764,55 +4379,232 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4152,2325 +4944,3916 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC70DC4-F0DC-4C6F-8135-CC403CCD1BBE}">
   <dimension ref="A1:R223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="5" customWidth="1"/>
-    <col min="4" max="5" width="17.75" style="5" customWidth="1"/>
-    <col min="6" max="11" width="17.625" style="5" customWidth="1"/>
-    <col min="12" max="13" width="15.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="9" customWidth="1"/>
+    <col min="4" max="5" width="17.75" style="9" customWidth="1"/>
+    <col min="6" max="11" width="17.625" style="9" customWidth="1"/>
+    <col min="12" max="13" width="15.875" style="9" customWidth="1"/>
     <col min="14" max="14" width="16.375" style="1" customWidth="1"/>
     <col min="15" max="17" width="12" style="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A7" s="20">
+        <v>3</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="22">
+        <v>2623839</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A9" s="20">
+        <v>4</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="33">
+        <v>45670.666666666664</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="34">
+        <v>45674.458333333336</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="48"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A11" s="20">
+        <v>5</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="32">
+        <v>45709.625</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A13" s="20">
+        <v>6</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A15" s="20">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="33">
+        <v>45667.541666666664</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A17" s="20">
+        <v>8</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A19" s="20">
+        <v>9</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A21" s="20">
+        <v>10</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A23" s="20">
+        <v>11</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="28"/>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A25" s="20">
+        <v>12</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="33">
+        <v>45667.541666666664</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="34">
+        <v>45681.604166666664</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A27" s="20">
+        <v>13</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="33">
+        <v>45685.635416666664</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="58">
+        <v>45689.5</v>
+      </c>
+      <c r="G28" s="79"/>
+      <c r="H28" s="26">
+        <v>45702.548611111109</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="28"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A29" s="20">
+        <v>14</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28"/>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A31" s="20">
+        <v>15</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="28"/>
+    </row>
+    <row r="33" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A33" s="20">
+        <v>16</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A35" s="20">
+        <v>17</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="17"/>
+    </row>
+    <row r="37" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A37" s="20">
+        <v>18</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A39" s="20">
+        <v>19</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="33">
+        <v>45691.416666666664</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A41" s="20">
+        <v>20</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="17"/>
+    </row>
+    <row r="43" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A43" s="20">
+        <v>21</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="19"/>
+    </row>
+    <row r="45" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A45" s="20">
+        <v>22</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="17"/>
+    </row>
+    <row r="47" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A47" s="20">
+        <v>23</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="52">
+        <v>25055733</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="18"/>
+      <c r="M48" s="19"/>
+    </row>
+    <row r="49" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A49" s="20">
+        <v>24</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A51" s="20">
+        <v>25</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="19"/>
+    </row>
+    <row r="53" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A53" s="20">
+        <v>26</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="30"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="17"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="20">
+        <v>27</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="19"/>
+    </row>
+    <row r="57" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A57" s="20">
+        <v>28</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="33">
+        <v>45681.416666666664</v>
+      </c>
+      <c r="E57" s="55">
+        <v>45690.5</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="22"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="30"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="56">
+        <v>45705</v>
+      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="17"/>
+    </row>
+    <row r="59" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A59" s="20">
+        <v>29</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="31"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M59" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="31"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M60" s="19"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="20">
+        <v>30</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="30"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="17"/>
+    </row>
+    <row r="63" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A63" s="20">
+        <v>31</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="35">
+        <v>45694.583333333336</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="24">
+        <v>2626588</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M63" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="19"/>
+    </row>
+    <row r="65" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A65" s="20">
+        <v>32</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="30"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="17"/>
+    </row>
+    <row r="67" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A67" s="20">
+        <v>33</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M67" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="19"/>
+    </row>
+    <row r="69" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A69" s="20">
+        <v>34</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="17"/>
+    </row>
+    <row r="71" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A71" s="20">
+        <v>35</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="19"/>
+    </row>
+    <row r="73" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A73" s="20">
+        <v>36</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M73" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="30"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="17"/>
+    </row>
+    <row r="75" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A75" s="20">
+        <v>37</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="31"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M75" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="20"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="31"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="19"/>
+    </row>
+    <row r="77" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A77" s="20">
+        <v>38</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="30"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="17"/>
+    </row>
+    <row r="79" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A79" s="20">
+        <v>39</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="31"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M79" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="20"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="31"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="19"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="20">
+        <v>40</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="30"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="17"/>
+    </row>
+    <row r="83" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A83" s="20">
+        <v>41</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M83" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="20"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="31"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="19"/>
+    </row>
+    <row r="85" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A85" s="20">
+        <v>42</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M85" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" s="30"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="17"/>
+    </row>
+    <row r="87" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A87" s="20">
+        <v>43</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="31"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M87" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="31"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="19"/>
+    </row>
+    <row r="89" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A89" s="20">
+        <v>44</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="32"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="L89" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M89" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="30"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="17"/>
+    </row>
+    <row r="91" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A91" s="20">
+        <v>45</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="31"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H91" s="18"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M91" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="31"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="19"/>
+    </row>
+    <row r="93" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A93" s="20">
+        <v>46</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="29"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M93" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="20"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="30"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="17"/>
+    </row>
+    <row r="95" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A95" s="20">
+        <v>47</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="31"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M95" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="20"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="31"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="19"/>
+    </row>
+    <row r="97" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A97" s="20">
+        <v>48</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="29"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M97" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="20"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="30"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="17"/>
+    </row>
+    <row r="99" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A99" s="20">
+        <v>49</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="31"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M99" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="20"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="31"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="19"/>
+    </row>
+    <row r="101" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A101" s="20">
+        <v>50</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101" s="29"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M101" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="20"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="30"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="17"/>
+    </row>
+    <row r="103" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A103" s="20">
+        <v>51</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" s="31"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M103" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="20"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="31"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="19"/>
+    </row>
+    <row r="105" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A105" s="20">
+        <v>52</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" s="29"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M105" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="20"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="30"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="17"/>
+    </row>
+    <row r="107" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A107" s="20">
+        <v>53</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" s="31"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M107" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="20"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="31"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="19"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="20">
+        <v>54</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D109" s="29"/>
+      <c r="E109" s="44">
+        <v>45688.625</v>
+      </c>
+      <c r="F109" s="13"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M109" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D110" s="30"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M110" s="17"/>
+    </row>
+    <row r="111" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A111" s="20">
+        <v>55</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" s="31"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M111" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="20"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="31"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="19"/>
+    </row>
+    <row r="113" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A113" s="20">
+        <v>56</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D113" s="33">
+        <v>45680.583333333336</v>
+      </c>
+      <c r="E113" s="22"/>
+      <c r="F113" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="G113" s="22"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="L113" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M113" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="4" t="s">
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="20"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="30"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="25">
+        <v>45689.416666666664</v>
+      </c>
+      <c r="G114" s="23"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="17"/>
+    </row>
+    <row r="115" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A115" s="20">
+        <v>57</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" s="31"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L115" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M115" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="20"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="31"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="19"/>
+    </row>
+    <row r="117" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A117" s="20">
+        <v>58</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" s="32">
+        <v>45702.625</v>
+      </c>
+      <c r="E117" s="22"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="L117" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M117" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="30"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="17"/>
+    </row>
+    <row r="119" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A119" s="20">
+        <v>59</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" s="31"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M119" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="20"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="31"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="19"/>
+    </row>
+    <row r="121" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A121" s="20">
+        <v>60</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" s="29"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M121" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="20"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="30"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="M122" s="17"/>
+    </row>
+    <row r="123" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A123" s="20">
+        <v>61</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" s="31"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M123" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="20"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="31"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="36"/>
+    </row>
+    <row r="125" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A125" s="20">
+        <v>62</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" s="29"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M125" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="20"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="30"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="23"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="28"/>
+    </row>
+    <row r="127" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A127" s="20">
+        <v>63</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D127" s="22"/>
+      <c r="E127" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F127" s="18"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="L127" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M127" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="20"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="23"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="19"/>
+    </row>
+    <row r="129" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A129" s="20">
+        <v>64</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129" s="37">
+        <v>45691.75</v>
+      </c>
+      <c r="E129" s="22"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="22"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="L129" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M129" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="20"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="30"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="17"/>
+    </row>
+    <row r="131" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A131" s="20">
+        <v>65</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D131" s="31"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M131" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="20"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="31"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="19"/>
+    </row>
+    <row r="133" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A133" s="20">
+        <v>66</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D133" s="29"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="22"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="L133" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M133" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="20"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="30"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="23"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="23"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="17"/>
+    </row>
+    <row r="135" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A135" s="20">
+        <v>67</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135" s="35"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M135" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="20"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="31"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="19"/>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="20">
+        <v>68</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D137" s="29"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="22"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M137" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D138" s="30"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="23"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="17"/>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="20">
+        <v>69</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D139" s="31"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M139" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="31"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="19"/>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="20">
+        <v>70</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D141" s="29"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="22"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="L141" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M141" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="30"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="23"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="23"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="17"/>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="20">
+        <v>71</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D143" s="31"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M143" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="31"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="24"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="24"/>
+      <c r="L144" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M144" s="19"/>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="20">
+        <v>72</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D145" s="29"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="22"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="L145" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M145" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="30"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="23"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="23"/>
+      <c r="L146" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="M146" s="17"/>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="20">
+        <v>73</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C147" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="D147" s="35">
+        <v>45695.583333333336</v>
+      </c>
+      <c r="E147" s="24"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="24"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M147" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="31"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="19"/>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="20">
+        <v>74</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D149" s="29"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="22"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="22">
+        <v>26000058</v>
+      </c>
+      <c r="L149" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M149" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" s="30"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="23"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="23"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="17"/>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="20">
+        <v>75</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151" s="31"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="24"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="L151" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="M151" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" s="31"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="24"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="24"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="20">
+        <v>76</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D153" s="29"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="22"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="M153" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" s="30"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="23"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="23"/>
+      <c r="L154" s="16"/>
+      <c r="M154" s="17"/>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="20">
+        <v>77</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D155" s="31"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="24"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="24"/>
+      <c r="L155" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="M155" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" s="31"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="24"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="24"/>
+      <c r="L156" s="18"/>
+      <c r="M156" s="19"/>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="20">
+        <v>78</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D157" s="29"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="22"/>
+      <c r="J157" s="13"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="M157" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D158" s="30"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="23"/>
+      <c r="L158" s="16"/>
+      <c r="M158" s="17"/>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="20"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="20"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="20">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="20"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="20">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="20"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="20">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="20"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="20"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="20"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="20"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="20">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="20"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="20">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="20"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="20"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="20"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="20">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="16">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="16">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5">
-        <v>2623839</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="16">
-        <v>4</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="8">
-        <v>45670.666666666664</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="7" t="s">
+    <row r="184" spans="1:1">
+      <c r="A184" s="20"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="20"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="20">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="20"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="20"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="20"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="20"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="20">
         <v>97</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8">
-        <v>45674.458333333336</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="L10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="16">
-        <v>5</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="8">
-        <v>45694.625</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A12" s="16"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="16">
-        <v>6</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="16">
-        <v>7</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="8">
-        <v>45667.541666666664</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A16" s="16"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="16">
-        <v>8</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="16">
-        <v>9</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A20" s="16"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="16">
-        <v>10</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="16">
-        <v>11</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="L24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="16">
-        <v>12</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="8">
-        <v>45667.541666666664</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <v>45681.604166666664</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="16"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="16">
-        <v>13</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="8">
-        <v>45685.635416666664</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>45692.5</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="L28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="16">
-        <v>14</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="16">
-        <v>15</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="16">
-        <v>16</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="16">
-        <v>17</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="16">
-        <v>18</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="16">
-        <v>19</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="16">
-        <v>20</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A42" s="16"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="16">
-        <v>21</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A44" s="16"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="G44" s="16"/>
-    </row>
-    <row r="45" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="16">
-        <v>22</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A46" s="16"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="16">
-        <v>23</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K47" s="13">
-        <v>25055733</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A48" s="16"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="16">
-        <v>24</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A50" s="16"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="16">
-        <v>25</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A52" s="16"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A53" s="16">
-        <v>26</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A54" s="16"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A55" s="16">
-        <v>27</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K55" s="5" t="s">
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="20"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="20">
         <v>98</v>
       </c>
-      <c r="L55" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A57" s="16">
-        <v>28</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K57" s="5" t="s">
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="20"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="20"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="20">
         <v>100</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A58" s="16"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="16">
-        <v>29</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A60" s="16"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A61" s="16">
-        <v>30</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A63" s="16">
-        <v>31</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A64" s="16"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A65" s="16">
-        <v>32</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A66" s="16"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A67" s="16">
-        <v>33</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K67" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A68" s="16"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A69" s="16">
-        <v>34</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A70" s="16"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="16">
-        <v>35</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M71" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A72" s="16"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A73" s="16">
-        <v>36</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M73" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A74" s="16"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A75" s="16">
-        <v>37</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K75" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A76" s="16"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A77" s="16">
-        <v>38</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A78" s="16"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A79" s="16">
-        <v>39</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A80" s="16"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A81" s="16">
-        <v>40</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="16">
-        <v>41</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A84" s="16"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A85" s="16">
-        <v>42</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L85" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M85" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A86" s="16"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A87" s="16">
-        <v>43</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M87" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A88" s="16"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A89" s="16">
-        <v>44</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D89" s="8">
-        <v>45687.708333333336</v>
-      </c>
-      <c r="K89" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M89" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A90" s="16"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A91" s="16">
-        <v>45</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M91" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A92" s="16"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A93" s="16">
-        <v>46</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L93" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M93" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A94" s="16"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A95" s="16">
-        <v>47</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L95" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M95" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A96" s="16"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A97" s="16">
-        <v>48</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A98" s="16"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A99" s="16">
-        <v>49</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M99" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A100" s="16"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A101" s="16">
-        <v>50</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M101" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A102" s="16"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A103" s="16">
-        <v>51</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M103" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A104" s="16"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A105" s="16">
-        <v>52</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L105" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M105" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A106" s="16"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A107" s="16">
-        <v>53</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M107" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A108" s="16"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A109" s="16">
-        <v>54</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L109" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M109" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L110" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A111" s="16">
-        <v>55</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L111" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M111" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A112" s="16"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A113" s="16">
-        <v>56</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D113" s="8">
-        <v>45680.583333333336</v>
-      </c>
-      <c r="K113" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="L113" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M113" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A114" s="16"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A115" s="16">
-        <v>57</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K115" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L115" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A116" s="16"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A117" s="16">
-        <v>58</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K117" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L117" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M117" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A118" s="16"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A119" s="16">
-        <v>59</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L119" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M119" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A120" s="16"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A121" s="16">
-        <v>60</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L121" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="M121" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A122" s="16"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L122" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A123" s="16">
-        <v>61</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L123" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="M123" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A124" s="16"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-    </row>
-    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A125" s="16">
-        <v>62</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L125" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="M125" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A126" s="16"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-    </row>
-    <row r="127" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A127" s="16">
-        <v>63</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K127" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L127" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="M127" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A128" s="16"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A129" s="16">
-        <v>64</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K129" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L129" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="M129" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A130" s="16"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A131" s="16">
-        <v>65</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L131" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="M131" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A132" s="16"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A133" s="16">
-        <v>66</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L133" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="M133" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A134" s="16"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A135" s="16">
-        <v>67</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L135" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="M135" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A136" s="16"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A137" s="16">
-        <v>68</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L137" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="M137" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A138" s="16"/>
-      <c r="B138" s="16"/>
-      <c r="C138" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A139" s="16">
-        <v>69</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L139" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="M139" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A140" s="16"/>
-      <c r="B140" s="16"/>
-      <c r="C140" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A141" s="16">
-        <v>70</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K141" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="L141" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M141" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A142" s="16"/>
-      <c r="B142" s="16"/>
-      <c r="C142" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A143" s="16">
-        <v>71</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L143" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="M143" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A144" s="16"/>
-      <c r="B144" s="16"/>
-      <c r="C144" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L144" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A145" s="16">
-        <v>72</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K145" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L145" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="M145" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A146" s="16"/>
-      <c r="B146" s="16"/>
-      <c r="C146" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L146" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A147" s="16">
-        <v>73</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K147" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="L147" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="M147" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A148" s="16"/>
-      <c r="B148" s="16"/>
-      <c r="C148" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A149" s="16">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A150" s="16"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A151" s="16">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A152" s="16"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A153" s="16">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A154" s="16"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A155" s="16">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A156" s="16"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A157" s="16">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A158" s="16"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A159" s="16">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A160" s="16"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A161" s="16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A162" s="16"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A163" s="16"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A164" s="16"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A165" s="16"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A166" s="16"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A167" s="16"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A168" s="16"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A169" s="16"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A170" s="16"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A171" s="16"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A172" s="16"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A173" s="16"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A174" s="16"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A175" s="16"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A176" s="16"/>
-    </row>
-    <row r="214" spans="12:13" x14ac:dyDescent="0.6">
-      <c r="M214" s="9"/>
-    </row>
-    <row r="215" spans="12:13" x14ac:dyDescent="0.6">
-      <c r="L215" s="6"/>
-      <c r="M215" s="6"/>
-    </row>
-    <row r="216" spans="12:13" x14ac:dyDescent="0.6">
-      <c r="L216" s="6"/>
-      <c r="M216" s="6"/>
-    </row>
-    <row r="217" spans="12:13" x14ac:dyDescent="0.6">
-      <c r="L217" s="6"/>
-      <c r="M217" s="6"/>
-    </row>
-    <row r="218" spans="12:13" x14ac:dyDescent="0.6">
-      <c r="L218" s="6"/>
-      <c r="M218" s="6"/>
-    </row>
-    <row r="219" spans="12:13" x14ac:dyDescent="0.6">
-      <c r="L219" s="6"/>
-      <c r="M219" s="6"/>
-    </row>
-    <row r="220" spans="12:13" x14ac:dyDescent="0.6">
-      <c r="L220" s="6"/>
-      <c r="M220" s="6"/>
-    </row>
-    <row r="221" spans="12:13" x14ac:dyDescent="0.6">
-      <c r="L221" s="6"/>
-      <c r="M221" s="6"/>
-    </row>
-    <row r="222" spans="12:13" x14ac:dyDescent="0.6">
-      <c r="L222" s="6"/>
-      <c r="M222" s="6"/>
-    </row>
-    <row r="223" spans="12:13" x14ac:dyDescent="0.6">
-      <c r="L223" s="6"/>
-      <c r="M223" s="6"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="20"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="20"/>
+    </row>
+    <row r="214" spans="12:13">
+      <c r="M214" s="11"/>
+    </row>
+    <row r="215" spans="12:13">
+      <c r="L215" s="10"/>
+      <c r="M215" s="10"/>
+    </row>
+    <row r="216" spans="12:13">
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+    </row>
+    <row r="217" spans="12:13">
+      <c r="L217" s="10"/>
+      <c r="M217" s="10"/>
+    </row>
+    <row r="218" spans="12:13">
+      <c r="L218" s="10"/>
+      <c r="M218" s="10"/>
+    </row>
+    <row r="219" spans="12:13">
+      <c r="L219" s="10"/>
+      <c r="M219" s="10"/>
+    </row>
+    <row r="220" spans="12:13">
+      <c r="L220" s="10"/>
+      <c r="M220" s="10"/>
+    </row>
+    <row r="221" spans="12:13">
+      <c r="L221" s="10"/>
+      <c r="M221" s="10"/>
+    </row>
+    <row r="222" spans="12:13">
+      <c r="L222" s="10"/>
+      <c r="M222" s="10"/>
+    </row>
+    <row r="223" spans="12:13">
+      <c r="L223" s="10"/>
+      <c r="M223" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
+  <mergeCells count="201">
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A53:A54"/>
@@ -6495,103 +8878,67 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -6748,20 +9095,160 @@
     <hyperlink ref="M147" r:id="rId151" xr:uid="{3599A19F-D8C7-4741-A8A4-AAF082462D2E}"/>
     <hyperlink ref="L147" r:id="rId152" xr:uid="{A993A709-ED05-468B-B98F-27F803371EC9}"/>
     <hyperlink ref="L28" r:id="rId153" xr:uid="{AF98BC69-035E-4CA9-8025-82DB477244E9}"/>
+    <hyperlink ref="M149" r:id="rId154" xr:uid="{16052DFB-02CD-4BF9-AA67-200205BEB6DB}"/>
+    <hyperlink ref="L149" r:id="rId155" xr:uid="{8168C485-C0A0-4F32-A80C-7423190F8E9B}"/>
+    <hyperlink ref="L60" r:id="rId156" xr:uid="{DF3EF5EC-BCD4-4256-A4E5-2444D60D378A}"/>
+    <hyperlink ref="M152" r:id="rId157" xr:uid="{11B84140-00DB-4C64-829A-FE524AAD6A53}"/>
+    <hyperlink ref="M151" r:id="rId158" xr:uid="{989167B7-CC30-42BA-BA30-697329A4A351}"/>
+    <hyperlink ref="L151" r:id="rId159" xr:uid="{7759513D-A1D4-4C36-9348-1433CB6D8A6F}"/>
+    <hyperlink ref="M157" r:id="rId160" xr:uid="{72EB74D6-E3EC-418A-9CD7-7AB35448D7FC}"/>
+    <hyperlink ref="L157" r:id="rId161" xr:uid="{F365034E-98F2-4B86-BAC5-6980DC774AF6}"/>
+    <hyperlink ref="M153" r:id="rId162" xr:uid="{EDFB5398-1063-47A5-BBE4-EA532099D2BB}"/>
+    <hyperlink ref="L153" r:id="rId163" xr:uid="{136F29A1-D449-408D-8B09-3AEB9EAED8F9}"/>
+    <hyperlink ref="L155" r:id="rId164" xr:uid="{2CC9887F-083A-4371-A7D4-983C00FD4157}"/>
+    <hyperlink ref="M155" r:id="rId165" xr:uid="{CDA2082B-2594-4967-96A6-7F5804912F06}"/>
+    <hyperlink ref="K27" r:id="rId166" xr:uid="{3C4C565D-A00D-44AC-8839-67C7FA7DB41C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C1E77A-B232-485C-848F-F24B7073C457}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090B0416-F1D2-4A08-9C25-1FAF8F39F174}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
-  <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="27.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60" style="62" customWidth="1"/>
+    <col min="3" max="3" width="111.75" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90">
+      <c r="A2" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72">
+      <c r="A3" s="47"/>
+      <c r="B3" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36">
+      <c r="A4" s="47"/>
+      <c r="B4" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="54">
+      <c r="A5" s="47"/>
+      <c r="B5" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72">
+      <c r="A6" s="48"/>
+      <c r="B6" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36">
+      <c r="A7" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36">
+      <c r="A8" s="66"/>
+      <c r="B8" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="54">
+      <c r="A9" s="66"/>
+      <c r="B9" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36">
+      <c r="A10" s="66"/>
+      <c r="B10" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="71"/>
+    </row>
+    <row r="11" spans="1:3" ht="54">
+      <c r="A11" s="66"/>
+      <c r="B11" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="71"/>
+    </row>
+    <row r="12" spans="1:3" ht="36">
+      <c r="A12" s="66"/>
+      <c r="B12" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="71"/>
+    </row>
+    <row r="13" spans="1:3" ht="108">
+      <c r="A13" s="67"/>
+      <c r="B13" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/就活.xlsx
+++ b/就活.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027DE542-0E85-4CFE-96FE-E3BE5FFB4656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDA3A81-BD2E-4498-A6B0-6BE229860323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="267">
   <si>
     <t>SIer</t>
     <phoneticPr fontId="1"/>
@@ -576,22 +576,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">25-3-1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부터</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">25-2-2 </t>
     </r>
     <r>
@@ -707,22 +691,6 @@
   </si>
   <si>
     <t>sky</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>2-17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부터</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4047,12 +4015,27 @@
 （全角300文字以内）</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>까지</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>부터</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b5k1073225</t>
+  </si>
+  <si>
+    <t>그룹워크(1차)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4146,6 +4129,13 @@
       <color theme="4" tint="0.39997558519241921"/>
       <name val="Noto Sans JP Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4366,7 +4356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4382,16 +4372,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4421,17 +4402,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4484,9 +4456,6 @@
     <xf numFmtId="56" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4500,18 +4469,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4544,12 +4501,6 @@
     <xf numFmtId="22" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4559,16 +4510,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4601,10 +4543,64 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4944,3916 +4940,3673 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC70DC4-F0DC-4C6F-8135-CC403CCD1BBE}">
   <dimension ref="A1:R223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="9" customWidth="1"/>
-    <col min="4" max="5" width="17.75" style="9" customWidth="1"/>
-    <col min="6" max="11" width="17.625" style="9" customWidth="1"/>
-    <col min="12" max="13" width="15.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="6" customWidth="1"/>
+    <col min="4" max="5" width="17.75" style="6" customWidth="1"/>
+    <col min="6" max="11" width="17.625" style="6" customWidth="1"/>
+    <col min="12" max="13" width="15.875" style="6" customWidth="1"/>
     <col min="14" max="14" width="16.375" style="1" customWidth="1"/>
     <col min="15" max="17" width="12" style="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
+      <c r="A1" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="41" t="s">
+      <c r="B2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="67"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" s="62">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A5" s="62">
+        <v>2</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="18"/>
+      <c r="G6" s="69"/>
+      <c r="I6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A7" s="62">
+        <v>3</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="16">
+        <v>2623839</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A9" s="62">
+        <v>4</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="27">
+        <v>45670.666666666664</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="28">
+        <v>45674.458333333336</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="70"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A11" s="62">
+        <v>5</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="26">
+        <v>45709.625</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A13" s="62">
+        <v>6</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A15" s="62">
+        <v>7</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="27">
+        <v>45667.541666666664</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A17" s="62">
+        <v>8</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A19" s="62">
+        <v>9</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A21" s="62">
+        <v>10</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A23" s="62">
+        <v>11</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A25" s="62">
+        <v>12</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="27">
+        <v>45667.541666666664</v>
+      </c>
+      <c r="E25" s="76">
+        <v>45699.999305555553</v>
+      </c>
+      <c r="F25" s="76">
+        <v>45699.999305555553</v>
+      </c>
+      <c r="G25" s="81" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="62"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="28">
+        <v>45681.604166666664</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="G26" s="70"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A27" s="62">
+        <v>13</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="27">
+        <v>45685.635416666664</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="47">
+        <v>45689.5</v>
+      </c>
+      <c r="G28" s="72"/>
+      <c r="H28" s="20">
+        <v>45702.548611111109</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A29" s="62">
+        <v>14</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A31" s="62">
+        <v>15</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A33" s="62">
+        <v>16</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="80">
+        <v>45717</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A35" s="62">
+        <v>17</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="62"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A37" s="62">
+        <v>18</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A39" s="62">
+        <v>19</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="27">
+        <v>45691.416666666664</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A41" s="62">
+        <v>20</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A43" s="62">
+        <v>21</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="18"/>
+      <c r="G43" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="K43" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="36"/>
+      <c r="G44" s="69"/>
+      <c r="I44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A45" s="62">
+        <v>22</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="62"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A47" s="62">
+        <v>23</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="K47" s="41">
+        <v>25055733</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="62"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="K48" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="M48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A49" s="62">
+        <v>24</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="62"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="14"/>
+    </row>
+    <row r="51" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A51" s="62">
+        <v>25</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="K51" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="62"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="M52" s="15"/>
+    </row>
+    <row r="53" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A53" s="62">
+        <v>26</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="62"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="62">
+        <v>27</v>
+      </c>
+      <c r="B55" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="K55" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="M56" s="15"/>
+    </row>
+    <row r="57" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A57" s="62">
+        <v>28</v>
+      </c>
+      <c r="B57" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="27">
+        <v>45681.416666666664</v>
+      </c>
+      <c r="E57" s="44">
+        <v>45690.5</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="62"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="45">
+        <v>45705</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="14"/>
+    </row>
+    <row r="59" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A59" s="62">
+        <v>29</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="K59" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M59" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="62"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="62">
+        <v>30</v>
+      </c>
+      <c r="B61" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="62"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A63" s="62">
+        <v>31</v>
+      </c>
+      <c r="B63" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="29">
+        <v>45694.583333333336</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="K63" s="18">
+        <v>2626588</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M63" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="M64" s="15"/>
+    </row>
+    <row r="65" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A65" s="62">
+        <v>32</v>
+      </c>
+      <c r="B65" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="62"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A67" s="62">
+        <v>33</v>
+      </c>
+      <c r="B67" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="E67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="K67" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M67" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="62"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="M68" s="15"/>
+    </row>
+    <row r="69" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A69" s="62">
+        <v>34</v>
+      </c>
+      <c r="B69" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="62"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="14"/>
+    </row>
+    <row r="71" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A71" s="62">
+        <v>35</v>
+      </c>
+      <c r="B71" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="K71" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="62"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="M72" s="15"/>
+    </row>
+    <row r="73" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A73" s="62">
+        <v>36</v>
+      </c>
+      <c r="B73" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="23"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="62"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="14"/>
+    </row>
+    <row r="75" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A75" s="62">
+        <v>37</v>
+      </c>
+      <c r="B75" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="K75" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M75" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="62"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="M76" s="15"/>
+    </row>
+    <row r="77" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A77" s="62">
+        <v>38</v>
+      </c>
+      <c r="B77" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="23"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="62"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="14"/>
+    </row>
+    <row r="79" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A79" s="62">
+        <v>39</v>
+      </c>
+      <c r="B79" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="25"/>
+      <c r="E79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M79" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="62"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="E80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="M80" s="15"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="62">
+        <v>40</v>
+      </c>
+      <c r="B81" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="23"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" s="24"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="14"/>
+    </row>
+    <row r="83" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A83" s="62">
+        <v>41</v>
+      </c>
+      <c r="B83" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M83" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="62"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="25"/>
+      <c r="E84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="M84" s="15"/>
+    </row>
+    <row r="85" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A85" s="62">
+        <v>42</v>
+      </c>
+      <c r="B85" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="23"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M85" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="62"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="14"/>
+    </row>
+    <row r="87" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A87" s="62">
+        <v>43</v>
+      </c>
+      <c r="B87" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="25"/>
+      <c r="E87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M87" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="62"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="25"/>
+      <c r="E88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="M88" s="15"/>
+    </row>
+    <row r="89" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A89" s="62">
+        <v>44</v>
+      </c>
+      <c r="B89" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="26"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="62"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="24"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="14"/>
+    </row>
+    <row r="91" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A91" s="62">
+        <v>45</v>
+      </c>
+      <c r="B91" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="25"/>
+      <c r="E91" s="18"/>
+      <c r="G91" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M91" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="62"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="25"/>
+      <c r="E92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="M92" s="15"/>
+    </row>
+    <row r="93" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A93" s="62">
+        <v>46</v>
+      </c>
+      <c r="B93" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="23"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="62"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="14"/>
+    </row>
+    <row r="95" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A95" s="62">
+        <v>47</v>
+      </c>
+      <c r="B95" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="25"/>
+      <c r="E95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M95" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="62"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="25"/>
+      <c r="E96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="M96" s="15"/>
+    </row>
+    <row r="97" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A97" s="62">
+        <v>48</v>
+      </c>
+      <c r="B97" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="23"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="62"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="14"/>
+    </row>
+    <row r="99" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A99" s="62">
+        <v>49</v>
+      </c>
+      <c r="B99" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="25"/>
+      <c r="E99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="K99" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M99" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="62"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="25"/>
+      <c r="E100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="M100" s="15"/>
+    </row>
+    <row r="101" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A101" s="62">
+        <v>50</v>
+      </c>
+      <c r="B101" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101" s="23"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M101" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="62"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="24"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="14"/>
+    </row>
+    <row r="103" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A103" s="62">
+        <v>51</v>
+      </c>
+      <c r="B103" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" s="25"/>
+      <c r="E103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M103" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="62"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="25"/>
+      <c r="E104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="M104" s="15"/>
+    </row>
+    <row r="105" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A105" s="62">
+        <v>52</v>
+      </c>
+      <c r="B105" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" s="23"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M105" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="62"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="24"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="14"/>
+    </row>
+    <row r="107" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A107" s="62">
+        <v>53</v>
+      </c>
+      <c r="B107" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" s="25"/>
+      <c r="E107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M107" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="62"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="25"/>
+      <c r="E108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="M108" s="15"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="62">
+        <v>54</v>
+      </c>
+      <c r="B109" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D109" s="23"/>
+      <c r="E109" s="37">
+        <v>45688.625</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M109" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="62"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D110" s="24"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M110" s="14"/>
+    </row>
+    <row r="111" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A111" s="62">
+        <v>55</v>
+      </c>
+      <c r="B111" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" s="25"/>
+      <c r="E111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M111" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="62"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="25"/>
+      <c r="E112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="M112" s="15"/>
+    </row>
+    <row r="113" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A113" s="62">
+        <v>56</v>
+      </c>
+      <c r="B113" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D113" s="27">
+        <v>45680.583333333336</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="F113" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G113" s="16"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M113" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="62"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="19">
+        <v>45689.416666666664</v>
+      </c>
+      <c r="G114" s="17"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="14"/>
+    </row>
+    <row r="115" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A115" s="62">
+        <v>57</v>
+      </c>
+      <c r="B115" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" s="25"/>
+      <c r="E115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="K115" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M115" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="62"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="25"/>
+      <c r="E116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="M116" s="15"/>
+    </row>
+    <row r="117" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A117" s="62">
+        <v>58</v>
+      </c>
+      <c r="B117" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" s="26">
+        <v>45702.625</v>
+      </c>
+      <c r="E117" s="16"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="62"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="24"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="14"/>
+    </row>
+    <row r="119" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A119" s="62">
+        <v>59</v>
+      </c>
+      <c r="B119" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" s="25"/>
+      <c r="E119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="M119" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="62"/>
+      <c r="B120" s="63"/>
+      <c r="C120" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="25"/>
+      <c r="E120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="M120" s="15"/>
+    </row>
+    <row r="121" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A121" s="62">
+        <v>60</v>
+      </c>
+      <c r="B121" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" s="23"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M121" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="62"/>
+      <c r="B122" s="63"/>
+      <c r="C122" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="24"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M122" s="14"/>
+    </row>
+    <row r="123" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A123" s="62">
+        <v>61</v>
+      </c>
+      <c r="B123" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" s="25"/>
+      <c r="E123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M123" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="62"/>
+      <c r="B124" s="63"/>
+      <c r="C124" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="25"/>
+      <c r="E124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="30"/>
+    </row>
+    <row r="125" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A125" s="62">
+        <v>62</v>
+      </c>
+      <c r="B125" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" s="23"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M125" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="62"/>
+      <c r="B126" s="63"/>
+      <c r="C126" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="24"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="22"/>
+    </row>
+    <row r="127" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A127" s="62">
+        <v>63</v>
+      </c>
+      <c r="B127" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D127" s="16"/>
+      <c r="E127" s="78">
+        <v>45705</v>
+      </c>
+      <c r="G127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="K127" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M127" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="62"/>
+      <c r="B128" s="63"/>
+      <c r="C128" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="17"/>
+      <c r="E128" s="79" t="s">
+        <v>264</v>
+      </c>
+      <c r="G128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="M128" s="15"/>
+    </row>
+    <row r="129" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A129" s="62">
+        <v>64</v>
+      </c>
+      <c r="B129" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129" s="31">
+        <v>45691.75</v>
+      </c>
+      <c r="E129" s="16"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M129" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="62"/>
+      <c r="B130" s="63"/>
+      <c r="C130" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="24"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="14"/>
+    </row>
+    <row r="131" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A131" s="62">
+        <v>65</v>
+      </c>
+      <c r="B131" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D131" s="25"/>
+      <c r="E131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M131" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="62"/>
+      <c r="B132" s="63"/>
+      <c r="C132" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="25"/>
+      <c r="E132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="M132" s="15"/>
+    </row>
+    <row r="133" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A133" s="62">
+        <v>66</v>
+      </c>
+      <c r="B133" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D133" s="23"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="L133" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="62"/>
+      <c r="B134" s="63"/>
+      <c r="C134" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="24"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="14"/>
+    </row>
+    <row r="135" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A135" s="62">
+        <v>67</v>
+      </c>
+      <c r="B135" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135" s="29"/>
+      <c r="E135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="K135" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M135" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="62"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="25"/>
+      <c r="E136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="M136" s="15"/>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="62">
+        <v>68</v>
+      </c>
+      <c r="B137" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D137" s="23"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="62"/>
+      <c r="B138" s="62"/>
+      <c r="C138" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D138" s="24"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="14"/>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="62">
+        <v>69</v>
+      </c>
+      <c r="B139" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D139" s="25"/>
+      <c r="E139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M139" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="62"/>
+      <c r="B140" s="62"/>
+      <c r="C140" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="25"/>
+      <c r="E140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="M140" s="15"/>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="62">
+        <v>70</v>
+      </c>
+      <c r="B141" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D141" s="23"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L141" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M141" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="62"/>
+      <c r="B142" s="62"/>
+      <c r="C142" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="24"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="14"/>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="62">
+        <v>71</v>
+      </c>
+      <c r="B143" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D143" s="25"/>
+      <c r="E143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M143" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="62"/>
+      <c r="B144" s="62"/>
+      <c r="C144" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="25"/>
+      <c r="E144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M144" s="15"/>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="62">
+        <v>72</v>
+      </c>
+      <c r="B145" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D145" s="23"/>
+      <c r="E145" s="76">
+        <v>45700.416666666664</v>
+      </c>
+      <c r="F145" s="10"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="L145" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M145" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="62"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="24"/>
+      <c r="E146" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="F146" s="13"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="M146" s="14"/>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="62">
+        <v>73</v>
+      </c>
+      <c r="B147" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D147" s="29">
+        <v>45695.583333333336</v>
+      </c>
+      <c r="E147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="K147" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M147" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="62"/>
+      <c r="B148" s="62"/>
+      <c r="C148" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="25"/>
+      <c r="E148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="M148" s="15"/>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="62">
+        <v>74</v>
+      </c>
+      <c r="B149" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D149" s="23"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="16">
+        <v>26000058</v>
+      </c>
+      <c r="L149" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M149" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="62"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" s="24"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="14"/>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="62">
+        <v>75</v>
+      </c>
+      <c r="B151" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151" s="25"/>
+      <c r="E151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="K151" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="L151" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="M151" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="62"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" s="25"/>
+      <c r="E152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="M152" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="62">
+        <v>76</v>
+      </c>
+      <c r="B153" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D153" s="23"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="M153" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="62"/>
+      <c r="B154" s="62"/>
+      <c r="C154" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" s="24"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="13"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="13"/>
+      <c r="M154" s="14"/>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="62">
+        <v>77</v>
+      </c>
+      <c r="B155" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D155" s="25"/>
+      <c r="E155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="M155" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="62"/>
+      <c r="B156" s="62"/>
+      <c r="C156" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" s="25"/>
+      <c r="E156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="K156" s="18"/>
+      <c r="M156" s="15"/>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="62">
+        <v>78</v>
+      </c>
+      <c r="B157" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D157" s="23"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="16"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="16"/>
+      <c r="L157" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="M157" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="62"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D158" s="24"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="13"/>
+      <c r="M158" s="14"/>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="62">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="62"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="62"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="62">
         <v>81</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="7" t="s">
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="62"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="62">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="62"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="62">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="62"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="62">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="62"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="62">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="62"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="62">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="62"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="62">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="62"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="62">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="62"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="62">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="62"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="62">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="62"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="62">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="62"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="62">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="62"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="62">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="62"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="62">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="62"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="62">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="62"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="62">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="62"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="62">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="62"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="62">
         <v>98</v>
       </c>
-      <c r="L2" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A5" s="20">
-        <v>2</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="20">
-        <v>3</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="22">
-        <v>2623839</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="20">
-        <v>4</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="33">
-        <v>45670.666666666664</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="34">
-        <v>45674.458333333336</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="20">
-        <v>5</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="32">
-        <v>45709.625</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A13" s="20">
-        <v>6</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A15" s="20">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="33">
-        <v>45667.541666666664</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A17" s="20">
-        <v>8</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A19" s="20">
-        <v>9</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A21" s="20">
-        <v>10</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A23" s="20">
-        <v>11</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="28"/>
-    </row>
-    <row r="25" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A25" s="20">
-        <v>12</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="33">
-        <v>45667.541666666664</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="34">
-        <v>45681.604166666664</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A27" s="20">
-        <v>13</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="33">
-        <v>45685.635416666664</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="58">
-        <v>45689.5</v>
-      </c>
-      <c r="G28" s="79"/>
-      <c r="H28" s="26">
-        <v>45702.548611111109</v>
-      </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="28"/>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A29" s="20">
-        <v>14</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="28"/>
-    </row>
-    <row r="31" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A31" s="20">
-        <v>15</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="28"/>
-    </row>
-    <row r="33" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A33" s="20">
-        <v>16</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="22" t="s">
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="62"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="62">
         <v>99</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A35" s="20">
-        <v>17</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A37" s="20">
-        <v>18</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A39" s="20">
-        <v>19</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="33">
-        <v>45691.416666666664</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A41" s="20">
-        <v>20</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A43" s="20">
-        <v>21</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M43" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="19"/>
-    </row>
-    <row r="45" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A45" s="20">
-        <v>22</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="17"/>
-    </row>
-    <row r="47" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A47" s="20">
-        <v>23</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="52">
-        <v>25055733</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M47" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="L48" s="18"/>
-      <c r="M48" s="19"/>
-    </row>
-    <row r="49" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A49" s="20">
-        <v>24</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="17"/>
-    </row>
-    <row r="51" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A51" s="20">
-        <v>25</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="24" t="s">
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="62"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="62">
         <v>100</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M51" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="19"/>
-    </row>
-    <row r="53" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A53" s="20">
-        <v>26</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="17"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="20">
-        <v>27</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M55" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="19"/>
-    </row>
-    <row r="57" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A57" s="20">
-        <v>28</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="33">
-        <v>45681.416666666664</v>
-      </c>
-      <c r="E57" s="55">
-        <v>45690.5</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="L57" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M57" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="56">
-        <v>45705</v>
-      </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="17"/>
-    </row>
-    <row r="59" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A59" s="20">
-        <v>29</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="L59" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M59" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="M60" s="19"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="20">
-        <v>30</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="L61" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M61" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="17"/>
-    </row>
-    <row r="63" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A63" s="20">
-        <v>31</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="35">
-        <v>45694.583333333336</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="24">
-        <v>2626588</v>
-      </c>
-      <c r="L63" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M63" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="19"/>
-    </row>
-    <row r="65" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A65" s="20">
-        <v>32</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M65" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="17"/>
-    </row>
-    <row r="67" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A67" s="20">
-        <v>33</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="L67" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M67" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="19"/>
-    </row>
-    <row r="69" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A69" s="20">
-        <v>34</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M69" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="17"/>
-    </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A71" s="20">
-        <v>35</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="L71" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M71" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="19"/>
-    </row>
-    <row r="73" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A73" s="20">
-        <v>36</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="29"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="M73" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="20"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="17"/>
-    </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A75" s="20">
-        <v>37</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="L75" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M75" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="20"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="31"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="19"/>
-    </row>
-    <row r="77" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A77" s="20">
-        <v>38</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="29"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="L77" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M77" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="17"/>
-    </row>
-    <row r="79" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A79" s="20">
-        <v>39</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M79" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="20"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="19"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="20">
-        <v>40</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="29"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M81" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="17"/>
-    </row>
-    <row r="83" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A83" s="20">
-        <v>41</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M83" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="20"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="19"/>
-    </row>
-    <row r="85" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A85" s="20">
-        <v>42</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" s="29"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M85" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="17"/>
-    </row>
-    <row r="87" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A87" s="20">
-        <v>43</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M87" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="20"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="19"/>
-    </row>
-    <row r="89" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A89" s="20">
-        <v>44</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D89" s="32"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L89" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M89" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="20"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="30"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="17"/>
-    </row>
-    <row r="91" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A91" s="20">
-        <v>45</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91" s="31"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H91" s="18"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M91" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="20"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="19"/>
-    </row>
-    <row r="93" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A93" s="20">
-        <v>46</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D93" s="29"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M93" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="20"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="17"/>
-    </row>
-    <row r="95" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A95" s="20">
-        <v>47</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D95" s="31"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M95" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="20"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="19"/>
-    </row>
-    <row r="97" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A97" s="20">
-        <v>48</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D97" s="29"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="22"/>
-      <c r="L97" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M97" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="20"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="30"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="17"/>
-    </row>
-    <row r="99" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A99" s="20">
-        <v>49</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D99" s="31"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="L99" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M99" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="20"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="31"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="19"/>
-    </row>
-    <row r="101" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A101" s="20">
-        <v>50</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D101" s="29"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="22"/>
-      <c r="L101" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M101" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="20"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="30"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="17"/>
-    </row>
-    <row r="103" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A103" s="20">
-        <v>51</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D103" s="31"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M103" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="20"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="31"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="24"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="19"/>
-    </row>
-    <row r="105" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A105" s="20">
-        <v>52</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D105" s="29"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M105" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="20"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="30"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="23"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="17"/>
-    </row>
-    <row r="107" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A107" s="20">
-        <v>53</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D107" s="31"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M107" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="20"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="31"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="24"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="19"/>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="20">
-        <v>54</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D109" s="29"/>
-      <c r="E109" s="44">
-        <v>45688.625</v>
-      </c>
-      <c r="F109" s="13"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="22"/>
-      <c r="L109" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="M109" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D110" s="30"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="M110" s="17"/>
-    </row>
-    <row r="111" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A111" s="20">
-        <v>55</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D111" s="31"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M111" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="20"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="31"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="24"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="19"/>
-    </row>
-    <row r="113" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A113" s="20">
-        <v>56</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D113" s="33">
-        <v>45680.583333333336</v>
-      </c>
-      <c r="E113" s="22"/>
-      <c r="F113" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="G113" s="22"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="L113" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="M113" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="20"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="30"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="25">
-        <v>45689.416666666664</v>
-      </c>
-      <c r="G114" s="23"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="17"/>
-    </row>
-    <row r="115" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A115" s="20">
-        <v>57</v>
-      </c>
-      <c r="B115" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D115" s="31"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="24" t="s">
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="62"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="62">
         <v>101</v>
       </c>
-      <c r="L115" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="M115" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="20"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D116" s="31"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="24"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="19"/>
-    </row>
-    <row r="117" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A117" s="20">
-        <v>58</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D117" s="32">
-        <v>45702.625</v>
-      </c>
-      <c r="E117" s="22"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L117" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="M117" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="30"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="17"/>
-    </row>
-    <row r="119" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A119" s="20">
-        <v>59</v>
-      </c>
-      <c r="B119" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D119" s="31"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M119" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="20"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D120" s="31"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="24"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="19"/>
-    </row>
-    <row r="121" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A121" s="20">
-        <v>60</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D121" s="29"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="22"/>
-      <c r="L121" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="M121" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="20"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" s="30"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="M122" s="17"/>
-    </row>
-    <row r="123" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A123" s="20">
-        <v>61</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D123" s="31"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="24"/>
-      <c r="L123" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M123" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="20"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D124" s="31"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="36"/>
-    </row>
-    <row r="125" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A125" s="20">
-        <v>62</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D125" s="29"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="22"/>
-      <c r="L125" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="M125" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="20"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D126" s="30"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="23"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="28"/>
-    </row>
-    <row r="127" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A127" s="20">
-        <v>63</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D127" s="22"/>
-      <c r="E127" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F127" s="18"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="L127" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M127" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="20"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="23"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="18"/>
-      <c r="K128" s="24"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="19"/>
-    </row>
-    <row r="129" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A129" s="20">
-        <v>64</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D129" s="37">
-        <v>45691.75</v>
-      </c>
-      <c r="E129" s="22"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="22"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="L129" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="M129" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="A130" s="20"/>
-      <c r="B130" s="21"/>
-      <c r="C130" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D130" s="30"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="23"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="17"/>
-    </row>
-    <row r="131" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A131" s="20">
-        <v>65</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C131" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D131" s="31"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="24"/>
-      <c r="L131" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="M131" s="36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="A132" s="20"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D132" s="31"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="24"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="19"/>
-    </row>
-    <row r="133" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A133" s="20">
-        <v>66</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D133" s="29"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="22"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="L133" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M133" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134" s="20"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D134" s="30"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="23"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="23"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="17"/>
-    </row>
-    <row r="135" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A135" s="20">
-        <v>67</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D135" s="35"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="L135" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="M135" s="36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
-      <c r="A136" s="20"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D136" s="31"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="24"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="19"/>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="A137" s="20">
-        <v>68</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D137" s="29"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="22"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="22"/>
-      <c r="L137" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="M137" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138" s="20"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D138" s="30"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="23"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="23"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="23"/>
-      <c r="L138" s="16"/>
-      <c r="M138" s="17"/>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139" s="20">
-        <v>69</v>
-      </c>
-      <c r="B139" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C139" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D139" s="31"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="24"/>
-      <c r="L139" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="M139" s="36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140" s="20"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D140" s="31"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="24"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="24"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="19"/>
-    </row>
-    <row r="141" spans="1:13">
-      <c r="A141" s="20">
-        <v>70</v>
-      </c>
-      <c r="B141" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D141" s="29"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="22"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="L141" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="M141" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
-      <c r="A142" s="20"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="30"/>
-      <c r="E142" s="23"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="23"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="23"/>
-      <c r="J142" s="16"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="16"/>
-      <c r="M142" s="17"/>
-    </row>
-    <row r="143" spans="1:13">
-      <c r="A143" s="20">
-        <v>71</v>
-      </c>
-      <c r="B143" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C143" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D143" s="31"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="24"/>
-      <c r="L143" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M143" s="36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144" s="20"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" s="31"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="24"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="24"/>
-      <c r="L144" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="M144" s="19"/>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145" s="20">
-        <v>72</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="C145" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D145" s="29"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="22"/>
-      <c r="J145" s="13"/>
-      <c r="K145" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="L145" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="M145" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146" s="20"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="23"/>
-      <c r="J146" s="16"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="M146" s="17"/>
-    </row>
-    <row r="147" spans="1:13">
-      <c r="A147" s="20">
-        <v>73</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C147" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D147" s="35">
-        <v>45695.583333333336</v>
-      </c>
-      <c r="E147" s="24"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="24"/>
-      <c r="J147" s="18"/>
-      <c r="K147" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="L147" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="M147" s="36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13">
-      <c r="A148" s="20"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="31"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="24"/>
-      <c r="J148" s="18"/>
-      <c r="K148" s="24"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="19"/>
-    </row>
-    <row r="149" spans="1:13">
-      <c r="A149" s="20">
-        <v>74</v>
-      </c>
-      <c r="B149" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D149" s="29"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="22"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="22"/>
-      <c r="J149" s="13"/>
-      <c r="K149" s="22">
-        <v>26000058</v>
-      </c>
-      <c r="L149" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="M149" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13">
-      <c r="A150" s="20"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D150" s="30"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="23"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="23"/>
-      <c r="J150" s="16"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="16"/>
-      <c r="M150" s="17"/>
-    </row>
-    <row r="151" spans="1:13">
-      <c r="A151" s="20">
-        <v>75</v>
-      </c>
-      <c r="B151" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C151" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D151" s="31"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="L151" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="M151" s="36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="20"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D152" s="31"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="24"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="24"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="24"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="20">
-        <v>76</v>
-      </c>
-      <c r="B153" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C153" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D153" s="29"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="22"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="22"/>
-      <c r="J153" s="13"/>
-      <c r="K153" s="22"/>
-      <c r="L153" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="M153" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="20"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D154" s="30"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="16"/>
-      <c r="I154" s="23"/>
-      <c r="J154" s="16"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="16"/>
-      <c r="M154" s="17"/>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="20">
-        <v>77</v>
-      </c>
-      <c r="B155" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="C155" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D155" s="31"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="24"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="24"/>
-      <c r="L155" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="M155" s="36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="20"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D156" s="31"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="24"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="24"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="19"/>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="20">
-        <v>78</v>
-      </c>
-      <c r="B157" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C157" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D157" s="29"/>
-      <c r="E157" s="22"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="22"/>
-      <c r="J157" s="13"/>
-      <c r="K157" s="22"/>
-      <c r="L157" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="M157" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="20"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D158" s="30"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="16"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="16"/>
-      <c r="I158" s="23"/>
-      <c r="J158" s="16"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="16"/>
-      <c r="M158" s="17"/>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="20">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="20"/>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="20"/>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="20">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="20"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="20">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="20"/>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="20">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="20"/>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="20">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="20"/>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="20">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="20"/>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="20">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="20"/>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="20">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="20"/>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="20">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="20"/>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="20">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="20"/>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="20"/>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="20">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="20"/>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="20">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="20"/>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="20">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="20"/>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="20">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="20"/>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="20">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="20"/>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="20">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="20"/>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="20">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="20"/>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="20">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="20"/>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="20">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="20"/>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="20"/>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="20">
-        <v>101</v>
-      </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="20"/>
+      <c r="A204" s="62"/>
     </row>
     <row r="214" spans="12:13">
-      <c r="M214" s="11"/>
+      <c r="M214" s="8"/>
     </row>
     <row r="215" spans="12:13">
-      <c r="L215" s="10"/>
-      <c r="M215" s="10"/>
+      <c r="L215" s="7"/>
+      <c r="M215" s="7"/>
     </row>
     <row r="216" spans="12:13">
-      <c r="L216" s="10"/>
-      <c r="M216" s="10"/>
+      <c r="L216" s="7"/>
+      <c r="M216" s="7"/>
     </row>
     <row r="217" spans="12:13">
-      <c r="L217" s="10"/>
-      <c r="M217" s="10"/>
+      <c r="L217" s="7"/>
+      <c r="M217" s="7"/>
     </row>
     <row r="218" spans="12:13">
-      <c r="L218" s="10"/>
-      <c r="M218" s="10"/>
+      <c r="L218" s="7"/>
+      <c r="M218" s="7"/>
     </row>
     <row r="219" spans="12:13">
-      <c r="L219" s="10"/>
-      <c r="M219" s="10"/>
+      <c r="L219" s="7"/>
+      <c r="M219" s="7"/>
     </row>
     <row r="220" spans="12:13">
-      <c r="L220" s="10"/>
-      <c r="M220" s="10"/>
+      <c r="L220" s="7"/>
+      <c r="M220" s="7"/>
     </row>
     <row r="221" spans="12:13">
-      <c r="L221" s="10"/>
-      <c r="M221" s="10"/>
+      <c r="L221" s="7"/>
+      <c r="M221" s="7"/>
     </row>
     <row r="222" spans="12:13">
-      <c r="L222" s="10"/>
-      <c r="M222" s="10"/>
+      <c r="L222" s="7"/>
+      <c r="M222" s="7"/>
     </row>
     <row r="223" spans="12:13">
-      <c r="L223" s="10"/>
-      <c r="M223" s="10"/>
+      <c r="L223" s="7"/>
+      <c r="M223" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="201">
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A53:A54"/>
@@ -8878,67 +8631,122 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A201:A202"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9108,6 +8916,9 @@
     <hyperlink ref="L155" r:id="rId164" xr:uid="{2CC9887F-083A-4371-A7D4-983C00FD4157}"/>
     <hyperlink ref="M155" r:id="rId165" xr:uid="{CDA2082B-2594-4967-96A6-7F5804912F06}"/>
     <hyperlink ref="K27" r:id="rId166" xr:uid="{3C4C565D-A00D-44AC-8839-67C7FA7DB41C}"/>
+    <hyperlink ref="K145" r:id="rId167" xr:uid="{C2720D49-4078-4090-A62F-F2911819D701}"/>
+    <hyperlink ref="K25" r:id="rId168" xr:uid="{DEDF3DBA-7D17-4CD2-84D5-EC162C582B6F}"/>
+    <hyperlink ref="K15" r:id="rId169" xr:uid="{C0A0BF11-4BD8-418E-A627-946E0BEE7D77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9124,124 +8935,124 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="27.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60" style="62" customWidth="1"/>
-    <col min="3" max="3" width="111.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="60" style="49" customWidth="1"/>
+    <col min="3" max="3" width="111.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="76" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="77" t="s">
+      <c r="A1" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90">
+      <c r="A2" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="B2" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72">
+      <c r="A3" s="69"/>
+      <c r="B3" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36">
+      <c r="A4" s="69"/>
+      <c r="B4" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="54">
+      <c r="A5" s="69"/>
+      <c r="B5" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72">
+      <c r="A6" s="70"/>
+      <c r="B6" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36">
+      <c r="A7" s="73" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="90">
-      <c r="A2" s="46" t="s">
+      <c r="B7" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36">
+      <c r="A8" s="73"/>
+      <c r="B8" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="72">
-      <c r="A3" s="47"/>
-      <c r="B3" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="36">
-      <c r="A4" s="47"/>
-      <c r="B4" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="54">
-      <c r="A5" s="47"/>
-      <c r="B5" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="72">
-      <c r="A6" s="48"/>
-      <c r="B6" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="36">
-      <c r="A7" s="66" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="54">
+      <c r="A9" s="73"/>
+      <c r="B9" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="36">
-      <c r="A8" s="66"/>
-      <c r="B8" s="74" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="36">
+      <c r="A10" s="73"/>
+      <c r="B10" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="69" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="54">
-      <c r="A9" s="66"/>
-      <c r="B9" s="74" t="s">
+      <c r="C10" s="55"/>
+    </row>
+    <row r="11" spans="1:3" ht="54">
+      <c r="A11" s="73"/>
+      <c r="B11" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="55"/>
+    </row>
+    <row r="12" spans="1:3" ht="36">
+      <c r="A12" s="73"/>
+      <c r="B12" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="69" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="36">
-      <c r="A10" s="66"/>
-      <c r="B10" s="74" t="s">
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="108">
+      <c r="A13" s="74"/>
+      <c r="B13" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="71"/>
-    </row>
-    <row r="11" spans="1:3" ht="54">
-      <c r="A11" s="66"/>
-      <c r="B11" s="74" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="71"/>
-    </row>
-    <row r="12" spans="1:3" ht="36">
-      <c r="A12" s="66"/>
-      <c r="B12" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" s="71"/>
-    </row>
-    <row r="13" spans="1:3" ht="108">
-      <c r="A13" s="67"/>
-      <c r="B13" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/就活.xlsx
+++ b/就活.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC4E869-8F97-490C-8645-F4FA9000416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC5D150-BD4A-4CA3-BB36-909DF5BFB356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
   </bookViews>
   <sheets>
     <sheet name="日程" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="472">
   <si>
     <t>SIer</t>
     <phoneticPr fontId="1"/>
@@ -3817,10 +3817,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キーワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NTTデータフィナンシャルテクノロジー</t>
   </si>
   <si>
@@ -3831,13 +3827,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自己PR</t>
-    <rPh sb="0" eb="2">
-      <t>ジコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>周りからどんな人だといわれる？</t>
     <rPh sb="0" eb="1">
       <t>マワ</t>
@@ -3848,16 +3837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自分の強み</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自分の弱み</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -4097,132 +4076,6 @@
   </si>
   <si>
     <t>具体的に、あなたが“頼りになる人”だと感じてもらえたのはどのような言動・行動が評価されたからだと思いますか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>仁荷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">大学ソフトウェア工学部
-コンピューター工学専攻
-強み：積極的に物事に取り組み、挑戦を恐れないこと
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>フリーランスの放送演出
-日本語勉強</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>コウガクブ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウガク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センコウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>モノゴト</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>チョウセン</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="58" eb="62">
-      <t>ホウソウエンシュツ</t>
-    </rPh>
-    <rPh sb="63" eb="68">
-      <t>ニホンゴベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最後までやる人</t>
-    <rPh sb="0" eb="2">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>挑戦を恐れないこと</t>
-    <rPh sb="0" eb="2">
-      <t>チョウセン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>積極的に物事に取り組む</t>
-    <rPh sb="0" eb="3">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モノゴト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フリーランスの放送演出</t>
-    <rPh sb="7" eb="11">
-      <t>ホウソウエンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業チームプロジェクト</t>
-    <rPh sb="0" eb="2">
-      <t>ソツギョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5456,41 +5309,6 @@
     <t>録画</t>
     <rPh sb="0" eb="2">
       <t>ロクガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一つのことに夢中になると、他のことに疎かになること</t>
-    <rPh sb="0" eb="1">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ムチュウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オロソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軍隊以外、2年間大学を休学したのです</t>
-    <rPh sb="0" eb="2">
-      <t>グンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ネンカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キュウガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5975,20 +5793,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ヨウス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軍隊と放送演出の仕事の影響で、大学を4年間休学したことがあります。
-周りの人たちが就職を決めたり、学業で成果を出していく姿を見て、自分自身も焦りを感じるようになりました。
-しかし、挫折するよりは、自分ならではの強みを活かそうと努力したんです。
-放送演出の仕事を続けながら、eスポーツの経験を活かしたいと思い、ゲーム開発サークルに参加してC#を勉強しながら、コンテンツ企画に積極的に参加しました。その結果、チームで卒業プロジェクトを完成させ、学内大会で最優秀賞を受賞することができ、大きなやりがいを得られました。
-貴社でも、どんなことでも「遅かった」と思わず、今ある環境で最善を尽くして、良い結果を出すために貢献したいと考えています。</t>
-    <rPh sb="0" eb="2">
-      <t>グンタイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ダイガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6351,23 +6155,176 @@
     <t>GD(1차)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>까지</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仁荷大学ソフトウェア融合学部の金周昊と申します。
+大学時代は、コンピューター工学を専攻し、様々なプログラミング言語の開発経験を積んできました。
+また、韓国の空軍で情報職として勤務しながらIT関連の実務を経験したこともあります。
+学業以外は、21年からゲーム会社でフリーランスとしてeスポーツ放送の演出を担当しております。
+今は日本語勉強に励んでいます。
+本日はどうぞよろしくお願いいたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대원칙
+1. 결론 퍼스트.
+2. 장황하지 않게 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>~7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">문장으로.
+3. 외국인의 입장 강조 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">x
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기업이 원하는 인재상에 맞게 에피소드를 말하고, 끝 문장에 정리해서 말하기
+5. 후카보리 3문제씩 대비할 것</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の強みは、チームの中で率先して問題解決に取り組むことです。
+空軍の情報職として勤務した際、部署内の引き継ぎシステムが十分でなく、新人が業務を習得するまでに長い時間がかかるという問題がありました。
+私だけでなく、後輩たちも同じように苦労していたため、何か改善できる方法はないかと考えるようになりました。
+そこで、業務後の空き時間を活用して業務内容を整理し、マニュアルを作成。先輩方からアドバイスをいただきながら内容を補っていきました。
+その結果、新人教育にかかる時間を半分以下に短縮することができ、私自身もその過程を通じて業務をもっとより深く理解するようになりました。
+御社でも、チームの課題に率先して取り組み、周囲と協力しながら貢献できる人材になりたいと考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は周りから「ロボット」と言われています。
+普段あまり感情を表に出さず、何事も安易に判断せず事実と根拠を重視する姿勢から、そう呼ばれるようになったのだと思います。
+実際、チーム内でもそうした点を評価され、eスポーツ大会の運営中にトラブルが発生した際には、規定や事例を検討して合理的な判断を下す審判役を任せていただきました。
+しかし一方で、感情をあまり表に出さないため、内面が分かりにくいという指摘を受けたこともあります。
+そこで、そうした点を意識し、周囲と積極的にコミュニケーションをとり、葛藤が生じたときには自分から手を差し伸べるよう心がけています。
+御社でも、常に相手の立場を第一に考え、最善の結果を生み出せるチームメンバーとして貢献していきたいと思います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学1年生のとき、物理学の科目でF判定を受けたことがあります。
+物理にあまり興味が持てず、学習への意欲も低かったことが原因でした。
+そこで、この失敗を挽回しようと考え、冬休みには学内のメンター・メンティプログラムに参加し、パートナーとお互いに物理学と生命科学を教え合いながら一緒に努力しました。
+その結果、再受講した際にはお互いに平均以上の成績を収めることができ、さらにメンター・メンティの優秀事例に選ばれ、学校から支援金までいただきました。
+この経験を通じて、足りない部分をお互いに補い合うことで、個人だけでなくチーム全体の成長につなげられることを実感しました。
+御社ても、この学びを活かし、周囲と協力しながら組織の成長に貢献できる人材になりたいと考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍隊と放送演出の仕事の影響で、大学を4年間休学したことがあります。
+周りの人たちが就職を決めたり、学業で成果を出していく姿を見て、自分自身も焦りを感じるようになりました。
+しかし、挫折するよりは、自分ならではの強みを活かそうと努力したんです。
+放送演出の仕事を続けながら、eスポーツの経験を活かしたいと思い、ゲーム開発サークルに参加してC#を勉強しながら、コンテンツ企画に積極的に参加しました。その結果、チームで卒業プロジェクトを完成させ、学内大会で最優秀賞を受賞することができ、大きなやりがいを得られました。
+御社でも、どんなことでも「遅かった」と思わず、今ある環境で最善を尽くして、良い結果を出すために貢献したいと考えています。</t>
+    <rPh sb="0" eb="2">
+      <t>グンタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵役やeスポーツの仕事に携わっていたため、大学を4年間休学しました。
+周りの人が就職を決めたり学業で成果を上げていく姿を見て、正直焦りを感じたこともありました。
+しかし、そこで挫折するのではなく、eスポーツの仕事で培った自分の強みを活かそうと決意し、復学後はゲーム開発サークルに参加してC#を学びながらコンテンツ企画にも積極的に取り組みました。
+その結果、チームで卒業プロジェクトを完成させ、学内大会で最優秀賞を受賞することができました。
+この経験を通じて、何事も「遅すぎる」ということはなく、与えられた環境で最善を尽くせば大きな成果が得られると実感しています。
+貴社においても、この姿勢を貫き、組織に貢献していきたいと考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私が日本での就職を希望する理由は、大きく2つあります。
+第一に、私の専攻を活かして、日本のDXによる社会変革に貢献したいからです。
+近年、日本では政府や企業が一体となってIT技術によるデジタル化を推進しており、その最前線に立つ貴社で責任とやりがいをもって社会に貢献したいと考えています。
+第二に、日本の高い信頼性と安定性を求める基準のもとで、多くのことを学びたいからです。
+特に貴社は、日本銀行などの大規模金融システムを開発・運用しながらシステムの安定性が高く評価されており、そうした環境で経験を積むことで大きく成長できると考えています。
+以上の理由から日本での就職を決意し、貴社を第一志望として就職活動に専念しております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己PR・自分の強み</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の強みと弱み</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の欠点は、一つのことに熱中すると、他のことがおろそかになってしまう点です。
+2021年に偶然、Eスポーツの放送に携わる機会を得て、その仕事に全力で取り組んだ結果、多くの成果を出すことができましたが、一方で学業が疎かになり、休学期間が長くなって就職活動の時期も遅れてしまいました。
+この問題を痛感し、仕事と学業を両立させるために、1日ごとにスケジュールを整理し、長期的な目標を立てるなど、計画的に管理を行うようにしました。
+その結果、昨年は卒業プロジェクトで最優秀賞を獲得すると同時に、日本語学習にも力を入れ、日本語能力試験1級を取得することができました。
+今後、どのような課題に直面しても、これまでの経験で学んだ「選択と集中」を活かして、着実に乗り越えていける人材になりたいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6383,14 +6340,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -6448,21 +6405,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -6499,6 +6442,26 @@
       <name val="Noto Sans JP Light"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -6794,7 +6757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6954,27 +6917,6 @@
     <xf numFmtId="22" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7026,7 +6968,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7101,7 +7043,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7116,64 +7058,73 @@
     <xf numFmtId="14" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7191,20 +7142,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7543,11 +7533,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC70DC4-F0DC-4C6F-8135-CC403CCD1BBE}">
   <dimension ref="A1:R223"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="6.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="5" customWidth="1"/>
@@ -7561,23 +7551,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="117" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="118"/>
+      <c r="A1" s="113" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
       <c r="N1" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -7614,19 +7604,19 @@
       <c r="K2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="L2" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="114"/>
+      <c r="M2" s="120"/>
       <c r="N2" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="111">
+      <c r="A3" s="109">
         <v>1</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>158</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -7649,12 +7639,12 @@
         <v>86</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -7670,10 +7660,10 @@
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A5" s="111">
+      <c r="A5" s="109">
         <v>2</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="110" t="s">
         <v>159</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -7684,7 +7674,7 @@
       <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="108"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="9"/>
       <c r="I5" s="15"/>
       <c r="J5" s="9"/>
@@ -7699,23 +7689,23 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="111"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="17"/>
-      <c r="G6" s="112"/>
+      <c r="G6" s="121"/>
       <c r="I6" s="17"/>
       <c r="K6" s="17"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="111">
+      <c r="A7" s="109">
         <v>3</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="110" t="s">
         <v>160</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -7726,7 +7716,7 @@
       <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="108"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="9"/>
       <c r="I7" s="15"/>
       <c r="J7" s="9"/>
@@ -7741,15 +7731,15 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="111"/>
-      <c r="B8" s="107"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="109"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="12"/>
       <c r="I8" s="16"/>
       <c r="J8" s="12"/>
@@ -7758,10 +7748,10 @@
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="111">
+      <c r="A9" s="109">
         <v>4</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="110" t="s">
         <v>161</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -7774,7 +7764,7 @@
       <c r="F9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="116" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="9"/>
@@ -7791,8 +7781,8 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="111"/>
-      <c r="B10" s="107"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
@@ -7803,7 +7793,7 @@
       <c r="F10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="12"/>
       <c r="I10" s="16"/>
       <c r="J10" s="12"/>
@@ -7815,21 +7805,21 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="111">
+      <c r="A11" s="109">
         <v>5</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="110" t="s">
         <v>162</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="55">
         <v>45709.625</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="108"/>
+      <c r="G11" s="115"/>
       <c r="H11" s="9"/>
       <c r="I11" s="15"/>
       <c r="J11" s="9"/>
@@ -7842,15 +7832,15 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="111"/>
-      <c r="B12" s="107"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="109"/>
+      <c r="G12" s="108"/>
       <c r="H12" s="12"/>
       <c r="I12" s="16"/>
       <c r="J12" s="12"/>
@@ -7859,10 +7849,10 @@
       <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A13" s="111">
+      <c r="A13" s="109">
         <v>6</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="110" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -7871,12 +7861,12 @@
       <c r="D13" s="20"/>
       <c r="E13" s="15"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="108"/>
+      <c r="G13" s="115"/>
       <c r="H13" s="9"/>
       <c r="I13" s="15"/>
       <c r="J13" s="9"/>
       <c r="K13" s="41" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>12</v>
@@ -7886,15 +7876,15 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="111"/>
-      <c r="B14" s="107"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="16"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="109"/>
+      <c r="G14" s="108"/>
       <c r="H14" s="12"/>
       <c r="I14" s="16"/>
       <c r="J14" s="12"/>
@@ -7903,21 +7893,21 @@
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A15" s="111">
+      <c r="A15" s="109">
         <v>7</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="133">
         <v>45667.541666666664</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="108"/>
+      <c r="G15" s="115"/>
       <c r="H15" s="9"/>
       <c r="I15" s="15" t="s">
         <v>9</v>
@@ -7934,15 +7924,15 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="111"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="109"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="31"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="109"/>
+      <c r="G16" s="108"/>
       <c r="H16" s="12"/>
       <c r="I16" s="16"/>
       <c r="J16" s="12"/>
@@ -7951,10 +7941,10 @@
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A17" s="111">
+      <c r="A17" s="109">
         <v>8</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="110" t="s">
         <v>165</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -7963,7 +7953,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="15"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="108"/>
+      <c r="G17" s="115"/>
       <c r="H17" s="9"/>
       <c r="I17" s="15"/>
       <c r="J17" s="9"/>
@@ -7976,15 +7966,15 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="111"/>
-      <c r="B18" s="107"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="16"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="109"/>
+      <c r="G18" s="108"/>
       <c r="H18" s="12"/>
       <c r="I18" s="16"/>
       <c r="J18" s="12"/>
@@ -7993,10 +7983,10 @@
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A19" s="111">
+      <c r="A19" s="109">
         <v>9</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="110" t="s">
         <v>166</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -8006,13 +7996,13 @@
       <c r="E19" s="15"/>
       <c r="F19" s="9"/>
       <c r="G19" s="15" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="15"/>
       <c r="J19" s="9"/>
       <c r="K19" s="15" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>15</v>
@@ -8022,8 +8012,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="111"/>
-      <c r="B20" s="107"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="16" t="s">
         <v>6</v>
       </c>
@@ -8041,10 +8031,10 @@
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A21" s="111">
+      <c r="A21" s="109">
         <v>10</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="110" t="s">
         <v>167</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -8053,7 +8043,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="15"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="108"/>
+      <c r="G21" s="115"/>
       <c r="H21" s="9"/>
       <c r="I21" s="15"/>
       <c r="J21" s="9"/>
@@ -8066,15 +8056,15 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="111"/>
-      <c r="B22" s="107"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="16"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="109"/>
+      <c r="G22" s="108"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16"/>
       <c r="J22" s="12"/>
@@ -8084,10 +8074,10 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A23" s="111">
+      <c r="A23" s="109">
         <v>11</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="110" t="s">
         <v>168</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -8098,7 +8088,7 @@
       <c r="F23" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="108"/>
+      <c r="G23" s="115"/>
       <c r="H23" s="9"/>
       <c r="I23" s="15"/>
       <c r="J23" s="9"/>
@@ -8111,15 +8101,15 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="111"/>
-      <c r="B24" s="107"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="16"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="109"/>
+      <c r="G24" s="108"/>
       <c r="H24" s="12"/>
       <c r="I24" s="16"/>
       <c r="J24" s="12"/>
@@ -8130,26 +8120,26 @@
       <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A25" s="111">
+      <c r="A25" s="109">
         <v>12</v>
       </c>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="133">
         <v>45667.541666666664</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="128">
         <v>45696.556250000001</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="128">
         <v>45699.999305555553</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="15"/>
@@ -8165,19 +8155,19 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="111"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="16" t="s">
+      <c r="A26" s="109"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="135">
         <v>45681.604166666664</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="F26" s="74" t="s">
-        <v>338</v>
+      <c r="F26" s="129" t="s">
+        <v>329</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>48</v>
@@ -8187,17 +8177,17 @@
       <c r="J26" s="12"/>
       <c r="K26" s="16"/>
       <c r="L26" s="18" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A27" s="111">
+      <c r="A27" s="109">
         <v>13</v>
       </c>
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="110" t="s">
         <v>170</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -8212,10 +8202,10 @@
       <c r="F27" s="52">
         <v>45689.5</v>
       </c>
-      <c r="G27" s="115" t="s">
+      <c r="G27" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="61">
         <v>45702.548611111109</v>
       </c>
       <c r="I27" s="15"/>
@@ -8231,20 +8221,20 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="111"/>
-      <c r="B28" s="107"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="110"/>
       <c r="C28" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="21"/>
-      <c r="E28" s="74" t="s">
-        <v>390</v>
+      <c r="E28" s="67" t="s">
+        <v>381</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="116"/>
-      <c r="H28" s="69" t="s">
+      <c r="G28" s="117"/>
+      <c r="H28" s="62" t="s">
         <v>260</v>
       </c>
       <c r="I28" s="16"/>
@@ -8253,13 +8243,15 @@
       <c r="L28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="19"/>
+      <c r="M28" s="136" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A29" s="111">
+      <c r="A29" s="109">
         <v>14</v>
       </c>
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="110" t="s">
         <v>171</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -8268,12 +8260,12 @@
       <c r="D29" s="20"/>
       <c r="E29" s="15"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="108"/>
+      <c r="G29" s="115"/>
       <c r="H29" s="9"/>
       <c r="I29" s="15"/>
       <c r="J29" s="9"/>
       <c r="K29" s="41" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>21</v>
@@ -8283,15 +8275,15 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="111"/>
-      <c r="B30" s="107"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="110"/>
       <c r="C30" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="16"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="109"/>
+      <c r="G30" s="108"/>
       <c r="H30" s="12"/>
       <c r="I30" s="16"/>
       <c r="J30" s="12"/>
@@ -8300,10 +8292,10 @@
       <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A31" s="111">
+      <c r="A31" s="109">
         <v>15</v>
       </c>
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="110" t="s">
         <v>172</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -8312,12 +8304,12 @@
       <c r="D31" s="20"/>
       <c r="E31" s="15"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="108"/>
+      <c r="G31" s="115"/>
       <c r="H31" s="9"/>
       <c r="I31" s="15"/>
       <c r="J31" s="9"/>
       <c r="K31" s="41" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>22</v>
@@ -8327,15 +8319,15 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="111"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="16"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="109"/>
+      <c r="G32" s="108"/>
       <c r="H32" s="12"/>
       <c r="I32" s="16"/>
       <c r="J32" s="12"/>
@@ -8344,23 +8336,23 @@
       <c r="M32" s="19"/>
     </row>
     <row r="33" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A33" s="111">
+      <c r="A33" s="109">
         <v>16</v>
       </c>
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="110" t="s">
         <v>173</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D33" s="20"/>
-      <c r="E33" s="64">
+      <c r="E33" s="57">
         <v>45717</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="108"/>
+      <c r="G33" s="115"/>
       <c r="H33" s="9"/>
       <c r="I33" s="15"/>
       <c r="J33" s="9"/>
@@ -8375,17 +8367,17 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="111"/>
-      <c r="B34" s="107"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="56" t="s">
         <v>252</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="109"/>
+      <c r="G34" s="108"/>
       <c r="H34" s="12"/>
       <c r="I34" s="16"/>
       <c r="J34" s="12"/>
@@ -8394,10 +8386,10 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A35" s="111">
+      <c r="A35" s="109">
         <v>17</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="110" t="s">
         <v>174</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -8408,7 +8400,7 @@
       <c r="F35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="108"/>
+      <c r="G35" s="115"/>
       <c r="H35" s="9"/>
       <c r="I35" s="15"/>
       <c r="J35" s="9"/>
@@ -8423,15 +8415,15 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="111"/>
-      <c r="B36" s="107"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="16"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="109"/>
+      <c r="G36" s="108"/>
       <c r="H36" s="12"/>
       <c r="I36" s="16"/>
       <c r="J36" s="12"/>
@@ -8440,10 +8432,10 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A37" s="111">
+      <c r="A37" s="109">
         <v>18</v>
       </c>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="110" t="s">
         <v>175</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -8454,7 +8446,7 @@
       <c r="F37" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="108"/>
+      <c r="G37" s="115"/>
       <c r="H37" s="9"/>
       <c r="I37" s="15"/>
       <c r="J37" s="9"/>
@@ -8467,15 +8459,15 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="111"/>
-      <c r="B38" s="107"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="16"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="109"/>
+      <c r="G38" s="108"/>
       <c r="H38" s="12"/>
       <c r="I38" s="16"/>
       <c r="J38" s="12"/>
@@ -8484,10 +8476,10 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A39" s="111">
+      <c r="A39" s="109">
         <v>19</v>
       </c>
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="110" t="s">
         <v>176</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -8498,7 +8490,7 @@
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="108"/>
+      <c r="G39" s="115"/>
       <c r="H39" s="9"/>
       <c r="I39" s="15"/>
       <c r="J39" s="9"/>
@@ -8513,15 +8505,15 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="111"/>
-      <c r="B40" s="107"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="16"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="109"/>
+      <c r="G40" s="108"/>
       <c r="H40" s="12"/>
       <c r="I40" s="16"/>
       <c r="J40" s="12"/>
@@ -8530,10 +8522,10 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A41" s="111">
+      <c r="A41" s="109">
         <v>20</v>
       </c>
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="110" t="s">
         <v>177</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -8542,7 +8534,7 @@
       <c r="D41" s="20"/>
       <c r="E41" s="15"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="108"/>
+      <c r="G41" s="115"/>
       <c r="H41" s="9"/>
       <c r="I41" s="15"/>
       <c r="J41" s="9"/>
@@ -8557,15 +8549,15 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="111"/>
-      <c r="B42" s="107"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="16"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="109"/>
+      <c r="G42" s="108"/>
       <c r="H42" s="12"/>
       <c r="I42" s="16"/>
       <c r="J42" s="12"/>
@@ -8574,10 +8566,10 @@
       <c r="M42" s="13"/>
     </row>
     <row r="43" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A43" s="111">
+      <c r="A43" s="109">
         <v>21</v>
       </c>
-      <c r="B43" s="107" t="s">
+      <c r="B43" s="110" t="s">
         <v>178</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -8585,7 +8577,7 @@
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="17"/>
-      <c r="G43" s="112"/>
+      <c r="G43" s="121"/>
       <c r="I43" s="17"/>
       <c r="K43" s="17" t="s">
         <v>150</v>
@@ -8598,23 +8590,23 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="111"/>
-      <c r="B44" s="107"/>
+      <c r="A44" s="109"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="32"/>
-      <c r="G44" s="112"/>
+      <c r="G44" s="121"/>
       <c r="I44" s="17"/>
       <c r="K44" s="17"/>
       <c r="M44" s="14"/>
     </row>
     <row r="45" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A45" s="111">
+      <c r="A45" s="109">
         <v>22</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="110" t="s">
         <v>179</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -8638,8 +8630,8 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="111"/>
-      <c r="B46" s="107"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="16" t="s">
         <v>0</v>
       </c>
@@ -8655,10 +8647,10 @@
       <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A47" s="111">
+      <c r="A47" s="109">
         <v>23</v>
       </c>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="110" t="s">
         <v>180</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -8680,8 +8672,8 @@
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="111"/>
-      <c r="B48" s="107"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="110"/>
       <c r="C48" s="17" t="s">
         <v>0</v>
       </c>
@@ -8695,10 +8687,10 @@
       <c r="M48" s="14"/>
     </row>
     <row r="49" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A49" s="111">
+      <c r="A49" s="109">
         <v>24</v>
       </c>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="110" t="s">
         <v>181</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -8722,8 +8714,8 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="111"/>
-      <c r="B50" s="107"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="16" t="s">
         <v>0</v>
       </c>
@@ -8739,17 +8731,17 @@
       <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A51" s="111">
+      <c r="A51" s="109">
         <v>25</v>
       </c>
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="110" t="s">
         <v>182</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D51" s="22"/>
-      <c r="E51" s="65">
+      <c r="E51" s="58">
         <v>45712</v>
       </c>
       <c r="G51" s="17"/>
@@ -8765,13 +8757,13 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="111"/>
-      <c r="B52" s="107"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="110"/>
       <c r="C52" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="22"/>
-      <c r="E52" s="66" t="s">
+      <c r="E52" s="59" t="s">
         <v>251</v>
       </c>
       <c r="G52" s="17"/>
@@ -8780,10 +8772,10 @@
       <c r="M52" s="14"/>
     </row>
     <row r="53" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A53" s="111">
+      <c r="A53" s="109">
         <v>26</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="110" t="s">
         <v>183</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -8805,8 +8797,8 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="111"/>
-      <c r="B54" s="107"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="110"/>
       <c r="C54" s="16" t="s">
         <v>0</v>
       </c>
@@ -8822,10 +8814,10 @@
       <c r="M54" s="13"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="111">
+      <c r="A55" s="109">
         <v>27</v>
       </c>
-      <c r="B55" s="111" t="s">
+      <c r="B55" s="109" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -8846,8 +8838,8 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="111"/>
-      <c r="B56" s="111"/>
+      <c r="A56" s="109"/>
+      <c r="B56" s="109"/>
       <c r="C56" s="17" t="s">
         <v>0</v>
       </c>
@@ -8859,10 +8851,10 @@
       <c r="M56" s="14"/>
     </row>
     <row r="57" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A57" s="111">
+      <c r="A57" s="109">
         <v>28</v>
       </c>
-      <c r="B57" s="107" t="s">
+      <c r="B57" s="110" t="s">
         <v>184</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -8874,11 +8866,11 @@
       <c r="E57" s="39">
         <v>45690.5</v>
       </c>
-      <c r="F57" s="134">
+      <c r="F57" s="100">
         <v>45697</v>
       </c>
-      <c r="G57" s="136" t="s">
-        <v>471</v>
+      <c r="G57" s="122" t="s">
+        <v>459</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="15"/>
@@ -8894,17 +8886,17 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="111"/>
-      <c r="B58" s="107"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D58" s="21"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="135" t="s">
-        <v>470</v>
-      </c>
-      <c r="G58" s="109"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="101" t="s">
+        <v>458</v>
+      </c>
+      <c r="G58" s="108"/>
       <c r="H58" s="12"/>
       <c r="I58" s="16"/>
       <c r="J58" s="12"/>
@@ -8913,10 +8905,10 @@
       <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A59" s="111">
+      <c r="A59" s="109">
         <v>29</v>
       </c>
-      <c r="B59" s="107" t="s">
+      <c r="B59" s="110" t="s">
         <v>185</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -8938,8 +8930,8 @@
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="111"/>
-      <c r="B60" s="107"/>
+      <c r="A60" s="109"/>
+      <c r="B60" s="110"/>
       <c r="C60" s="17" t="s">
         <v>122</v>
       </c>
@@ -8954,10 +8946,10 @@
       <c r="M60" s="14"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="111">
+      <c r="A61" s="109">
         <v>30</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="109" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="15" t="s">
@@ -8981,8 +8973,8 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="111"/>
-      <c r="B62" s="111"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="16" t="s">
         <v>0</v>
       </c>
@@ -8991,7 +8983,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="16"/>
       <c r="H62" s="12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="I62" s="16"/>
       <c r="J62" s="12"/>
@@ -9000,10 +8992,10 @@
       <c r="M62" s="13"/>
     </row>
     <row r="63" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A63" s="111">
+      <c r="A63" s="109">
         <v>31</v>
       </c>
-      <c r="B63" s="107" t="s">
+      <c r="B63" s="110" t="s">
         <v>186</v>
       </c>
       <c r="C63" s="17" t="s">
@@ -9012,7 +9004,7 @@
       <c r="D63" s="28">
         <v>45694.583333333336</v>
       </c>
-      <c r="E63" s="65">
+      <c r="E63" s="58">
         <v>45706</v>
       </c>
       <c r="G63" s="17"/>
@@ -9028,13 +9020,13 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="111"/>
-      <c r="B64" s="107"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="110"/>
       <c r="C64" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D64" s="22"/>
-      <c r="E64" s="66" t="s">
+      <c r="E64" s="59" t="s">
         <v>251</v>
       </c>
       <c r="G64" s="17"/>
@@ -9043,10 +9035,10 @@
       <c r="M64" s="14"/>
     </row>
     <row r="65" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A65" s="111">
+      <c r="A65" s="109">
         <v>32</v>
       </c>
-      <c r="B65" s="107" t="s">
+      <c r="B65" s="110" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -9068,8 +9060,8 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="111"/>
-      <c r="B66" s="107"/>
+      <c r="A66" s="109"/>
+      <c r="B66" s="110"/>
       <c r="C66" s="16" t="s">
         <v>0</v>
       </c>
@@ -9085,10 +9077,10 @@
       <c r="M66" s="13"/>
     </row>
     <row r="67" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A67" s="111">
+      <c r="A67" s="109">
         <v>33</v>
       </c>
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="110" t="s">
         <v>187</v>
       </c>
       <c r="C67" s="17" t="s">
@@ -9109,8 +9101,8 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="111"/>
-      <c r="B68" s="107"/>
+      <c r="A68" s="109"/>
+      <c r="B68" s="110"/>
       <c r="C68" s="17" t="s">
         <v>0</v>
       </c>
@@ -9122,10 +9114,10 @@
       <c r="M68" s="14"/>
     </row>
     <row r="69" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A69" s="111">
+      <c r="A69" s="109">
         <v>34</v>
       </c>
-      <c r="B69" s="107" t="s">
+      <c r="B69" s="110" t="s">
         <v>188</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -9147,8 +9139,8 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="111"/>
-      <c r="B70" s="107"/>
+      <c r="A70" s="109"/>
+      <c r="B70" s="110"/>
       <c r="C70" s="16" t="s">
         <v>0</v>
       </c>
@@ -9164,10 +9156,10 @@
       <c r="M70" s="13"/>
     </row>
     <row r="71" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A71" s="111">
+      <c r="A71" s="109">
         <v>35</v>
       </c>
-      <c r="B71" s="107" t="s">
+      <c r="B71" s="110" t="s">
         <v>189</v>
       </c>
       <c r="C71" s="17" t="s">
@@ -9188,8 +9180,8 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="111"/>
-      <c r="B72" s="107"/>
+      <c r="A72" s="109"/>
+      <c r="B72" s="110"/>
       <c r="C72" s="17" t="s">
         <v>0</v>
       </c>
@@ -9201,10 +9193,10 @@
       <c r="M72" s="14"/>
     </row>
     <row r="73" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A73" s="111">
+      <c r="A73" s="109">
         <v>36</v>
       </c>
-      <c r="B73" s="107" t="s">
+      <c r="B73" s="110" t="s">
         <v>190</v>
       </c>
       <c r="C73" s="15" t="s">
@@ -9226,8 +9218,8 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="111"/>
-      <c r="B74" s="107"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="110"/>
       <c r="C74" s="16" t="s">
         <v>191</v>
       </c>
@@ -9243,23 +9235,23 @@
       <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A75" s="111">
+      <c r="A75" s="109">
         <v>37</v>
       </c>
-      <c r="B75" s="107" t="s">
+      <c r="B75" s="110" t="s">
         <v>192</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="100">
+      <c r="E75" s="93">
         <v>45701</v>
       </c>
-      <c r="F75" s="99"/>
+      <c r="F75" s="92"/>
       <c r="G75" s="17"/>
       <c r="I75" s="17"/>
-      <c r="K75" s="98" t="s">
+      <c r="K75" s="91" t="s">
         <v>88</v>
       </c>
       <c r="L75" s="7" t="s">
@@ -9270,14 +9262,14 @@
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="111"/>
-      <c r="B76" s="107"/>
+      <c r="A76" s="109"/>
+      <c r="B76" s="110"/>
       <c r="C76" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="101" t="s">
-        <v>416</v>
+      <c r="E76" s="94" t="s">
+        <v>407</v>
       </c>
       <c r="G76" s="17"/>
       <c r="I76" s="17"/>
@@ -9285,20 +9277,20 @@
       <c r="M76" s="14"/>
     </row>
     <row r="77" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A77" s="111">
+      <c r="A77" s="109">
         <v>38</v>
       </c>
-      <c r="B77" s="107" t="s">
+      <c r="B77" s="110" t="s">
         <v>193</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D77" s="20"/>
-      <c r="E77" s="89">
+      <c r="E77" s="82">
         <v>45713.5</v>
       </c>
-      <c r="F77" s="68">
+      <c r="F77" s="61">
         <v>45715.5</v>
       </c>
       <c r="G77" s="15"/>
@@ -9316,16 +9308,16 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="111"/>
-      <c r="B78" s="107"/>
+      <c r="A78" s="109"/>
+      <c r="B78" s="110"/>
       <c r="C78" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D78" s="21"/>
-      <c r="E78" s="63" t="s">
+      <c r="E78" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="F78" s="90" t="s">
+      <c r="F78" s="83" t="s">
         <v>251</v>
       </c>
       <c r="G78" s="16"/>
@@ -9334,15 +9326,15 @@
       <c r="J78" s="12"/>
       <c r="K78" s="16"/>
       <c r="L78" s="18" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M78" s="13"/>
     </row>
     <row r="79" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A79" s="111">
+      <c r="A79" s="109">
         <v>39</v>
       </c>
-      <c r="B79" s="107" t="s">
+      <c r="B79" s="110" t="s">
         <v>194</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -9361,8 +9353,8 @@
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="111"/>
-      <c r="B80" s="107"/>
+      <c r="A80" s="109"/>
+      <c r="B80" s="110"/>
       <c r="C80" s="17" t="s">
         <v>0</v>
       </c>
@@ -9374,10 +9366,10 @@
       <c r="M80" s="14"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="111">
+      <c r="A81" s="109">
         <v>40</v>
       </c>
-      <c r="B81" s="111" t="s">
+      <c r="B81" s="109" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -9399,8 +9391,8 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="111"/>
-      <c r="B82" s="111"/>
+      <c r="A82" s="109"/>
+      <c r="B82" s="109"/>
       <c r="C82" s="16" t="s">
         <v>191</v>
       </c>
@@ -9416,10 +9408,10 @@
       <c r="M82" s="13"/>
     </row>
     <row r="83" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A83" s="111">
+      <c r="A83" s="109">
         <v>41</v>
       </c>
-      <c r="B83" s="107" t="s">
+      <c r="B83" s="110" t="s">
         <v>195</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -9438,8 +9430,8 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="111"/>
-      <c r="B84" s="107"/>
+      <c r="A84" s="109"/>
+      <c r="B84" s="110"/>
       <c r="C84" s="17" t="s">
         <v>0</v>
       </c>
@@ -9451,10 +9443,10 @@
       <c r="M84" s="14"/>
     </row>
     <row r="85" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A85" s="111">
+      <c r="A85" s="109">
         <v>42</v>
       </c>
-      <c r="B85" s="107" t="s">
+      <c r="B85" s="110" t="s">
         <v>196</v>
       </c>
       <c r="C85" s="15" t="s">
@@ -9476,8 +9468,8 @@
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="111"/>
-      <c r="B86" s="107"/>
+      <c r="A86" s="109"/>
+      <c r="B86" s="110"/>
       <c r="C86" s="16" t="s">
         <v>197</v>
       </c>
@@ -9493,23 +9485,23 @@
       <c r="M86" s="13"/>
     </row>
     <row r="87" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A87" s="111">
+      <c r="A87" s="109">
         <v>43</v>
       </c>
-      <c r="B87" s="119" t="s">
-        <v>419</v>
+      <c r="B87" s="112" t="s">
+        <v>410</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D87" s="96">
+      <c r="D87" s="89">
         <v>45704</v>
       </c>
       <c r="E87" s="17"/>
       <c r="G87" s="17"/>
       <c r="I87" s="17"/>
       <c r="K87" s="47" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>61</v>
@@ -9519,13 +9511,13 @@
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="111"/>
-      <c r="B88" s="107"/>
+      <c r="A88" s="109"/>
+      <c r="B88" s="110"/>
       <c r="C88" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D88" s="97" t="s">
-        <v>420</v>
+      <c r="D88" s="90" t="s">
+        <v>411</v>
       </c>
       <c r="E88" s="17"/>
       <c r="G88" s="17"/>
@@ -9534,17 +9526,17 @@
       <c r="M88" s="14"/>
     </row>
     <row r="89" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A89" s="111">
+      <c r="A89" s="109">
         <v>44</v>
       </c>
-      <c r="B89" s="107" t="s">
+      <c r="B89" s="110" t="s">
         <v>198</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D89" s="23"/>
-      <c r="E89" s="64">
+      <c r="E89" s="57">
         <v>45719</v>
       </c>
       <c r="F89" s="9"/>
@@ -9563,13 +9555,13 @@
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="111"/>
-      <c r="B90" s="107"/>
+      <c r="A90" s="109"/>
+      <c r="B90" s="110"/>
       <c r="C90" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D90" s="21"/>
-      <c r="E90" s="63" t="s">
+      <c r="E90" s="56" t="s">
         <v>252</v>
       </c>
       <c r="F90" s="12"/>
@@ -9582,10 +9574,10 @@
       <c r="M90" s="13"/>
     </row>
     <row r="91" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A91" s="111">
+      <c r="A91" s="109">
         <v>45</v>
       </c>
-      <c r="B91" s="107" t="s">
+      <c r="B91" s="110" t="s">
         <v>199</v>
       </c>
       <c r="C91" s="17" t="s">
@@ -9604,8 +9596,8 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="111"/>
-      <c r="B92" s="107"/>
+      <c r="A92" s="109"/>
+      <c r="B92" s="110"/>
       <c r="C92" s="17" t="s">
         <v>76</v>
       </c>
@@ -9617,10 +9609,10 @@
       <c r="M92" s="14"/>
     </row>
     <row r="93" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A93" s="111">
+      <c r="A93" s="109">
         <v>46</v>
       </c>
-      <c r="B93" s="107" t="s">
+      <c r="B93" s="110" t="s">
         <v>200</v>
       </c>
       <c r="C93" s="15" t="s">
@@ -9642,8 +9634,8 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="111"/>
-      <c r="B94" s="107"/>
+      <c r="A94" s="109"/>
+      <c r="B94" s="110"/>
       <c r="C94" s="16" t="s">
         <v>77</v>
       </c>
@@ -9659,10 +9651,10 @@
       <c r="M94" s="13"/>
     </row>
     <row r="95" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A95" s="111">
+      <c r="A95" s="109">
         <v>47</v>
       </c>
-      <c r="B95" s="107" t="s">
+      <c r="B95" s="110" t="s">
         <v>201</v>
       </c>
       <c r="C95" s="17" t="s">
@@ -9681,8 +9673,8 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="111"/>
-      <c r="B96" s="107"/>
+      <c r="A96" s="109"/>
+      <c r="B96" s="110"/>
       <c r="C96" s="17" t="s">
         <v>0</v>
       </c>
@@ -9694,10 +9686,10 @@
       <c r="M96" s="14"/>
     </row>
     <row r="97" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A97" s="111">
+      <c r="A97" s="109">
         <v>48</v>
       </c>
-      <c r="B97" s="107" t="s">
+      <c r="B97" s="110" t="s">
         <v>202</v>
       </c>
       <c r="C97" s="15" t="s">
@@ -9711,7 +9703,7 @@
       <c r="I97" s="15"/>
       <c r="J97" s="9"/>
       <c r="K97" s="41" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>66</v>
@@ -9721,8 +9713,8 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="111"/>
-      <c r="B98" s="107"/>
+      <c r="A98" s="109"/>
+      <c r="B98" s="110"/>
       <c r="C98" s="16" t="s">
         <v>0</v>
       </c>
@@ -9738,10 +9730,10 @@
       <c r="M98" s="13"/>
     </row>
     <row r="99" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A99" s="111">
+      <c r="A99" s="109">
         <v>49</v>
       </c>
-      <c r="B99" s="107" t="s">
+      <c r="B99" s="110" t="s">
         <v>203</v>
       </c>
       <c r="C99" s="17" t="s">
@@ -9750,14 +9742,14 @@
       <c r="D99" s="28">
         <v>45694.416666666664</v>
       </c>
-      <c r="E99" s="71">
+      <c r="E99" s="64">
         <v>45695.666666666664</v>
       </c>
-      <c r="F99" s="88">
+      <c r="F99" s="81">
         <v>45719</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I99" s="17"/>
       <c r="K99" s="47" t="s">
@@ -9771,17 +9763,17 @@
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="111"/>
-      <c r="B100" s="107"/>
+      <c r="A100" s="109"/>
+      <c r="B100" s="110"/>
       <c r="C100" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D100" s="22"/>
-      <c r="E100" s="72" t="s">
+      <c r="E100" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="F100" s="91" t="s">
-        <v>416</v>
+      <c r="F100" s="84" t="s">
+        <v>407</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>48</v>
@@ -9789,25 +9781,25 @@
       <c r="I100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="6" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M100" s="14"/>
     </row>
     <row r="101" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A101" s="111">
+      <c r="A101" s="109">
         <v>50</v>
       </c>
-      <c r="B101" s="107" t="s">
+      <c r="B101" s="110" t="s">
         <v>204</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="75">
+      <c r="D101" s="68">
         <v>45697</v>
       </c>
       <c r="E101" s="15"/>
-      <c r="F101" s="93">
+      <c r="F101" s="86">
         <v>45704</v>
       </c>
       <c r="G101" s="15"/>
@@ -9815,7 +9807,7 @@
       <c r="I101" s="15"/>
       <c r="J101" s="9"/>
       <c r="K101" s="41" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>68</v>
@@ -9825,17 +9817,17 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="111"/>
-      <c r="B102" s="107"/>
+      <c r="A102" s="109"/>
+      <c r="B102" s="110"/>
       <c r="C102" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D102" s="76" t="s">
-        <v>421</v>
+      <c r="D102" s="69" t="s">
+        <v>412</v>
       </c>
       <c r="E102" s="16"/>
-      <c r="F102" s="90" t="s">
-        <v>416</v>
+      <c r="F102" s="83" t="s">
+        <v>407</v>
       </c>
       <c r="G102" s="16"/>
       <c r="H102" s="12"/>
@@ -9843,15 +9835,15 @@
       <c r="J102" s="12"/>
       <c r="K102" s="16"/>
       <c r="L102" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M102" s="13"/>
     </row>
     <row r="103" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A103" s="111">
+      <c r="A103" s="109">
         <v>51</v>
       </c>
-      <c r="B103" s="107" t="s">
+      <c r="B103" s="110" t="s">
         <v>205</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -9870,8 +9862,8 @@
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="111"/>
-      <c r="B104" s="107"/>
+      <c r="A104" s="109"/>
+      <c r="B104" s="110"/>
       <c r="C104" s="17" t="s">
         <v>0</v>
       </c>
@@ -9883,10 +9875,10 @@
       <c r="M104" s="14"/>
     </row>
     <row r="105" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A105" s="111">
+      <c r="A105" s="109">
         <v>52</v>
       </c>
-      <c r="B105" s="107" t="s">
+      <c r="B105" s="110" t="s">
         <v>206</v>
       </c>
       <c r="C105" s="15" t="s">
@@ -9896,13 +9888,13 @@
       <c r="E105" s="15"/>
       <c r="F105" s="9"/>
       <c r="G105" s="15" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="15"/>
       <c r="J105" s="9"/>
       <c r="K105" s="41" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>70</v>
@@ -9912,8 +9904,8 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="111"/>
-      <c r="B106" s="107"/>
+      <c r="A106" s="109"/>
+      <c r="B106" s="110"/>
       <c r="C106" s="16" t="s">
         <v>0</v>
       </c>
@@ -9931,10 +9923,10 @@
       <c r="M106" s="13"/>
     </row>
     <row r="107" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A107" s="111">
+      <c r="A107" s="109">
         <v>53</v>
       </c>
-      <c r="B107" s="107" t="s">
+      <c r="B107" s="110" t="s">
         <v>207</v>
       </c>
       <c r="C107" s="17" t="s">
@@ -9953,8 +9945,8 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="111"/>
-      <c r="B108" s="107"/>
+      <c r="A108" s="109"/>
+      <c r="B108" s="110"/>
       <c r="C108" s="17" t="s">
         <v>0</v>
       </c>
@@ -9966,10 +9958,10 @@
       <c r="M108" s="14"/>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="111">
+      <c r="A109" s="109">
         <v>54</v>
       </c>
-      <c r="B109" s="111" t="s">
+      <c r="B109" s="109" t="s">
         <v>72</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -9993,8 +9985,8 @@
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="111"/>
-      <c r="B110" s="111"/>
+      <c r="A110" s="109"/>
+      <c r="B110" s="109"/>
       <c r="C110" s="16" t="s">
         <v>76</v>
       </c>
@@ -10012,10 +10004,10 @@
       <c r="M110" s="13"/>
     </row>
     <row r="111" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A111" s="111">
+      <c r="A111" s="109">
         <v>55</v>
       </c>
-      <c r="B111" s="107" t="s">
+      <c r="B111" s="110" t="s">
         <v>208</v>
       </c>
       <c r="C111" s="17" t="s">
@@ -10034,8 +10026,8 @@
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="111"/>
-      <c r="B112" s="107"/>
+      <c r="A112" s="109"/>
+      <c r="B112" s="110"/>
       <c r="C112" s="17" t="s">
         <v>0</v>
       </c>
@@ -10047,19 +10039,19 @@
       <c r="M112" s="14"/>
     </row>
     <row r="113" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A113" s="111">
+      <c r="A113" s="109">
         <v>56</v>
       </c>
-      <c r="B113" s="110" t="s">
+      <c r="B113" s="118" t="s">
         <v>209</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="D113" s="24">
+      <c r="D113" s="133">
         <v>45680.583333333336</v>
       </c>
-      <c r="E113" s="15"/>
+      <c r="E113" s="132"/>
       <c r="F113" s="49" t="s">
         <v>137</v>
       </c>
@@ -10078,13 +10070,13 @@
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="111"/>
-      <c r="B114" s="110"/>
-      <c r="C114" s="16" t="s">
+      <c r="A114" s="109"/>
+      <c r="B114" s="118"/>
+      <c r="C114" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D114" s="21"/>
-      <c r="E114" s="16"/>
+      <c r="D114" s="134"/>
+      <c r="E114" s="129"/>
       <c r="F114" s="50">
         <v>45689.416666666664</v>
       </c>
@@ -10097,17 +10089,17 @@
       <c r="M114" s="13"/>
     </row>
     <row r="115" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A115" s="111">
+      <c r="A115" s="109">
         <v>57</v>
       </c>
-      <c r="B115" s="107" t="s">
+      <c r="B115" s="110" t="s">
         <v>210</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D115" s="22"/>
-      <c r="E115" s="71">
+      <c r="E115" s="64">
         <v>45702.416666666664</v>
       </c>
       <c r="G115" s="17"/>
@@ -10123,34 +10115,34 @@
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="111"/>
-      <c r="B116" s="107"/>
+      <c r="A116" s="109"/>
+      <c r="B116" s="110"/>
       <c r="C116" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D116" s="22"/>
-      <c r="E116" s="72" t="s">
+      <c r="E116" s="65" t="s">
         <v>260</v>
       </c>
       <c r="G116" s="17"/>
       <c r="I116" s="17"/>
       <c r="K116" s="17"/>
       <c r="L116" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="M116" s="14"/>
     </row>
     <row r="117" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A117" s="111">
+      <c r="A117" s="109">
         <v>58</v>
       </c>
-      <c r="B117" s="111" t="s">
+      <c r="B117" s="109" t="s">
         <v>105</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D117" s="62">
+      <c r="D117" s="55">
         <v>45702.625</v>
       </c>
       <c r="E117" s="15"/>
@@ -10170,8 +10162,8 @@
       </c>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="111"/>
-      <c r="B118" s="111"/>
+      <c r="A118" s="109"/>
+      <c r="B118" s="109"/>
       <c r="C118" s="16" t="s">
         <v>0</v>
       </c>
@@ -10187,10 +10179,10 @@
       <c r="M118" s="13"/>
     </row>
     <row r="119" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A119" s="111">
+      <c r="A119" s="109">
         <v>59</v>
       </c>
-      <c r="B119" s="107" t="s">
+      <c r="B119" s="110" t="s">
         <v>211</v>
       </c>
       <c r="C119" s="17" t="s">
@@ -10199,7 +10191,7 @@
       <c r="D119" s="22"/>
       <c r="E119" s="17"/>
       <c r="G119" s="17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I119" s="17"/>
       <c r="K119" s="17"/>
@@ -10211,8 +10203,8 @@
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="111"/>
-      <c r="B120" s="107"/>
+      <c r="A120" s="109"/>
+      <c r="B120" s="110"/>
       <c r="C120" s="17" t="s">
         <v>0</v>
       </c>
@@ -10226,10 +10218,10 @@
       <c r="M120" s="14"/>
     </row>
     <row r="121" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A121" s="111">
+      <c r="A121" s="109">
         <v>60</v>
       </c>
-      <c r="B121" s="107" t="s">
+      <c r="B121" s="110" t="s">
         <v>212</v>
       </c>
       <c r="C121" s="15" t="s">
@@ -10239,7 +10231,7 @@
       <c r="E121" s="15"/>
       <c r="F121" s="9"/>
       <c r="G121" s="15" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="15"/>
@@ -10253,8 +10245,8 @@
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="111"/>
-      <c r="B122" s="107"/>
+      <c r="A122" s="109"/>
+      <c r="B122" s="110"/>
       <c r="C122" s="16" t="s">
         <v>0</v>
       </c>
@@ -10274,23 +10266,23 @@
       <c r="M122" s="13"/>
     </row>
     <row r="123" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A123" s="111">
+      <c r="A123" s="109">
         <v>61</v>
       </c>
-      <c r="B123" s="107" t="s">
+      <c r="B123" s="110" t="s">
         <v>213</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D123" s="67">
+      <c r="D123" s="60">
         <v>45701.729166666664</v>
       </c>
       <c r="E123" s="17"/>
       <c r="G123" s="17"/>
       <c r="I123" s="17"/>
       <c r="K123" s="47" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L123" s="7" t="s">
         <v>109</v>
@@ -10300,8 +10292,8 @@
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="111"/>
-      <c r="B124" s="107"/>
+      <c r="A124" s="109"/>
+      <c r="B124" s="110"/>
       <c r="C124" s="17" t="s">
         <v>0</v>
       </c>
@@ -10314,10 +10306,10 @@
       <c r="M124" s="27"/>
     </row>
     <row r="125" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A125" s="111">
+      <c r="A125" s="109">
         <v>62</v>
       </c>
-      <c r="B125" s="107" t="s">
+      <c r="B125" s="110" t="s">
         <v>214</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -10327,13 +10319,15 @@
         <v>45698.5625</v>
       </c>
       <c r="E125" s="15"/>
-      <c r="F125" s="9"/>
+      <c r="F125" s="86">
+        <v>45705</v>
+      </c>
       <c r="G125" s="15"/>
       <c r="H125" s="9"/>
       <c r="I125" s="15"/>
       <c r="J125" s="9"/>
       <c r="K125" s="41" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L125" s="10" t="s">
         <v>110</v>
@@ -10343,34 +10337,38 @@
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="111"/>
-      <c r="B126" s="107"/>
+      <c r="A126" s="109"/>
+      <c r="B126" s="110"/>
       <c r="C126" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D126" s="21"/>
       <c r="E126" s="16"/>
-      <c r="F126" s="12"/>
+      <c r="F126" s="83" t="s">
+        <v>460</v>
+      </c>
       <c r="G126" s="16"/>
       <c r="H126" s="12"/>
       <c r="I126" s="16"/>
       <c r="J126" s="12"/>
       <c r="K126" s="16"/>
-      <c r="L126" s="18"/>
+      <c r="L126" s="131" t="s">
+        <v>11</v>
+      </c>
       <c r="M126" s="19"/>
     </row>
     <row r="127" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A127" s="111">
+      <c r="A127" s="109">
         <v>63</v>
       </c>
-      <c r="B127" s="107" t="s">
+      <c r="B127" s="110" t="s">
         <v>215</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D127" s="15"/>
-      <c r="E127" s="65">
+      <c r="E127" s="58">
         <v>45705</v>
       </c>
       <c r="G127" s="17"/>
@@ -10386,13 +10384,13 @@
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="111"/>
-      <c r="B128" s="107"/>
+      <c r="A128" s="109"/>
+      <c r="B128" s="110"/>
       <c r="C128" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D128" s="16"/>
-      <c r="E128" s="66" t="s">
+      <c r="E128" s="59" t="s">
         <v>252</v>
       </c>
       <c r="G128" s="17"/>
@@ -10401,10 +10399,10 @@
       <c r="M128" s="14"/>
     </row>
     <row r="129" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A129" s="111">
+      <c r="A129" s="109">
         <v>64</v>
       </c>
-      <c r="B129" s="107" t="s">
+      <c r="B129" s="110" t="s">
         <v>216</v>
       </c>
       <c r="C129" s="15" t="s">
@@ -10430,8 +10428,8 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="111"/>
-      <c r="B130" s="107"/>
+      <c r="A130" s="109"/>
+      <c r="B130" s="110"/>
       <c r="C130" s="16" t="s">
         <v>53</v>
       </c>
@@ -10447,10 +10445,10 @@
       <c r="M130" s="13"/>
     </row>
     <row r="131" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A131" s="111">
+      <c r="A131" s="109">
         <v>65</v>
       </c>
-      <c r="B131" s="107" t="s">
+      <c r="B131" s="110" t="s">
         <v>217</v>
       </c>
       <c r="C131" s="17" t="s">
@@ -10461,7 +10459,7 @@
       <c r="G131" s="17"/>
       <c r="I131" s="17"/>
       <c r="K131" s="47" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>117</v>
@@ -10471,8 +10469,8 @@
       </c>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="111"/>
-      <c r="B132" s="107"/>
+      <c r="A132" s="109"/>
+      <c r="B132" s="110"/>
       <c r="C132" s="17" t="s">
         <v>0</v>
       </c>
@@ -10484,10 +10482,10 @@
       <c r="M132" s="14"/>
     </row>
     <row r="133" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A133" s="111">
+      <c r="A133" s="109">
         <v>66</v>
       </c>
-      <c r="B133" s="107" t="s">
+      <c r="B133" s="110" t="s">
         <v>218</v>
       </c>
       <c r="C133" s="15" t="s">
@@ -10511,8 +10509,8 @@
       </c>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="111"/>
-      <c r="B134" s="107"/>
+      <c r="A134" s="109"/>
+      <c r="B134" s="110"/>
       <c r="C134" s="16" t="s">
         <v>0</v>
       </c>
@@ -10528,10 +10526,10 @@
       <c r="M134" s="13"/>
     </row>
     <row r="135" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A135" s="111">
+      <c r="A135" s="109">
         <v>67</v>
       </c>
-      <c r="B135" s="107" t="s">
+      <c r="B135" s="110" t="s">
         <v>219</v>
       </c>
       <c r="C135" s="17" t="s">
@@ -10552,8 +10550,8 @@
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="111"/>
-      <c r="B136" s="107"/>
+      <c r="A136" s="109"/>
+      <c r="B136" s="110"/>
       <c r="C136" s="17" t="s">
         <v>0</v>
       </c>
@@ -10565,10 +10563,10 @@
       <c r="M136" s="14"/>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="111">
+      <c r="A137" s="109">
         <v>68</v>
       </c>
-      <c r="B137" s="111" t="s">
+      <c r="B137" s="109" t="s">
         <v>120</v>
       </c>
       <c r="C137" s="15" t="s">
@@ -10590,8 +10588,8 @@
       </c>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="111"/>
-      <c r="B138" s="111"/>
+      <c r="A138" s="109"/>
+      <c r="B138" s="109"/>
       <c r="C138" s="16" t="s">
         <v>122</v>
       </c>
@@ -10607,10 +10605,10 @@
       <c r="M138" s="13"/>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="111">
+      <c r="A139" s="109">
         <v>69</v>
       </c>
-      <c r="B139" s="107" t="s">
+      <c r="B139" s="110" t="s">
         <v>220</v>
       </c>
       <c r="C139" s="17" t="s">
@@ -10629,8 +10627,8 @@
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="111"/>
-      <c r="B140" s="111"/>
+      <c r="A140" s="109"/>
+      <c r="B140" s="109"/>
       <c r="C140" s="17" t="s">
         <v>0</v>
       </c>
@@ -10642,10 +10640,10 @@
       <c r="M140" s="14"/>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="111">
+      <c r="A141" s="109">
         <v>70</v>
       </c>
-      <c r="B141" s="107" t="s">
+      <c r="B141" s="110" t="s">
         <v>221</v>
       </c>
       <c r="C141" s="15" t="s">
@@ -10669,8 +10667,8 @@
       </c>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="111"/>
-      <c r="B142" s="111"/>
+      <c r="A142" s="109"/>
+      <c r="B142" s="109"/>
       <c r="C142" s="16" t="s">
         <v>0</v>
       </c>
@@ -10686,10 +10684,10 @@
       <c r="M142" s="13"/>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="111">
+      <c r="A143" s="109">
         <v>71</v>
       </c>
-      <c r="B143" s="107" t="s">
+      <c r="B143" s="110" t="s">
         <v>222</v>
       </c>
       <c r="C143" s="17" t="s">
@@ -10708,8 +10706,8 @@
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="111"/>
-      <c r="B144" s="111"/>
+      <c r="A144" s="109"/>
+      <c r="B144" s="109"/>
       <c r="C144" s="17" t="s">
         <v>0</v>
       </c>
@@ -10724,10 +10722,10 @@
       <c r="M144" s="14"/>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="111">
+      <c r="A145" s="109">
         <v>72</v>
       </c>
-      <c r="B145" s="107" t="s">
+      <c r="B145" s="110" t="s">
         <v>223</v>
       </c>
       <c r="C145" s="15" t="s">
@@ -10753,13 +10751,13 @@
       </c>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="111"/>
-      <c r="B146" s="111"/>
+      <c r="A146" s="109"/>
+      <c r="B146" s="109"/>
       <c r="C146" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D146" s="21"/>
-      <c r="E146" s="74"/>
+      <c r="E146" s="67"/>
       <c r="F146" s="12"/>
       <c r="G146" s="16"/>
       <c r="H146" s="12"/>
@@ -10772,10 +10770,10 @@
       <c r="M146" s="13"/>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="111">
+      <c r="A147" s="109">
         <v>73</v>
       </c>
-      <c r="B147" s="107" t="s">
+      <c r="B147" s="110" t="s">
         <v>224</v>
       </c>
       <c r="C147" s="17" t="s">
@@ -10798,8 +10796,8 @@
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="111"/>
-      <c r="B148" s="111"/>
+      <c r="A148" s="109"/>
+      <c r="B148" s="109"/>
       <c r="C148" s="17" t="s">
         <v>0</v>
       </c>
@@ -10811,10 +10809,10 @@
       <c r="M148" s="14"/>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="111">
+      <c r="A149" s="109">
         <v>74</v>
       </c>
-      <c r="B149" s="107" t="s">
+      <c r="B149" s="110" t="s">
         <v>225</v>
       </c>
       <c r="C149" s="15" t="s">
@@ -10838,8 +10836,8 @@
       </c>
     </row>
     <row r="150" spans="1:13">
-      <c r="A150" s="111"/>
-      <c r="B150" s="111"/>
+      <c r="A150" s="109"/>
+      <c r="B150" s="109"/>
       <c r="C150" s="16" t="s">
         <v>0</v>
       </c>
@@ -10855,20 +10853,20 @@
       <c r="M150" s="13"/>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="111">
+      <c r="A151" s="109">
         <v>75</v>
       </c>
-      <c r="B151" s="107" t="s">
+      <c r="B151" s="110" t="s">
         <v>226</v>
       </c>
       <c r="C151" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D151" s="22"/>
-      <c r="E151" s="65">
+      <c r="E151" s="58">
         <v>45723.5</v>
       </c>
-      <c r="F151" s="88">
+      <c r="F151" s="81">
         <v>45726.5</v>
       </c>
       <c r="G151" s="17"/>
@@ -10884,31 +10882,31 @@
       </c>
     </row>
     <row r="152" spans="1:13">
-      <c r="A152" s="111"/>
-      <c r="B152" s="111"/>
+      <c r="A152" s="109"/>
+      <c r="B152" s="109"/>
       <c r="C152" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D152" s="22"/>
-      <c r="E152" s="66" t="s">
+      <c r="E152" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="F152" s="91" t="s">
+      <c r="F152" s="84" t="s">
         <v>251</v>
       </c>
       <c r="G152" s="17"/>
       <c r="I152" s="17"/>
       <c r="K152" s="17"/>
       <c r="L152" s="6" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M152" s="27"/>
     </row>
     <row r="153" spans="1:13">
-      <c r="A153" s="111">
+      <c r="A153" s="109">
         <v>76</v>
       </c>
-      <c r="B153" s="107" t="s">
+      <c r="B153" s="110" t="s">
         <v>236</v>
       </c>
       <c r="C153" s="15" t="s">
@@ -10930,8 +10928,8 @@
       </c>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="111"/>
-      <c r="B154" s="111"/>
+      <c r="A154" s="109"/>
+      <c r="B154" s="109"/>
       <c r="C154" s="16" t="s">
         <v>0</v>
       </c>
@@ -10944,15 +10942,15 @@
       <c r="J154" s="12"/>
       <c r="K154" s="16"/>
       <c r="L154" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M154" s="13"/>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="111">
+      <c r="A155" s="109">
         <v>77</v>
       </c>
-      <c r="B155" s="107" t="s">
+      <c r="B155" s="110" t="s">
         <v>227</v>
       </c>
       <c r="C155" s="17" t="s">
@@ -10963,7 +10961,7 @@
       <c r="G155" s="17"/>
       <c r="I155" s="17"/>
       <c r="K155" s="47" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="L155" s="7" t="s">
         <v>232</v>
@@ -10973,8 +10971,8 @@
       </c>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="111"/>
-      <c r="B156" s="111"/>
+      <c r="A156" s="109"/>
+      <c r="B156" s="109"/>
       <c r="C156" s="17" t="s">
         <v>0</v>
       </c>
@@ -10986,10 +10984,10 @@
       <c r="M156" s="14"/>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="111">
+      <c r="A157" s="109">
         <v>78</v>
       </c>
-      <c r="B157" s="107" t="s">
+      <c r="B157" s="110" t="s">
         <v>228</v>
       </c>
       <c r="C157" s="15" t="s">
@@ -11011,8 +11009,8 @@
       </c>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="111"/>
-      <c r="B158" s="111"/>
+      <c r="A158" s="109"/>
+      <c r="B158" s="109"/>
       <c r="C158" s="16" t="s">
         <v>77</v>
       </c>
@@ -11028,11 +11026,11 @@
       <c r="M158" s="13"/>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="111">
+      <c r="A159" s="109">
         <v>79</v>
       </c>
-      <c r="B159" s="120" t="s">
-        <v>325</v>
+      <c r="B159" s="106" t="s">
+        <v>316</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>54</v>
@@ -11045,16 +11043,16 @@
       <c r="I159" s="9"/>
       <c r="J159" s="15"/>
       <c r="K159" s="9"/>
-      <c r="L159" s="60" t="s">
-        <v>321</v>
+      <c r="L159" s="53" t="s">
+        <v>312</v>
       </c>
       <c r="M159" s="11" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:13">
-      <c r="A160" s="111"/>
-      <c r="B160" s="121"/>
+      <c r="A160" s="109"/>
+      <c r="B160" s="105"/>
       <c r="C160" s="16" t="s">
         <v>0</v>
       </c>
@@ -11066,17 +11064,17 @@
       <c r="I160" s="12"/>
       <c r="J160" s="16"/>
       <c r="K160" s="12"/>
-      <c r="L160" s="61" t="s">
-        <v>323</v>
+      <c r="L160" s="54" t="s">
+        <v>314</v>
       </c>
       <c r="M160" s="13"/>
     </row>
     <row r="161" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A161" s="111">
+      <c r="A161" s="109">
         <v>80</v>
       </c>
-      <c r="B161" s="120" t="s">
-        <v>326</v>
+      <c r="B161" s="106" t="s">
+        <v>317</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>54</v>
@@ -11089,16 +11087,16 @@
       <c r="I161" s="9"/>
       <c r="J161" s="15"/>
       <c r="K161" s="9"/>
-      <c r="L161" s="60" t="s">
-        <v>324</v>
+      <c r="L161" s="53" t="s">
+        <v>315</v>
       </c>
       <c r="M161" s="11" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:13">
-      <c r="A162" s="111"/>
-      <c r="B162" s="121"/>
+      <c r="A162" s="109"/>
+      <c r="B162" s="105"/>
       <c r="C162" s="16" t="s">
         <v>0</v>
       </c>
@@ -11110,85 +11108,85 @@
       <c r="I162" s="12"/>
       <c r="J162" s="16"/>
       <c r="K162" s="12"/>
-      <c r="L162" s="61" t="s">
-        <v>323</v>
+      <c r="L162" s="54" t="s">
+        <v>314</v>
       </c>
       <c r="M162" s="13"/>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="111">
+      <c r="A163" s="109">
         <v>81</v>
       </c>
-      <c r="B163" s="122" t="s">
-        <v>347</v>
+      <c r="B163" s="111" t="s">
+        <v>338</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D163" s="15"/>
-      <c r="E163" s="94">
+      <c r="E163" s="87">
         <v>45698</v>
       </c>
-      <c r="F163" s="106">
+      <c r="F163" s="99">
         <v>45726</v>
       </c>
-      <c r="G163" s="126" t="s">
-        <v>418</v>
-      </c>
-      <c r="H163" s="89">
+      <c r="G163" s="107" t="s">
+        <v>409</v>
+      </c>
+      <c r="H163" s="82">
         <v>45745</v>
       </c>
-      <c r="I163" s="123" t="s">
-        <v>465</v>
-      </c>
-      <c r="J163" s="64">
+      <c r="I163" s="102" t="s">
+        <v>453</v>
+      </c>
+      <c r="J163" s="57">
         <v>45745</v>
       </c>
-      <c r="K163" s="105" t="s">
-        <v>463</v>
-      </c>
-      <c r="L163" s="60" t="s">
-        <v>341</v>
+      <c r="K163" s="98" t="s">
+        <v>451</v>
+      </c>
+      <c r="L163" s="53" t="s">
+        <v>332</v>
       </c>
       <c r="M163" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="111"/>
-      <c r="B164" s="109"/>
+      <c r="A164" s="109"/>
+      <c r="B164" s="108"/>
       <c r="C164" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D164" s="16"/>
-      <c r="E164" s="95" t="s">
-        <v>417</v>
-      </c>
-      <c r="F164" s="63" t="s">
-        <v>466</v>
-      </c>
-      <c r="G164" s="109"/>
-      <c r="H164" s="63" t="s">
-        <v>464</v>
-      </c>
-      <c r="I164" s="124"/>
-      <c r="J164" s="63" t="s">
-        <v>464</v>
+      <c r="E164" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="F164" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="G164" s="108"/>
+      <c r="H164" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="I164" s="103"/>
+      <c r="J164" s="56" t="s">
+        <v>452</v>
       </c>
       <c r="K164" s="12"/>
-      <c r="L164" s="61" t="s">
+      <c r="L164" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="M164" s="102" t="s">
-        <v>424</v>
+      <c r="M164" s="95" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="165" spans="1:13">
-      <c r="A165" s="111">
+      <c r="A165" s="109">
         <v>82</v>
       </c>
-      <c r="B165" s="120" t="s">
-        <v>348</v>
+      <c r="B165" s="106" t="s">
+        <v>339</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>54</v>
@@ -11202,15 +11200,15 @@
       <c r="J165" s="9"/>
       <c r="K165" s="15"/>
       <c r="L165" s="10" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="M165" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="166" spans="1:13">
-      <c r="A166" s="111"/>
-      <c r="B166" s="121"/>
+      <c r="A166" s="109"/>
+      <c r="B166" s="105"/>
       <c r="C166" s="16" t="s">
         <v>0</v>
       </c>
@@ -11223,16 +11221,16 @@
       <c r="J166" s="12"/>
       <c r="K166" s="16"/>
       <c r="L166" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="M166" s="13"/>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" s="109">
+        <v>83</v>
+      </c>
+      <c r="B167" s="106" t="s">
         <v>340</v>
-      </c>
-      <c r="M166" s="13"/>
-    </row>
-    <row r="167" spans="1:13">
-      <c r="A167" s="111">
-        <v>83</v>
-      </c>
-      <c r="B167" s="120" t="s">
-        <v>349</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>54</v>
@@ -11246,15 +11244,15 @@
       <c r="J167" s="9"/>
       <c r="K167" s="15"/>
       <c r="L167" s="10" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M167" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="111"/>
-      <c r="B168" s="121"/>
+      <c r="A168" s="109"/>
+      <c r="B168" s="105"/>
       <c r="C168" s="16" t="s">
         <v>0</v>
       </c>
@@ -11267,16 +11265,16 @@
       <c r="J168" s="12"/>
       <c r="K168" s="16"/>
       <c r="L168" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M168" s="13"/>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="111">
+      <c r="A169" s="109">
         <v>84</v>
       </c>
-      <c r="B169" s="120" t="s">
-        <v>350</v>
+      <c r="B169" s="106" t="s">
+        <v>341</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>54</v>
@@ -11289,18 +11287,18 @@
       <c r="I169" s="15"/>
       <c r="J169" s="9"/>
       <c r="K169" s="41" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L169" s="10" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="M169" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:13">
-      <c r="A170" s="111"/>
-      <c r="B170" s="121"/>
+      <c r="A170" s="109"/>
+      <c r="B170" s="105"/>
       <c r="C170" s="16" t="s">
         <v>0</v>
       </c>
@@ -11313,16 +11311,16 @@
       <c r="J170" s="12"/>
       <c r="K170" s="16"/>
       <c r="L170" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M170" s="13"/>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="111">
+      <c r="A171" s="109">
         <v>85</v>
       </c>
-      <c r="B171" s="120" t="s">
-        <v>355</v>
+      <c r="B171" s="106" t="s">
+        <v>346</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>54</v>
@@ -11336,15 +11334,15 @@
       <c r="J171" s="9"/>
       <c r="K171" s="15"/>
       <c r="L171" s="10" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M171" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="172" spans="1:13">
-      <c r="A172" s="111"/>
-      <c r="B172" s="121"/>
+      <c r="A172" s="109"/>
+      <c r="B172" s="105"/>
       <c r="C172" s="16" t="s">
         <v>0</v>
       </c>
@@ -11357,16 +11355,16 @@
       <c r="J172" s="12"/>
       <c r="K172" s="16"/>
       <c r="L172" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M172" s="13"/>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173" s="111">
+      <c r="A173" s="109">
         <v>86</v>
       </c>
-      <c r="B173" s="120" t="s">
-        <v>356</v>
+      <c r="B173" s="106" t="s">
+        <v>347</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>54</v>
@@ -11380,15 +11378,15 @@
       <c r="J173" s="9"/>
       <c r="K173" s="15"/>
       <c r="L173" s="10" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M173" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="111"/>
-      <c r="B174" s="121"/>
+      <c r="A174" s="109"/>
+      <c r="B174" s="105"/>
       <c r="C174" s="16" t="s">
         <v>0</v>
       </c>
@@ -11401,16 +11399,16 @@
       <c r="J174" s="12"/>
       <c r="K174" s="16"/>
       <c r="L174" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M174" s="13"/>
     </row>
     <row r="175" spans="1:13">
-      <c r="A175" s="111">
+      <c r="A175" s="109">
         <v>87</v>
       </c>
-      <c r="B175" s="120" t="s">
-        <v>357</v>
+      <c r="B175" s="106" t="s">
+        <v>348</v>
       </c>
       <c r="C175" s="15" t="s">
         <v>54</v>
@@ -11424,15 +11422,15 @@
       <c r="J175" s="9"/>
       <c r="K175" s="15"/>
       <c r="L175" s="10" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M175" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:13">
-      <c r="A176" s="111"/>
-      <c r="B176" s="121"/>
+      <c r="A176" s="109"/>
+      <c r="B176" s="105"/>
       <c r="C176" s="16" t="s">
         <v>0</v>
       </c>
@@ -11445,16 +11443,16 @@
       <c r="J176" s="12"/>
       <c r="K176" s="16"/>
       <c r="L176" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M176" s="13"/>
     </row>
     <row r="177" spans="1:13">
-      <c r="A177" s="111">
+      <c r="A177" s="109">
         <v>88</v>
       </c>
-      <c r="B177" s="120" t="s">
-        <v>370</v>
+      <c r="B177" s="106" t="s">
+        <v>361</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>54</v>
@@ -11468,15 +11466,15 @@
       <c r="J177" s="9"/>
       <c r="K177" s="15"/>
       <c r="L177" s="10" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M177" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="178" spans="1:13">
-      <c r="A178" s="111"/>
-      <c r="B178" s="121"/>
+      <c r="A178" s="109"/>
+      <c r="B178" s="105"/>
       <c r="C178" s="16" t="s">
         <v>77</v>
       </c>
@@ -11489,16 +11487,16 @@
       <c r="J178" s="12"/>
       <c r="K178" s="16"/>
       <c r="L178" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M178" s="13"/>
     </row>
     <row r="179" spans="1:13">
-      <c r="A179" s="111">
+      <c r="A179" s="109">
         <v>89</v>
       </c>
-      <c r="B179" s="120" t="s">
-        <v>371</v>
+      <c r="B179" s="106" t="s">
+        <v>362</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>54</v>
@@ -11510,19 +11508,19 @@
       <c r="H179" s="9"/>
       <c r="I179" s="15"/>
       <c r="J179" s="9"/>
-      <c r="K179" s="104" t="s">
-        <v>461</v>
+      <c r="K179" s="97" t="s">
+        <v>449</v>
       </c>
       <c r="L179" s="10" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M179" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="111"/>
-      <c r="B180" s="121"/>
+      <c r="A180" s="109"/>
+      <c r="B180" s="105"/>
       <c r="C180" s="16" t="s">
         <v>0</v>
       </c>
@@ -11535,16 +11533,16 @@
       <c r="J180" s="12"/>
       <c r="K180" s="16"/>
       <c r="L180" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M180" s="13"/>
     </row>
     <row r="181" spans="1:13">
-      <c r="A181" s="111">
+      <c r="A181" s="109">
         <v>90</v>
       </c>
-      <c r="B181" s="120" t="s">
-        <v>372</v>
+      <c r="B181" s="106" t="s">
+        <v>363</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>54</v>
@@ -11558,15 +11556,15 @@
       <c r="J181" s="9"/>
       <c r="K181" s="15"/>
       <c r="L181" s="10" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M181" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="111"/>
-      <c r="B182" s="121"/>
+      <c r="A182" s="109"/>
+      <c r="B182" s="105"/>
       <c r="C182" s="16" t="s">
         <v>0</v>
       </c>
@@ -11579,16 +11577,16 @@
       <c r="J182" s="12"/>
       <c r="K182" s="16"/>
       <c r="L182" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M182" s="13"/>
     </row>
     <row r="183" spans="1:13">
-      <c r="A183" s="111">
+      <c r="A183" s="109">
         <v>91</v>
       </c>
-      <c r="B183" s="120" t="s">
-        <v>373</v>
+      <c r="B183" s="106" t="s">
+        <v>364</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>54</v>
@@ -11602,15 +11600,15 @@
       <c r="J183" s="9"/>
       <c r="K183" s="15"/>
       <c r="L183" s="10" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M183" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184" s="111"/>
-      <c r="B184" s="121"/>
+      <c r="A184" s="109"/>
+      <c r="B184" s="105"/>
       <c r="C184" s="16" t="s">
         <v>0</v>
       </c>
@@ -11623,16 +11621,16 @@
       <c r="J184" s="12"/>
       <c r="K184" s="16"/>
       <c r="L184" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M184" s="13"/>
     </row>
     <row r="185" spans="1:13">
-      <c r="A185" s="111">
+      <c r="A185" s="109">
         <v>92</v>
       </c>
-      <c r="B185" s="125" t="s">
-        <v>366</v>
+      <c r="B185" s="104" t="s">
+        <v>357</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>54</v>
@@ -11646,15 +11644,15 @@
       <c r="J185" s="9"/>
       <c r="K185" s="15"/>
       <c r="L185" s="10" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M185" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="186" spans="1:13">
-      <c r="A186" s="111"/>
-      <c r="B186" s="121"/>
+      <c r="A186" s="109"/>
+      <c r="B186" s="105"/>
       <c r="C186" s="16" t="s">
         <v>0</v>
       </c>
@@ -11667,16 +11665,16 @@
       <c r="J186" s="12"/>
       <c r="K186" s="16"/>
       <c r="L186" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M186" s="13"/>
     </row>
     <row r="187" spans="1:13">
-      <c r="A187" s="111">
+      <c r="A187" s="109">
         <v>93</v>
       </c>
-      <c r="B187" s="125" t="s">
-        <v>368</v>
+      <c r="B187" s="104" t="s">
+        <v>359</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>54</v>
@@ -11690,15 +11688,15 @@
       <c r="J187" s="9"/>
       <c r="K187" s="15"/>
       <c r="L187" s="10" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M187" s="11" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="188" spans="1:13">
-      <c r="A188" s="111"/>
-      <c r="B188" s="121"/>
+      <c r="A188" s="109"/>
+      <c r="B188" s="105"/>
       <c r="C188" s="16" t="s">
         <v>0</v>
       </c>
@@ -11711,21 +11709,21 @@
       <c r="J188" s="12"/>
       <c r="K188" s="16"/>
       <c r="L188" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M188" s="13"/>
     </row>
     <row r="189" spans="1:13">
-      <c r="A189" s="111">
+      <c r="A189" s="109">
         <v>94</v>
       </c>
-      <c r="B189" s="120" t="s">
-        <v>409</v>
+      <c r="B189" s="106" t="s">
+        <v>400</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D189" s="68">
+      <c r="D189" s="61">
         <v>45705.541666666664</v>
       </c>
       <c r="E189" s="15"/>
@@ -11735,23 +11733,23 @@
       <c r="I189" s="15"/>
       <c r="J189" s="9"/>
       <c r="K189" s="41" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="L189" s="10" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M189" s="11" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="190" spans="1:13">
-      <c r="A190" s="111"/>
-      <c r="B190" s="121"/>
+      <c r="A190" s="109"/>
+      <c r="B190" s="105"/>
       <c r="C190" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D190" s="90" t="s">
-        <v>410</v>
+      <c r="D190" s="83" t="s">
+        <v>401</v>
       </c>
       <c r="E190" s="16"/>
       <c r="F190" s="12"/>
@@ -11761,15 +11759,15 @@
       <c r="J190" s="12"/>
       <c r="K190" s="16"/>
       <c r="L190" s="18" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M190" s="13"/>
     </row>
     <row r="191" spans="1:13">
-      <c r="A191" s="111">
+      <c r="A191" s="109">
         <v>95</v>
       </c>
-      <c r="B191" s="125"/>
+      <c r="B191" s="104"/>
       <c r="C191" s="15"/>
       <c r="D191" s="9"/>
       <c r="E191" s="15"/>
@@ -11780,11 +11778,11 @@
       <c r="J191" s="9"/>
       <c r="K191" s="15"/>
       <c r="L191" s="9"/>
-      <c r="M191" s="73"/>
+      <c r="M191" s="66"/>
     </row>
     <row r="192" spans="1:13">
-      <c r="A192" s="111"/>
-      <c r="B192" s="121"/>
+      <c r="A192" s="109"/>
+      <c r="B192" s="105"/>
       <c r="C192" s="16"/>
       <c r="D192" s="12"/>
       <c r="E192" s="16"/>
@@ -11798,10 +11796,10 @@
       <c r="M192" s="13"/>
     </row>
     <row r="193" spans="1:13">
-      <c r="A193" s="111">
+      <c r="A193" s="109">
         <v>96</v>
       </c>
-      <c r="B193" s="125"/>
+      <c r="B193" s="104"/>
       <c r="C193" s="15"/>
       <c r="D193" s="9"/>
       <c r="E193" s="15"/>
@@ -11812,11 +11810,11 @@
       <c r="J193" s="9"/>
       <c r="K193" s="15"/>
       <c r="L193" s="9"/>
-      <c r="M193" s="73"/>
+      <c r="M193" s="66"/>
     </row>
     <row r="194" spans="1:13">
-      <c r="A194" s="111"/>
-      <c r="B194" s="121"/>
+      <c r="A194" s="109"/>
+      <c r="B194" s="105"/>
       <c r="C194" s="16"/>
       <c r="D194" s="12"/>
       <c r="E194" s="16"/>
@@ -11830,10 +11828,10 @@
       <c r="M194" s="13"/>
     </row>
     <row r="195" spans="1:13">
-      <c r="A195" s="111">
+      <c r="A195" s="109">
         <v>97</v>
       </c>
-      <c r="B195" s="125"/>
+      <c r="B195" s="104"/>
       <c r="C195" s="15"/>
       <c r="D195" s="9"/>
       <c r="E195" s="15"/>
@@ -11844,11 +11842,11 @@
       <c r="J195" s="9"/>
       <c r="K195" s="15"/>
       <c r="L195" s="9"/>
-      <c r="M195" s="73"/>
+      <c r="M195" s="66"/>
     </row>
     <row r="196" spans="1:13">
-      <c r="A196" s="111"/>
-      <c r="B196" s="121"/>
+      <c r="A196" s="109"/>
+      <c r="B196" s="105"/>
       <c r="C196" s="16"/>
       <c r="D196" s="12"/>
       <c r="E196" s="16"/>
@@ -11862,10 +11860,10 @@
       <c r="M196" s="13"/>
     </row>
     <row r="197" spans="1:13">
-      <c r="A197" s="111">
+      <c r="A197" s="109">
         <v>98</v>
       </c>
-      <c r="B197" s="125"/>
+      <c r="B197" s="104"/>
       <c r="C197" s="15"/>
       <c r="D197" s="9"/>
       <c r="E197" s="15"/>
@@ -11876,11 +11874,11 @@
       <c r="J197" s="9"/>
       <c r="K197" s="15"/>
       <c r="L197" s="9"/>
-      <c r="M197" s="73"/>
+      <c r="M197" s="66"/>
     </row>
     <row r="198" spans="1:13">
-      <c r="A198" s="111"/>
-      <c r="B198" s="121"/>
+      <c r="A198" s="109"/>
+      <c r="B198" s="105"/>
       <c r="C198" s="16"/>
       <c r="D198" s="12"/>
       <c r="E198" s="16"/>
@@ -11894,10 +11892,10 @@
       <c r="M198" s="13"/>
     </row>
     <row r="199" spans="1:13">
-      <c r="A199" s="111">
+      <c r="A199" s="109">
         <v>99</v>
       </c>
-      <c r="B199" s="125"/>
+      <c r="B199" s="104"/>
       <c r="C199" s="15"/>
       <c r="D199" s="9"/>
       <c r="E199" s="15"/>
@@ -11908,11 +11906,11 @@
       <c r="J199" s="9"/>
       <c r="K199" s="15"/>
       <c r="L199" s="9"/>
-      <c r="M199" s="73"/>
+      <c r="M199" s="66"/>
     </row>
     <row r="200" spans="1:13">
-      <c r="A200" s="111"/>
-      <c r="B200" s="121"/>
+      <c r="A200" s="109"/>
+      <c r="B200" s="105"/>
       <c r="C200" s="16"/>
       <c r="D200" s="12"/>
       <c r="E200" s="16"/>
@@ -11926,10 +11924,10 @@
       <c r="M200" s="13"/>
     </row>
     <row r="201" spans="1:13">
-      <c r="A201" s="111">
+      <c r="A201" s="109">
         <v>100</v>
       </c>
-      <c r="B201" s="125"/>
+      <c r="B201" s="104"/>
       <c r="C201" s="15"/>
       <c r="D201" s="9"/>
       <c r="E201" s="15"/>
@@ -11940,11 +11938,11 @@
       <c r="J201" s="9"/>
       <c r="K201" s="15"/>
       <c r="L201" s="9"/>
-      <c r="M201" s="73"/>
+      <c r="M201" s="66"/>
     </row>
     <row r="202" spans="1:13">
-      <c r="A202" s="111"/>
-      <c r="B202" s="121"/>
+      <c r="A202" s="109"/>
+      <c r="B202" s="105"/>
       <c r="C202" s="16"/>
       <c r="D202" s="12"/>
       <c r="E202" s="16"/>
@@ -11958,10 +11956,10 @@
       <c r="M202" s="13"/>
     </row>
     <row r="203" spans="1:13">
-      <c r="A203" s="111">
+      <c r="A203" s="109">
         <v>101</v>
       </c>
-      <c r="B203" s="125"/>
+      <c r="B203" s="104"/>
       <c r="C203" s="15"/>
       <c r="D203" s="9"/>
       <c r="E203" s="15"/>
@@ -11972,11 +11970,11 @@
       <c r="J203" s="9"/>
       <c r="K203" s="15"/>
       <c r="L203" s="9"/>
-      <c r="M203" s="73"/>
+      <c r="M203" s="66"/>
     </row>
     <row r="204" spans="1:13">
-      <c r="A204" s="111"/>
-      <c r="B204" s="121"/>
+      <c r="A204" s="109"/>
+      <c r="B204" s="105"/>
       <c r="C204" s="16"/>
       <c r="D204" s="12"/>
       <c r="E204" s="16"/>
@@ -12030,128 +12028,81 @@
     </row>
   </sheetData>
   <mergeCells count="225">
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A53:A54"/>
@@ -12176,85 +12127,132 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
     <mergeCell ref="B129:B130"/>
     <mergeCell ref="B131:B132"/>
     <mergeCell ref="B133:B134"/>
     <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B165:B166"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -12511,9 +12509,11 @@
     <hyperlink ref="M164" r:id="rId251" xr:uid="{0ED7A13A-7A88-4317-ABF3-740949C49FC2}"/>
     <hyperlink ref="K179" r:id="rId252" xr:uid="{2145EB58-4068-4FA4-9919-5CBED8DE90B6}"/>
     <hyperlink ref="K163" r:id="rId253" xr:uid="{A6B977A7-0A8F-423A-B161-37371C74DD2C}"/>
+    <hyperlink ref="L126" r:id="rId254" xr:uid="{5E635E4E-8009-479D-9228-732BF317B901}"/>
+    <hyperlink ref="M28" r:id="rId255" xr:uid="{D3C3CD07-020B-4B09-A145-936B290DC759}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId254"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId256"/>
 </worksheet>
 </file>
 
@@ -12521,223 +12521,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38F57D0-F254-4DD1-AED1-EBC7AE38B116}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="103" customWidth="1"/>
-    <col min="2" max="2" width="66.75" style="103" customWidth="1"/>
+    <col min="1" max="1" width="28.25" style="96" customWidth="1"/>
+    <col min="2" max="2" width="66.75" style="96" customWidth="1"/>
     <col min="3" max="3" width="35.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="99.75" style="92" customWidth="1"/>
+    <col min="4" max="4" width="99.75" style="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="108">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:4" ht="80.650000000000006">
+      <c r="A1" s="96" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.5">
+      <c r="A2" s="96" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="102">
+      <c r="A4" s="96" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5">
+      <c r="A5" s="96" t="s">
+        <v>417</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5">
+      <c r="A6" s="96" t="s">
+        <v>418</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="76.5">
+      <c r="A7" s="96" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="38.25">
+      <c r="A8" s="96" t="s">
         <v>425</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1" s="92" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="36">
-      <c r="A2" s="103" t="s">
+      <c r="B8" s="85" t="s">
         <v>426</v>
       </c>
-      <c r="B2" s="92" t="s">
-        <v>431</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="103" t="s">
+      <c r="C8" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5">
+      <c r="A9" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="162" customHeight="1">
+      <c r="A10" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5">
+      <c r="A11" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="38.25">
+      <c r="A12" s="96" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.5">
+      <c r="A13" s="96" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="96" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="103" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="25.5">
+      <c r="A14" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5">
+      <c r="A15" s="96" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>438</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="96" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="144">
-      <c r="A4" s="103" t="s">
-        <v>427</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>452</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>454</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="36">
-      <c r="A5" s="103" t="s">
-        <v>428</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="36">
-      <c r="A6" s="103" t="s">
-        <v>429</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>433</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D6" s="92" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="108">
-      <c r="A7" s="103" t="s">
-        <v>430</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>430</v>
-      </c>
-      <c r="D7" s="92" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="54">
-      <c r="A8" s="103" t="s">
-        <v>436</v>
-      </c>
-      <c r="B8" s="92" t="s">
+      <c r="C16" s="96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="96" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="36">
-      <c r="A9" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>438</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="162" customHeight="1">
-      <c r="A10" s="103" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="92" t="s">
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="96" t="s">
         <v>439</v>
-      </c>
-      <c r="C10" s="103" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="36">
-      <c r="A11" s="103" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>440</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="54">
-      <c r="A12" s="103" t="s">
-        <v>441</v>
-      </c>
-      <c r="B12" s="92" t="s">
-        <v>443</v>
-      </c>
-      <c r="C12" s="103" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36">
-      <c r="A13" s="103" t="s">
-        <v>444</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>446</v>
-      </c>
-      <c r="C13" s="103" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="36">
-      <c r="A14" s="103" t="s">
-        <v>273</v>
-      </c>
-      <c r="B14" s="92" t="s">
-        <v>447</v>
-      </c>
-      <c r="C14" s="103" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="36">
-      <c r="A15" s="103" t="s">
-        <v>448</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>449</v>
-      </c>
-      <c r="C15" s="103" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="103" t="s">
-        <v>450</v>
-      </c>
-      <c r="B16" s="103" t="s">
-        <v>445</v>
-      </c>
-      <c r="C16" s="103" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="103" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="103" t="s">
-        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -12750,30 +12750,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090B0416-F1D2-4A08-9C25-1FAF8F39F174}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="27.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="60" style="42" customWidth="1"/>
     <col min="3" max="3" width="111.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A1" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="76" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="1:3" ht="51">
+      <c r="A2" s="121" t="s">
         <v>241</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -12783,8 +12783,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="72">
-      <c r="A3" s="112"/>
+    <row r="3" spans="1:3" ht="38.25">
+      <c r="A3" s="121"/>
       <c r="B3" s="42" t="s">
         <v>139</v>
       </c>
@@ -12792,8 +12792,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36">
-      <c r="A4" s="112"/>
+    <row r="4" spans="1:3" ht="25.5">
+      <c r="A4" s="121"/>
       <c r="B4" s="42" t="s">
         <v>140</v>
       </c>
@@ -12801,8 +12801,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="54">
-      <c r="A5" s="112"/>
+    <row r="5" spans="1:3" ht="38.25">
+      <c r="A5" s="121"/>
       <c r="B5" s="42" t="s">
         <v>141</v>
       </c>
@@ -12810,17 +12810,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="72.75" thickBot="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="82" t="s">
+    <row r="6" spans="1:3" ht="38.65" thickBot="1">
+      <c r="A6" s="125"/>
+      <c r="B6" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="74" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="36">
-      <c r="A7" s="130" t="s">
+    <row r="7" spans="1:3" ht="25.5">
+      <c r="A7" s="126" t="s">
         <v>242</v>
       </c>
       <c r="B7" s="45" t="s">
@@ -12830,8 +12830,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="36">
-      <c r="A8" s="130"/>
+    <row r="8" spans="1:3" ht="25.5">
+      <c r="A8" s="126"/>
       <c r="B8" s="45" t="s">
         <v>244</v>
       </c>
@@ -12839,8 +12839,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="72">
-      <c r="A9" s="130"/>
+    <row r="9" spans="1:3" ht="51">
+      <c r="A9" s="126"/>
       <c r="B9" s="45" t="s">
         <v>245</v>
       </c>
@@ -12848,8 +12848,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72">
-      <c r="A10" s="130"/>
+    <row r="10" spans="1:3" ht="38.25">
+      <c r="A10" s="126"/>
       <c r="B10" s="45" t="s">
         <v>246</v>
       </c>
@@ -12857,8 +12857,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="108">
-      <c r="A11" s="130"/>
+    <row r="11" spans="1:3" ht="63.75">
+      <c r="A11" s="126"/>
       <c r="B11" s="45" t="s">
         <v>249</v>
       </c>
@@ -12866,8 +12866,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="108">
-      <c r="A12" s="130"/>
+    <row r="12" spans="1:3" ht="63.75">
+      <c r="A12" s="126"/>
       <c r="B12" s="45" t="s">
         <v>247</v>
       </c>
@@ -12875,192 +12875,192 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="216.75" thickBot="1">
-      <c r="A13" s="131"/>
-      <c r="B13" s="80" t="s">
+    <row r="13" spans="1:3" ht="140.65" thickBot="1">
+      <c r="A13" s="127"/>
+      <c r="B13" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="74" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="72">
-      <c r="A14" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>331</v>
-      </c>
-      <c r="C14" s="87" t="s">
+    <row r="14" spans="1:3" ht="38.25">
+      <c r="A14" s="124" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="80" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="108">
-      <c r="A15" s="111"/>
+    <row r="15" spans="1:3" ht="63.75">
+      <c r="A15" s="109"/>
       <c r="B15" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="C15" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="126">
-      <c r="A16" s="111"/>
+    <row r="16" spans="1:3" ht="76.5">
+      <c r="A16" s="109"/>
       <c r="B16" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="72">
-      <c r="A17" s="111"/>
+        <v>324</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="38.25">
+      <c r="A17" s="109"/>
       <c r="B17" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="36.75" thickBot="1">
-      <c r="A18" s="127"/>
-      <c r="B18" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="79"/>
-    </row>
-    <row r="19" spans="1:3" ht="36">
-      <c r="A19" s="109" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="25.9" thickBot="1">
+      <c r="A18" s="123"/>
+      <c r="B18" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="72"/>
+    </row>
+    <row r="19" spans="1:3" ht="25.5">
+      <c r="A19" s="108" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="89.25">
+      <c r="A20" s="109"/>
+      <c r="B20" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="76.5">
+      <c r="A21" s="109"/>
+      <c r="B21" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="51">
+      <c r="A22" s="109"/>
+      <c r="B22" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="76.900000000000006" thickBot="1">
+      <c r="A23" s="123"/>
+      <c r="B23" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="B19" s="77" t="s">
-        <v>376</v>
-      </c>
-      <c r="C19" s="44" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="89.25">
+      <c r="A24" s="124" t="s">
+        <v>377</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="89.65" thickBot="1">
+      <c r="A25" s="123"/>
+      <c r="B25" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="38.25">
+      <c r="A26" s="124" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="126">
-      <c r="A20" s="111"/>
-      <c r="B20" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="126">
-      <c r="A21" s="111"/>
-      <c r="B21" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="90">
-      <c r="A22" s="111"/>
-      <c r="B22" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" s="70" t="s">
+      <c r="B26" s="79" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="144.75" thickBot="1">
-      <c r="A23" s="127"/>
-      <c r="B23" s="78" t="s">
-        <v>379</v>
-      </c>
-      <c r="C23" s="85" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="126">
-      <c r="A24" s="128" t="s">
+      <c r="C26" s="80" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="63.75">
+      <c r="A27" s="109"/>
+      <c r="B27" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="B24" s="86" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" s="87" t="s">
+      <c r="C27" s="63" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="51">
+      <c r="A28" s="109"/>
+      <c r="B28" s="48" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="126.75" thickBot="1">
-      <c r="A25" s="127"/>
-      <c r="B25" s="78" t="s">
+      <c r="C28" s="63" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="63.75">
+      <c r="A29" s="109"/>
+      <c r="B29" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C29" s="63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="64.150000000000006" thickBot="1">
+      <c r="A30" s="123"/>
+      <c r="B30" s="71" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="72">
-      <c r="A26" s="128" t="s">
-        <v>393</v>
-      </c>
-      <c r="B26" s="86" t="s">
+      <c r="C30" s="78" t="s">
         <v>394</v>
       </c>
-      <c r="C26" s="87" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="108">
-      <c r="A27" s="111"/>
-      <c r="B27" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="90">
-      <c r="A28" s="111"/>
-      <c r="B28" s="48" t="s">
-        <v>396</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="90">
-      <c r="A29" s="111"/>
-      <c r="B29" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="C29" s="70" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="63.75">
+      <c r="A31" s="108" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="108.75" thickBot="1">
-      <c r="A30" s="127"/>
-      <c r="B30" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="C30" s="85" t="s">
+      <c r="B31" s="46" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="108">
-      <c r="A31" s="109" t="s">
-        <v>411</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>412</v>
-      </c>
       <c r="C31" s="44" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="126.75" thickBot="1">
-      <c r="A32" s="127"/>
-      <c r="B32" s="78" t="s">
-        <v>413</v>
-      </c>
-      <c r="C32" s="85" t="s">
-        <v>414</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="89.65" thickBot="1">
+      <c r="A32" s="123"/>
+      <c r="B32" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -13080,345 +13080,346 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458BD083-343D-440D-936A-58D1166E7EC1}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="36" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="59" style="57" customWidth="1"/>
-    <col min="4" max="4" width="70.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36" style="144" customWidth="1"/>
+    <col min="2" max="2" width="35.0625" style="140" customWidth="1"/>
+    <col min="3" max="3" width="101.9375" style="141" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:3" ht="108" customHeight="1">
+      <c r="A1" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="137" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B2" s="138" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C2" s="137" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="105.75">
+      <c r="A3" s="139" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="93.75">
-      <c r="A2" s="132" t="s">
+      <c r="B3" s="140" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="C3" s="140" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="164.25" customHeight="1">
+      <c r="A4" s="142"/>
+      <c r="B4" s="140" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="158.65">
+      <c r="A5" s="142"/>
+      <c r="B5" s="140" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="133"/>
-      <c r="B3" s="59" t="s">
+      <c r="C5" s="140" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="142"/>
+      <c r="B6" s="140" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="158.65">
+      <c r="A7" s="142"/>
+      <c r="B7" s="140" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="133"/>
-      <c r="B4" s="59" t="s">
+      <c r="C7" s="140" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="158.65">
+      <c r="A8" s="142"/>
+      <c r="B8" s="140" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="133"/>
-      <c r="B5" s="59" t="s">
+      <c r="C8" s="140" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="142"/>
+      <c r="B9" s="140" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="133"/>
-      <c r="B6" s="59" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="142"/>
+      <c r="B10" s="140" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="133"/>
-      <c r="B7" s="59" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="142"/>
+      <c r="B11" s="140" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="133"/>
-      <c r="B8" s="59" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="142"/>
+      <c r="B12" s="140" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="133"/>
-      <c r="B9" s="59" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="142"/>
+      <c r="B13" s="140" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="133"/>
-      <c r="B10" s="59" t="s">
+    <row r="14" spans="1:3" ht="141">
+      <c r="A14" s="142"/>
+      <c r="B14" s="140" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="133"/>
-      <c r="B11" s="59" t="s">
+      <c r="C14" s="140" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="141">
+      <c r="A15" s="142"/>
+      <c r="B15" s="140" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="133"/>
-      <c r="B12" s="59" t="s">
+      <c r="C15" s="140" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="142"/>
+      <c r="B16" s="140" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="133"/>
-      <c r="B13" s="59" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="142"/>
+      <c r="B17" s="140" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="133"/>
-      <c r="B14" s="59" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="142"/>
+      <c r="B18" s="140" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="133"/>
-      <c r="B15" s="59" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="142"/>
+      <c r="B19" s="140" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="133"/>
-      <c r="B16" s="59" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="142"/>
+      <c r="B20" s="140" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="133"/>
-      <c r="B17" s="59" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="142"/>
+      <c r="B21" s="140" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="133"/>
-      <c r="B18" s="59" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="142"/>
+      <c r="B22" s="140" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="133"/>
-      <c r="B19" s="59" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="142"/>
+      <c r="B23" s="140" t="s">
         <v>280</v>
       </c>
-      <c r="C19" s="57" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="133"/>
-      <c r="B20" s="59" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="35.25">
+      <c r="A24" s="142"/>
+      <c r="B24" s="140" t="s">
         <v>281</v>
       </c>
-      <c r="C20" s="57" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="133"/>
-      <c r="B21" s="59" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="35.25">
+      <c r="A25" s="142"/>
+      <c r="B25" s="140" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="37.5">
-      <c r="A22" s="133"/>
-      <c r="B22" s="59" t="s">
+    <row r="26" spans="1:2" ht="52.9">
+      <c r="A26" s="142"/>
+      <c r="B26" s="140" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="37.5">
-      <c r="A23" s="133"/>
-      <c r="B23" s="59" t="s">
+    <row r="27" spans="1:2" ht="35.25">
+      <c r="A27" s="142"/>
+      <c r="B27" s="143" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="37.5">
-      <c r="A24" s="133"/>
-      <c r="B24" s="59" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="142"/>
+      <c r="B28" s="140" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="56.25">
-      <c r="A25" s="133"/>
-      <c r="B25" s="59" t="s">
+    <row r="29" spans="1:2" ht="35.25">
+      <c r="A29" s="142"/>
+      <c r="B29" s="143" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="35.25">
+      <c r="A30" s="142"/>
+      <c r="B30" s="143" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="37.5">
-      <c r="A26" s="133"/>
-      <c r="B26" s="58" t="s">
+    <row r="31" spans="1:2" ht="35.25">
+      <c r="A31" s="142"/>
+      <c r="B31" s="143" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="133"/>
-      <c r="B27" s="59" t="s">
+    <row r="32" spans="1:2" ht="35.25">
+      <c r="A32" s="142"/>
+      <c r="B32" s="143" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="37.5">
-      <c r="A28" s="133"/>
-      <c r="B28" s="58" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="37.5">
-      <c r="A29" s="133"/>
-      <c r="B29" s="58" t="s">
+    <row r="33" spans="1:2" ht="35.25">
+      <c r="A33" s="142"/>
+      <c r="B33" s="143" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="37.5">
-      <c r="A30" s="133"/>
-      <c r="B30" s="58" t="s">
+    <row r="34" spans="1:2" ht="35.25">
+      <c r="A34" s="142"/>
+      <c r="B34" s="143" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="37.5">
-      <c r="A31" s="133"/>
-      <c r="B31" s="58" t="s">
+    <row r="35" spans="1:2" ht="35.25">
+      <c r="A35" s="142"/>
+      <c r="B35" s="143" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="37.5">
-      <c r="A32" s="133"/>
-      <c r="B32" s="58" t="s">
+    <row r="36" spans="1:2" ht="35.25">
+      <c r="A36" s="142"/>
+      <c r="B36" s="143" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="37.5">
-      <c r="A33" s="133"/>
-      <c r="B33" s="58" t="s">
+    <row r="37" spans="1:2" ht="35.25">
+      <c r="A37" s="142"/>
+      <c r="B37" s="143" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="37.5">
-      <c r="A34" s="133"/>
-      <c r="B34" s="58" t="s">
+    <row r="38" spans="1:2" ht="35.25">
+      <c r="A38" s="142"/>
+      <c r="B38" s="143" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="37.5">
-      <c r="A35" s="133"/>
-      <c r="B35" s="58" t="s">
+    <row r="39" spans="1:2" ht="52.9">
+      <c r="A39" s="142"/>
+      <c r="B39" s="143" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="37.5">
-      <c r="A36" s="133"/>
-      <c r="B36" s="58" t="s">
+    <row r="40" spans="1:2" ht="52.9">
+      <c r="A40" s="142"/>
+      <c r="B40" s="143" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="37.5">
-      <c r="A37" s="133"/>
-      <c r="B37" s="58" t="s">
+    <row r="41" spans="1:2" ht="35.25">
+      <c r="A41" s="142"/>
+      <c r="B41" s="143" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="56.25">
-      <c r="A38" s="133"/>
-      <c r="B38" s="58" t="s">
+    <row r="42" spans="1:2" ht="35.25">
+      <c r="A42" s="142"/>
+      <c r="B42" s="143" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="56.25">
-      <c r="A39" s="133"/>
-      <c r="B39" s="58" t="s">
+    <row r="43" spans="1:2" ht="35.25">
+      <c r="A43" s="142"/>
+      <c r="B43" s="143" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="37.5">
-      <c r="A40" s="133"/>
-      <c r="B40" s="58" t="s">
+    <row r="44" spans="1:2" ht="35.25">
+      <c r="A44" s="142"/>
+      <c r="B44" s="143" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="37.5">
-      <c r="A41" s="133"/>
-      <c r="B41" s="58" t="s">
+    <row r="45" spans="1:2" ht="35.25">
+      <c r="A45" s="142"/>
+      <c r="B45" s="143" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="37.5">
-      <c r="A42" s="133"/>
-      <c r="B42" s="58" t="s">
+    <row r="46" spans="1:2" ht="35.25">
+      <c r="A46" s="142"/>
+      <c r="B46" s="143" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="37.5">
-      <c r="A43" s="133"/>
-      <c r="B43" s="58" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="37.5">
-      <c r="A44" s="133"/>
-      <c r="B44" s="58" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="37.5">
-      <c r="A45" s="133"/>
-      <c r="B45" s="58" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="133"/>
-    </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="133"/>
+      <c r="A47" s="142"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="133"/>
+      <c r="A48" s="142"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="133"/>
+      <c r="A49" s="142"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="133"/>
+      <c r="A50" s="142"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="133"/>
+      <c r="A51" s="142"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="142"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A51"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A52"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/就活.xlsx
+++ b/就活.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC5D150-BD4A-4CA3-BB36-909DF5BFB356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FA236D-BDAE-4CD9-8F11-D8D67C850394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
   </bookViews>
   <sheets>
     <sheet name="日程" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="483">
   <si>
     <t>SIer</t>
     <phoneticPr fontId="1"/>
@@ -3928,29 +3928,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>将来の夢</t>
-    <rPh sb="0" eb="2">
-      <t>ショウライ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ユメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特技</t>
     <rPh sb="0" eb="2">
       <t>トクギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>韓国に家族がいますが…</t>
-    <rPh sb="0" eb="2">
-      <t>カンコク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6169,62 +6149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대원칙
-1. 결론 퍼스트.
-2. 장황하지 않게 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>~7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">문장으로.
-3. 외국인의 입장 강조 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">x
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기업이 원하는 인재상에 맞게 에피소드를 말하고, 끝 문장에 정리해서 말하기
-5. 후카보리 3문제씩 대비할 것</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>私の強みは、チームの中で率先して問題解決に取り組むことです。
 空軍の情報職として勤務した際、部署内の引き継ぎシステムが十分でなく、新人が業務を習得するまでに長い時間がかかるという問題がありました。
 私だけでなく、後輩たちも同じように苦労していたため、何か改善できる方法はないかと考えるようになりました。
@@ -6266,24 +6190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>兵役やeスポーツの仕事に携わっていたため、大学を4年間休学しました。
-周りの人が就職を決めたり学業で成果を上げていく姿を見て、正直焦りを感じたこともありました。
-しかし、そこで挫折するのではなく、eスポーツの仕事で培った自分の強みを活かそうと決意し、復学後はゲーム開発サークルに参加してC#を学びながらコンテンツ企画にも積極的に取り組みました。
-その結果、チームで卒業プロジェクトを完成させ、学内大会で最優秀賞を受賞することができました。
-この経験を通じて、何事も「遅すぎる」ということはなく、与えられた環境で最善を尽くせば大きな成果が得られると実感しています。
-貴社においても、この姿勢を貫き、組織に貢献していきたいと考えております。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私が日本での就職を希望する理由は、大きく2つあります。
-第一に、私の専攻を活かして、日本のDXによる社会変革に貢献したいからです。
-近年、日本では政府や企業が一体となってIT技術によるデジタル化を推進しており、その最前線に立つ貴社で責任とやりがいをもって社会に貢献したいと考えています。
-第二に、日本の高い信頼性と安定性を求める基準のもとで、多くのことを学びたいからです。
-特に貴社は、日本銀行などの大規模金融システムを開発・運用しながらシステムの安定性が高く評価されており、そうした環境で経験を積むことで大きく成長できると考えています。
-以上の理由から日本での就職を決意し、貴社を第一志望として就職活動に専念しております。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自己PR・自分の強み</t>
     <rPh sb="0" eb="2">
       <t>ジコ</t>
@@ -6291,21 +6197,609 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自分の強みと弱み</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私の欠点は、一つのことに熱中すると、他のことがおろそかになってしまう点です。
+    <t>私の弱みは、一つのことに熱中すると、他のことが疎かになってしまうことです。
 2021年に偶然、Eスポーツの放送に携わる機会を得て、その仕事に全力で取り組んだ結果、多くの成果を出すことができましたが、一方で学業が疎かになり、休学期間が長くなって就職活動の時期も遅れてしまいました。
 この問題を痛感し、仕事と学業を両立させるために、1日ごとにスケジュールを整理し、長期的な目標を立てるなど、計画的に管理を行うようにしました。
-その結果、昨年は卒業プロジェクトで最優秀賞を獲得すると同時に、日本語学習にも力を入れ、日本語能力試験1級を取得することができました。
+その結果、昨年は卒業プロジェクトで最優秀賞を受賞すると同時に、日本語学習にも力を入れ、日本語能力試験1級を取得することができました。
 今後、どのような課題に直面しても、これまでの経験で学んだ「選択と集中」を活かして、着実に乗り越えていける人材になりたいです。</t>
+    <rPh sb="2" eb="3">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オロソ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ジュショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私が日本での就職を希望する理由は、大きく2つあります。
+第一に、私の専攻を活かして、日本のDXによる社会変革に貢献したいからです。
+近年、日本では政府や企業が一体となってIT技術によるデジタル化を推進しており、その最前線に立つ御社で責任とやりがいをもって社会に貢献したいと考えています。
+第二に、日本の高い信頼性と安定性を求める基準のもとで、多くのことを学びたいからです。
+特に御社は、日本銀行などの大規模金融システムを開発・運用しながらシステムの安定性が高く評価されており、そうした環境で経験を積むことで大きく成長できると考えています。
+以上の理由から日本での就職を決意し、御社を第一志望として就職活動に専念しております。</t>
+    <rPh sb="113" eb="115">
+      <t>オンシャ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>オンシャ</t>
+    </rPh>
+    <rPh sb="288" eb="290">
+      <t>オンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵役やeスポーツの仕事に携わっていたため、大学を4年間休学しました。
+周りの人が就職を決めたり学業で成果を上げていく姿を見て、正直焦りを感じたこともありました。
+しかし、そこで挫折するのではなく、eスポーツの仕事で培った自分の強みを活かそうと考え、復学後はゲーム開発サークルに参加してC#を学びながらコンテンツ企画にも積極的に取り組みました。
+その結果、チームで卒業プロジェクトを完成させ、学内大会で最優秀賞を受賞することができました。
+この経験を通じて、何事も「遅すぎる」ということはなく、与えられた環境で最善を尽くせば大きな成果が得られると実感しています。
+御社においても、この姿勢で組織に貢献していきたいと考えております。</t>
+    <rPh sb="121" eb="122">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>オンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대원칙
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장황하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5~7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문장으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외국인의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> x
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기업이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인재상에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에피소드를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문장에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">말하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후카보리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문제씩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대비할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の特技は文章を書くことです。
+中学生の頃からポケモンゲームが好きで、関連情報や攻略記事をブログに投稿する中で文章力を磨きました。
+その結果、あるポータルサイトで優秀ブログに選ばれ、記者として活動する機会も得ることができました。
+大学時代のチームプロジェクトでは、多くのメンバーが工学部出身だったこともあって文章を書くのが苦手だったため、レポートなどの書類作成は主に私が担当していました。
+さらに、プロジェクト中に要件定義といった上流工程を経験するうちに興味を持ちました。
+機会があれば御社でもSEとして自分の強みをより発揮したいと考えるようになりました。</t>
+    <rPh sb="237" eb="239">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>オンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEに必要な能力としては、新しい分野への挑戦を厭わない向上心と、顧客やチームメンバーとの円滑なコミュニケーション力が挙げられると考えています。
+SIer業界では、特定の分野に限らず幅広い事業を扱うため、社会全般に対する広い理解が不可欠だと思います。
+また、IT技術は非常に速いスピードで変化・発展しているので、常に最先端を目指すエンジニアとして活躍するには、絶え間ない勉強や情報収集が欠かせないと感じています。
+さらに、SEは顧客とのコミュニケーションを通じてアジェンダを決定し、開発の全工程に携わる中で、多くの人と連携しながら仕事を進める必要があります。
+そのため、コミュニケーションスキルは何よりも重要だと思います。
+つまり、社会の発展に貢献したいという責任感を持ち、チームと協力しながら新たな挑戦を続けることこそ、SEに求められる大切な役割だと考えています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の趣味は音楽鑑賞です。
+特に日本のバンドが好きで、力強いエレキギターサウンドや日本特有の希望に満ちた歌詞に、いつも元気をもらっています。
+疲れたり落ち込んだりしたときは、よく日本のバンドの曲を聴いて気分をリフレッシュしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は大学で学んだ専攻を活かしながら、より幅広い分野に挑戦し、多くの経験を積みたいと考え、SIer業界を志望しています。
+大学時代には専攻だけでなく、eスポーツやアルバイト、軍隊、日本語など、多岐にわたる活動を通じて自分自身が大きく成長したことを実感できました。
+また、そのような経験から、共通の目標に向かって仲間と協力し、成果を生み出すことに大きなやりがいを感じたため、お客様やチームメンバーとコミュニケーションをとりながら価値を創出するSEの仕事に魅力を抱くようになりました。
+さらに、卒業プロジェクトを進める中で、より完成度の高い成果を出すには要件定義や設計などの上流工程がいかに重要かを痛感しました。
+そのため、IT業界の中でも開発前工程に携わり、全体の流れを理解しながらプロジェクトをリードできるSEとして活躍したいと考えています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学・学部の選択理由</t>
+    <rPh sb="0" eb="2">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクブ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>センタクリユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就職活動では、以下の2点を軸に考えています。
+一つ目は「SEとしてどれだけ多くの経験を積めるか」です。現状にとどまらず成長を追求する姿勢こそが、SEに必要な大切な心構えだと考えているからです。
+二つ目は「どれだけ責任感を持って社会に貢献し、やりがいを感じられるか」です。そのような環境であれば、自分の仕事が直接社会に与える影響を肌で感じながら、情熱を絶やさず成長し続けられると思います。
+最終的には、組織や社会の発展に寄与しながら自分自身も成長し、IT業界の幅広い分野で活躍できるエンジニアになりたいと考えています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就活の軸・キャリアプラン</t>
+    <rPh sb="0" eb="2">
+      <t>シュウカツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の学部を選んだ理由は、IT技術と情報工学がいまや社会の基盤そのものになりつつあると実感したからです。
+高校生の頃、AI技術の進歩によってIT分野の発展速度が飛躍的に加速し、関連ニュースを目にする機会も増えました。
+とりわけ、囲碁棋士のイ・セドル氏とAlphaGoの対局は、子どもの頃に囲碁教室に通っていた私にとって大きな衝撃でした。
+こうした経験から、急速に変化する社会に自分も貢献したいという思いが強まり、ITを専門的に学ぶことを選びました。
+さらに、私が進学した仁荷大学は工学部として全国的に高い評価を得ていたため、迷わず進路を決めることができました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は、SIer業界の中でも人々の生活に欠かせない金融システムに強みを持つ貴社に、大きな魅力を感じています。
+日本銀行のシステム開発・運用など、政府系の金融に特化している貴社は、金融専門SIer企業の中でも独自の地位を築いていると考えています。
+また、高い技術力を誇るNTTデータの子会社として、最近の合併を通じ事業規模を拡大し、着実に成長を続けている点は、SEとして多くを学ぶ上で最高の環境だと思います。
+さらに、コロナ禍における政府の特別災害支援金を円滑に支給するため、貴社がクラウドサービスを無償開放した事例には深く感銘を受けました。
+その事例から、IT技術で社会の発展に貢献するSIer業界の最前線にある貴社の一員として、責任感とやりがいを感じながらSEとして成長したいと強く考えるようになりました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業分析の方法</t>
+    <rPh sb="0" eb="4">
+      <t>キギョウブンセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私はまず、SIer業界各社が開催する説明会に積極的に参加し、業界全体への理解を深めました。その中で、貴社の説明会に特に感銘を受け、さらなる情報を得るために貴社のホームページを何度も熟読しました。
+とりわけ、日本全国の500以上の銀行で使われているANSERのような大規模システムを担当されている社員の方のお話や、
+AI技術を活用して紛失物処理システムを開発し、ハッカソンで優勝された社員の方のお話を通じて、絶え間ないチャレンジ精神や社会貢献に対する強い責任感を感じました。
+私もそうした先輩社員の皆さんと共に、貴社の一員として活躍したいという思いが一層強まり、企業研究に積極的に取り組んできました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現代社会では、銀行に行かなくても口座送金や貯蓄、投資、保険などの金融業務を手軽に処理できるほど、テクノロジーによる利便性が飛躍的に高まっています。御社でこうした日常生活の変化を直に体感できる仕事に携わり、人々の暮らしをより便利にすることができたら、大きなやりがいを感じることができると考えております。
+また、私は「人材こそが唯一の財産」という貴社の理念に深く共感しており、5年後にはSEとして現場で多くの経験を積み、貴社の先輩方から学んだ知識やノウハウを後輩やチームメンバーに還元できる存在になりたいと考えています。さらに10年後には、豊富な実務経験やリーダーシップを身につけ、組織を牽引しながら社会に新たな価値を提供できるエンジニアへと成長することを目標としています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は2021年から4年間、韓国のゲーム会社にフリーランスで参画し、eスポーツ大会の放送演出を担当していました。
+放送の経験はなかったのですが、ゲームに精通していたことが評価され、抜擢されました。
+そこで、与えられた業務にとどまらず、社内の開発者と協力して大会システムの改善やリーグ創設などにも積極的に関わり、結果的にゲームの接続者数を4倍以上に増やすことに貢献できました。
+フリーランスでありながら信用を得て、タイへの海外出張してゲームのプロモーションにも参加できたことは大きなやりがいでした。
+貴社でもこの経験を活かし、未知の領域にも臆せず挑戦しながらチームの成長に貢献したいと考えています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私が学生時代に力を入れたのは、卒業チームプロジェクトでの同時接続型3Dゲーム開発です。学内大会では最優秀賞をいただきました。
+このプロジェクトでは、企画からテストまでの全工程を経験した同時に、アジャイル手法を用いてチームメンバーと協力しながら進めました。まずMVPを作り、段階的に機能を追加・検証することで完成度を高め、協働環境下での開発プロセスを深く理解できました。
+また、互いの得意分野や不足を補い合いながら課題を解決していく中で、大きなやりがいを感じると同時に、チームワークやコミュニケーションの重要性を再認識しました。こうした経験は、今後エンジニアとして働くうえでも必ず活かせると考えています。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6313,18 +6807,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6340,14 +6834,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -6442,26 +6936,6 @@
       <name val="Noto Sans JP Light"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -6757,7 +7231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7064,6 +7538,84 @@
     <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7073,60 +7625,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7142,59 +7643,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7533,11 +7998,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC70DC4-F0DC-4C6F-8135-CC403CCD1BBE}">
   <dimension ref="A1:R223"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="6.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="5" customWidth="1"/>
@@ -7551,23 +8016,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="113" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="A1" s="122" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="123"/>
       <c r="N1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -7604,19 +8069,19 @@
       <c r="K2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="119" t="s">
+      <c r="L2" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="120"/>
+      <c r="M2" s="119"/>
       <c r="N2" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="109">
+      <c r="A3" s="113">
         <v>1</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="111" t="s">
         <v>158</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -7639,12 +8104,12 @@
         <v>86</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -7660,10 +8125,10 @@
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A5" s="109">
+      <c r="A5" s="113">
         <v>2</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="111" t="s">
         <v>159</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -7674,7 +8139,7 @@
       <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="115"/>
+      <c r="G5" s="114"/>
       <c r="H5" s="9"/>
       <c r="I5" s="15"/>
       <c r="J5" s="9"/>
@@ -7689,23 +8154,23 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="17"/>
-      <c r="G6" s="121"/>
+      <c r="G6" s="116"/>
       <c r="I6" s="17"/>
       <c r="K6" s="17"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="109">
+      <c r="A7" s="113">
         <v>3</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="111" t="s">
         <v>160</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -7716,7 +8181,7 @@
       <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="115"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="9"/>
       <c r="I7" s="15"/>
       <c r="J7" s="9"/>
@@ -7731,15 +8196,15 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="109"/>
-      <c r="B8" s="110"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="108"/>
+      <c r="G8" s="115"/>
       <c r="H8" s="12"/>
       <c r="I8" s="16"/>
       <c r="J8" s="12"/>
@@ -7748,10 +8213,10 @@
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="109">
+      <c r="A9" s="113">
         <v>4</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="111" t="s">
         <v>161</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -7764,7 +8229,7 @@
       <c r="F9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="116" t="s">
+      <c r="G9" s="120" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="9"/>
@@ -7781,8 +8246,8 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
@@ -7793,7 +8258,7 @@
       <c r="F10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="117"/>
+      <c r="G10" s="121"/>
       <c r="H10" s="12"/>
       <c r="I10" s="16"/>
       <c r="J10" s="12"/>
@@ -7805,10 +8270,10 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="109">
+      <c r="A11" s="113">
         <v>5</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="111" t="s">
         <v>162</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -7819,7 +8284,7 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="115"/>
+      <c r="G11" s="114"/>
       <c r="H11" s="9"/>
       <c r="I11" s="15"/>
       <c r="J11" s="9"/>
@@ -7832,15 +8297,15 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="109"/>
-      <c r="B12" s="110"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="108"/>
+      <c r="G12" s="115"/>
       <c r="H12" s="12"/>
       <c r="I12" s="16"/>
       <c r="J12" s="12"/>
@@ -7849,10 +8314,10 @@
       <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A13" s="109">
+      <c r="A13" s="113">
         <v>6</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="111" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -7861,12 +8326,12 @@
       <c r="D13" s="20"/>
       <c r="E13" s="15"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="115"/>
+      <c r="G13" s="114"/>
       <c r="H13" s="9"/>
       <c r="I13" s="15"/>
       <c r="J13" s="9"/>
       <c r="K13" s="41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>12</v>
@@ -7876,15 +8341,15 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="109"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="16"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="108"/>
+      <c r="G14" s="115"/>
       <c r="H14" s="12"/>
       <c r="I14" s="16"/>
       <c r="J14" s="12"/>
@@ -7893,21 +8358,21 @@
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A15" s="109">
+      <c r="A15" s="113">
         <v>7</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="133">
+      <c r="D15" s="107">
         <v>45667.541666666664</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="115"/>
+      <c r="G15" s="114"/>
       <c r="H15" s="9"/>
       <c r="I15" s="15" t="s">
         <v>9</v>
@@ -7924,15 +8389,15 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="109"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="129" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="134"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="31"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="108"/>
+      <c r="G16" s="115"/>
       <c r="H16" s="12"/>
       <c r="I16" s="16"/>
       <c r="J16" s="12"/>
@@ -7941,10 +8406,10 @@
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A17" s="109">
+      <c r="A17" s="113">
         <v>8</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="111" t="s">
         <v>165</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -7953,7 +8418,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="15"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="115"/>
+      <c r="G17" s="114"/>
       <c r="H17" s="9"/>
       <c r="I17" s="15"/>
       <c r="J17" s="9"/>
@@ -7966,15 +8431,15 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="109"/>
-      <c r="B18" s="110"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="16"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="108"/>
+      <c r="G18" s="115"/>
       <c r="H18" s="12"/>
       <c r="I18" s="16"/>
       <c r="J18" s="12"/>
@@ -7983,10 +8448,10 @@
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A19" s="109">
+      <c r="A19" s="113">
         <v>9</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="111" t="s">
         <v>166</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -7996,13 +8461,13 @@
       <c r="E19" s="15"/>
       <c r="F19" s="9"/>
       <c r="G19" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="15"/>
       <c r="J19" s="9"/>
       <c r="K19" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>15</v>
@@ -8012,8 +8477,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="109"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="16" t="s">
         <v>6</v>
       </c>
@@ -8031,10 +8496,10 @@
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A21" s="109">
+      <c r="A21" s="113">
         <v>10</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="111" t="s">
         <v>167</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -8043,7 +8508,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="15"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="115"/>
+      <c r="G21" s="114"/>
       <c r="H21" s="9"/>
       <c r="I21" s="15"/>
       <c r="J21" s="9"/>
@@ -8056,15 +8521,15 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="109"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="16"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="108"/>
+      <c r="G22" s="115"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16"/>
       <c r="J22" s="12"/>
@@ -8074,10 +8539,10 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A23" s="109">
+      <c r="A23" s="113">
         <v>11</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="111" t="s">
         <v>168</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -8088,7 +8553,7 @@
       <c r="F23" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="115"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="9"/>
       <c r="I23" s="15"/>
       <c r="J23" s="9"/>
@@ -8101,15 +8566,15 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="109"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="16"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="108"/>
+      <c r="G24" s="115"/>
       <c r="H24" s="12"/>
       <c r="I24" s="16"/>
       <c r="J24" s="12"/>
@@ -8120,26 +8585,26 @@
       <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A25" s="109">
+      <c r="A25" s="113">
         <v>12</v>
       </c>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133">
+      <c r="D25" s="107">
         <v>45667.541666666664</v>
       </c>
-      <c r="E25" s="128">
+      <c r="E25" s="102">
         <v>45696.556250000001</v>
       </c>
-      <c r="F25" s="128">
+      <c r="F25" s="102">
         <v>45699.999305555553</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="15"/>
@@ -8155,19 +8620,19 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="109"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="129" t="s">
+      <c r="A26" s="113"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="135">
+      <c r="D26" s="109">
         <v>45681.604166666664</v>
       </c>
-      <c r="E26" s="129" t="s">
+      <c r="E26" s="103" t="s">
         <v>260</v>
       </c>
-      <c r="F26" s="129" t="s">
-        <v>329</v>
+      <c r="F26" s="103" t="s">
+        <v>327</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>48</v>
@@ -8177,17 +8642,17 @@
       <c r="J26" s="12"/>
       <c r="K26" s="16"/>
       <c r="L26" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A27" s="109">
+      <c r="A27" s="113">
         <v>13</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="111" t="s">
         <v>170</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -8202,7 +8667,7 @@
       <c r="F27" s="52">
         <v>45689.5</v>
       </c>
-      <c r="G27" s="116" t="s">
+      <c r="G27" s="120" t="s">
         <v>1</v>
       </c>
       <c r="H27" s="61">
@@ -8221,19 +8686,19 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="109"/>
-      <c r="B28" s="110"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="67" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="117"/>
+      <c r="G28" s="121"/>
       <c r="H28" s="62" t="s">
         <v>260</v>
       </c>
@@ -8243,15 +8708,15 @@
       <c r="L28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="136" t="s">
-        <v>372</v>
+      <c r="M28" s="110" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A29" s="109">
+      <c r="A29" s="113">
         <v>14</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="111" t="s">
         <v>171</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -8260,12 +8725,12 @@
       <c r="D29" s="20"/>
       <c r="E29" s="15"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="115"/>
+      <c r="G29" s="114"/>
       <c r="H29" s="9"/>
       <c r="I29" s="15"/>
       <c r="J29" s="9"/>
       <c r="K29" s="41" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>21</v>
@@ -8275,15 +8740,15 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="109"/>
-      <c r="B30" s="110"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="16"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="108"/>
+      <c r="G30" s="115"/>
       <c r="H30" s="12"/>
       <c r="I30" s="16"/>
       <c r="J30" s="12"/>
@@ -8292,10 +8757,10 @@
       <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A31" s="109">
+      <c r="A31" s="113">
         <v>15</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="111" t="s">
         <v>172</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -8304,12 +8769,12 @@
       <c r="D31" s="20"/>
       <c r="E31" s="15"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="115"/>
+      <c r="G31" s="114"/>
       <c r="H31" s="9"/>
       <c r="I31" s="15"/>
       <c r="J31" s="9"/>
       <c r="K31" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>22</v>
@@ -8319,15 +8784,15 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="109"/>
-      <c r="B32" s="110"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="16"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="108"/>
+      <c r="G32" s="115"/>
       <c r="H32" s="12"/>
       <c r="I32" s="16"/>
       <c r="J32" s="12"/>
@@ -8336,10 +8801,10 @@
       <c r="M32" s="19"/>
     </row>
     <row r="33" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A33" s="109">
+      <c r="A33" s="113">
         <v>16</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="111" t="s">
         <v>173</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -8352,7 +8817,7 @@
       <c r="F33" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="115"/>
+      <c r="G33" s="114"/>
       <c r="H33" s="9"/>
       <c r="I33" s="15"/>
       <c r="J33" s="9"/>
@@ -8367,8 +8832,8 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="109"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="16" t="s">
         <v>0</v>
       </c>
@@ -8377,7 +8842,7 @@
         <v>252</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="108"/>
+      <c r="G34" s="115"/>
       <c r="H34" s="12"/>
       <c r="I34" s="16"/>
       <c r="J34" s="12"/>
@@ -8386,10 +8851,10 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A35" s="109">
+      <c r="A35" s="113">
         <v>17</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="111" t="s">
         <v>174</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -8400,7 +8865,7 @@
       <c r="F35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="115"/>
+      <c r="G35" s="114"/>
       <c r="H35" s="9"/>
       <c r="I35" s="15"/>
       <c r="J35" s="9"/>
@@ -8415,15 +8880,15 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="109"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="16"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="108"/>
+      <c r="G36" s="115"/>
       <c r="H36" s="12"/>
       <c r="I36" s="16"/>
       <c r="J36" s="12"/>
@@ -8432,10 +8897,10 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A37" s="109">
+      <c r="A37" s="113">
         <v>18</v>
       </c>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="111" t="s">
         <v>175</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -8446,7 +8911,7 @@
       <c r="F37" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="115"/>
+      <c r="G37" s="114"/>
       <c r="H37" s="9"/>
       <c r="I37" s="15"/>
       <c r="J37" s="9"/>
@@ -8459,15 +8924,15 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="109"/>
-      <c r="B38" s="110"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="16"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="108"/>
+      <c r="G38" s="115"/>
       <c r="H38" s="12"/>
       <c r="I38" s="16"/>
       <c r="J38" s="12"/>
@@ -8476,10 +8941,10 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A39" s="109">
+      <c r="A39" s="113">
         <v>19</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="111" t="s">
         <v>176</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -8490,7 +8955,7 @@
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="115"/>
+      <c r="G39" s="114"/>
       <c r="H39" s="9"/>
       <c r="I39" s="15"/>
       <c r="J39" s="9"/>
@@ -8505,15 +8970,15 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="109"/>
-      <c r="B40" s="110"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="16"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="108"/>
+      <c r="G40" s="115"/>
       <c r="H40" s="12"/>
       <c r="I40" s="16"/>
       <c r="J40" s="12"/>
@@ -8522,10 +8987,10 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A41" s="109">
+      <c r="A41" s="113">
         <v>20</v>
       </c>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="111" t="s">
         <v>177</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -8534,7 +8999,7 @@
       <c r="D41" s="20"/>
       <c r="E41" s="15"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="115"/>
+      <c r="G41" s="114"/>
       <c r="H41" s="9"/>
       <c r="I41" s="15"/>
       <c r="J41" s="9"/>
@@ -8549,15 +9014,15 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="109"/>
-      <c r="B42" s="110"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="16"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="108"/>
+      <c r="G42" s="115"/>
       <c r="H42" s="12"/>
       <c r="I42" s="16"/>
       <c r="J42" s="12"/>
@@ -8566,10 +9031,10 @@
       <c r="M42" s="13"/>
     </row>
     <row r="43" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A43" s="109">
+      <c r="A43" s="113">
         <v>21</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="111" t="s">
         <v>178</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -8577,7 +9042,7 @@
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="17"/>
-      <c r="G43" s="121"/>
+      <c r="G43" s="116"/>
       <c r="I43" s="17"/>
       <c r="K43" s="17" t="s">
         <v>150</v>
@@ -8590,23 +9055,23 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="109"/>
-      <c r="B44" s="110"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="32"/>
-      <c r="G44" s="121"/>
+      <c r="G44" s="116"/>
       <c r="I44" s="17"/>
       <c r="K44" s="17"/>
       <c r="M44" s="14"/>
     </row>
     <row r="45" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A45" s="109">
+      <c r="A45" s="113">
         <v>22</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="111" t="s">
         <v>179</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -8630,8 +9095,8 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="109"/>
-      <c r="B46" s="110"/>
+      <c r="A46" s="113"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="16" t="s">
         <v>0</v>
       </c>
@@ -8647,10 +9112,10 @@
       <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A47" s="109">
+      <c r="A47" s="113">
         <v>23</v>
       </c>
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="111" t="s">
         <v>180</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -8672,8 +9137,8 @@
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="109"/>
-      <c r="B48" s="110"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="17" t="s">
         <v>0</v>
       </c>
@@ -8687,10 +9152,10 @@
       <c r="M48" s="14"/>
     </row>
     <row r="49" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A49" s="109">
+      <c r="A49" s="113">
         <v>24</v>
       </c>
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="111" t="s">
         <v>181</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -8714,8 +9179,8 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="109"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="16" t="s">
         <v>0</v>
       </c>
@@ -8731,10 +9196,10 @@
       <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A51" s="109">
+      <c r="A51" s="113">
         <v>25</v>
       </c>
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="111" t="s">
         <v>182</v>
       </c>
       <c r="C51" s="17" t="s">
@@ -8757,8 +9222,8 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="109"/>
-      <c r="B52" s="110"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="17" t="s">
         <v>0</v>
       </c>
@@ -8772,10 +9237,10 @@
       <c r="M52" s="14"/>
     </row>
     <row r="53" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A53" s="109">
+      <c r="A53" s="113">
         <v>26</v>
       </c>
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="111" t="s">
         <v>183</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -8797,8 +9262,8 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="109"/>
-      <c r="B54" s="110"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="16" t="s">
         <v>0</v>
       </c>
@@ -8814,10 +9279,10 @@
       <c r="M54" s="13"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="109">
+      <c r="A55" s="113">
         <v>27</v>
       </c>
-      <c r="B55" s="109" t="s">
+      <c r="B55" s="113" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -8838,8 +9303,8 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="109"/>
-      <c r="B56" s="109"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="113"/>
       <c r="C56" s="17" t="s">
         <v>0</v>
       </c>
@@ -8851,10 +9316,10 @@
       <c r="M56" s="14"/>
     </row>
     <row r="57" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A57" s="109">
+      <c r="A57" s="113">
         <v>28</v>
       </c>
-      <c r="B57" s="110" t="s">
+      <c r="B57" s="111" t="s">
         <v>184</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -8869,8 +9334,8 @@
       <c r="F57" s="100">
         <v>45697</v>
       </c>
-      <c r="G57" s="122" t="s">
-        <v>459</v>
+      <c r="G57" s="117" t="s">
+        <v>457</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="15"/>
@@ -8886,17 +9351,17 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="109"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D58" s="21"/>
-      <c r="E58" s="130"/>
+      <c r="E58" s="104"/>
       <c r="F58" s="101" t="s">
-        <v>458</v>
-      </c>
-      <c r="G58" s="108"/>
+        <v>456</v>
+      </c>
+      <c r="G58" s="115"/>
       <c r="H58" s="12"/>
       <c r="I58" s="16"/>
       <c r="J58" s="12"/>
@@ -8905,10 +9370,10 @@
       <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A59" s="109">
+      <c r="A59" s="113">
         <v>29</v>
       </c>
-      <c r="B59" s="110" t="s">
+      <c r="B59" s="111" t="s">
         <v>185</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -8930,8 +9395,8 @@
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="109"/>
-      <c r="B60" s="110"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="17" t="s">
         <v>122</v>
       </c>
@@ -8946,10 +9411,10 @@
       <c r="M60" s="14"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="109">
+      <c r="A61" s="113">
         <v>30</v>
       </c>
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="113" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="15" t="s">
@@ -8973,8 +9438,8 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="109"/>
-      <c r="B62" s="109"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="113"/>
       <c r="C62" s="16" t="s">
         <v>0</v>
       </c>
@@ -8983,7 +9448,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="16"/>
       <c r="H62" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I62" s="16"/>
       <c r="J62" s="12"/>
@@ -8992,10 +9457,10 @@
       <c r="M62" s="13"/>
     </row>
     <row r="63" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A63" s="109">
+      <c r="A63" s="113">
         <v>31</v>
       </c>
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="111" t="s">
         <v>186</v>
       </c>
       <c r="C63" s="17" t="s">
@@ -9020,8 +9485,8 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="109"/>
-      <c r="B64" s="110"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="111"/>
       <c r="C64" s="17" t="s">
         <v>0</v>
       </c>
@@ -9035,10 +9500,10 @@
       <c r="M64" s="14"/>
     </row>
     <row r="65" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A65" s="109">
+      <c r="A65" s="113">
         <v>32</v>
       </c>
-      <c r="B65" s="110" t="s">
+      <c r="B65" s="111" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -9060,8 +9525,8 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="109"/>
-      <c r="B66" s="110"/>
+      <c r="A66" s="113"/>
+      <c r="B66" s="111"/>
       <c r="C66" s="16" t="s">
         <v>0</v>
       </c>
@@ -9077,10 +9542,10 @@
       <c r="M66" s="13"/>
     </row>
     <row r="67" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A67" s="109">
+      <c r="A67" s="113">
         <v>33</v>
       </c>
-      <c r="B67" s="110" t="s">
+      <c r="B67" s="111" t="s">
         <v>187</v>
       </c>
       <c r="C67" s="17" t="s">
@@ -9101,8 +9566,8 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="109"/>
-      <c r="B68" s="110"/>
+      <c r="A68" s="113"/>
+      <c r="B68" s="111"/>
       <c r="C68" s="17" t="s">
         <v>0</v>
       </c>
@@ -9114,10 +9579,10 @@
       <c r="M68" s="14"/>
     </row>
     <row r="69" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A69" s="109">
+      <c r="A69" s="113">
         <v>34</v>
       </c>
-      <c r="B69" s="110" t="s">
+      <c r="B69" s="111" t="s">
         <v>188</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -9139,8 +9604,8 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="109"/>
-      <c r="B70" s="110"/>
+      <c r="A70" s="113"/>
+      <c r="B70" s="111"/>
       <c r="C70" s="16" t="s">
         <v>0</v>
       </c>
@@ -9156,10 +9621,10 @@
       <c r="M70" s="13"/>
     </row>
     <row r="71" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A71" s="109">
+      <c r="A71" s="113">
         <v>35</v>
       </c>
-      <c r="B71" s="110" t="s">
+      <c r="B71" s="111" t="s">
         <v>189</v>
       </c>
       <c r="C71" s="17" t="s">
@@ -9180,8 +9645,8 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="109"/>
-      <c r="B72" s="110"/>
+      <c r="A72" s="113"/>
+      <c r="B72" s="111"/>
       <c r="C72" s="17" t="s">
         <v>0</v>
       </c>
@@ -9193,10 +9658,10 @@
       <c r="M72" s="14"/>
     </row>
     <row r="73" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A73" s="109">
+      <c r="A73" s="113">
         <v>36</v>
       </c>
-      <c r="B73" s="110" t="s">
+      <c r="B73" s="111" t="s">
         <v>190</v>
       </c>
       <c r="C73" s="15" t="s">
@@ -9218,8 +9683,8 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="109"/>
-      <c r="B74" s="110"/>
+      <c r="A74" s="113"/>
+      <c r="B74" s="111"/>
       <c r="C74" s="16" t="s">
         <v>191</v>
       </c>
@@ -9235,10 +9700,10 @@
       <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A75" s="109">
+      <c r="A75" s="113">
         <v>37</v>
       </c>
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="111" t="s">
         <v>192</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -9262,14 +9727,14 @@
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="109"/>
-      <c r="B76" s="110"/>
+      <c r="A76" s="113"/>
+      <c r="B76" s="111"/>
       <c r="C76" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G76" s="17"/>
       <c r="I76" s="17"/>
@@ -9277,10 +9742,10 @@
       <c r="M76" s="14"/>
     </row>
     <row r="77" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A77" s="109">
+      <c r="A77" s="113">
         <v>38</v>
       </c>
-      <c r="B77" s="110" t="s">
+      <c r="B77" s="111" t="s">
         <v>193</v>
       </c>
       <c r="C77" s="15" t="s">
@@ -9308,8 +9773,8 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="109"/>
-      <c r="B78" s="110"/>
+      <c r="A78" s="113"/>
+      <c r="B78" s="111"/>
       <c r="C78" s="16" t="s">
         <v>0</v>
       </c>
@@ -9326,15 +9791,15 @@
       <c r="J78" s="12"/>
       <c r="K78" s="16"/>
       <c r="L78" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M78" s="13"/>
     </row>
     <row r="79" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A79" s="109">
+      <c r="A79" s="113">
         <v>39</v>
       </c>
-      <c r="B79" s="110" t="s">
+      <c r="B79" s="111" t="s">
         <v>194</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -9353,8 +9818,8 @@
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="109"/>
-      <c r="B80" s="110"/>
+      <c r="A80" s="113"/>
+      <c r="B80" s="111"/>
       <c r="C80" s="17" t="s">
         <v>0</v>
       </c>
@@ -9366,10 +9831,10 @@
       <c r="M80" s="14"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="109">
+      <c r="A81" s="113">
         <v>40</v>
       </c>
-      <c r="B81" s="109" t="s">
+      <c r="B81" s="113" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -9391,8 +9856,8 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="109"/>
-      <c r="B82" s="109"/>
+      <c r="A82" s="113"/>
+      <c r="B82" s="113"/>
       <c r="C82" s="16" t="s">
         <v>191</v>
       </c>
@@ -9408,10 +9873,10 @@
       <c r="M82" s="13"/>
     </row>
     <row r="83" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A83" s="109">
+      <c r="A83" s="113">
         <v>41</v>
       </c>
-      <c r="B83" s="110" t="s">
+      <c r="B83" s="111" t="s">
         <v>195</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -9430,8 +9895,8 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="109"/>
-      <c r="B84" s="110"/>
+      <c r="A84" s="113"/>
+      <c r="B84" s="111"/>
       <c r="C84" s="17" t="s">
         <v>0</v>
       </c>
@@ -9443,10 +9908,10 @@
       <c r="M84" s="14"/>
     </row>
     <row r="85" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A85" s="109">
+      <c r="A85" s="113">
         <v>42</v>
       </c>
-      <c r="B85" s="110" t="s">
+      <c r="B85" s="111" t="s">
         <v>196</v>
       </c>
       <c r="C85" s="15" t="s">
@@ -9468,8 +9933,8 @@
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="109"/>
-      <c r="B86" s="110"/>
+      <c r="A86" s="113"/>
+      <c r="B86" s="111"/>
       <c r="C86" s="16" t="s">
         <v>197</v>
       </c>
@@ -9485,11 +9950,11 @@
       <c r="M86" s="13"/>
     </row>
     <row r="87" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A87" s="109">
+      <c r="A87" s="113">
         <v>43</v>
       </c>
-      <c r="B87" s="112" t="s">
-        <v>410</v>
+      <c r="B87" s="124" t="s">
+        <v>408</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>54</v>
@@ -9501,7 +9966,7 @@
       <c r="G87" s="17"/>
       <c r="I87" s="17"/>
       <c r="K87" s="47" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>61</v>
@@ -9511,13 +9976,13 @@
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="109"/>
-      <c r="B88" s="110"/>
+      <c r="A88" s="113"/>
+      <c r="B88" s="111"/>
       <c r="C88" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D88" s="90" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E88" s="17"/>
       <c r="G88" s="17"/>
@@ -9526,10 +9991,10 @@
       <c r="M88" s="14"/>
     </row>
     <row r="89" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A89" s="109">
+      <c r="A89" s="113">
         <v>44</v>
       </c>
-      <c r="B89" s="110" t="s">
+      <c r="B89" s="111" t="s">
         <v>198</v>
       </c>
       <c r="C89" s="15" t="s">
@@ -9555,8 +10020,8 @@
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="109"/>
-      <c r="B90" s="110"/>
+      <c r="A90" s="113"/>
+      <c r="B90" s="111"/>
       <c r="C90" s="16" t="s">
         <v>0</v>
       </c>
@@ -9574,10 +10039,10 @@
       <c r="M90" s="13"/>
     </row>
     <row r="91" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A91" s="109">
+      <c r="A91" s="113">
         <v>45</v>
       </c>
-      <c r="B91" s="110" t="s">
+      <c r="B91" s="111" t="s">
         <v>199</v>
       </c>
       <c r="C91" s="17" t="s">
@@ -9596,8 +10061,8 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="109"/>
-      <c r="B92" s="110"/>
+      <c r="A92" s="113"/>
+      <c r="B92" s="111"/>
       <c r="C92" s="17" t="s">
         <v>76</v>
       </c>
@@ -9609,10 +10074,10 @@
       <c r="M92" s="14"/>
     </row>
     <row r="93" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A93" s="109">
+      <c r="A93" s="113">
         <v>46</v>
       </c>
-      <c r="B93" s="110" t="s">
+      <c r="B93" s="111" t="s">
         <v>200</v>
       </c>
       <c r="C93" s="15" t="s">
@@ -9634,8 +10099,8 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="109"/>
-      <c r="B94" s="110"/>
+      <c r="A94" s="113"/>
+      <c r="B94" s="111"/>
       <c r="C94" s="16" t="s">
         <v>77</v>
       </c>
@@ -9651,10 +10116,10 @@
       <c r="M94" s="13"/>
     </row>
     <row r="95" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A95" s="109">
+      <c r="A95" s="113">
         <v>47</v>
       </c>
-      <c r="B95" s="110" t="s">
+      <c r="B95" s="111" t="s">
         <v>201</v>
       </c>
       <c r="C95" s="17" t="s">
@@ -9673,8 +10138,8 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="109"/>
-      <c r="B96" s="110"/>
+      <c r="A96" s="113"/>
+      <c r="B96" s="111"/>
       <c r="C96" s="17" t="s">
         <v>0</v>
       </c>
@@ -9686,10 +10151,10 @@
       <c r="M96" s="14"/>
     </row>
     <row r="97" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A97" s="109">
+      <c r="A97" s="113">
         <v>48</v>
       </c>
-      <c r="B97" s="110" t="s">
+      <c r="B97" s="111" t="s">
         <v>202</v>
       </c>
       <c r="C97" s="15" t="s">
@@ -9703,7 +10168,7 @@
       <c r="I97" s="15"/>
       <c r="J97" s="9"/>
       <c r="K97" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>66</v>
@@ -9713,8 +10178,8 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="109"/>
-      <c r="B98" s="110"/>
+      <c r="A98" s="113"/>
+      <c r="B98" s="111"/>
       <c r="C98" s="16" t="s">
         <v>0</v>
       </c>
@@ -9730,10 +10195,10 @@
       <c r="M98" s="13"/>
     </row>
     <row r="99" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A99" s="109">
+      <c r="A99" s="113">
         <v>49</v>
       </c>
-      <c r="B99" s="110" t="s">
+      <c r="B99" s="111" t="s">
         <v>203</v>
       </c>
       <c r="C99" s="17" t="s">
@@ -9749,7 +10214,7 @@
         <v>45719</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I99" s="17"/>
       <c r="K99" s="47" t="s">
@@ -9763,8 +10228,8 @@
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="109"/>
-      <c r="B100" s="110"/>
+      <c r="A100" s="113"/>
+      <c r="B100" s="111"/>
       <c r="C100" s="17" t="s">
         <v>0</v>
       </c>
@@ -9773,7 +10238,7 @@
         <v>260</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>48</v>
@@ -9781,15 +10246,15 @@
       <c r="I100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M100" s="14"/>
     </row>
     <row r="101" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A101" s="109">
+      <c r="A101" s="113">
         <v>50</v>
       </c>
-      <c r="B101" s="110" t="s">
+      <c r="B101" s="111" t="s">
         <v>204</v>
       </c>
       <c r="C101" s="15" t="s">
@@ -9807,7 +10272,7 @@
       <c r="I101" s="15"/>
       <c r="J101" s="9"/>
       <c r="K101" s="41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>68</v>
@@ -9817,17 +10282,17 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="109"/>
-      <c r="B102" s="110"/>
+      <c r="A102" s="113"/>
+      <c r="B102" s="111"/>
       <c r="C102" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="69" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="83" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G102" s="16"/>
       <c r="H102" s="12"/>
@@ -9835,15 +10300,15 @@
       <c r="J102" s="12"/>
       <c r="K102" s="16"/>
       <c r="L102" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M102" s="13"/>
     </row>
     <row r="103" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A103" s="109">
+      <c r="A103" s="113">
         <v>51</v>
       </c>
-      <c r="B103" s="110" t="s">
+      <c r="B103" s="111" t="s">
         <v>205</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -9862,8 +10327,8 @@
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="109"/>
-      <c r="B104" s="110"/>
+      <c r="A104" s="113"/>
+      <c r="B104" s="111"/>
       <c r="C104" s="17" t="s">
         <v>0</v>
       </c>
@@ -9875,10 +10340,10 @@
       <c r="M104" s="14"/>
     </row>
     <row r="105" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A105" s="109">
+      <c r="A105" s="113">
         <v>52</v>
       </c>
-      <c r="B105" s="110" t="s">
+      <c r="B105" s="111" t="s">
         <v>206</v>
       </c>
       <c r="C105" s="15" t="s">
@@ -9888,13 +10353,13 @@
       <c r="E105" s="15"/>
       <c r="F105" s="9"/>
       <c r="G105" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="15"/>
       <c r="J105" s="9"/>
       <c r="K105" s="41" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>70</v>
@@ -9904,8 +10369,8 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="109"/>
-      <c r="B106" s="110"/>
+      <c r="A106" s="113"/>
+      <c r="B106" s="111"/>
       <c r="C106" s="16" t="s">
         <v>0</v>
       </c>
@@ -9923,10 +10388,10 @@
       <c r="M106" s="13"/>
     </row>
     <row r="107" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A107" s="109">
+      <c r="A107" s="113">
         <v>53</v>
       </c>
-      <c r="B107" s="110" t="s">
+      <c r="B107" s="111" t="s">
         <v>207</v>
       </c>
       <c r="C107" s="17" t="s">
@@ -9945,8 +10410,8 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="109"/>
-      <c r="B108" s="110"/>
+      <c r="A108" s="113"/>
+      <c r="B108" s="111"/>
       <c r="C108" s="17" t="s">
         <v>0</v>
       </c>
@@ -9958,10 +10423,10 @@
       <c r="M108" s="14"/>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="109">
+      <c r="A109" s="113">
         <v>54</v>
       </c>
-      <c r="B109" s="109" t="s">
+      <c r="B109" s="113" t="s">
         <v>72</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -9985,8 +10450,8 @@
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="109"/>
-      <c r="B110" s="109"/>
+      <c r="A110" s="113"/>
+      <c r="B110" s="113"/>
       <c r="C110" s="16" t="s">
         <v>76</v>
       </c>
@@ -10004,10 +10469,10 @@
       <c r="M110" s="13"/>
     </row>
     <row r="111" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A111" s="109">
+      <c r="A111" s="113">
         <v>55</v>
       </c>
-      <c r="B111" s="110" t="s">
+      <c r="B111" s="111" t="s">
         <v>208</v>
       </c>
       <c r="C111" s="17" t="s">
@@ -10026,8 +10491,8 @@
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="109"/>
-      <c r="B112" s="110"/>
+      <c r="A112" s="113"/>
+      <c r="B112" s="111"/>
       <c r="C112" s="17" t="s">
         <v>0</v>
       </c>
@@ -10039,19 +10504,19 @@
       <c r="M112" s="14"/>
     </row>
     <row r="113" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A113" s="109">
+      <c r="A113" s="113">
         <v>56</v>
       </c>
-      <c r="B113" s="118" t="s">
+      <c r="B113" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="C113" s="132" t="s">
+      <c r="C113" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="D113" s="133">
+      <c r="D113" s="107">
         <v>45680.583333333336</v>
       </c>
-      <c r="E113" s="132"/>
+      <c r="E113" s="106"/>
       <c r="F113" s="49" t="s">
         <v>137</v>
       </c>
@@ -10070,13 +10535,13 @@
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="109"/>
-      <c r="B114" s="118"/>
-      <c r="C114" s="129" t="s">
+      <c r="A114" s="113"/>
+      <c r="B114" s="112"/>
+      <c r="C114" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D114" s="134"/>
-      <c r="E114" s="129"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="103"/>
       <c r="F114" s="50">
         <v>45689.416666666664</v>
       </c>
@@ -10089,10 +10554,10 @@
       <c r="M114" s="13"/>
     </row>
     <row r="115" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A115" s="109">
+      <c r="A115" s="113">
         <v>57</v>
       </c>
-      <c r="B115" s="110" t="s">
+      <c r="B115" s="111" t="s">
         <v>210</v>
       </c>
       <c r="C115" s="17" t="s">
@@ -10115,8 +10580,8 @@
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="109"/>
-      <c r="B116" s="110"/>
+      <c r="A116" s="113"/>
+      <c r="B116" s="111"/>
       <c r="C116" s="17" t="s">
         <v>0</v>
       </c>
@@ -10128,15 +10593,15 @@
       <c r="I116" s="17"/>
       <c r="K116" s="17"/>
       <c r="L116" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M116" s="14"/>
     </row>
     <row r="117" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A117" s="109">
+      <c r="A117" s="113">
         <v>58</v>
       </c>
-      <c r="B117" s="109" t="s">
+      <c r="B117" s="113" t="s">
         <v>105</v>
       </c>
       <c r="C117" s="15" t="s">
@@ -10162,8 +10627,8 @@
       </c>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="109"/>
-      <c r="B118" s="109"/>
+      <c r="A118" s="113"/>
+      <c r="B118" s="113"/>
       <c r="C118" s="16" t="s">
         <v>0</v>
       </c>
@@ -10179,10 +10644,10 @@
       <c r="M118" s="13"/>
     </row>
     <row r="119" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A119" s="109">
+      <c r="A119" s="113">
         <v>59</v>
       </c>
-      <c r="B119" s="110" t="s">
+      <c r="B119" s="111" t="s">
         <v>211</v>
       </c>
       <c r="C119" s="17" t="s">
@@ -10191,7 +10656,7 @@
       <c r="D119" s="22"/>
       <c r="E119" s="17"/>
       <c r="G119" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I119" s="17"/>
       <c r="K119" s="17"/>
@@ -10203,8 +10668,8 @@
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="109"/>
-      <c r="B120" s="110"/>
+      <c r="A120" s="113"/>
+      <c r="B120" s="111"/>
       <c r="C120" s="17" t="s">
         <v>0</v>
       </c>
@@ -10218,10 +10683,10 @@
       <c r="M120" s="14"/>
     </row>
     <row r="121" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A121" s="109">
+      <c r="A121" s="113">
         <v>60</v>
       </c>
-      <c r="B121" s="110" t="s">
+      <c r="B121" s="111" t="s">
         <v>212</v>
       </c>
       <c r="C121" s="15" t="s">
@@ -10231,7 +10696,7 @@
       <c r="E121" s="15"/>
       <c r="F121" s="9"/>
       <c r="G121" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="15"/>
@@ -10245,8 +10710,8 @@
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="109"/>
-      <c r="B122" s="110"/>
+      <c r="A122" s="113"/>
+      <c r="B122" s="111"/>
       <c r="C122" s="16" t="s">
         <v>0</v>
       </c>
@@ -10266,10 +10731,10 @@
       <c r="M122" s="13"/>
     </row>
     <row r="123" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A123" s="109">
+      <c r="A123" s="113">
         <v>61</v>
       </c>
-      <c r="B123" s="110" t="s">
+      <c r="B123" s="111" t="s">
         <v>213</v>
       </c>
       <c r="C123" s="17" t="s">
@@ -10282,7 +10747,7 @@
       <c r="G123" s="17"/>
       <c r="I123" s="17"/>
       <c r="K123" s="47" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L123" s="7" t="s">
         <v>109</v>
@@ -10292,8 +10757,8 @@
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="109"/>
-      <c r="B124" s="110"/>
+      <c r="A124" s="113"/>
+      <c r="B124" s="111"/>
       <c r="C124" s="17" t="s">
         <v>0</v>
       </c>
@@ -10306,10 +10771,10 @@
       <c r="M124" s="27"/>
     </row>
     <row r="125" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A125" s="109">
+      <c r="A125" s="113">
         <v>62</v>
       </c>
-      <c r="B125" s="110" t="s">
+      <c r="B125" s="111" t="s">
         <v>214</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -10327,7 +10792,7 @@
       <c r="I125" s="15"/>
       <c r="J125" s="9"/>
       <c r="K125" s="41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L125" s="10" t="s">
         <v>110</v>
@@ -10337,31 +10802,31 @@
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="109"/>
-      <c r="B126" s="110"/>
+      <c r="A126" s="113"/>
+      <c r="B126" s="111"/>
       <c r="C126" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D126" s="21"/>
       <c r="E126" s="16"/>
       <c r="F126" s="83" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G126" s="16"/>
       <c r="H126" s="12"/>
       <c r="I126" s="16"/>
       <c r="J126" s="12"/>
       <c r="K126" s="16"/>
-      <c r="L126" s="131" t="s">
+      <c r="L126" s="105" t="s">
         <v>11</v>
       </c>
       <c r="M126" s="19"/>
     </row>
     <row r="127" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A127" s="109">
+      <c r="A127" s="113">
         <v>63</v>
       </c>
-      <c r="B127" s="110" t="s">
+      <c r="B127" s="111" t="s">
         <v>215</v>
       </c>
       <c r="C127" s="17" t="s">
@@ -10384,8 +10849,8 @@
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="109"/>
-      <c r="B128" s="110"/>
+      <c r="A128" s="113"/>
+      <c r="B128" s="111"/>
       <c r="C128" s="17" t="s">
         <v>0</v>
       </c>
@@ -10399,10 +10864,10 @@
       <c r="M128" s="14"/>
     </row>
     <row r="129" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A129" s="109">
+      <c r="A129" s="113">
         <v>64</v>
       </c>
-      <c r="B129" s="110" t="s">
+      <c r="B129" s="111" t="s">
         <v>216</v>
       </c>
       <c r="C129" s="15" t="s">
@@ -10428,8 +10893,8 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="109"/>
-      <c r="B130" s="110"/>
+      <c r="A130" s="113"/>
+      <c r="B130" s="111"/>
       <c r="C130" s="16" t="s">
         <v>53</v>
       </c>
@@ -10445,10 +10910,10 @@
       <c r="M130" s="13"/>
     </row>
     <row r="131" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A131" s="109">
+      <c r="A131" s="113">
         <v>65</v>
       </c>
-      <c r="B131" s="110" t="s">
+      <c r="B131" s="111" t="s">
         <v>217</v>
       </c>
       <c r="C131" s="17" t="s">
@@ -10459,7 +10924,7 @@
       <c r="G131" s="17"/>
       <c r="I131" s="17"/>
       <c r="K131" s="47" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>117</v>
@@ -10469,8 +10934,8 @@
       </c>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="109"/>
-      <c r="B132" s="110"/>
+      <c r="A132" s="113"/>
+      <c r="B132" s="111"/>
       <c r="C132" s="17" t="s">
         <v>0</v>
       </c>
@@ -10482,10 +10947,10 @@
       <c r="M132" s="14"/>
     </row>
     <row r="133" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A133" s="109">
+      <c r="A133" s="113">
         <v>66</v>
       </c>
-      <c r="B133" s="110" t="s">
+      <c r="B133" s="111" t="s">
         <v>218</v>
       </c>
       <c r="C133" s="15" t="s">
@@ -10509,8 +10974,8 @@
       </c>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="109"/>
-      <c r="B134" s="110"/>
+      <c r="A134" s="113"/>
+      <c r="B134" s="111"/>
       <c r="C134" s="16" t="s">
         <v>0</v>
       </c>
@@ -10526,10 +10991,10 @@
       <c r="M134" s="13"/>
     </row>
     <row r="135" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A135" s="109">
+      <c r="A135" s="113">
         <v>67</v>
       </c>
-      <c r="B135" s="110" t="s">
+      <c r="B135" s="111" t="s">
         <v>219</v>
       </c>
       <c r="C135" s="17" t="s">
@@ -10550,8 +11015,8 @@
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="109"/>
-      <c r="B136" s="110"/>
+      <c r="A136" s="113"/>
+      <c r="B136" s="111"/>
       <c r="C136" s="17" t="s">
         <v>0</v>
       </c>
@@ -10563,10 +11028,10 @@
       <c r="M136" s="14"/>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="109">
+      <c r="A137" s="113">
         <v>68</v>
       </c>
-      <c r="B137" s="109" t="s">
+      <c r="B137" s="113" t="s">
         <v>120</v>
       </c>
       <c r="C137" s="15" t="s">
@@ -10588,8 +11053,8 @@
       </c>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="109"/>
-      <c r="B138" s="109"/>
+      <c r="A138" s="113"/>
+      <c r="B138" s="113"/>
       <c r="C138" s="16" t="s">
         <v>122</v>
       </c>
@@ -10605,10 +11070,10 @@
       <c r="M138" s="13"/>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="109">
+      <c r="A139" s="113">
         <v>69</v>
       </c>
-      <c r="B139" s="110" t="s">
+      <c r="B139" s="111" t="s">
         <v>220</v>
       </c>
       <c r="C139" s="17" t="s">
@@ -10627,8 +11092,8 @@
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="109"/>
-      <c r="B140" s="109"/>
+      <c r="A140" s="113"/>
+      <c r="B140" s="113"/>
       <c r="C140" s="17" t="s">
         <v>0</v>
       </c>
@@ -10640,10 +11105,10 @@
       <c r="M140" s="14"/>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="109">
+      <c r="A141" s="113">
         <v>70</v>
       </c>
-      <c r="B141" s="110" t="s">
+      <c r="B141" s="111" t="s">
         <v>221</v>
       </c>
       <c r="C141" s="15" t="s">
@@ -10667,8 +11132,8 @@
       </c>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="109"/>
-      <c r="B142" s="109"/>
+      <c r="A142" s="113"/>
+      <c r="B142" s="113"/>
       <c r="C142" s="16" t="s">
         <v>0</v>
       </c>
@@ -10684,10 +11149,10 @@
       <c r="M142" s="13"/>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="109">
+      <c r="A143" s="113">
         <v>71</v>
       </c>
-      <c r="B143" s="110" t="s">
+      <c r="B143" s="111" t="s">
         <v>222</v>
       </c>
       <c r="C143" s="17" t="s">
@@ -10706,8 +11171,8 @@
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="109"/>
-      <c r="B144" s="109"/>
+      <c r="A144" s="113"/>
+      <c r="B144" s="113"/>
       <c r="C144" s="17" t="s">
         <v>0</v>
       </c>
@@ -10722,10 +11187,10 @@
       <c r="M144" s="14"/>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="109">
+      <c r="A145" s="113">
         <v>72</v>
       </c>
-      <c r="B145" s="110" t="s">
+      <c r="B145" s="111" t="s">
         <v>223</v>
       </c>
       <c r="C145" s="15" t="s">
@@ -10751,8 +11216,8 @@
       </c>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="109"/>
-      <c r="B146" s="109"/>
+      <c r="A146" s="113"/>
+      <c r="B146" s="113"/>
       <c r="C146" s="16" t="s">
         <v>0</v>
       </c>
@@ -10770,10 +11235,10 @@
       <c r="M146" s="13"/>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="109">
+      <c r="A147" s="113">
         <v>73</v>
       </c>
-      <c r="B147" s="110" t="s">
+      <c r="B147" s="111" t="s">
         <v>224</v>
       </c>
       <c r="C147" s="17" t="s">
@@ -10796,8 +11261,8 @@
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="109"/>
-      <c r="B148" s="109"/>
+      <c r="A148" s="113"/>
+      <c r="B148" s="113"/>
       <c r="C148" s="17" t="s">
         <v>0</v>
       </c>
@@ -10809,10 +11274,10 @@
       <c r="M148" s="14"/>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="109">
+      <c r="A149" s="113">
         <v>74</v>
       </c>
-      <c r="B149" s="110" t="s">
+      <c r="B149" s="111" t="s">
         <v>225</v>
       </c>
       <c r="C149" s="15" t="s">
@@ -10836,8 +11301,8 @@
       </c>
     </row>
     <row r="150" spans="1:13">
-      <c r="A150" s="109"/>
-      <c r="B150" s="109"/>
+      <c r="A150" s="113"/>
+      <c r="B150" s="113"/>
       <c r="C150" s="16" t="s">
         <v>0</v>
       </c>
@@ -10853,10 +11318,10 @@
       <c r="M150" s="13"/>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="109">
+      <c r="A151" s="113">
         <v>75</v>
       </c>
-      <c r="B151" s="110" t="s">
+      <c r="B151" s="111" t="s">
         <v>226</v>
       </c>
       <c r="C151" s="17" t="s">
@@ -10882,8 +11347,8 @@
       </c>
     </row>
     <row r="152" spans="1:13">
-      <c r="A152" s="109"/>
-      <c r="B152" s="109"/>
+      <c r="A152" s="113"/>
+      <c r="B152" s="113"/>
       <c r="C152" s="17" t="s">
         <v>0</v>
       </c>
@@ -10898,15 +11363,15 @@
       <c r="I152" s="17"/>
       <c r="K152" s="17"/>
       <c r="L152" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M152" s="27"/>
     </row>
     <row r="153" spans="1:13">
-      <c r="A153" s="109">
+      <c r="A153" s="113">
         <v>76</v>
       </c>
-      <c r="B153" s="110" t="s">
+      <c r="B153" s="111" t="s">
         <v>236</v>
       </c>
       <c r="C153" s="15" t="s">
@@ -10928,8 +11393,8 @@
       </c>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="109"/>
-      <c r="B154" s="109"/>
+      <c r="A154" s="113"/>
+      <c r="B154" s="113"/>
       <c r="C154" s="16" t="s">
         <v>0</v>
       </c>
@@ -10942,15 +11407,15 @@
       <c r="J154" s="12"/>
       <c r="K154" s="16"/>
       <c r="L154" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M154" s="13"/>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="109">
+      <c r="A155" s="113">
         <v>77</v>
       </c>
-      <c r="B155" s="110" t="s">
+      <c r="B155" s="111" t="s">
         <v>227</v>
       </c>
       <c r="C155" s="17" t="s">
@@ -10961,7 +11426,7 @@
       <c r="G155" s="17"/>
       <c r="I155" s="17"/>
       <c r="K155" s="47" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L155" s="7" t="s">
         <v>232</v>
@@ -10971,8 +11436,8 @@
       </c>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="109"/>
-      <c r="B156" s="109"/>
+      <c r="A156" s="113"/>
+      <c r="B156" s="113"/>
       <c r="C156" s="17" t="s">
         <v>0</v>
       </c>
@@ -10984,10 +11449,10 @@
       <c r="M156" s="14"/>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="109">
+      <c r="A157" s="113">
         <v>78</v>
       </c>
-      <c r="B157" s="110" t="s">
+      <c r="B157" s="111" t="s">
         <v>228</v>
       </c>
       <c r="C157" s="15" t="s">
@@ -11009,8 +11474,8 @@
       </c>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="109"/>
-      <c r="B158" s="109"/>
+      <c r="A158" s="113"/>
+      <c r="B158" s="113"/>
       <c r="C158" s="16" t="s">
         <v>77</v>
       </c>
@@ -11026,11 +11491,11 @@
       <c r="M158" s="13"/>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="109">
+      <c r="A159" s="113">
         <v>79</v>
       </c>
-      <c r="B159" s="106" t="s">
-        <v>316</v>
+      <c r="B159" s="125" t="s">
+        <v>314</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>54</v>
@@ -11044,15 +11509,15 @@
       <c r="J159" s="15"/>
       <c r="K159" s="9"/>
       <c r="L159" s="53" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M159" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:13">
-      <c r="A160" s="109"/>
-      <c r="B160" s="105"/>
+      <c r="A160" s="113"/>
+      <c r="B160" s="126"/>
       <c r="C160" s="16" t="s">
         <v>0</v>
       </c>
@@ -11065,16 +11530,16 @@
       <c r="J160" s="16"/>
       <c r="K160" s="12"/>
       <c r="L160" s="54" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M160" s="13"/>
     </row>
     <row r="161" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A161" s="109">
+      <c r="A161" s="113">
         <v>80</v>
       </c>
-      <c r="B161" s="106" t="s">
-        <v>317</v>
+      <c r="B161" s="125" t="s">
+        <v>315</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>54</v>
@@ -11088,15 +11553,15 @@
       <c r="J161" s="15"/>
       <c r="K161" s="9"/>
       <c r="L161" s="53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M161" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:13">
-      <c r="A162" s="109"/>
-      <c r="B162" s="105"/>
+      <c r="A162" s="113"/>
+      <c r="B162" s="126"/>
       <c r="C162" s="16" t="s">
         <v>0</v>
       </c>
@@ -11109,16 +11574,16 @@
       <c r="J162" s="16"/>
       <c r="K162" s="12"/>
       <c r="L162" s="54" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M162" s="13"/>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="109">
+      <c r="A163" s="113">
         <v>81</v>
       </c>
-      <c r="B163" s="111" t="s">
-        <v>338</v>
+      <c r="B163" s="127" t="s">
+        <v>336</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>54</v>
@@ -11130,63 +11595,63 @@
       <c r="F163" s="99">
         <v>45726</v>
       </c>
-      <c r="G163" s="107" t="s">
-        <v>409</v>
+      <c r="G163" s="131" t="s">
+        <v>407</v>
       </c>
       <c r="H163" s="82">
         <v>45745</v>
       </c>
-      <c r="I163" s="102" t="s">
-        <v>453</v>
+      <c r="I163" s="128" t="s">
+        <v>451</v>
       </c>
       <c r="J163" s="57">
         <v>45745</v>
       </c>
       <c r="K163" s="98" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L163" s="53" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M163" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="109"/>
-      <c r="B164" s="108"/>
+      <c r="A164" s="113"/>
+      <c r="B164" s="115"/>
       <c r="C164" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D164" s="16"/>
       <c r="E164" s="88" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F164" s="56" t="s">
-        <v>454</v>
-      </c>
-      <c r="G164" s="108"/>
+        <v>452</v>
+      </c>
+      <c r="G164" s="115"/>
       <c r="H164" s="56" t="s">
-        <v>452</v>
-      </c>
-      <c r="I164" s="103"/>
+        <v>450</v>
+      </c>
+      <c r="I164" s="129"/>
       <c r="J164" s="56" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K164" s="12"/>
       <c r="L164" s="54" t="s">
         <v>11</v>
       </c>
       <c r="M164" s="95" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="165" spans="1:13">
-      <c r="A165" s="109">
+      <c r="A165" s="113">
         <v>82</v>
       </c>
-      <c r="B165" s="106" t="s">
-        <v>339</v>
+      <c r="B165" s="125" t="s">
+        <v>337</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>54</v>
@@ -11200,15 +11665,15 @@
       <c r="J165" s="9"/>
       <c r="K165" s="15"/>
       <c r="L165" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M165" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:13">
-      <c r="A166" s="109"/>
-      <c r="B166" s="105"/>
+      <c r="A166" s="113"/>
+      <c r="B166" s="126"/>
       <c r="C166" s="16" t="s">
         <v>0</v>
       </c>
@@ -11221,16 +11686,16 @@
       <c r="J166" s="12"/>
       <c r="K166" s="16"/>
       <c r="L166" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M166" s="13"/>
     </row>
     <row r="167" spans="1:13">
-      <c r="A167" s="109">
+      <c r="A167" s="113">
         <v>83</v>
       </c>
-      <c r="B167" s="106" t="s">
-        <v>340</v>
+      <c r="B167" s="125" t="s">
+        <v>338</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>54</v>
@@ -11244,15 +11709,15 @@
       <c r="J167" s="9"/>
       <c r="K167" s="15"/>
       <c r="L167" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M167" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="109"/>
-      <c r="B168" s="105"/>
+      <c r="A168" s="113"/>
+      <c r="B168" s="126"/>
       <c r="C168" s="16" t="s">
         <v>0</v>
       </c>
@@ -11265,16 +11730,16 @@
       <c r="J168" s="12"/>
       <c r="K168" s="16"/>
       <c r="L168" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M168" s="13"/>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="109">
+      <c r="A169" s="113">
         <v>84</v>
       </c>
-      <c r="B169" s="106" t="s">
-        <v>341</v>
+      <c r="B169" s="125" t="s">
+        <v>339</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>54</v>
@@ -11287,18 +11752,18 @@
       <c r="I169" s="15"/>
       <c r="J169" s="9"/>
       <c r="K169" s="41" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L169" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M169" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="170" spans="1:13">
-      <c r="A170" s="109"/>
-      <c r="B170" s="105"/>
+      <c r="A170" s="113"/>
+      <c r="B170" s="126"/>
       <c r="C170" s="16" t="s">
         <v>0</v>
       </c>
@@ -11311,16 +11776,16 @@
       <c r="J170" s="12"/>
       <c r="K170" s="16"/>
       <c r="L170" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M170" s="13"/>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="109">
+      <c r="A171" s="113">
         <v>85</v>
       </c>
-      <c r="B171" s="106" t="s">
-        <v>346</v>
+      <c r="B171" s="125" t="s">
+        <v>344</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>54</v>
@@ -11334,15 +11799,15 @@
       <c r="J171" s="9"/>
       <c r="K171" s="15"/>
       <c r="L171" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M171" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="172" spans="1:13">
-      <c r="A172" s="109"/>
-      <c r="B172" s="105"/>
+      <c r="A172" s="113"/>
+      <c r="B172" s="126"/>
       <c r="C172" s="16" t="s">
         <v>0</v>
       </c>
@@ -11355,16 +11820,16 @@
       <c r="J172" s="12"/>
       <c r="K172" s="16"/>
       <c r="L172" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M172" s="13"/>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173" s="109">
+      <c r="A173" s="113">
         <v>86</v>
       </c>
-      <c r="B173" s="106" t="s">
-        <v>347</v>
+      <c r="B173" s="125" t="s">
+        <v>345</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>54</v>
@@ -11378,15 +11843,15 @@
       <c r="J173" s="9"/>
       <c r="K173" s="15"/>
       <c r="L173" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M173" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="109"/>
-      <c r="B174" s="105"/>
+      <c r="A174" s="113"/>
+      <c r="B174" s="126"/>
       <c r="C174" s="16" t="s">
         <v>0</v>
       </c>
@@ -11399,16 +11864,16 @@
       <c r="J174" s="12"/>
       <c r="K174" s="16"/>
       <c r="L174" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M174" s="13"/>
     </row>
     <row r="175" spans="1:13">
-      <c r="A175" s="109">
+      <c r="A175" s="113">
         <v>87</v>
       </c>
-      <c r="B175" s="106" t="s">
-        <v>348</v>
+      <c r="B175" s="125" t="s">
+        <v>346</v>
       </c>
       <c r="C175" s="15" t="s">
         <v>54</v>
@@ -11422,15 +11887,15 @@
       <c r="J175" s="9"/>
       <c r="K175" s="15"/>
       <c r="L175" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M175" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="176" spans="1:13">
-      <c r="A176" s="109"/>
-      <c r="B176" s="105"/>
+      <c r="A176" s="113"/>
+      <c r="B176" s="126"/>
       <c r="C176" s="16" t="s">
         <v>0</v>
       </c>
@@ -11443,16 +11908,16 @@
       <c r="J176" s="12"/>
       <c r="K176" s="16"/>
       <c r="L176" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M176" s="13"/>
     </row>
     <row r="177" spans="1:13">
-      <c r="A177" s="109">
+      <c r="A177" s="113">
         <v>88</v>
       </c>
-      <c r="B177" s="106" t="s">
-        <v>361</v>
+      <c r="B177" s="125" t="s">
+        <v>359</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>54</v>
@@ -11466,15 +11931,15 @@
       <c r="J177" s="9"/>
       <c r="K177" s="15"/>
       <c r="L177" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M177" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="178" spans="1:13">
-      <c r="A178" s="109"/>
-      <c r="B178" s="105"/>
+      <c r="A178" s="113"/>
+      <c r="B178" s="126"/>
       <c r="C178" s="16" t="s">
         <v>77</v>
       </c>
@@ -11487,16 +11952,16 @@
       <c r="J178" s="12"/>
       <c r="K178" s="16"/>
       <c r="L178" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M178" s="13"/>
     </row>
     <row r="179" spans="1:13">
-      <c r="A179" s="109">
+      <c r="A179" s="113">
         <v>89</v>
       </c>
-      <c r="B179" s="106" t="s">
-        <v>362</v>
+      <c r="B179" s="125" t="s">
+        <v>360</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>54</v>
@@ -11509,18 +11974,18 @@
       <c r="I179" s="15"/>
       <c r="J179" s="9"/>
       <c r="K179" s="97" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L179" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M179" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="109"/>
-      <c r="B180" s="105"/>
+      <c r="A180" s="113"/>
+      <c r="B180" s="126"/>
       <c r="C180" s="16" t="s">
         <v>0</v>
       </c>
@@ -11533,16 +11998,16 @@
       <c r="J180" s="12"/>
       <c r="K180" s="16"/>
       <c r="L180" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M180" s="13"/>
     </row>
     <row r="181" spans="1:13">
-      <c r="A181" s="109">
+      <c r="A181" s="113">
         <v>90</v>
       </c>
-      <c r="B181" s="106" t="s">
-        <v>363</v>
+      <c r="B181" s="125" t="s">
+        <v>361</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>54</v>
@@ -11556,15 +12021,15 @@
       <c r="J181" s="9"/>
       <c r="K181" s="15"/>
       <c r="L181" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M181" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="109"/>
-      <c r="B182" s="105"/>
+      <c r="A182" s="113"/>
+      <c r="B182" s="126"/>
       <c r="C182" s="16" t="s">
         <v>0</v>
       </c>
@@ -11577,16 +12042,16 @@
       <c r="J182" s="12"/>
       <c r="K182" s="16"/>
       <c r="L182" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M182" s="13"/>
     </row>
     <row r="183" spans="1:13">
-      <c r="A183" s="109">
+      <c r="A183" s="113">
         <v>91</v>
       </c>
-      <c r="B183" s="106" t="s">
-        <v>364</v>
+      <c r="B183" s="125" t="s">
+        <v>362</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>54</v>
@@ -11600,15 +12065,15 @@
       <c r="J183" s="9"/>
       <c r="K183" s="15"/>
       <c r="L183" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M183" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184" s="109"/>
-      <c r="B184" s="105"/>
+      <c r="A184" s="113"/>
+      <c r="B184" s="126"/>
       <c r="C184" s="16" t="s">
         <v>0</v>
       </c>
@@ -11621,16 +12086,16 @@
       <c r="J184" s="12"/>
       <c r="K184" s="16"/>
       <c r="L184" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M184" s="13"/>
     </row>
     <row r="185" spans="1:13">
-      <c r="A185" s="109">
+      <c r="A185" s="113">
         <v>92</v>
       </c>
-      <c r="B185" s="104" t="s">
-        <v>357</v>
+      <c r="B185" s="130" t="s">
+        <v>355</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>54</v>
@@ -11644,15 +12109,15 @@
       <c r="J185" s="9"/>
       <c r="K185" s="15"/>
       <c r="L185" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M185" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="186" spans="1:13">
-      <c r="A186" s="109"/>
-      <c r="B186" s="105"/>
+      <c r="A186" s="113"/>
+      <c r="B186" s="126"/>
       <c r="C186" s="16" t="s">
         <v>0</v>
       </c>
@@ -11665,16 +12130,16 @@
       <c r="J186" s="12"/>
       <c r="K186" s="16"/>
       <c r="L186" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M186" s="13"/>
     </row>
     <row r="187" spans="1:13">
-      <c r="A187" s="109">
+      <c r="A187" s="113">
         <v>93</v>
       </c>
-      <c r="B187" s="104" t="s">
-        <v>359</v>
+      <c r="B187" s="130" t="s">
+        <v>357</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>54</v>
@@ -11688,15 +12153,15 @@
       <c r="J187" s="9"/>
       <c r="K187" s="15"/>
       <c r="L187" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M187" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="188" spans="1:13">
-      <c r="A188" s="109"/>
-      <c r="B188" s="105"/>
+      <c r="A188" s="113"/>
+      <c r="B188" s="126"/>
       <c r="C188" s="16" t="s">
         <v>0</v>
       </c>
@@ -11709,16 +12174,16 @@
       <c r="J188" s="12"/>
       <c r="K188" s="16"/>
       <c r="L188" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M188" s="13"/>
     </row>
     <row r="189" spans="1:13">
-      <c r="A189" s="109">
+      <c r="A189" s="113">
         <v>94</v>
       </c>
-      <c r="B189" s="106" t="s">
-        <v>400</v>
+      <c r="B189" s="125" t="s">
+        <v>398</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>54</v>
@@ -11733,23 +12198,23 @@
       <c r="I189" s="15"/>
       <c r="J189" s="9"/>
       <c r="K189" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="L189" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="L189" s="10" t="s">
-        <v>398</v>
-      </c>
       <c r="M189" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="190" spans="1:13">
-      <c r="A190" s="109"/>
-      <c r="B190" s="105"/>
+      <c r="A190" s="113"/>
+      <c r="B190" s="126"/>
       <c r="C190" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D190" s="83" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E190" s="16"/>
       <c r="F190" s="12"/>
@@ -11759,15 +12224,15 @@
       <c r="J190" s="12"/>
       <c r="K190" s="16"/>
       <c r="L190" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M190" s="13"/>
     </row>
     <row r="191" spans="1:13">
-      <c r="A191" s="109">
+      <c r="A191" s="113">
         <v>95</v>
       </c>
-      <c r="B191" s="104"/>
+      <c r="B191" s="130"/>
       <c r="C191" s="15"/>
       <c r="D191" s="9"/>
       <c r="E191" s="15"/>
@@ -11781,8 +12246,8 @@
       <c r="M191" s="66"/>
     </row>
     <row r="192" spans="1:13">
-      <c r="A192" s="109"/>
-      <c r="B192" s="105"/>
+      <c r="A192" s="113"/>
+      <c r="B192" s="126"/>
       <c r="C192" s="16"/>
       <c r="D192" s="12"/>
       <c r="E192" s="16"/>
@@ -11796,10 +12261,10 @@
       <c r="M192" s="13"/>
     </row>
     <row r="193" spans="1:13">
-      <c r="A193" s="109">
+      <c r="A193" s="113">
         <v>96</v>
       </c>
-      <c r="B193" s="104"/>
+      <c r="B193" s="130"/>
       <c r="C193" s="15"/>
       <c r="D193" s="9"/>
       <c r="E193" s="15"/>
@@ -11813,8 +12278,8 @@
       <c r="M193" s="66"/>
     </row>
     <row r="194" spans="1:13">
-      <c r="A194" s="109"/>
-      <c r="B194" s="105"/>
+      <c r="A194" s="113"/>
+      <c r="B194" s="126"/>
       <c r="C194" s="16"/>
       <c r="D194" s="12"/>
       <c r="E194" s="16"/>
@@ -11828,10 +12293,10 @@
       <c r="M194" s="13"/>
     </row>
     <row r="195" spans="1:13">
-      <c r="A195" s="109">
+      <c r="A195" s="113">
         <v>97</v>
       </c>
-      <c r="B195" s="104"/>
+      <c r="B195" s="130"/>
       <c r="C195" s="15"/>
       <c r="D195" s="9"/>
       <c r="E195" s="15"/>
@@ -11845,8 +12310,8 @@
       <c r="M195" s="66"/>
     </row>
     <row r="196" spans="1:13">
-      <c r="A196" s="109"/>
-      <c r="B196" s="105"/>
+      <c r="A196" s="113"/>
+      <c r="B196" s="126"/>
       <c r="C196" s="16"/>
       <c r="D196" s="12"/>
       <c r="E196" s="16"/>
@@ -11860,10 +12325,10 @@
       <c r="M196" s="13"/>
     </row>
     <row r="197" spans="1:13">
-      <c r="A197" s="109">
+      <c r="A197" s="113">
         <v>98</v>
       </c>
-      <c r="B197" s="104"/>
+      <c r="B197" s="130"/>
       <c r="C197" s="15"/>
       <c r="D197" s="9"/>
       <c r="E197" s="15"/>
@@ -11877,8 +12342,8 @@
       <c r="M197" s="66"/>
     </row>
     <row r="198" spans="1:13">
-      <c r="A198" s="109"/>
-      <c r="B198" s="105"/>
+      <c r="A198" s="113"/>
+      <c r="B198" s="126"/>
       <c r="C198" s="16"/>
       <c r="D198" s="12"/>
       <c r="E198" s="16"/>
@@ -11892,10 +12357,10 @@
       <c r="M198" s="13"/>
     </row>
     <row r="199" spans="1:13">
-      <c r="A199" s="109">
+      <c r="A199" s="113">
         <v>99</v>
       </c>
-      <c r="B199" s="104"/>
+      <c r="B199" s="130"/>
       <c r="C199" s="15"/>
       <c r="D199" s="9"/>
       <c r="E199" s="15"/>
@@ -11909,8 +12374,8 @@
       <c r="M199" s="66"/>
     </row>
     <row r="200" spans="1:13">
-      <c r="A200" s="109"/>
-      <c r="B200" s="105"/>
+      <c r="A200" s="113"/>
+      <c r="B200" s="126"/>
       <c r="C200" s="16"/>
       <c r="D200" s="12"/>
       <c r="E200" s="16"/>
@@ -11924,10 +12389,10 @@
       <c r="M200" s="13"/>
     </row>
     <row r="201" spans="1:13">
-      <c r="A201" s="109">
+      <c r="A201" s="113">
         <v>100</v>
       </c>
-      <c r="B201" s="104"/>
+      <c r="B201" s="130"/>
       <c r="C201" s="15"/>
       <c r="D201" s="9"/>
       <c r="E201" s="15"/>
@@ -11941,8 +12406,8 @@
       <c r="M201" s="66"/>
     </row>
     <row r="202" spans="1:13">
-      <c r="A202" s="109"/>
-      <c r="B202" s="105"/>
+      <c r="A202" s="113"/>
+      <c r="B202" s="126"/>
       <c r="C202" s="16"/>
       <c r="D202" s="12"/>
       <c r="E202" s="16"/>
@@ -11956,10 +12421,10 @@
       <c r="M202" s="13"/>
     </row>
     <row r="203" spans="1:13">
-      <c r="A203" s="109">
+      <c r="A203" s="113">
         <v>101</v>
       </c>
-      <c r="B203" s="104"/>
+      <c r="B203" s="130"/>
       <c r="C203" s="15"/>
       <c r="D203" s="9"/>
       <c r="E203" s="15"/>
@@ -11973,8 +12438,8 @@
       <c r="M203" s="66"/>
     </row>
     <row r="204" spans="1:13">
-      <c r="A204" s="109"/>
-      <c r="B204" s="105"/>
+      <c r="A204" s="113"/>
+      <c r="B204" s="126"/>
       <c r="C204" s="16"/>
       <c r="D204" s="12"/>
       <c r="E204" s="16"/>
@@ -12028,57 +12493,156 @@
     </row>
   </sheetData>
   <mergeCells count="225">
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G9:G10"/>
@@ -12103,156 +12667,57 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -12521,11 +12986,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38F57D0-F254-4DD1-AED1-EBC7AE38B116}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="28.25" style="96" customWidth="1"/>
     <col min="2" max="2" width="66.75" style="96" customWidth="1"/>
@@ -12533,112 +12998,112 @@
     <col min="4" max="4" width="99.75" style="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="80.650000000000006">
+    <row r="1" spans="1:4" ht="108">
       <c r="A1" s="96" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="25.5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="36">
       <c r="A2" s="96" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="102">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="144">
       <c r="A4" s="96" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36">
+      <c r="A5" s="96" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
+      <c r="A6" s="96" t="s">
         <v>416</v>
       </c>
-      <c r="B4" s="85" t="s">
-        <v>441</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>443</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="25.5">
-      <c r="A5" s="96" t="s">
-        <v>417</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5">
-      <c r="A6" s="96" t="s">
-        <v>418</v>
-      </c>
       <c r="B6" s="85" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>263</v>
       </c>
       <c r="D6" s="85" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="76.5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="108">
       <c r="A7" s="96" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B7" s="85" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="54">
+      <c r="A8" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="85" t="s">
         <v>424</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>419</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="38.25">
-      <c r="A8" s="96" t="s">
-        <v>425</v>
-      </c>
-      <c r="B8" s="85" t="s">
-        <v>426</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25.5">
+    <row r="9" spans="1:4" ht="36">
       <c r="A9" s="96" t="s">
         <v>268</v>
       </c>
       <c r="B9" s="85" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>267</v>
@@ -12649,82 +13114,82 @@
         <v>272</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C10" s="96" t="s">
         <v>272</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36">
       <c r="A11" s="96" t="s">
         <v>265</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="38.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="54">
       <c r="A12" s="96" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" s="85" t="s">
         <v>430</v>
       </c>
-      <c r="B12" s="85" t="s">
-        <v>432</v>
-      </c>
       <c r="C12" s="96" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36">
       <c r="A13" s="96" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" s="85" t="s">
         <v>433</v>
       </c>
-      <c r="B13" s="85" t="s">
-        <v>435</v>
-      </c>
       <c r="C13" s="96" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36">
       <c r="A14" s="96" t="s">
         <v>270</v>
       </c>
       <c r="B14" s="85" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36">
+      <c r="A15" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" s="85" t="s">
         <v>436</v>
       </c>
-      <c r="C14" s="96" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5">
-      <c r="A15" s="96" t="s">
-        <v>437</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>438</v>
-      </c>
       <c r="C15" s="96" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="96" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C16" s="96" t="s">
         <v>270</v>
@@ -12732,12 +13197,12 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="96" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="96" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -12750,18 +13215,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090B0416-F1D2-4A08-9C25-1FAF8F39F174}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="27.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="60" style="42" customWidth="1"/>
     <col min="3" max="3" width="111.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1">
+    <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="76" t="s">
         <v>237</v>
       </c>
@@ -12772,8 +13237,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:3" ht="90">
+      <c r="A2" s="116" t="s">
         <v>241</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -12783,8 +13248,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="38.25">
-      <c r="A3" s="121"/>
+    <row r="3" spans="1:3" ht="72">
+      <c r="A3" s="116"/>
       <c r="B3" s="42" t="s">
         <v>139</v>
       </c>
@@ -12792,8 +13257,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5">
-      <c r="A4" s="121"/>
+    <row r="4" spans="1:3" ht="36">
+      <c r="A4" s="116"/>
       <c r="B4" s="42" t="s">
         <v>140</v>
       </c>
@@ -12801,8 +13266,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="38.25">
-      <c r="A5" s="121"/>
+    <row r="5" spans="1:3" ht="54">
+      <c r="A5" s="116"/>
       <c r="B5" s="42" t="s">
         <v>141</v>
       </c>
@@ -12810,8 +13275,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="38.65" thickBot="1">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:3" ht="72.75" thickBot="1">
+      <c r="A6" s="134"/>
       <c r="B6" s="75" t="s">
         <v>146</v>
       </c>
@@ -12819,8 +13284,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="25.5">
-      <c r="A7" s="126" t="s">
+    <row r="7" spans="1:3" ht="36">
+      <c r="A7" s="135" t="s">
         <v>242</v>
       </c>
       <c r="B7" s="45" t="s">
@@ -12830,8 +13295,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="25.5">
-      <c r="A8" s="126"/>
+    <row r="8" spans="1:3" ht="36">
+      <c r="A8" s="135"/>
       <c r="B8" s="45" t="s">
         <v>244</v>
       </c>
@@ -12839,8 +13304,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51">
-      <c r="A9" s="126"/>
+    <row r="9" spans="1:3" ht="72">
+      <c r="A9" s="135"/>
       <c r="B9" s="45" t="s">
         <v>245</v>
       </c>
@@ -12848,8 +13313,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="38.25">
-      <c r="A10" s="126"/>
+    <row r="10" spans="1:3" ht="72">
+      <c r="A10" s="135"/>
       <c r="B10" s="45" t="s">
         <v>246</v>
       </c>
@@ -12857,8 +13322,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="63.75">
-      <c r="A11" s="126"/>
+    <row r="11" spans="1:3" ht="108">
+      <c r="A11" s="135"/>
       <c r="B11" s="45" t="s">
         <v>249</v>
       </c>
@@ -12866,8 +13331,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="63.75">
-      <c r="A12" s="126"/>
+    <row r="12" spans="1:3" ht="108">
+      <c r="A12" s="135"/>
       <c r="B12" s="45" t="s">
         <v>247</v>
       </c>
@@ -12875,8 +13340,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="140.65" thickBot="1">
-      <c r="A13" s="127"/>
+    <row r="13" spans="1:3" ht="216.75" thickBot="1">
+      <c r="A13" s="136"/>
       <c r="B13" s="73" t="s">
         <v>248</v>
       </c>
@@ -12884,183 +13349,183 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="38.25">
-      <c r="A14" s="124" t="s">
-        <v>321</v>
+    <row r="14" spans="1:3" ht="72">
+      <c r="A14" s="133" t="s">
+        <v>319</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C14" s="80" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="63.75">
-      <c r="A15" s="109"/>
+    <row r="15" spans="1:3" ht="108">
+      <c r="A15" s="113"/>
       <c r="B15" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C15" s="63" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="76.5">
-      <c r="A16" s="109"/>
+    <row r="16" spans="1:3" ht="126">
+      <c r="A16" s="113"/>
       <c r="B16" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="72">
+      <c r="A17" s="113"/>
+      <c r="B17" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36.75" thickBot="1">
+      <c r="A18" s="132"/>
+      <c r="B18" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="C16" s="63" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="38.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="48" t="s">
+      <c r="C18" s="72"/>
+    </row>
+    <row r="19" spans="1:3" ht="36">
+      <c r="A19" s="115" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="126">
+      <c r="A20" s="113"/>
+      <c r="B20" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="126">
+      <c r="A21" s="113"/>
+      <c r="B21" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="63" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="25.9" thickBot="1">
-      <c r="A18" s="123"/>
-      <c r="B18" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="C18" s="72"/>
-    </row>
-    <row r="19" spans="1:3" ht="25.5">
-      <c r="A19" s="108" t="s">
-        <v>365</v>
-      </c>
-      <c r="B19" s="70" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="90">
+      <c r="A22" s="113"/>
+      <c r="B22" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C22" s="63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="144.75" thickBot="1">
+      <c r="A23" s="132"/>
+      <c r="B23" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="126">
+      <c r="A24" s="133" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="89.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="48" t="s">
+      <c r="B24" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="C20" s="63" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="76.5">
-      <c r="A21" s="109"/>
-      <c r="B21" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="51">
-      <c r="A22" s="109"/>
-      <c r="B22" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="C22" s="63" t="s">
+      <c r="C24" s="80" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="76.900000000000006" thickBot="1">
-      <c r="A23" s="123"/>
-      <c r="B23" s="71" t="s">
-        <v>370</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="89.25">
-      <c r="A24" s="124" t="s">
+    <row r="25" spans="1:3" ht="126.75" thickBot="1">
+      <c r="A25" s="132"/>
+      <c r="B25" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="B24" s="79" t="s">
-        <v>368</v>
-      </c>
-      <c r="C24" s="80" t="s">
+      <c r="C25" s="78" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="89.65" thickBot="1">
-      <c r="A25" s="123"/>
-      <c r="B25" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="38.25">
-      <c r="A26" s="124" t="s">
+    <row r="26" spans="1:3" ht="72">
+      <c r="A26" s="133" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="108">
+      <c r="A27" s="113"/>
+      <c r="B27" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="C27" s="63" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="90">
+      <c r="A28" s="113"/>
+      <c r="B28" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C28" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="63.75">
-      <c r="A27" s="109"/>
-      <c r="B27" s="48" t="s">
+    <row r="29" spans="1:3" ht="90">
+      <c r="A29" s="113"/>
+      <c r="B29" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C29" s="63" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="51">
-      <c r="A28" s="109"/>
-      <c r="B28" s="48" t="s">
+    <row r="30" spans="1:3" ht="108.75" thickBot="1">
+      <c r="A30" s="132"/>
+      <c r="B30" s="71" t="s">
         <v>387</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C30" s="78" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="63.75">
-      <c r="A29" s="109"/>
-      <c r="B29" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="64.150000000000006" thickBot="1">
-      <c r="A30" s="123"/>
-      <c r="B30" s="71" t="s">
-        <v>389</v>
-      </c>
-      <c r="C30" s="78" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="63.75">
-      <c r="A31" s="108" t="s">
+    <row r="31" spans="1:3" ht="108">
+      <c r="A31" s="115" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="126.75" thickBot="1">
+      <c r="A32" s="132"/>
+      <c r="B32" s="71" t="s">
         <v>402</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="C32" s="78" t="s">
         <v>403</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="89.65" thickBot="1">
-      <c r="A32" s="123"/>
-      <c r="B32" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -13082,320 +13547,350 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458BD083-343D-440D-936A-58D1166E7EC1}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="36" style="144" customWidth="1"/>
-    <col min="2" max="2" width="35.0625" style="140" customWidth="1"/>
-    <col min="3" max="3" width="101.9375" style="141" customWidth="1"/>
+    <col min="1" max="1" width="36" style="5" customWidth="1"/>
+    <col min="2" max="2" width="35.125" style="137" customWidth="1"/>
+    <col min="3" max="3" width="106.875" style="138" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="108" customHeight="1">
-      <c r="A1" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
+      <c r="A1" s="139" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="140" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="105.75">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:3" ht="108">
+      <c r="A3" s="141" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="137" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="140" t="s">
-        <v>461</v>
+      <c r="C3" s="137" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="164.25" customHeight="1">
       <c r="A4" s="142"/>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="137" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="126">
+      <c r="A5" s="142"/>
+      <c r="B5" s="137" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="162">
+      <c r="A6" s="142"/>
+      <c r="B6" s="137" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="162">
+      <c r="A7" s="142"/>
+      <c r="B7" s="137" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="162">
+      <c r="A8" s="142"/>
+      <c r="B8" s="137" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="162">
+      <c r="A9" s="142"/>
+      <c r="B9" s="137" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="180">
+      <c r="A10" s="142"/>
+      <c r="B10" s="137" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="90">
+      <c r="A11" s="142"/>
+      <c r="B11" s="137" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="137" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="180">
+      <c r="A12" s="142"/>
+      <c r="B12" s="137" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="126">
+      <c r="A13" s="142"/>
+      <c r="B13" s="137" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="137" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="144">
+      <c r="A14" s="142"/>
+      <c r="B14" s="137" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="137" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="144">
+      <c r="A15" s="142"/>
+      <c r="B15" s="137" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="137" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="126">
+      <c r="A16" s="142"/>
+      <c r="B16" s="137" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="137" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="54">
+      <c r="A17" s="142"/>
+      <c r="B17" s="137" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" s="137" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="126">
+      <c r="A18" s="142"/>
+      <c r="B18" s="137" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="137" t="s">
         <v>469</v>
       </c>
-      <c r="C4" s="140" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="158.65">
-      <c r="A5" s="142"/>
-      <c r="B5" s="140" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="140" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="142"/>
-      <c r="B6" s="140" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="158.65">
-      <c r="A7" s="142"/>
-      <c r="B7" s="140" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="140" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="158.65">
-      <c r="A8" s="142"/>
-      <c r="B8" s="140" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="140" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="142"/>
-      <c r="B9" s="140" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="142"/>
-      <c r="B10" s="140" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="142"/>
-      <c r="B11" s="140" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="142"/>
-      <c r="B12" s="140" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="142"/>
-      <c r="B13" s="140" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="141">
-      <c r="A14" s="142"/>
-      <c r="B14" s="140" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="140" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="141">
-      <c r="A15" s="142"/>
-      <c r="B15" s="140" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="140" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="142"/>
-      <c r="B16" s="140" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="142"/>
-      <c r="B17" s="140" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="142"/>
-      <c r="B18" s="140" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="126">
+      <c r="A19" s="142"/>
+      <c r="B19" s="137" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="142"/>
-      <c r="B19" s="140" t="s">
+      <c r="C19" s="137" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="144">
+      <c r="A20" s="142"/>
+      <c r="B20" s="137" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="142"/>
-      <c r="B20" s="140" t="s">
+      <c r="C20" s="137" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="142"/>
+      <c r="B21" s="137" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="142"/>
-      <c r="B21" s="140" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="142"/>
+    </row>
+    <row r="23" spans="1:3" ht="36">
+      <c r="A23" s="142"/>
+      <c r="B23" s="137" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="142"/>
-      <c r="B22" s="140" t="s">
+    <row r="24" spans="1:3" ht="36">
+      <c r="A24" s="142"/>
+      <c r="B24" s="137" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="142"/>
-      <c r="B23" s="140" t="s">
+    <row r="25" spans="1:3" ht="36">
+      <c r="A25" s="142"/>
+      <c r="B25" s="137" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="35.25">
-      <c r="A24" s="142"/>
-      <c r="B24" s="140" t="s">
+    <row r="26" spans="1:3" ht="72">
+      <c r="A26" s="142"/>
+      <c r="B26" s="137" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="35.25">
-      <c r="A25" s="142"/>
-      <c r="B25" s="140" t="s">
+    <row r="27" spans="1:3" ht="36">
+      <c r="A27" s="142"/>
+      <c r="B27" s="85" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="52.9">
-      <c r="A26" s="142"/>
-      <c r="B26" s="140" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="142"/>
+      <c r="B28" s="137" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="35.25">
-      <c r="A27" s="142"/>
-      <c r="B27" s="143" t="s">
+    <row r="29" spans="1:3" ht="54">
+      <c r="A29" s="142"/>
+      <c r="B29" s="85" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="54">
+      <c r="A30" s="142"/>
+      <c r="B30" s="85" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="142"/>
-      <c r="B28" s="140" t="s">
+    <row r="31" spans="1:3" ht="54">
+      <c r="A31" s="142"/>
+      <c r="B31" s="85" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="35.25">
-      <c r="A29" s="142"/>
-      <c r="B29" s="143" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="35.25">
-      <c r="A30" s="142"/>
-      <c r="B30" s="143" t="s">
+    <row r="32" spans="1:3" ht="54">
+      <c r="A32" s="142"/>
+      <c r="B32" s="85" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="35.25">
-      <c r="A31" s="142"/>
-      <c r="B31" s="143" t="s">
+    <row r="33" spans="1:2" ht="54">
+      <c r="A33" s="142"/>
+      <c r="B33" s="85" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="35.25">
-      <c r="A32" s="142"/>
-      <c r="B32" s="143" t="s">
+    <row r="34" spans="1:2" ht="54">
+      <c r="A34" s="142"/>
+      <c r="B34" s="85" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="35.25">
-      <c r="A33" s="142"/>
-      <c r="B33" s="143" t="s">
+    <row r="35" spans="1:2" ht="36">
+      <c r="A35" s="142"/>
+      <c r="B35" s="85" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="35.25">
-      <c r="A34" s="142"/>
-      <c r="B34" s="143" t="s">
+    <row r="36" spans="1:2" ht="54">
+      <c r="A36" s="142"/>
+      <c r="B36" s="85" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="35.25">
-      <c r="A35" s="142"/>
-      <c r="B35" s="143" t="s">
+    <row r="37" spans="1:2" ht="54">
+      <c r="A37" s="142"/>
+      <c r="B37" s="85" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="35.25">
-      <c r="A36" s="142"/>
-      <c r="B36" s="143" t="s">
+    <row r="38" spans="1:2" ht="36">
+      <c r="A38" s="142"/>
+      <c r="B38" s="85" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="35.25">
-      <c r="A37" s="142"/>
-      <c r="B37" s="143" t="s">
+    <row r="39" spans="1:2" ht="72">
+      <c r="A39" s="142"/>
+      <c r="B39" s="85" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="35.25">
-      <c r="A38" s="142"/>
-      <c r="B38" s="143" t="s">
+    <row r="40" spans="1:2" ht="72">
+      <c r="A40" s="142"/>
+      <c r="B40" s="85" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="52.9">
-      <c r="A39" s="142"/>
-      <c r="B39" s="143" t="s">
+    <row r="41" spans="1:2" ht="72">
+      <c r="A41" s="142"/>
+      <c r="B41" s="85" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="52.9">
-      <c r="A40" s="142"/>
-      <c r="B40" s="143" t="s">
+    <row r="42" spans="1:2" ht="54">
+      <c r="A42" s="142"/>
+      <c r="B42" s="85" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="35.25">
-      <c r="A41" s="142"/>
-      <c r="B41" s="143" t="s">
+    <row r="43" spans="1:2" ht="54">
+      <c r="A43" s="142"/>
+      <c r="B43" s="85" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="35.25">
-      <c r="A42" s="142"/>
-      <c r="B42" s="143" t="s">
+    <row r="44" spans="1:2" ht="54">
+      <c r="A44" s="142"/>
+      <c r="B44" s="85" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="35.25">
-      <c r="A43" s="142"/>
-      <c r="B43" s="143" t="s">
+    <row r="45" spans="1:2" ht="54">
+      <c r="A45" s="142"/>
+      <c r="B45" s="85" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="35.25">
-      <c r="A44" s="142"/>
-      <c r="B44" s="143" t="s">
+    <row r="46" spans="1:2" ht="54">
+      <c r="A46" s="142"/>
+      <c r="B46" s="85" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="35.25">
-      <c r="A45" s="142"/>
-      <c r="B45" s="143" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="35.25">
-      <c r="A46" s="142"/>
-      <c r="B46" s="143" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:2">

--- a/就活.xlsx
+++ b/就活.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FA236D-BDAE-4CD9-8F11-D8D67C850394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D63156-29B1-4D28-8C1A-6B8BB7AF8AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
   </bookViews>
   <sheets>
     <sheet name="日程" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="524">
   <si>
     <t>SIer</t>
     <phoneticPr fontId="1"/>
@@ -486,10 +486,6 @@
   </si>
   <si>
     <t>ES</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TAL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5098,67 +5094,7 @@
     <t>a8b1023975</t>
   </si>
   <si>
-    <t>e9a1011303</t>
-  </si>
-  <si>
-    <t>openwork</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ndis</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mynavi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NTT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">세키스이시스템즈
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>NTTデータセキスイシステムズ</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WEB</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5180,30 +5116,6 @@
     <rPh sb="0" eb="4">
       <t>シボウドウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私は大学で情報工学を専攻し、さまざまなチーム開発に携わるなかで成果を上げてまいりました。こうした経験を通じて、顧客と密接にコミュニケーションを取りながら共に成長を目指し、社会に貢献できるIT業界で働きたいと考えております。
-特に卒業制作のチームプロジェクトでは、要件定義や設計などの上流工程に関わる書類作成を担当し、ただ開発やコーディングを行うだけではなく、上流工程の重要性を改めて実感いたしました。
-このような経験を踏まえ、私は開発の前工程を担うエンジニアとして、サービス開発全体を深く理解できるよう幅広く学びたいと考えております。また、保険業界をリードする東京海上のIT部門を支える貴社において、大規模なプロジェクトに携わりながら自らも成長し、社会に貢献できる機会を得たいと考えております。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私の強みは、組織内で積極的に解決策を講じる能力です。
-空軍の電算兵として勤務していた際、軍の特性上、兵役期間が２年しかなく人員の入れ替わりが多いにもかかわらず、部署内の引き継ぎシステムが不十分で、業務の連続性が低下している問題を発見しました。そこで私は、業務内容を体系的に文書化し、状況別対応マニュアルを作成し、後任者の学習をサポートしました。 その結果、除隊前の後任者から「一番頼りになる人」と言われたときは、大きなやりがいを感じ、自分自身も一段と成長したことを実感しました。この経験から、貴社でも共同の目標を達成することで新たな価値を創造する人材になりたいと思います。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>까지</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6084,59 +5996,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>私は2021年から現在まで、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">スポーツ放送の演出を担当しておりました。
-</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ホウソウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SPI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GD(1차)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>까지</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6802,12 +6662,334 @@
 また、互いの得意分野や不足を補い合いながら課題を解決していく中で、大きなやりがいを感じると同時に、チームワークやコミュニケーションの重要性を再認識しました。こうした経験は、今後エンジニアとして働くうえでも必ず活かせると考えています。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>から</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>私は2021年から現在まで、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>スポーツ放送の演出を担当しておりました。</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>GD(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onecareer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onecareer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は大学で培った知識と経験を活かし、IT技術を通じて社会に貢献できるSIer企業を志望しております。
+中でも、大規模プロジェクトに携わる機会の多いユーザー系SIerで、チームワークや協力の大切さを深く学びたいと考えています。
+貴社は、損害保険業界トップである東京海上日動グループという強固な基盤のもと、大きな社会的インパクトを生み出せる環境が整っていると感じました。
+特に人々の生活と密接にかかわる保険・金融分野で、年金商品を案内するアプリの開発など、日常生活の利便性を高めるDXを推進している点に大変魅力を感じています。
+また、チームプロジェクトや空軍情報兵としての経験を通じて、上流工程から運用・保守までの一連のプロセスがどれほど重要かを実感いたしました。
+そこで、親会社のサービスを企画段階から運用まで一貫して担う貴社で、プロジェクト全体を見渡すエンジニア兼PMとして成長したいと考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の強みは、チームの一員として共通の目標に貢献しようとする姿勢です。
+大学時代、卒業制作のチームプロジェクトで3人のチームを組み、同時接続の3Dゲームを制作しました。ゲーム開発を選んだ理由は、eスポーツに携わった経験を活かし、作品の企画全般を担当してチームに貢献できると考えたからです。しかし、初めてのゲーム開発だったため、C#やUnityの知識が不足しているという課題がありました。そこで、C#の開発経験があるメンバーと積極的にコミュニケーションを取りながらまず要件定義などの上流工程を進め、同時に言語の知識を習得することができました。開発段階では、現職のエンジニアの方からいただいたアドバイスをもとにアジャイル手法を取り入れ、毎週MVPを作成し、テストや機能追加を繰り返しながら完成度を高めました。
+その結果、学内コンテストで最優秀賞を受賞し、メンバーそれぞれが得意分野を活かして協力し合いながら成果を出したことに大きなやりがいを感じました。この経験を通じて、協力の大切さを改めて実感し、多くの人とシナジーを生み出しながら、より大きなプロジェクトを扱う業務に携わりたいと考えるようになりました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mynavi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NTTデータアイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI・TAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後に「伝えておきたいこと」や「気になること」がありましたら、自由に記述してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私がSIer業界を志望するのは、大規模かつ多様なプロジェクトを通じて、システム全体を見渡す経験を積めると考えたからです。
+中でもメーカー系SIerとして幅広い技術力と安定性を持ち、ITを通じて社会の発展を力強く支えているNTTデータグループに大きな魅力を感じました。さらに、その基盤のもとで公共・医療・インフラなど社会基盤の中核を担う貴社なら、より直接的に社会に貢献できると思います。
+また、私はチーム開発の経験を通じて、成果の維持と向上にはコミュニケーションを重視しながらプロジェクト全工程に取り組むことが重要だと学びました。貴社のように様々な業界や機関と長期間連携し、人と人をつなぐ役割を担う現場でこそ、PMとして成長し、社会に貢献したいと考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぜNTTデータアイに入社したいと考えているのか、複数の側面から教えてください。
+（400文字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまでの経験やエピソードを踏まえて、現在の自分が持っている価値観や考えについて教えてください。
+その際、次のようなテーマを参考にして下さい。
+学び・気づき・成長・変化・問題意識・仕事で活かしたいこと・実現したいこと・大切にしていること 他
+（400文字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学で3人チームによるゲーム開発プロジェクトを行いました。
+私はeスポーツ業界での経験を活かして企画書やドキュメントを担当した。C#に不慣れながらもゲーム開発に詳しいチームメンバーから学びながら要件定義や設計にも携わりました。さらに開発段階では、メンバーの提案でアジャイル手法を取り入れ、短いスプリントごとに機能を改善することで完成度を高めることができました。その結果、学内コンテストで最優秀賞を受賞し、未知の分野でも積極的に学ぶ姿勢があれば成果を出せること、そしてメンバー各自の強みを活かして協力することでより大きなシナジーを生み出せると実感しました。今後はこの経験を糧に、多様な場面でコミュニケーションを重視しながら、新たな価値を創出していきたいと考えています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は2021年からフリーランスとして、eスポーツ大会の進行や配信演出を担当してきました。関連する実務経験はありませんでしたが、ゲームへの深い理解と業界に貢献したいという思いから挑戦を決意しました。与えられた業務にとどまらず、専攻で培った知識を活かして社内の開発担当者とゲームシステムの改善を議論するなど、積極的なコミュニケーションを通じて信頼を築くことができました。その結果、正社員ではない立場ながらもタイのゲームショーに参加し、製品をPRする機会を得られたのです。現在では4年前に比べ接続者数が4倍に増えるなど大きく成長し、未知の分野への挑戦や向上心を持つ仲間との協力が大きな成果を生むと実感しました。今後はこの経験を活かし、貴社でも新たな挑戦を続けながら組織と社会に貢献できる人材を目指したいと考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onecareer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mynavi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソニーグローバルソリューションズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り組んだ背景や動機、設定した目標、実際に出した成果を、明確かつ簡潔に記入して下さい。
+（400字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記の成果を出すにあたり、主体的に行動したこと（課題解決に向けた工夫・苦労など）、
+周囲との関わり方（チームでの役割・チーム内での貢献など）、学んだことについて記入して下さい。
+（500文字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたの長所・短所や特技などについて自由に記入して下さい。（200文字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぜSGSに入社を希望するのか、入社してどんなことに取り組んでみたいかについて自由に記入してください。（400文字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わからないこと、知りたいことがあれば記入して下さい。（200文字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は2021年からフリーランスとして、新作オンラインゲームのeスポーツ大会運営や放送演出を担当しております。
+未経験ではありましたが、「今しかできない」と考え、ゲームへの熱意を原動力に挑戦しました。 公平性と楽しさを両立させた大会を作ることを目標に掲げ、他の事例を参考にしたり、ユーザーからのフィードバックを取り入れたりしながら独自の方式を確立しました。
+また、与えられた業務にとどまらず、社内の部署と積極的にコミュニケーションを図り、ゲームの発展にも貢献しました。
+その結果、私が参画した当初と比べて正式なリーグが設立され、大会の観衆数が年々増加し、ゲームの同時接続者数も4倍以上に拡大するなど、大きな成果を得ることができました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新作ゲームだったため、ゲームのシステムや大会の仕組みが十分に整備されていませんでした。さらに、私自身も未経験で先任者もいなかったため、当初はさまざまな試行錯誤を余儀なくされました。
+そうした困難がありながらも、大会の発展に向けて責任感をもって取り組み、より楽しめる演出を実現するため、他ゲーム大会の方式を参考に自分たちのゲームに最適化する工夫を重ねました。また、公平性を維持するために大会規則の不備を検討し、選手からのフィードバックを取り入れて改善を続けました。
+さらに、開発チームと密にコミュニケーションを図りながらゲームの改善案を協議し、マーケティング部門がリーグ設立のため選手レポートを作成する際には、私が大会を通じて蓄積したデータを活かして選手分析をサポートしました。
+こうした主体的な行動が周囲からの信頼獲得につながり、未経験の領域でも成果を上げる原動力になったと考えています。また、チーム内で役割を明確にし、互いの強みを引き出す協働の大切さを学び、新たな領域へ果敢に挑戦する姿勢の重要性を再認識しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の強みは挑戦を恐れない姿勢です。
+未経験ながらeスポーツやゲーム開発プロジェクト、そして日本語学習で成果を上げ、自信を得ました。
+これからも他分野へ積極的に学び挑戦したいと考えています。
+一方、弱みはもともと外向的でないため、リーダー役よりサポート役が多かった点です。
+しかしチームで主体的に動く中でリーダーに必要な資質を学び、今後は自らプロジェクトを牽引して新たな価値を創出したいと考えています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は専攻を活かし、ITの最前線で社会に貢献したいと考え貴社を志望しています。
+そして、ソニーグループ全体の価値創造や業務改革をリードできる貴社に、大きな魅力を感じています。
+大学時代は卒業プロジェクトとしてゲームを開発し、上流工程から携わることで専門知識を活かしつつ、設計段階の重要性を学びました。
+また、eスポーツ大会の運営やタイへの出張経験を通じて、ユーザー目線でのサービス設計やグローバルな連携に大きなやりがいを感じています。
+入社後は、こうした経験を生かし、ソニー独自の技術を含む幅広い事業領域で最適なシステム提案やDX支援に携わりたいです。
+さらに、自ら考え行動するとともに、新しい技術を探究する姿勢を貫き、グローバルに挑戦を続けるソニーグループに貢献したいと考えています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onecareer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mynavi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIPROGY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当社および希望コースに対する志望理由を、ご自身の経験に基づき具体的に記載してください。（200字～400字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたが学業を通してどのようなことを学んだかを教えてください。
+※既卒で職務経歴がある場合も学生時代を振り返り、記載してください。（200字～300字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在から過去2～3年程度までを振り返り、チームで何かを成し遂げた経験とあなたのチームに対する貢献について記載してください。（200字～300字以内）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の強みは、常に新しい分野に挑戦して成長を図る姿勢です。未経験だったeスポーツ大会の運営やゲーム開発、さらに日本語学習でも成果を上げたことで、未知の領域に積極的に飛び込む自信を得ました。こうした経験を活かし、専攻で培った知識をもとに様々な業界と協力しながら統合的なソリューションを提供するSIer業界で、更なる挑戦を続けたいと考えています。
+なかでも貴社は、代表的な独立系SIerとして多彩な事業領域を扱い、常に学び続ける姿勢で幅広い分野に携われる点に魅力を感じます。また、世界初・日本初といった挑戦を続ける企業風土の中で、成長意欲を燃やしながら新たな価値を生み出せると確信しています。
+そのような環境で、より直接的に社会へ貢献し、多くの人と協力して責任を持ち、新しい価値を創造できるエンジニアを目指したいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私が大学時代に最も学んだのは、チームで協力する方法です。多くの課題やプロジェクトを通じて、各自の強みを生かし積極的にコミュニケーションを取ることが成果につながると実感しました。卒業プロジェクトでは、3名で同期接続型の3Dゲームを開発し、私のeスポーツ経験を基に企画を主導。UnityやC#が得意なメンバーと要件定義や設計を行い、アジャイル手法に詳しいメンバーとも協力して開発段階で完成度を高めました。その結果、学内コンテストで最優秀賞を獲得し、お互いの長所を吸収し合うことでさらに成長できたと感じています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021年からフリーランスとして、新作オンラインゲームのeスポーツ大会運営や放送演出を担当してきました。最初は未経験で、前任者もおらず手探りでしたが、他ゲームの事例を参考に社内メンバーと議論を重ねて運営システムや演出手法を確立。また、与えられた業務だけでなく、専攻を生かして開発チームとゲームシステムの改善点を協議し、それを適用した際はユーザーから好評を得られました。こうした協調性を発揮した結果、フリーランスでありながら社内から信頼を得てタイの出張に同行した経験もあります。現在ではゲームの接続者数が当初の4倍以上に増えており、チーム全体で目標を共有して協力することで大きなやりがいを感じています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は専攻で得た知識を活かし、常に新たな分野へ挑戦しながらIT業界全体に貢献したいという思いから、貴社を志望いたします。現代ではDXによる社会変革が急速に進み、IT技術の重要性がますます高まっています。その最前線でSIerとして幅広い業界と協力し、大きな社会貢献を果たせる環境が貴社にはあると感じています。
+大学時代の卒業プロジェクトでは、企画や要件定義といった上流工程を着実に進めたうえで開発を行い、完成度の高い成果を得て学内コンテストで最優秀賞を受賞しました。また、空軍情報職として勤務した際には、部隊全体のIT機器の設置や保守を担う中で運用フェーズの重要性を痛感。さらに、eスポーツ大会の運営・放送演出ではユーザーの即時フィードバックを基にシステムや演出方式を改善し、顧客ニーズに応えることの大切さを学びました。
+こうした経験から、上流から下流まで一貫して関わり、責任ある社会貢献ができる貴社でのエンジニアリングに強く魅力を感じています。加えて、私は日本語学習でも八カ月でN1を取得したように、新しい挑戦を恐れずチームと積極的に連携しながら価値を創造していきたいと考えています。貴社でITスペシャリストとして成長し、社会に貢献する一員となることを切に希望いたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IBMグループ以外に志望する企業がありましたら、差し支えない範囲でご回答ください。
+（200文字以下）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当社および職種を志望する理由を記述してください。
+（481文字以上600文字以下）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の第一志望はIBMグループです。専攻で培った知識を幅広い業界に生かし、社会に貢献したいという考えから、最も多様な経験が得られる外資系SIerである御社を志望しております。他には、特定の領域に限定されず幅広い分野でプロジェクトに携われる独立系SIer企業も検討していますが、IBMグループへの入社を最優先に考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本IBMデジタルサービス</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記回答について、あなたの考えを具体的にお聞かせください。
+ＴＩＳへの志望理由や、希望職種を踏まえながら記載してください。
+（400文字以下）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学時代の経験のうち、以下に該当するエピソードについてご記入ください。
+直面した困難及びそこから学んだことを踏まえ、記入するようにしてください。
+　・自分で考え行動し、チームで成果を出した経験
+　・自身のアイデアで０から１を生み出した経験
+⑤活動内容
+（400文字以下）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記ワードやキーワードを挙げられた理由をお答えください。
+（100文字以下）</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6916,20 +7098,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Noto Sans JP Light"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Noto Sans JP Light"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -6982,7 +7150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -7222,6 +7390,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7231,7 +7515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7319,9 +7603,6 @@
     <xf numFmtId="22" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7331,335 +7612,407 @@
     <xf numFmtId="56" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7998,8 +8351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC70DC4-F0DC-4C6F-8135-CC403CCD1BBE}">
   <dimension ref="A1:R223"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8016,73 +8369,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="122" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="123"/>
+      <c r="A1" s="141" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="142"/>
       <c r="N1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="117" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="117" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="136"/>
+      <c r="N2" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" s="130">
+        <v>1</v>
+      </c>
+      <c r="B3" s="128" t="s">
         <v>157</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="118" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="119"/>
-      <c r="N2" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="113">
-        <v>1</v>
-      </c>
-      <c r="B3" s="111" t="s">
-        <v>158</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>54</v>
@@ -8094,22 +8447,22 @@
       <c r="H3" s="9"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="41" t="s">
-        <v>148</v>
+      <c r="K3" s="38" t="s">
+        <v>147</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="113"/>
-      <c r="B4" s="113"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -8125,11 +8478,11 @@
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A5" s="113">
+      <c r="A5" s="130">
         <v>2</v>
       </c>
-      <c r="B5" s="111" t="s">
-        <v>159</v>
+      <c r="B5" s="128" t="s">
+        <v>158</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>54</v>
@@ -8139,12 +8492,12 @@
       <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="114"/>
+      <c r="G5" s="132"/>
       <c r="H5" s="9"/>
       <c r="I5" s="15"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="36" t="s">
-        <v>136</v>
+      <c r="K5" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>8</v>
@@ -8154,24 +8507,24 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="113"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="17"/>
-      <c r="G6" s="116"/>
+      <c r="G6" s="134"/>
       <c r="I6" s="17"/>
       <c r="K6" s="17"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="113">
+      <c r="A7" s="130">
         <v>3</v>
       </c>
-      <c r="B7" s="111" t="s">
-        <v>160</v>
+      <c r="B7" s="128" t="s">
+        <v>159</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>54</v>
@@ -8181,7 +8534,7 @@
       <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="114"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="9"/>
       <c r="I7" s="15"/>
       <c r="J7" s="9"/>
@@ -8196,15 +8549,14 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="113"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="115"/>
+      <c r="G8" s="133"/>
       <c r="H8" s="12"/>
       <c r="I8" s="16"/>
       <c r="J8" s="12"/>
@@ -8213,11 +8565,11 @@
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="113">
+      <c r="A9" s="130">
         <v>4</v>
       </c>
-      <c r="B9" s="111" t="s">
-        <v>161</v>
+      <c r="B9" s="128" t="s">
+        <v>160</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>54</v>
@@ -8225,18 +8577,20 @@
       <c r="D9" s="24">
         <v>45670.666666666664</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="120" t="s">
+      <c r="E9" s="109">
+        <v>45711</v>
+      </c>
+      <c r="F9" s="104">
+        <v>45708</v>
+      </c>
+      <c r="G9" s="137" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="15"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="36" t="s">
-        <v>91</v>
+      <c r="K9" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>10</v>
@@ -8246,19 +8600,19 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="113"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="25">
         <v>45674.458333333336</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="121"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="105" t="s">
+        <v>484</v>
+      </c>
+      <c r="G10" s="138"/>
       <c r="H10" s="12"/>
       <c r="I10" s="16"/>
       <c r="J10" s="12"/>
@@ -8266,25 +8620,26 @@
       <c r="L10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="19"/>
+      <c r="M10" s="19" t="s">
+        <v>477</v>
+      </c>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="113">
+      <c r="A11" s="130">
         <v>5</v>
       </c>
-      <c r="B11" s="111" t="s">
-        <v>162</v>
+      <c r="B11" s="128" t="s">
+        <v>161</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="24">
         <v>45709.625</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="114"/>
+      <c r="G11" s="132"/>
       <c r="H11" s="9"/>
       <c r="I11" s="15"/>
       <c r="J11" s="9"/>
@@ -8297,15 +8652,15 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="113"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="115"/>
+      <c r="G12" s="133"/>
       <c r="H12" s="12"/>
       <c r="I12" s="16"/>
       <c r="J12" s="12"/>
@@ -8314,11 +8669,11 @@
       <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A13" s="113">
+      <c r="A13" s="130">
         <v>6</v>
       </c>
-      <c r="B13" s="111" t="s">
-        <v>163</v>
+      <c r="B13" s="128" t="s">
+        <v>162</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>54</v>
@@ -8326,12 +8681,12 @@
       <c r="D13" s="20"/>
       <c r="E13" s="15"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="114"/>
+      <c r="G13" s="132"/>
       <c r="H13" s="9"/>
       <c r="I13" s="15"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="41" t="s">
-        <v>316</v>
+      <c r="K13" s="38" t="s">
+        <v>315</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>12</v>
@@ -8341,15 +8696,15 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="113"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="16"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="115"/>
+      <c r="G14" s="133"/>
       <c r="H14" s="12"/>
       <c r="I14" s="16"/>
       <c r="J14" s="12"/>
@@ -8358,28 +8713,28 @@
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A15" s="113">
+      <c r="A15" s="130">
         <v>7</v>
       </c>
-      <c r="B15" s="112" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="106" t="s">
+      <c r="B15" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="107">
+      <c r="D15" s="80">
         <v>45667.541666666664</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="114"/>
+      <c r="G15" s="132"/>
       <c r="H15" s="9"/>
       <c r="I15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="9"/>
-      <c r="K15" s="41" t="s">
-        <v>90</v>
+      <c r="K15" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>13</v>
@@ -8389,15 +8744,15 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="113"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="103" t="s">
+      <c r="A16" s="130"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="115"/>
+      <c r="G16" s="133"/>
       <c r="H16" s="12"/>
       <c r="I16" s="16"/>
       <c r="J16" s="12"/>
@@ -8406,11 +8761,11 @@
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A17" s="113">
+      <c r="A17" s="130">
         <v>8</v>
       </c>
-      <c r="B17" s="111" t="s">
-        <v>165</v>
+      <c r="B17" s="128" t="s">
+        <v>164</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>54</v>
@@ -8418,7 +8773,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="15"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="114"/>
+      <c r="G17" s="132"/>
       <c r="H17" s="9"/>
       <c r="I17" s="15"/>
       <c r="J17" s="9"/>
@@ -8431,15 +8786,15 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="113"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="16"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="115"/>
+      <c r="G18" s="133"/>
       <c r="H18" s="12"/>
       <c r="I18" s="16"/>
       <c r="J18" s="12"/>
@@ -8448,11 +8803,11 @@
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A19" s="113">
+      <c r="A19" s="130">
         <v>9</v>
       </c>
-      <c r="B19" s="111" t="s">
-        <v>166</v>
+      <c r="B19" s="128" t="s">
+        <v>165</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>54</v>
@@ -8461,13 +8816,13 @@
       <c r="E19" s="15"/>
       <c r="F19" s="9"/>
       <c r="G19" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="15"/>
       <c r="J19" s="9"/>
       <c r="K19" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>15</v>
@@ -8477,8 +8832,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="113"/>
-      <c r="B20" s="111"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="16" t="s">
         <v>6</v>
       </c>
@@ -8496,11 +8851,11 @@
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A21" s="113">
+      <c r="A21" s="130">
         <v>10</v>
       </c>
-      <c r="B21" s="111" t="s">
-        <v>167</v>
+      <c r="B21" s="128" t="s">
+        <v>166</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>54</v>
@@ -8508,7 +8863,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="15"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="114"/>
+      <c r="G21" s="132"/>
       <c r="H21" s="9"/>
       <c r="I21" s="15"/>
       <c r="J21" s="9"/>
@@ -8521,29 +8876,33 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="113"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="16"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="115"/>
+      <c r="G22" s="133"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16"/>
       <c r="J22" s="12"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
+      <c r="L22" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>491</v>
+      </c>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A23" s="113">
+      <c r="A23" s="130">
         <v>11</v>
       </c>
-      <c r="B23" s="111" t="s">
-        <v>168</v>
+      <c r="B23" s="128" t="s">
+        <v>167</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>54</v>
@@ -8551,9 +8910,9 @@
       <c r="D23" s="20"/>
       <c r="E23" s="15"/>
       <c r="F23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="114"/>
+        <v>131</v>
+      </c>
+      <c r="G23" s="132"/>
       <c r="H23" s="9"/>
       <c r="I23" s="15"/>
       <c r="J23" s="9"/>
@@ -8566,15 +8925,15 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="113"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="16"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="115"/>
+      <c r="G24" s="133"/>
       <c r="H24" s="12"/>
       <c r="I24" s="16"/>
       <c r="J24" s="12"/>
@@ -8585,32 +8944,32 @@
       <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A25" s="113">
+      <c r="A25" s="130">
         <v>12</v>
       </c>
-      <c r="B25" s="112" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="106" t="s">
+      <c r="B25" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="107">
+      <c r="D25" s="80">
         <v>45667.541666666664</v>
       </c>
-      <c r="E25" s="102">
+      <c r="E25" s="76">
         <v>45696.556250000001</v>
       </c>
-      <c r="F25" s="102">
+      <c r="F25" s="76">
         <v>45699.999305555553</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="15"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="41" t="s">
-        <v>250</v>
+      <c r="K25" s="38" t="s">
+        <v>249</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>18</v>
@@ -8620,19 +8979,19 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="113"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="103" t="s">
+      <c r="A26" s="130"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="109">
+      <c r="D26" s="82">
         <v>45681.604166666664</v>
       </c>
-      <c r="E26" s="103" t="s">
-        <v>260</v>
-      </c>
-      <c r="F26" s="103" t="s">
-        <v>327</v>
+      <c r="E26" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>326</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>48</v>
@@ -8642,41 +9001,41 @@
       <c r="J26" s="12"/>
       <c r="K26" s="16"/>
       <c r="L26" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="M26" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="M26" s="19" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A27" s="113">
+      <c r="A27" s="130">
         <v>13</v>
       </c>
-      <c r="B27" s="111" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="80">
         <v>45685.635416666664</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="95">
         <v>45693</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="96">
         <v>45689.5</v>
       </c>
-      <c r="G27" s="120" t="s">
+      <c r="G27" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="96">
         <v>45702.548611111109</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="41" t="s">
-        <v>84</v>
+      <c r="K27" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>20</v>
@@ -8686,21 +9045,21 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="113"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="16" t="s">
+      <c r="A28" s="130"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="67" t="s">
-        <v>379</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="121"/>
-      <c r="H28" s="62" t="s">
-        <v>260</v>
+      <c r="D28" s="81"/>
+      <c r="E28" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="140"/>
+      <c r="H28" s="47" t="s">
+        <v>259</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="12"/>
@@ -8708,16 +9067,16 @@
       <c r="L28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="110" t="s">
-        <v>370</v>
+      <c r="M28" s="19" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A29" s="113">
+      <c r="A29" s="130">
         <v>14</v>
       </c>
-      <c r="B29" s="111" t="s">
-        <v>171</v>
+      <c r="B29" s="128" t="s">
+        <v>170</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>54</v>
@@ -8725,12 +9084,12 @@
       <c r="D29" s="20"/>
       <c r="E29" s="15"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="114"/>
+      <c r="G29" s="132"/>
       <c r="H29" s="9"/>
       <c r="I29" s="15"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="41" t="s">
-        <v>380</v>
+      <c r="K29" s="38" t="s">
+        <v>379</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>21</v>
@@ -8740,28 +9099,32 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="113"/>
-      <c r="B30" s="111"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="16"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="115"/>
+      <c r="G30" s="133"/>
       <c r="H30" s="12"/>
       <c r="I30" s="16"/>
       <c r="J30" s="12"/>
       <c r="K30" s="16"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
+      <c r="L30" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A31" s="113">
+      <c r="A31" s="130">
         <v>15</v>
       </c>
-      <c r="B31" s="111" t="s">
-        <v>172</v>
+      <c r="B31" s="128" t="s">
+        <v>171</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>54</v>
@@ -8769,12 +9132,12 @@
       <c r="D31" s="20"/>
       <c r="E31" s="15"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="114"/>
+      <c r="G31" s="132"/>
       <c r="H31" s="9"/>
       <c r="I31" s="15"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="41" t="s">
-        <v>308</v>
+      <c r="K31" s="38" t="s">
+        <v>307</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>22</v>
@@ -8784,45 +9147,51 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="113"/>
-      <c r="B32" s="111"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="16"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="115"/>
+      <c r="G32" s="133"/>
       <c r="H32" s="12"/>
       <c r="I32" s="16"/>
       <c r="J32" s="12"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="19"/>
+      <c r="L32" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A33" s="113">
+      <c r="A33" s="130">
         <v>16</v>
       </c>
-      <c r="B33" s="111" t="s">
-        <v>173</v>
+      <c r="B33" s="128" t="s">
+        <v>172</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="57">
+      <c r="D33" s="109">
+        <v>45667</v>
+      </c>
+      <c r="E33" s="51">
         <v>45717</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="114"/>
+      <c r="G33" s="132"/>
       <c r="H33" s="9"/>
       <c r="I33" s="15"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="15" t="s">
-        <v>135</v>
+      <c r="K33" s="38" t="s">
+        <v>134</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>23</v>
@@ -8832,17 +9201,17 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="113"/>
-      <c r="B34" s="111"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="56" t="s">
-        <v>252</v>
+      <c r="D34" s="58"/>
+      <c r="E34" s="50" t="s">
+        <v>251</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="115"/>
+      <c r="G34" s="133"/>
       <c r="H34" s="12"/>
       <c r="I34" s="16"/>
       <c r="J34" s="12"/>
@@ -8851,26 +9220,28 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A35" s="113">
+      <c r="A35" s="130">
         <v>17</v>
       </c>
-      <c r="B35" s="111" t="s">
-        <v>174</v>
+      <c r="B35" s="128" t="s">
+        <v>173</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="109">
+        <v>45667</v>
+      </c>
       <c r="E35" s="15"/>
       <c r="F35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="114"/>
+      <c r="G35" s="132"/>
       <c r="H35" s="9"/>
       <c r="I35" s="15"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="15" t="s">
-        <v>135</v>
+      <c r="K35" s="38" t="s">
+        <v>134</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>24</v>
@@ -8880,15 +9251,15 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="113"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="16"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="115"/>
+      <c r="G36" s="133"/>
       <c r="H36" s="12"/>
       <c r="I36" s="16"/>
       <c r="J36" s="12"/>
@@ -8897,11 +9268,11 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A37" s="113">
+      <c r="A37" s="130">
         <v>18</v>
       </c>
-      <c r="B37" s="111" t="s">
-        <v>175</v>
+      <c r="B37" s="128" t="s">
+        <v>174</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>54</v>
@@ -8911,7 +9282,7 @@
       <c r="F37" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="114"/>
+      <c r="G37" s="132"/>
       <c r="H37" s="9"/>
       <c r="I37" s="15"/>
       <c r="J37" s="9"/>
@@ -8924,15 +9295,15 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="113"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="16"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="115"/>
+      <c r="G38" s="133"/>
       <c r="H38" s="12"/>
       <c r="I38" s="16"/>
       <c r="J38" s="12"/>
@@ -8941,11 +9312,11 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A39" s="113">
+      <c r="A39" s="130">
         <v>19</v>
       </c>
-      <c r="B39" s="111" t="s">
-        <v>176</v>
+      <c r="B39" s="128" t="s">
+        <v>175</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>54</v>
@@ -8955,12 +9326,12 @@
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="114"/>
+      <c r="G39" s="132"/>
       <c r="H39" s="9"/>
       <c r="I39" s="15"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="15" t="s">
-        <v>135</v>
+      <c r="K39" s="38" t="s">
+        <v>134</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>26</v>
@@ -8970,15 +9341,15 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="113"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="16"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="115"/>
+      <c r="G40" s="133"/>
       <c r="H40" s="12"/>
       <c r="I40" s="16"/>
       <c r="J40" s="12"/>
@@ -8987,11 +9358,11 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A41" s="113">
+      <c r="A41" s="130">
         <v>20</v>
       </c>
-      <c r="B41" s="111" t="s">
-        <v>177</v>
+      <c r="B41" s="128" t="s">
+        <v>176</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>54</v>
@@ -8999,12 +9370,12 @@
       <c r="D41" s="20"/>
       <c r="E41" s="15"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="114"/>
+      <c r="G41" s="132"/>
       <c r="H41" s="9"/>
       <c r="I41" s="15"/>
       <c r="J41" s="9"/>
       <c r="K41" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>28</v>
@@ -9014,15 +9385,15 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="113"/>
-      <c r="B42" s="111"/>
+      <c r="A42" s="130"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="16"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="115"/>
+      <c r="G42" s="133"/>
       <c r="H42" s="12"/>
       <c r="I42" s="16"/>
       <c r="J42" s="12"/>
@@ -9031,21 +9402,21 @@
       <c r="M42" s="13"/>
     </row>
     <row r="43" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A43" s="113">
+      <c r="A43" s="130">
         <v>21</v>
       </c>
-      <c r="B43" s="111" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="22"/>
+      <c r="D43" s="100"/>
       <c r="E43" s="17"/>
-      <c r="G43" s="116"/>
+      <c r="G43" s="134"/>
       <c r="I43" s="17"/>
       <c r="K43" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>29</v>
@@ -9055,24 +9426,24 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="113"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="17" t="s">
+      <c r="A44" s="130"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="32"/>
-      <c r="G44" s="116"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="31"/>
+      <c r="G44" s="134"/>
       <c r="I44" s="17"/>
       <c r="K44" s="17"/>
       <c r="M44" s="14"/>
     </row>
     <row r="45" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A45" s="113">
+      <c r="A45" s="130">
         <v>22</v>
       </c>
-      <c r="B45" s="111" t="s">
-        <v>179</v>
+      <c r="B45" s="128" t="s">
+        <v>178</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>54</v>
@@ -9084,8 +9455,8 @@
       <c r="H45" s="9"/>
       <c r="I45" s="15"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="15" t="s">
-        <v>135</v>
+      <c r="K45" s="38" t="s">
+        <v>134</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>30</v>
@@ -9095,8 +9466,8 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="113"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="130"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="16" t="s">
         <v>0</v>
       </c>
@@ -9112,11 +9483,11 @@
       <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A47" s="113">
+      <c r="A47" s="130">
         <v>23</v>
       </c>
-      <c r="B47" s="111" t="s">
-        <v>180</v>
+      <c r="B47" s="128" t="s">
+        <v>179</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>54</v>
@@ -9125,7 +9496,7 @@
       <c r="E47" s="17"/>
       <c r="G47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="K47" s="37">
+      <c r="K47" s="35">
         <v>25055733</v>
       </c>
       <c r="L47" s="7" t="s">
@@ -9137,8 +9508,8 @@
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="113"/>
-      <c r="B48" s="111"/>
+      <c r="A48" s="130"/>
+      <c r="B48" s="128"/>
       <c r="C48" s="17" t="s">
         <v>0</v>
       </c>
@@ -9147,16 +9518,16 @@
       <c r="G48" s="17"/>
       <c r="I48" s="17"/>
       <c r="K48" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M48" s="14"/>
     </row>
     <row r="49" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A49" s="113">
+      <c r="A49" s="130">
         <v>24</v>
       </c>
-      <c r="B49" s="111" t="s">
-        <v>181</v>
+      <c r="B49" s="128" t="s">
+        <v>180</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>54</v>
@@ -9168,19 +9539,19 @@
       <c r="H49" s="9"/>
       <c r="I49" s="15"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="41" t="s">
-        <v>148</v>
+      <c r="K49" s="116" t="s">
+        <v>147</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="113"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="130"/>
+      <c r="B50" s="128"/>
       <c r="C50" s="16" t="s">
         <v>0</v>
       </c>
@@ -9192,27 +9563,32 @@
       <c r="I50" s="16"/>
       <c r="J50" s="12"/>
       <c r="K50" s="16"/>
-      <c r="L50" s="12"/>
+      <c r="L50" s="112" t="s">
+        <v>505</v>
+      </c>
       <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A51" s="113">
+      <c r="A51" s="130">
         <v>25</v>
       </c>
-      <c r="B51" s="111" t="s">
-        <v>182</v>
+      <c r="B51" s="128" t="s">
+        <v>181</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D51" s="22"/>
-      <c r="E51" s="58">
+      <c r="E51" s="111">
+        <v>45712</v>
+      </c>
+      <c r="F51" s="111">
         <v>45712</v>
       </c>
       <c r="G51" s="17"/>
       <c r="I51" s="17"/>
-      <c r="K51" s="47" t="s">
-        <v>85</v>
+      <c r="K51" s="44" t="s">
+        <v>84</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>74</v>
@@ -9222,26 +9598,30 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="113"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="130"/>
+      <c r="B52" s="128"/>
       <c r="C52" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="22"/>
-      <c r="E52" s="59" t="s">
-        <v>251</v>
-      </c>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="17"/>
       <c r="I52" s="17"/>
       <c r="K52" s="17"/>
-      <c r="M52" s="14"/>
+      <c r="L52" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A53" s="113">
+      <c r="A53" s="130">
         <v>26</v>
       </c>
-      <c r="B53" s="111" t="s">
-        <v>183</v>
+      <c r="B53" s="128" t="s">
+        <v>182</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>52</v>
@@ -9262,8 +9642,8 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="113"/>
-      <c r="B54" s="111"/>
+      <c r="A54" s="130"/>
+      <c r="B54" s="128"/>
       <c r="C54" s="16" t="s">
         <v>0</v>
       </c>
@@ -9279,10 +9659,10 @@
       <c r="M54" s="13"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="113">
+      <c r="A55" s="130">
         <v>27</v>
       </c>
-      <c r="B55" s="113" t="s">
+      <c r="B55" s="130" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -9292,8 +9672,8 @@
       <c r="E55" s="17"/>
       <c r="G55" s="17"/>
       <c r="I55" s="17"/>
-      <c r="K55" s="17" t="s">
-        <v>92</v>
+      <c r="K55" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>34</v>
@@ -9303,8 +9683,8 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="113"/>
-      <c r="B56" s="113"/>
+      <c r="A56" s="130"/>
+      <c r="B56" s="130"/>
       <c r="C56" s="17" t="s">
         <v>0</v>
       </c>
@@ -9316,11 +9696,11 @@
       <c r="M56" s="14"/>
     </row>
     <row r="57" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A57" s="113">
+      <c r="A57" s="130">
         <v>28</v>
       </c>
-      <c r="B57" s="111" t="s">
-        <v>184</v>
+      <c r="B57" s="128" t="s">
+        <v>183</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>54</v>
@@ -9328,20 +9708,22 @@
       <c r="D57" s="24">
         <v>45681.416666666664</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E57" s="37">
         <v>45690.5</v>
       </c>
-      <c r="F57" s="100">
+      <c r="F57" s="87">
         <v>45697</v>
       </c>
-      <c r="G57" s="117" t="s">
-        <v>457</v>
-      </c>
-      <c r="H57" s="9"/>
+      <c r="G57" s="132" t="s">
+        <v>475</v>
+      </c>
+      <c r="H57" s="74">
+        <v>45715</v>
+      </c>
       <c r="I57" s="15"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="41" t="s">
-        <v>94</v>
+      <c r="K57" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>35</v>
@@ -9351,30 +9733,34 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="113"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="130"/>
+      <c r="B58" s="128"/>
       <c r="C58" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="101" t="s">
-        <v>456</v>
-      </c>
-      <c r="G58" s="115"/>
-      <c r="H58" s="12"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="88" t="s">
+        <v>446</v>
+      </c>
+      <c r="G58" s="133"/>
+      <c r="H58" s="71" t="s">
+        <v>476</v>
+      </c>
       <c r="I58" s="16"/>
       <c r="J58" s="12"/>
       <c r="K58" s="16"/>
       <c r="L58" s="12"/>
-      <c r="M58" s="13"/>
+      <c r="M58" s="19" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A59" s="113">
+      <c r="A59" s="130">
         <v>29</v>
       </c>
-      <c r="B59" s="111" t="s">
-        <v>185</v>
+      <c r="B59" s="128" t="s">
+        <v>184</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>54</v>
@@ -9384,7 +9770,7 @@
       <c r="G59" s="17"/>
       <c r="I59" s="17"/>
       <c r="K59" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>38</v>
@@ -9395,10 +9781,10 @@
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="113"/>
-      <c r="B60" s="111"/>
+      <c r="A60" s="130"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="17"/>
@@ -9406,29 +9792,31 @@
       <c r="I60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M60" s="14"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="113">
+      <c r="A61" s="130">
         <v>30</v>
       </c>
-      <c r="B61" s="113" t="s">
+      <c r="B61" s="130" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="20"/>
+      <c r="D61" s="104">
+        <v>45712</v>
+      </c>
       <c r="E61" s="15"/>
       <c r="F61" s="9"/>
       <c r="G61" s="15"/>
       <c r="H61" s="9"/>
       <c r="I61" s="15"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="36" t="s">
-        <v>89</v>
+      <c r="K61" s="38" t="s">
+        <v>88</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>39</v>
@@ -9438,43 +9826,47 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="113"/>
-      <c r="B62" s="113"/>
+      <c r="A62" s="130"/>
+      <c r="B62" s="130"/>
       <c r="C62" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D62" s="21"/>
+      <c r="D62" s="105"/>
       <c r="E62" s="16"/>
       <c r="F62" s="12"/>
       <c r="G62" s="16"/>
       <c r="H62" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I62" s="16"/>
       <c r="J62" s="12"/>
       <c r="K62" s="16"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="13"/>
+      <c r="L62" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="63" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A63" s="113">
+      <c r="A63" s="130">
         <v>31</v>
       </c>
-      <c r="B63" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="C63" s="17" t="s">
+      <c r="B63" s="129" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="28">
+      <c r="D63" s="98">
         <v>45694.583333333336</v>
       </c>
-      <c r="E63" s="58">
+      <c r="E63" s="99">
         <v>45706</v>
       </c>
       <c r="G63" s="17"/>
       <c r="I63" s="17"/>
-      <c r="K63" s="17">
+      <c r="K63" s="44">
         <v>2626588</v>
       </c>
       <c r="L63" s="7" t="s">
@@ -9485,14 +9877,14 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="113"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="17" t="s">
+      <c r="A64" s="130"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="59" t="s">
-        <v>251</v>
+      <c r="D64" s="100"/>
+      <c r="E64" s="97" t="s">
+        <v>250</v>
       </c>
       <c r="G64" s="17"/>
       <c r="I64" s="17"/>
@@ -9500,10 +9892,10 @@
       <c r="M64" s="14"/>
     </row>
     <row r="65" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A65" s="113">
+      <c r="A65" s="130">
         <v>32</v>
       </c>
-      <c r="B65" s="111" t="s">
+      <c r="B65" s="128" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -9525,8 +9917,8 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="113"/>
-      <c r="B66" s="111"/>
+      <c r="A66" s="130"/>
+      <c r="B66" s="128"/>
       <c r="C66" s="16" t="s">
         <v>0</v>
       </c>
@@ -9542,11 +9934,11 @@
       <c r="M66" s="13"/>
     </row>
     <row r="67" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A67" s="113">
+      <c r="A67" s="130">
         <v>33</v>
       </c>
-      <c r="B67" s="111" t="s">
-        <v>187</v>
+      <c r="B67" s="128" t="s">
+        <v>186</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>54</v>
@@ -9555,8 +9947,8 @@
       <c r="E67" s="17"/>
       <c r="G67" s="17"/>
       <c r="I67" s="17"/>
-      <c r="K67" s="38" t="s">
-        <v>100</v>
+      <c r="K67" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>40</v>
@@ -9566,8 +9958,8 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="113"/>
-      <c r="B68" s="111"/>
+      <c r="A68" s="130"/>
+      <c r="B68" s="128"/>
       <c r="C68" s="17" t="s">
         <v>0</v>
       </c>
@@ -9579,11 +9971,11 @@
       <c r="M68" s="14"/>
     </row>
     <row r="69" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A69" s="113">
+      <c r="A69" s="130">
         <v>34</v>
       </c>
-      <c r="B69" s="111" t="s">
-        <v>188</v>
+      <c r="B69" s="128" t="s">
+        <v>187</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>54</v>
@@ -9604,8 +9996,8 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="113"/>
-      <c r="B70" s="111"/>
+      <c r="A70" s="130"/>
+      <c r="B70" s="128"/>
       <c r="C70" s="16" t="s">
         <v>0</v>
       </c>
@@ -9621,11 +10013,11 @@
       <c r="M70" s="13"/>
     </row>
     <row r="71" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A71" s="113">
+      <c r="A71" s="130">
         <v>35</v>
       </c>
-      <c r="B71" s="111" t="s">
-        <v>189</v>
+      <c r="B71" s="128" t="s">
+        <v>188</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>54</v>
@@ -9634,8 +10026,8 @@
       <c r="E71" s="17"/>
       <c r="G71" s="17"/>
       <c r="I71" s="17"/>
-      <c r="K71" s="17" t="s">
-        <v>93</v>
+      <c r="K71" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>42</v>
@@ -9645,8 +10037,8 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="113"/>
-      <c r="B72" s="111"/>
+      <c r="A72" s="130"/>
+      <c r="B72" s="128"/>
       <c r="C72" s="17" t="s">
         <v>0</v>
       </c>
@@ -9658,11 +10050,11 @@
       <c r="M72" s="14"/>
     </row>
     <row r="73" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A73" s="113">
+      <c r="A73" s="130">
         <v>36</v>
       </c>
-      <c r="B73" s="111" t="s">
-        <v>190</v>
+      <c r="B73" s="128" t="s">
+        <v>189</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>52</v>
@@ -9683,10 +10075,10 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="113"/>
-      <c r="B74" s="111"/>
+      <c r="A74" s="130"/>
+      <c r="B74" s="128"/>
       <c r="C74" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="16"/>
@@ -9700,24 +10092,23 @@
       <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A75" s="113">
+      <c r="A75" s="130">
         <v>37</v>
       </c>
-      <c r="B75" s="111" t="s">
-        <v>192</v>
+      <c r="B75" s="128" t="s">
+        <v>191</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="93">
-        <v>45701</v>
-      </c>
-      <c r="F75" s="92"/>
+      <c r="E75" s="52">
+        <v>45715</v>
+      </c>
       <c r="G75" s="17"/>
       <c r="I75" s="17"/>
-      <c r="K75" s="91" t="s">
-        <v>88</v>
+      <c r="K75" s="44" t="s">
+        <v>87</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>55</v>
@@ -9727,43 +10118,46 @@
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="113"/>
-      <c r="B76" s="111"/>
+      <c r="A76" s="130"/>
+      <c r="B76" s="128"/>
       <c r="C76" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="94" t="s">
-        <v>405</v>
+      <c r="E76" s="53" t="s">
+        <v>471</v>
       </c>
       <c r="G76" s="17"/>
       <c r="I76" s="17"/>
       <c r="K76" s="17"/>
+      <c r="L76" s="121" t="s">
+        <v>505</v>
+      </c>
       <c r="M76" s="14"/>
     </row>
     <row r="77" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A77" s="113">
+      <c r="A77" s="130">
         <v>38</v>
       </c>
-      <c r="B77" s="111" t="s">
-        <v>193</v>
+      <c r="B77" s="128" t="s">
+        <v>192</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D77" s="20"/>
-      <c r="E77" s="82">
+      <c r="E77" s="118">
         <v>45713.5</v>
       </c>
-      <c r="F77" s="61">
+      <c r="F77" s="124">
         <v>45715.5</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="9"/>
       <c r="I77" s="15"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="41" t="s">
-        <v>154</v>
+      <c r="K77" s="38" t="s">
+        <v>153</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>56</v>
@@ -9773,39 +10167,37 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="113"/>
-      <c r="B78" s="111"/>
+      <c r="A78" s="130"/>
+      <c r="B78" s="128"/>
       <c r="C78" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D78" s="21"/>
-      <c r="E78" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="F78" s="83" t="s">
-        <v>251</v>
-      </c>
+      <c r="E78" s="105"/>
+      <c r="F78" s="90"/>
       <c r="G78" s="16"/>
       <c r="H78" s="12"/>
       <c r="I78" s="16"/>
       <c r="J78" s="12"/>
       <c r="K78" s="16"/>
       <c r="L78" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="M78" s="13"/>
+        <v>393</v>
+      </c>
+      <c r="M78" s="19" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="79" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A79" s="113">
+      <c r="A79" s="130">
         <v>39</v>
       </c>
-      <c r="B79" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C79" s="17" t="s">
+      <c r="B79" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="22"/>
+      <c r="D79" s="100"/>
       <c r="E79" s="17"/>
       <c r="G79" s="17"/>
       <c r="I79" s="17"/>
@@ -9818,12 +10210,12 @@
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="113"/>
-      <c r="B80" s="111"/>
-      <c r="C80" s="17" t="s">
+      <c r="A80" s="130"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D80" s="22"/>
+      <c r="D80" s="100"/>
       <c r="E80" s="17"/>
       <c r="G80" s="17"/>
       <c r="I80" s="17"/>
@@ -9831,10 +10223,10 @@
       <c r="M80" s="14"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="113">
+      <c r="A81" s="130">
         <v>40</v>
       </c>
-      <c r="B81" s="113" t="s">
+      <c r="B81" s="130" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -9856,10 +10248,10 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="113"/>
-      <c r="B82" s="113"/>
+      <c r="A82" s="130"/>
+      <c r="B82" s="130"/>
       <c r="C82" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="16"/>
@@ -9873,11 +10265,11 @@
       <c r="M82" s="13"/>
     </row>
     <row r="83" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A83" s="113">
+      <c r="A83" s="130">
         <v>41</v>
       </c>
-      <c r="B83" s="111" t="s">
-        <v>195</v>
+      <c r="B83" s="128" t="s">
+        <v>194</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>54</v>
@@ -9895,8 +10287,8 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="113"/>
-      <c r="B84" s="111"/>
+      <c r="A84" s="130"/>
+      <c r="B84" s="128"/>
       <c r="C84" s="17" t="s">
         <v>0</v>
       </c>
@@ -9908,11 +10300,11 @@
       <c r="M84" s="14"/>
     </row>
     <row r="85" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A85" s="113">
+      <c r="A85" s="130">
         <v>42</v>
       </c>
-      <c r="B85" s="111" t="s">
-        <v>196</v>
+      <c r="B85" s="128" t="s">
+        <v>195</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>54</v>
@@ -9933,10 +10325,10 @@
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="113"/>
-      <c r="B86" s="111"/>
+      <c r="A86" s="130"/>
+      <c r="B86" s="128"/>
       <c r="C86" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="16"/>
@@ -9950,23 +10342,28 @@
       <c r="M86" s="13"/>
     </row>
     <row r="87" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A87" s="113">
+      <c r="A87" s="130">
         <v>43</v>
       </c>
-      <c r="B87" s="124" t="s">
-        <v>408</v>
+      <c r="B87" s="128" t="s">
+        <v>399</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D87" s="89">
+      <c r="D87" s="91">
         <v>45704</v>
       </c>
-      <c r="E87" s="17"/>
+      <c r="E87" s="52">
+        <v>45721</v>
+      </c>
+      <c r="F87" s="52">
+        <v>45721</v>
+      </c>
       <c r="G87" s="17"/>
       <c r="I87" s="17"/>
-      <c r="K87" s="47" t="s">
-        <v>309</v>
+      <c r="K87" s="44" t="s">
+        <v>308</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>61</v>
@@ -9976,41 +10373,44 @@
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="113"/>
-      <c r="B88" s="111"/>
+      <c r="A88" s="130"/>
+      <c r="B88" s="128"/>
       <c r="C88" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D88" s="90" t="s">
-        <v>409</v>
-      </c>
-      <c r="E88" s="17"/>
+      <c r="D88" s="86" t="s">
+        <v>400</v>
+      </c>
+      <c r="E88" s="53" t="s">
+        <v>503</v>
+      </c>
+      <c r="F88" s="53" t="s">
+        <v>503</v>
+      </c>
       <c r="G88" s="17"/>
       <c r="I88" s="17"/>
       <c r="K88" s="17"/>
       <c r="M88" s="14"/>
     </row>
     <row r="89" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A89" s="113">
+      <c r="A89" s="130">
         <v>44</v>
       </c>
-      <c r="B89" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="C89" s="15" t="s">
+      <c r="B89" s="129" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="57">
-        <v>45719</v>
-      </c>
+      <c r="D89" s="80"/>
+      <c r="E89" s="15"/>
       <c r="F89" s="9"/>
       <c r="G89" s="15"/>
       <c r="H89" s="9"/>
       <c r="I89" s="15"/>
       <c r="J89" s="9"/>
-      <c r="K89" s="41" t="s">
-        <v>133</v>
+      <c r="K89" s="38" t="s">
+        <v>132</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>62</v>
@@ -10020,15 +10420,13 @@
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="113"/>
-      <c r="B90" s="111"/>
-      <c r="C90" s="16" t="s">
+      <c r="A90" s="130"/>
+      <c r="B90" s="129"/>
+      <c r="C90" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="56" t="s">
-        <v>252</v>
-      </c>
+      <c r="D90" s="81"/>
+      <c r="E90" s="16"/>
       <c r="F90" s="12"/>
       <c r="G90" s="16"/>
       <c r="H90" s="12"/>
@@ -10039,11 +10437,11 @@
       <c r="M90" s="13"/>
     </row>
     <row r="91" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A91" s="113">
+      <c r="A91" s="130">
         <v>45</v>
       </c>
-      <c r="B91" s="111" t="s">
-        <v>199</v>
+      <c r="B91" s="128" t="s">
+        <v>198</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>54</v>
@@ -10061,8 +10459,8 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="113"/>
-      <c r="B92" s="111"/>
+      <c r="A92" s="130"/>
+      <c r="B92" s="128"/>
       <c r="C92" s="17" t="s">
         <v>76</v>
       </c>
@@ -10074,11 +10472,11 @@
       <c r="M92" s="14"/>
     </row>
     <row r="93" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A93" s="113">
+      <c r="A93" s="130">
         <v>46</v>
       </c>
-      <c r="B93" s="111" t="s">
-        <v>200</v>
+      <c r="B93" s="128" t="s">
+        <v>199</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>54</v>
@@ -10099,8 +10497,8 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="113"/>
-      <c r="B94" s="111"/>
+      <c r="A94" s="130"/>
+      <c r="B94" s="128"/>
       <c r="C94" s="16" t="s">
         <v>77</v>
       </c>
@@ -10116,11 +10514,11 @@
       <c r="M94" s="13"/>
     </row>
     <row r="95" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A95" s="113">
+      <c r="A95" s="130">
         <v>47</v>
       </c>
-      <c r="B95" s="111" t="s">
-        <v>201</v>
+      <c r="B95" s="128" t="s">
+        <v>200</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>54</v>
@@ -10138,8 +10536,8 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="113"/>
-      <c r="B96" s="111"/>
+      <c r="A96" s="130"/>
+      <c r="B96" s="128"/>
       <c r="C96" s="17" t="s">
         <v>0</v>
       </c>
@@ -10151,11 +10549,11 @@
       <c r="M96" s="14"/>
     </row>
     <row r="97" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A97" s="113">
+      <c r="A97" s="130">
         <v>48</v>
       </c>
-      <c r="B97" s="111" t="s">
-        <v>202</v>
+      <c r="B97" s="128" t="s">
+        <v>201</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>54</v>
@@ -10167,8 +10565,8 @@
       <c r="H97" s="9"/>
       <c r="I97" s="15"/>
       <c r="J97" s="9"/>
-      <c r="K97" s="41" t="s">
-        <v>307</v>
+      <c r="K97" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>66</v>
@@ -10178,8 +10576,8 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="113"/>
-      <c r="B98" s="111"/>
+      <c r="A98" s="130"/>
+      <c r="B98" s="128"/>
       <c r="C98" s="16" t="s">
         <v>0</v>
       </c>
@@ -10195,11 +10593,11 @@
       <c r="M98" s="13"/>
     </row>
     <row r="99" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A99" s="113">
+      <c r="A99" s="130">
         <v>49</v>
       </c>
-      <c r="B99" s="111" t="s">
-        <v>203</v>
+      <c r="B99" s="128" t="s">
+        <v>202</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>54</v>
@@ -10207,18 +10605,18 @@
       <c r="D99" s="28">
         <v>45694.416666666664</v>
       </c>
-      <c r="E99" s="64">
+      <c r="E99" s="55">
         <v>45695.666666666664</v>
       </c>
-      <c r="F99" s="81">
+      <c r="F99" s="69">
         <v>45719</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I99" s="17"/>
-      <c r="K99" s="47" t="s">
-        <v>102</v>
+      <c r="K99" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>67</v>
@@ -10228,17 +10626,17 @@
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="113"/>
-      <c r="B100" s="111"/>
+      <c r="A100" s="130"/>
+      <c r="B100" s="128"/>
       <c r="C100" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D100" s="22"/>
-      <c r="E100" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="F100" s="84" t="s">
-        <v>405</v>
+      <c r="D100" s="86"/>
+      <c r="E100" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="F100" s="72" t="s">
+        <v>472</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>48</v>
@@ -10246,33 +10644,33 @@
       <c r="I100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M100" s="14"/>
     </row>
     <row r="101" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A101" s="113">
+      <c r="A101" s="130">
         <v>50</v>
       </c>
-      <c r="B101" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" s="15" t="s">
+      <c r="B101" s="129" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="68">
+      <c r="D101" s="102">
         <v>45697</v>
       </c>
-      <c r="E101" s="15"/>
-      <c r="F101" s="86">
+      <c r="E101" s="79"/>
+      <c r="F101" s="92">
         <v>45704</v>
       </c>
       <c r="G101" s="15"/>
       <c r="H101" s="9"/>
       <c r="I101" s="15"/>
       <c r="J101" s="9"/>
-      <c r="K101" s="41" t="s">
-        <v>340</v>
+      <c r="K101" s="38" t="s">
+        <v>339</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>68</v>
@@ -10282,17 +10680,17 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="113"/>
-      <c r="B102" s="111"/>
-      <c r="C102" s="16" t="s">
+      <c r="A102" s="130"/>
+      <c r="B102" s="129"/>
+      <c r="C102" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D102" s="69" t="s">
-        <v>410</v>
-      </c>
-      <c r="E102" s="16"/>
-      <c r="F102" s="83" t="s">
-        <v>405</v>
+      <c r="D102" s="81" t="s">
+        <v>401</v>
+      </c>
+      <c r="E102" s="77"/>
+      <c r="F102" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="G102" s="16"/>
       <c r="H102" s="12"/>
@@ -10300,16 +10698,16 @@
       <c r="J102" s="12"/>
       <c r="K102" s="16"/>
       <c r="L102" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M102" s="13"/>
     </row>
     <row r="103" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A103" s="113">
+      <c r="A103" s="130">
         <v>51</v>
       </c>
-      <c r="B103" s="111" t="s">
-        <v>205</v>
+      <c r="B103" s="128" t="s">
+        <v>204</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>54</v>
@@ -10327,8 +10725,8 @@
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="113"/>
-      <c r="B104" s="111"/>
+      <c r="A104" s="130"/>
+      <c r="B104" s="128"/>
       <c r="C104" s="17" t="s">
         <v>0</v>
       </c>
@@ -10340,11 +10738,11 @@
       <c r="M104" s="14"/>
     </row>
     <row r="105" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A105" s="113">
+      <c r="A105" s="130">
         <v>52</v>
       </c>
-      <c r="B105" s="111" t="s">
-        <v>206</v>
+      <c r="B105" s="128" t="s">
+        <v>205</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>54</v>
@@ -10353,13 +10751,13 @@
       <c r="E105" s="15"/>
       <c r="F105" s="9"/>
       <c r="G105" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="15"/>
       <c r="J105" s="9"/>
-      <c r="K105" s="41" t="s">
-        <v>328</v>
+      <c r="K105" s="38" t="s">
+        <v>327</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>70</v>
@@ -10369,8 +10767,8 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="113"/>
-      <c r="B106" s="111"/>
+      <c r="A106" s="130"/>
+      <c r="B106" s="128"/>
       <c r="C106" s="16" t="s">
         <v>0</v>
       </c>
@@ -10388,11 +10786,11 @@
       <c r="M106" s="13"/>
     </row>
     <row r="107" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A107" s="113">
+      <c r="A107" s="130">
         <v>53</v>
       </c>
-      <c r="B107" s="111" t="s">
-        <v>207</v>
+      <c r="B107" s="128" t="s">
+        <v>206</v>
       </c>
       <c r="C107" s="17" t="s">
         <v>54</v>
@@ -10410,8 +10808,8 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="113"/>
-      <c r="B108" s="111"/>
+      <c r="A108" s="130"/>
+      <c r="B108" s="128"/>
       <c r="C108" s="17" t="s">
         <v>0</v>
       </c>
@@ -10423,17 +10821,17 @@
       <c r="M108" s="14"/>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="113">
+      <c r="A109" s="130">
         <v>54</v>
       </c>
-      <c r="B109" s="113" t="s">
+      <c r="B109" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D109" s="20"/>
-      <c r="E109" s="33">
+      <c r="D109" s="94"/>
+      <c r="E109" s="76">
         <v>45688.625</v>
       </c>
       <c r="F109" s="9"/>
@@ -10450,13 +10848,13 @@
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="113"/>
-      <c r="B110" s="113"/>
-      <c r="C110" s="16" t="s">
+      <c r="A110" s="130"/>
+      <c r="B110" s="131"/>
+      <c r="C110" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="21"/>
-      <c r="E110" s="16"/>
+      <c r="D110" s="81"/>
+      <c r="E110" s="77"/>
       <c r="F110" s="12"/>
       <c r="G110" s="16"/>
       <c r="H110" s="12"/>
@@ -10469,11 +10867,11 @@
       <c r="M110" s="13"/>
     </row>
     <row r="111" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A111" s="113">
+      <c r="A111" s="130">
         <v>55</v>
       </c>
-      <c r="B111" s="111" t="s">
-        <v>208</v>
+      <c r="B111" s="128" t="s">
+        <v>207</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>54</v>
@@ -10491,8 +10889,8 @@
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="113"/>
-      <c r="B112" s="111"/>
+      <c r="A112" s="130"/>
+      <c r="B112" s="128"/>
       <c r="C112" s="17" t="s">
         <v>0</v>
       </c>
@@ -10504,45 +10902,45 @@
       <c r="M112" s="14"/>
     </row>
     <row r="113" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A113" s="113">
+      <c r="A113" s="130">
         <v>56</v>
       </c>
-      <c r="B113" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="C113" s="106" t="s">
+      <c r="B113" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D113" s="107">
+      <c r="D113" s="80">
         <v>45680.583333333336</v>
       </c>
-      <c r="E113" s="106"/>
-      <c r="F113" s="49" t="s">
-        <v>137</v>
+      <c r="E113" s="79"/>
+      <c r="F113" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="G113" s="15"/>
       <c r="H113" s="9"/>
       <c r="I113" s="15"/>
       <c r="J113" s="9"/>
-      <c r="K113" s="35" t="s">
-        <v>97</v>
+      <c r="K113" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="113"/>
-      <c r="B114" s="112"/>
-      <c r="C114" s="103" t="s">
+      <c r="A114" s="130"/>
+      <c r="B114" s="129"/>
+      <c r="C114" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D114" s="108"/>
-      <c r="E114" s="103"/>
-      <c r="F114" s="50">
+      <c r="D114" s="81"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="47">
         <v>45689.416666666664</v>
       </c>
       <c r="G114" s="16"/>
@@ -10554,101 +10952,121 @@
       <c r="M114" s="13"/>
     </row>
     <row r="115" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A115" s="113">
+      <c r="A115" s="130">
         <v>57</v>
       </c>
-      <c r="B115" s="111" t="s">
-        <v>210</v>
+      <c r="B115" s="128" t="s">
+        <v>209</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="64">
+      <c r="D115" s="91">
+        <v>45707</v>
+      </c>
+      <c r="E115" s="55">
         <v>45702.416666666664</v>
+      </c>
+      <c r="F115" s="69">
+        <v>45716</v>
       </c>
       <c r="G115" s="17"/>
       <c r="I115" s="17"/>
-      <c r="K115" s="47" t="s">
-        <v>96</v>
+      <c r="K115" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M115" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="113"/>
-      <c r="B116" s="111"/>
+      <c r="A116" s="130"/>
+      <c r="B116" s="128"/>
       <c r="C116" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D116" s="22"/>
-      <c r="E116" s="65" t="s">
-        <v>260</v>
+      <c r="D116" s="86"/>
+      <c r="E116" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="F116" s="72" t="s">
+        <v>481</v>
       </c>
       <c r="G116" s="17"/>
       <c r="I116" s="17"/>
       <c r="K116" s="17"/>
       <c r="L116" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="M116" s="14"/>
+        <v>380</v>
+      </c>
+      <c r="M116" s="27" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="117" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A117" s="113">
+      <c r="A117" s="130">
         <v>58</v>
       </c>
-      <c r="B117" s="113" t="s">
-        <v>105</v>
+      <c r="B117" s="130" t="s">
+        <v>104</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D117" s="55">
+      <c r="D117" s="24">
         <v>45702.625</v>
       </c>
-      <c r="E117" s="15"/>
-      <c r="F117" s="9"/>
+      <c r="E117" s="104">
+        <v>45712</v>
+      </c>
+      <c r="F117" s="74">
+        <v>45720</v>
+      </c>
       <c r="G117" s="15"/>
       <c r="H117" s="9"/>
       <c r="I117" s="15"/>
       <c r="J117" s="9"/>
-      <c r="K117" s="15" t="s">
-        <v>112</v>
+      <c r="K117" s="38" t="s">
+        <v>111</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M117" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="113"/>
-      <c r="B118" s="113"/>
+      <c r="A118" s="130"/>
+      <c r="B118" s="130"/>
       <c r="C118" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D118" s="21"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="12"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="71" t="s">
+        <v>513</v>
+      </c>
       <c r="G118" s="16"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16"/>
       <c r="J118" s="12"/>
       <c r="K118" s="16"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="13"/>
+      <c r="L118" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="M118" s="19" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="119" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A119" s="113">
+      <c r="A119" s="130">
         <v>59</v>
       </c>
-      <c r="B119" s="111" t="s">
-        <v>211</v>
+      <c r="B119" s="128" t="s">
+        <v>210</v>
       </c>
       <c r="C119" s="17" t="s">
         <v>54</v>
@@ -10656,20 +11074,20 @@
       <c r="D119" s="22"/>
       <c r="E119" s="17"/>
       <c r="G119" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I119" s="17"/>
       <c r="K119" s="17"/>
       <c r="L119" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M119" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="113"/>
-      <c r="B120" s="111"/>
+      <c r="A120" s="130"/>
+      <c r="B120" s="128"/>
       <c r="C120" s="17" t="s">
         <v>0</v>
       </c>
@@ -10683,11 +11101,11 @@
       <c r="M120" s="14"/>
     </row>
     <row r="121" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A121" s="113">
+      <c r="A121" s="130">
         <v>60</v>
       </c>
-      <c r="B121" s="111" t="s">
-        <v>212</v>
+      <c r="B121" s="128" t="s">
+        <v>211</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>54</v>
@@ -10696,22 +11114,22 @@
       <c r="E121" s="15"/>
       <c r="F121" s="9"/>
       <c r="G121" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="15"/>
       <c r="J121" s="9"/>
       <c r="K121" s="15"/>
       <c r="L121" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M121" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="113"/>
-      <c r="B122" s="111"/>
+      <c r="A122" s="130"/>
+      <c r="B122" s="128"/>
       <c r="C122" s="16" t="s">
         <v>0</v>
       </c>
@@ -10726,44 +11144,50 @@
       <c r="J122" s="12"/>
       <c r="K122" s="16"/>
       <c r="L122" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M122" s="13"/>
     </row>
     <row r="123" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A123" s="113">
+      <c r="A123" s="130">
         <v>61</v>
       </c>
-      <c r="B123" s="111" t="s">
-        <v>213</v>
+      <c r="B123" s="128" t="s">
+        <v>212</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D123" s="60">
+      <c r="D123" s="28">
         <v>45701.729166666664</v>
       </c>
       <c r="E123" s="17"/>
+      <c r="F123" s="69">
+        <v>45716</v>
+      </c>
       <c r="G123" s="17"/>
       <c r="I123" s="17"/>
-      <c r="K123" s="47" t="s">
-        <v>302</v>
+      <c r="K123" s="44" t="s">
+        <v>301</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M123" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="113"/>
-      <c r="B124" s="111"/>
+      <c r="A124" s="130"/>
+      <c r="B124" s="128"/>
       <c r="C124" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D124" s="22"/>
+      <c r="D124" s="86"/>
       <c r="E124" s="17"/>
+      <c r="F124" s="72" t="s">
+        <v>471</v>
+      </c>
       <c r="G124" s="17"/>
       <c r="I124" s="17"/>
       <c r="K124" s="17"/>
@@ -10771,104 +11195,109 @@
       <c r="M124" s="27"/>
     </row>
     <row r="125" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A125" s="113">
+      <c r="A125" s="130">
         <v>62</v>
       </c>
-      <c r="B125" s="111" t="s">
-        <v>214</v>
-      </c>
-      <c r="C125" s="15" t="s">
+      <c r="B125" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D125" s="24">
+      <c r="D125" s="80">
         <v>45698.5625</v>
       </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="86">
+      <c r="E125" s="79"/>
+      <c r="F125" s="92">
         <v>45705</v>
       </c>
       <c r="G125" s="15"/>
       <c r="H125" s="9"/>
       <c r="I125" s="15"/>
       <c r="J125" s="9"/>
-      <c r="K125" s="41" t="s">
-        <v>303</v>
+      <c r="K125" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M125" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="113"/>
-      <c r="B126" s="111"/>
-      <c r="C126" s="16" t="s">
+      <c r="A126" s="130"/>
+      <c r="B126" s="129"/>
+      <c r="C126" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D126" s="21"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="83" t="s">
-        <v>458</v>
+      <c r="D126" s="81"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="93" t="s">
+        <v>472</v>
       </c>
       <c r="G126" s="16"/>
       <c r="H126" s="12"/>
       <c r="I126" s="16"/>
       <c r="J126" s="12"/>
       <c r="K126" s="16"/>
-      <c r="L126" s="105" t="s">
+      <c r="L126" s="18" t="s">
         <v>11</v>
       </c>
       <c r="M126" s="19"/>
     </row>
     <row r="127" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A127" s="113">
+      <c r="A127" s="130">
         <v>63</v>
       </c>
-      <c r="B127" s="111" t="s">
-        <v>215</v>
+      <c r="B127" s="128" t="s">
+        <v>214</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D127" s="15"/>
-      <c r="E127" s="58">
+      <c r="E127" s="52">
         <v>45705</v>
       </c>
       <c r="G127" s="17"/>
       <c r="I127" s="17"/>
-      <c r="K127" s="47" t="s">
-        <v>113</v>
+      <c r="K127" s="44" t="s">
+        <v>112</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M127" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="113"/>
-      <c r="B128" s="111"/>
+      <c r="A128" s="130"/>
+      <c r="B128" s="128"/>
       <c r="C128" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D128" s="16"/>
-      <c r="E128" s="59" t="s">
-        <v>252</v>
+      <c r="E128" s="53" t="s">
+        <v>473</v>
       </c>
       <c r="G128" s="17"/>
       <c r="I128" s="17"/>
       <c r="K128" s="17"/>
-      <c r="M128" s="14"/>
+      <c r="L128" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="M128" s="27" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="129" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A129" s="113">
+      <c r="A129" s="130">
         <v>64</v>
       </c>
-      <c r="B129" s="111" t="s">
-        <v>216</v>
+      <c r="B129" s="128" t="s">
+        <v>215</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>54</v>
@@ -10883,22 +11312,22 @@
       <c r="I129" s="15"/>
       <c r="J129" s="9"/>
       <c r="K129" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L129" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="L129" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="M129" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="113"/>
-      <c r="B130" s="111"/>
+      <c r="A130" s="130"/>
+      <c r="B130" s="128"/>
       <c r="C130" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D130" s="21"/>
+      <c r="D130" s="58"/>
       <c r="E130" s="16"/>
       <c r="F130" s="12"/>
       <c r="G130" s="16"/>
@@ -10910,11 +11339,11 @@
       <c r="M130" s="13"/>
     </row>
     <row r="131" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A131" s="113">
+      <c r="A131" s="130">
         <v>65</v>
       </c>
-      <c r="B131" s="111" t="s">
-        <v>217</v>
+      <c r="B131" s="128" t="s">
+        <v>216</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>54</v>
@@ -10923,19 +11352,19 @@
       <c r="E131" s="17"/>
       <c r="G131" s="17"/>
       <c r="I131" s="17"/>
-      <c r="K131" s="47" t="s">
-        <v>304</v>
+      <c r="K131" s="44" t="s">
+        <v>303</v>
       </c>
       <c r="L131" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M131" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="113"/>
-      <c r="B132" s="111"/>
+      <c r="A132" s="130"/>
+      <c r="B132" s="128"/>
       <c r="C132" s="17" t="s">
         <v>0</v>
       </c>
@@ -10947,11 +11376,11 @@
       <c r="M132" s="14"/>
     </row>
     <row r="133" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A133" s="113">
+      <c r="A133" s="130">
         <v>66</v>
       </c>
-      <c r="B133" s="111" t="s">
-        <v>218</v>
+      <c r="B133" s="128" t="s">
+        <v>217</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>54</v>
@@ -10964,18 +11393,18 @@
       <c r="I133" s="15"/>
       <c r="J133" s="9"/>
       <c r="K133" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L133" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M133" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="113"/>
-      <c r="B134" s="111"/>
+      <c r="A134" s="130"/>
+      <c r="B134" s="128"/>
       <c r="C134" s="16" t="s">
         <v>0</v>
       </c>
@@ -10987,15 +11416,17 @@
       <c r="I134" s="16"/>
       <c r="J134" s="12"/>
       <c r="K134" s="16"/>
-      <c r="L134" s="12"/>
+      <c r="L134" s="112" t="s">
+        <v>505</v>
+      </c>
       <c r="M134" s="13"/>
     </row>
     <row r="135" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A135" s="113">
+      <c r="A135" s="130">
         <v>67</v>
       </c>
-      <c r="B135" s="111" t="s">
-        <v>219</v>
+      <c r="B135" s="128" t="s">
+        <v>218</v>
       </c>
       <c r="C135" s="17" t="s">
         <v>54</v>
@@ -11005,18 +11436,18 @@
       <c r="G135" s="17"/>
       <c r="I135" s="17"/>
       <c r="K135" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M135" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="113"/>
-      <c r="B136" s="111"/>
+      <c r="A136" s="130"/>
+      <c r="B136" s="128"/>
       <c r="C136" s="17" t="s">
         <v>0</v>
       </c>
@@ -11028,11 +11459,11 @@
       <c r="M136" s="14"/>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="113">
+      <c r="A137" s="130">
         <v>68</v>
       </c>
-      <c r="B137" s="113" t="s">
-        <v>120</v>
+      <c r="B137" s="130" t="s">
+        <v>119</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>54</v>
@@ -11046,17 +11477,17 @@
       <c r="J137" s="9"/>
       <c r="K137" s="15"/>
       <c r="L137" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="130"/>
+      <c r="B138" s="130"/>
+      <c r="C138" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="M137" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138" s="113"/>
-      <c r="B138" s="113"/>
-      <c r="C138" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="D138" s="21"/>
       <c r="E138" s="16"/>
@@ -11070,11 +11501,11 @@
       <c r="M138" s="13"/>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="113">
+      <c r="A139" s="130">
         <v>69</v>
       </c>
-      <c r="B139" s="111" t="s">
-        <v>220</v>
+      <c r="B139" s="128" t="s">
+        <v>219</v>
       </c>
       <c r="C139" s="17" t="s">
         <v>54</v>
@@ -11085,15 +11516,15 @@
       <c r="I139" s="17"/>
       <c r="K139" s="17"/>
       <c r="L139" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M139" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="113"/>
-      <c r="B140" s="113"/>
+      <c r="A140" s="130"/>
+      <c r="B140" s="130"/>
       <c r="C140" s="17" t="s">
         <v>0</v>
       </c>
@@ -11102,42 +11533,47 @@
       <c r="G140" s="17"/>
       <c r="I140" s="17"/>
       <c r="K140" s="17"/>
+      <c r="L140" s="123" t="s">
+        <v>505</v>
+      </c>
       <c r="M140" s="14"/>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="113">
+      <c r="A141" s="130">
         <v>70</v>
       </c>
-      <c r="B141" s="111" t="s">
-        <v>221</v>
+      <c r="B141" s="128" t="s">
+        <v>220</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D141" s="20"/>
+      <c r="D141" s="119">
+        <v>45729.5625</v>
+      </c>
       <c r="E141" s="15"/>
       <c r="F141" s="9"/>
       <c r="G141" s="15"/>
       <c r="H141" s="9"/>
       <c r="I141" s="15"/>
       <c r="J141" s="9"/>
-      <c r="K141" s="41" t="s">
-        <v>134</v>
+      <c r="K141" s="38" t="s">
+        <v>133</v>
       </c>
       <c r="L141" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M141" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="113"/>
-      <c r="B142" s="113"/>
+      <c r="A142" s="130"/>
+      <c r="B142" s="130"/>
       <c r="C142" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D142" s="21"/>
+      <c r="D142" s="120"/>
       <c r="E142" s="16"/>
       <c r="F142" s="12"/>
       <c r="G142" s="16"/>
@@ -11145,15 +11581,17 @@
       <c r="I142" s="16"/>
       <c r="J142" s="12"/>
       <c r="K142" s="16"/>
-      <c r="L142" s="12"/>
+      <c r="L142" s="113" t="s">
+        <v>505</v>
+      </c>
       <c r="M142" s="13"/>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="113">
+      <c r="A143" s="130">
         <v>71</v>
       </c>
-      <c r="B143" s="111" t="s">
-        <v>222</v>
+      <c r="B143" s="128" t="s">
+        <v>221</v>
       </c>
       <c r="C143" s="17" t="s">
         <v>54</v>
@@ -11164,15 +11602,15 @@
       <c r="I143" s="17"/>
       <c r="K143" s="17"/>
       <c r="L143" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M143" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="113"/>
-      <c r="B144" s="113"/>
+      <c r="A144" s="130"/>
+      <c r="B144" s="130"/>
       <c r="C144" s="17" t="s">
         <v>0</v>
       </c>
@@ -11182,64 +11620,68 @@
       <c r="I144" s="17"/>
       <c r="K144" s="17"/>
       <c r="L144" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M144" s="14"/>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="113">
+      <c r="A145" s="130">
         <v>72</v>
       </c>
-      <c r="B145" s="111" t="s">
-        <v>223</v>
-      </c>
-      <c r="C145" s="15" t="s">
+      <c r="B145" s="129" t="s">
+        <v>222</v>
+      </c>
+      <c r="C145" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D145" s="20"/>
-      <c r="E145" s="33">
+      <c r="D145" s="94"/>
+      <c r="E145" s="76">
         <v>45700.416666666664</v>
       </c>
-      <c r="F145" s="9"/>
+      <c r="F145" s="92">
+        <v>45706</v>
+      </c>
       <c r="G145" s="15"/>
       <c r="H145" s="9"/>
       <c r="I145" s="15"/>
       <c r="J145" s="9"/>
-      <c r="K145" s="41" t="s">
-        <v>129</v>
+      <c r="K145" s="38" t="s">
+        <v>128</v>
       </c>
       <c r="L145" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M145" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="113"/>
-      <c r="B146" s="113"/>
-      <c r="C146" s="16" t="s">
+      <c r="A146" s="130"/>
+      <c r="B146" s="131"/>
+      <c r="C146" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D146" s="21"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="12"/>
+      <c r="D146" s="81"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="93" t="s">
+        <v>250</v>
+      </c>
       <c r="G146" s="16"/>
       <c r="H146" s="12"/>
       <c r="I146" s="16"/>
       <c r="J146" s="12"/>
       <c r="K146" s="16"/>
       <c r="L146" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M146" s="13"/>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="113">
+      <c r="A147" s="130">
         <v>73</v>
       </c>
-      <c r="B147" s="111" t="s">
-        <v>224</v>
+      <c r="B147" s="128" t="s">
+        <v>223</v>
       </c>
       <c r="C147" s="17" t="s">
         <v>52</v>
@@ -11250,19 +11692,19 @@
       <c r="E147" s="17"/>
       <c r="G147" s="17"/>
       <c r="I147" s="17"/>
-      <c r="K147" s="47" t="s">
+      <c r="K147" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="L147" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L147" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="M147" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="113"/>
-      <c r="B148" s="113"/>
+      <c r="A148" s="130"/>
+      <c r="B148" s="130"/>
       <c r="C148" s="17" t="s">
         <v>0</v>
       </c>
@@ -11274,11 +11716,11 @@
       <c r="M148" s="14"/>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="113">
+      <c r="A149" s="130">
         <v>74</v>
       </c>
-      <c r="B149" s="111" t="s">
-        <v>225</v>
+      <c r="B149" s="128" t="s">
+        <v>224</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>54</v>
@@ -11294,15 +11736,15 @@
         <v>26000058</v>
       </c>
       <c r="L149" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M149" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:13">
-      <c r="A150" s="113"/>
-      <c r="B150" s="113"/>
+      <c r="A150" s="130"/>
+      <c r="B150" s="130"/>
       <c r="C150" s="16" t="s">
         <v>0</v>
       </c>
@@ -11318,61 +11760,61 @@
       <c r="M150" s="13"/>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="113">
+      <c r="A151" s="130">
         <v>75</v>
       </c>
-      <c r="B151" s="111" t="s">
-        <v>226</v>
+      <c r="B151" s="128" t="s">
+        <v>225</v>
       </c>
       <c r="C151" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D151" s="22"/>
-      <c r="E151" s="58">
+      <c r="E151" s="52">
         <v>45723.5</v>
       </c>
-      <c r="F151" s="81">
+      <c r="F151" s="69">
         <v>45726.5</v>
       </c>
       <c r="G151" s="17"/>
       <c r="I151" s="17"/>
-      <c r="K151" s="47" t="s">
-        <v>153</v>
+      <c r="K151" s="44" t="s">
+        <v>152</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M151" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:13">
-      <c r="A152" s="113"/>
-      <c r="B152" s="113"/>
+      <c r="A152" s="130"/>
+      <c r="B152" s="130"/>
       <c r="C152" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D152" s="22"/>
-      <c r="E152" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="F152" s="84" t="s">
-        <v>251</v>
+      <c r="E152" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="F152" s="72" t="s">
+        <v>250</v>
       </c>
       <c r="G152" s="17"/>
       <c r="I152" s="17"/>
       <c r="K152" s="17"/>
       <c r="L152" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M152" s="27"/>
     </row>
     <row r="153" spans="1:13">
-      <c r="A153" s="113">
+      <c r="A153" s="130">
         <v>76</v>
       </c>
-      <c r="B153" s="111" t="s">
-        <v>236</v>
+      <c r="B153" s="128" t="s">
+        <v>235</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>52</v>
@@ -11386,15 +11828,15 @@
       <c r="J153" s="9"/>
       <c r="K153" s="15"/>
       <c r="L153" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M153" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="113"/>
-      <c r="B154" s="113"/>
+      <c r="A154" s="130"/>
+      <c r="B154" s="130"/>
       <c r="C154" s="16" t="s">
         <v>0</v>
       </c>
@@ -11407,16 +11849,16 @@
       <c r="J154" s="12"/>
       <c r="K154" s="16"/>
       <c r="L154" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M154" s="13"/>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="113">
+      <c r="A155" s="130">
         <v>77</v>
       </c>
-      <c r="B155" s="111" t="s">
-        <v>227</v>
+      <c r="B155" s="128" t="s">
+        <v>226</v>
       </c>
       <c r="C155" s="17" t="s">
         <v>54</v>
@@ -11425,19 +11867,19 @@
       <c r="E155" s="17"/>
       <c r="G155" s="17"/>
       <c r="I155" s="17"/>
-      <c r="K155" s="47" t="s">
-        <v>306</v>
+      <c r="K155" s="44" t="s">
+        <v>305</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M155" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="113"/>
-      <c r="B156" s="113"/>
+      <c r="A156" s="130"/>
+      <c r="B156" s="130"/>
       <c r="C156" s="17" t="s">
         <v>0</v>
       </c>
@@ -11446,14 +11888,17 @@
       <c r="G156" s="17"/>
       <c r="I156" s="17"/>
       <c r="K156" s="17"/>
+      <c r="L156" s="6" t="s">
+        <v>482</v>
+      </c>
       <c r="M156" s="14"/>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="113">
+      <c r="A157" s="130">
         <v>78</v>
       </c>
-      <c r="B157" s="111" t="s">
-        <v>228</v>
+      <c r="B157" s="128" t="s">
+        <v>227</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>52</v>
@@ -11467,15 +11912,15 @@
       <c r="J157" s="9"/>
       <c r="K157" s="15"/>
       <c r="L157" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M157" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="113"/>
-      <c r="B158" s="113"/>
+      <c r="A158" s="130"/>
+      <c r="B158" s="130"/>
       <c r="C158" s="16" t="s">
         <v>77</v>
       </c>
@@ -11491,11 +11936,11 @@
       <c r="M158" s="13"/>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="113">
+      <c r="A159" s="130">
         <v>79</v>
       </c>
-      <c r="B159" s="125" t="s">
-        <v>314</v>
+      <c r="B159" s="143" t="s">
+        <v>313</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>54</v>
@@ -11508,16 +11953,16 @@
       <c r="I159" s="9"/>
       <c r="J159" s="15"/>
       <c r="K159" s="9"/>
-      <c r="L159" s="53" t="s">
+      <c r="L159" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="M159" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M159" s="11" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="160" spans="1:13">
-      <c r="A160" s="113"/>
-      <c r="B160" s="126"/>
+      <c r="A160" s="130"/>
+      <c r="B160" s="144"/>
       <c r="C160" s="16" t="s">
         <v>0</v>
       </c>
@@ -11529,17 +11974,17 @@
       <c r="I160" s="12"/>
       <c r="J160" s="16"/>
       <c r="K160" s="12"/>
-      <c r="L160" s="54" t="s">
-        <v>312</v>
+      <c r="L160" s="49" t="s">
+        <v>311</v>
       </c>
       <c r="M160" s="13"/>
     </row>
     <row r="161" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A161" s="113">
+      <c r="A161" s="130">
         <v>80</v>
       </c>
-      <c r="B161" s="125" t="s">
-        <v>315</v>
+      <c r="B161" s="143" t="s">
+        <v>314</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>54</v>
@@ -11552,16 +11997,16 @@
       <c r="I161" s="9"/>
       <c r="J161" s="15"/>
       <c r="K161" s="9"/>
-      <c r="L161" s="53" t="s">
-        <v>313</v>
+      <c r="L161" s="48" t="s">
+        <v>312</v>
       </c>
       <c r="M161" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:13">
-      <c r="A162" s="113"/>
-      <c r="B162" s="126"/>
+      <c r="A162" s="130"/>
+      <c r="B162" s="144"/>
       <c r="C162" s="16" t="s">
         <v>0</v>
       </c>
@@ -11573,85 +12018,85 @@
       <c r="I162" s="12"/>
       <c r="J162" s="16"/>
       <c r="K162" s="12"/>
-      <c r="L162" s="54" t="s">
-        <v>312</v>
+      <c r="L162" s="49" t="s">
+        <v>311</v>
       </c>
       <c r="M162" s="13"/>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="113">
+      <c r="A163" s="130">
         <v>81</v>
       </c>
-      <c r="B163" s="127" t="s">
-        <v>336</v>
+      <c r="B163" s="145" t="s">
+        <v>335</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D163" s="15"/>
-      <c r="E163" s="87">
+      <c r="E163" s="89">
         <v>45698</v>
       </c>
-      <c r="F163" s="99">
+      <c r="F163" s="51">
         <v>45726</v>
       </c>
-      <c r="G163" s="131" t="s">
-        <v>407</v>
-      </c>
-      <c r="H163" s="82">
+      <c r="G163" s="132" t="s">
+        <v>398</v>
+      </c>
+      <c r="H163" s="70">
         <v>45745</v>
       </c>
-      <c r="I163" s="128" t="s">
-        <v>451</v>
-      </c>
-      <c r="J163" s="57">
+      <c r="I163" s="146" t="s">
+        <v>442</v>
+      </c>
+      <c r="J163" s="51">
         <v>45745</v>
       </c>
-      <c r="K163" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="L163" s="53" t="s">
-        <v>330</v>
+      <c r="K163" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="L163" s="48" t="s">
+        <v>329</v>
       </c>
       <c r="M163" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="113"/>
-      <c r="B164" s="115"/>
+      <c r="A164" s="130"/>
+      <c r="B164" s="133"/>
       <c r="C164" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D164" s="16"/>
-      <c r="E164" s="88" t="s">
-        <v>406</v>
-      </c>
-      <c r="F164" s="56" t="s">
-        <v>452</v>
-      </c>
-      <c r="G164" s="115"/>
-      <c r="H164" s="56" t="s">
-        <v>450</v>
-      </c>
-      <c r="I164" s="129"/>
-      <c r="J164" s="56" t="s">
-        <v>450</v>
+      <c r="E164" s="90" t="s">
+        <v>397</v>
+      </c>
+      <c r="F164" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G164" s="133"/>
+      <c r="H164" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="I164" s="147"/>
+      <c r="J164" s="50" t="s">
+        <v>441</v>
       </c>
       <c r="K164" s="12"/>
-      <c r="L164" s="54" t="s">
+      <c r="L164" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M164" s="95" t="s">
-        <v>411</v>
+      <c r="M164" s="19" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="165" spans="1:13">
-      <c r="A165" s="113">
+      <c r="A165" s="130">
         <v>82</v>
       </c>
-      <c r="B165" s="125" t="s">
-        <v>337</v>
+      <c r="B165" s="143" t="s">
+        <v>336</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>54</v>
@@ -11665,15 +12110,15 @@
       <c r="J165" s="9"/>
       <c r="K165" s="15"/>
       <c r="L165" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="M165" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="M165" s="11" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="166" spans="1:13">
-      <c r="A166" s="113"/>
-      <c r="B166" s="126"/>
+      <c r="A166" s="130"/>
+      <c r="B166" s="144"/>
       <c r="C166" s="16" t="s">
         <v>0</v>
       </c>
@@ -11686,16 +12131,16 @@
       <c r="J166" s="12"/>
       <c r="K166" s="16"/>
       <c r="L166" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M166" s="13"/>
     </row>
     <row r="167" spans="1:13">
-      <c r="A167" s="113">
+      <c r="A167" s="130">
         <v>83</v>
       </c>
-      <c r="B167" s="125" t="s">
-        <v>338</v>
+      <c r="B167" s="143" t="s">
+        <v>337</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>54</v>
@@ -11709,15 +12154,15 @@
       <c r="J167" s="9"/>
       <c r="K167" s="15"/>
       <c r="L167" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M167" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="113"/>
-      <c r="B168" s="126"/>
+      <c r="A168" s="130"/>
+      <c r="B168" s="144"/>
       <c r="C168" s="16" t="s">
         <v>0</v>
       </c>
@@ -11730,16 +12175,16 @@
       <c r="J168" s="12"/>
       <c r="K168" s="16"/>
       <c r="L168" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M168" s="13"/>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="113">
+      <c r="A169" s="130">
         <v>84</v>
       </c>
-      <c r="B169" s="125" t="s">
-        <v>339</v>
+      <c r="B169" s="143" t="s">
+        <v>338</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>54</v>
@@ -11751,24 +12196,26 @@
       <c r="H169" s="9"/>
       <c r="I169" s="15"/>
       <c r="J169" s="9"/>
-      <c r="K169" s="41" t="s">
-        <v>393</v>
+      <c r="K169" s="38" t="s">
+        <v>392</v>
       </c>
       <c r="L169" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M169" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:13">
-      <c r="A170" s="113"/>
-      <c r="B170" s="126"/>
+      <c r="A170" s="130"/>
+      <c r="B170" s="144"/>
       <c r="C170" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D170" s="12"/>
-      <c r="E170" s="16"/>
+      <c r="E170" s="122" t="s">
+        <v>519</v>
+      </c>
       <c r="F170" s="12"/>
       <c r="G170" s="16"/>
       <c r="H170" s="12"/>
@@ -11776,16 +12223,16 @@
       <c r="J170" s="12"/>
       <c r="K170" s="16"/>
       <c r="L170" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M170" s="13"/>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="113">
+      <c r="A171" s="130">
         <v>85</v>
       </c>
-      <c r="B171" s="125" t="s">
-        <v>344</v>
+      <c r="B171" s="143" t="s">
+        <v>343</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>54</v>
@@ -11799,15 +12246,15 @@
       <c r="J171" s="9"/>
       <c r="K171" s="15"/>
       <c r="L171" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M171" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:13">
-      <c r="A172" s="113"/>
-      <c r="B172" s="126"/>
+      <c r="A172" s="130"/>
+      <c r="B172" s="144"/>
       <c r="C172" s="16" t="s">
         <v>0</v>
       </c>
@@ -11820,16 +12267,16 @@
       <c r="J172" s="12"/>
       <c r="K172" s="16"/>
       <c r="L172" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M172" s="13"/>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173" s="113">
+      <c r="A173" s="130">
         <v>86</v>
       </c>
-      <c r="B173" s="125" t="s">
-        <v>345</v>
+      <c r="B173" s="143" t="s">
+        <v>344</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>54</v>
@@ -11843,15 +12290,15 @@
       <c r="J173" s="9"/>
       <c r="K173" s="15"/>
       <c r="L173" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M173" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="113"/>
-      <c r="B174" s="126"/>
+      <c r="A174" s="130"/>
+      <c r="B174" s="144"/>
       <c r="C174" s="16" t="s">
         <v>0</v>
       </c>
@@ -11864,16 +12311,16 @@
       <c r="J174" s="12"/>
       <c r="K174" s="16"/>
       <c r="L174" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M174" s="13"/>
     </row>
     <row r="175" spans="1:13">
-      <c r="A175" s="113">
+      <c r="A175" s="130">
         <v>87</v>
       </c>
-      <c r="B175" s="125" t="s">
-        <v>346</v>
+      <c r="B175" s="143" t="s">
+        <v>345</v>
       </c>
       <c r="C175" s="15" t="s">
         <v>54</v>
@@ -11887,15 +12334,15 @@
       <c r="J175" s="9"/>
       <c r="K175" s="15"/>
       <c r="L175" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M175" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="176" spans="1:13">
-      <c r="A176" s="113"/>
-      <c r="B176" s="126"/>
+      <c r="A176" s="130"/>
+      <c r="B176" s="144"/>
       <c r="C176" s="16" t="s">
         <v>0</v>
       </c>
@@ -11908,16 +12355,16 @@
       <c r="J176" s="12"/>
       <c r="K176" s="16"/>
       <c r="L176" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M176" s="13"/>
     </row>
     <row r="177" spans="1:13">
-      <c r="A177" s="113">
+      <c r="A177" s="130">
         <v>88</v>
       </c>
-      <c r="B177" s="125" t="s">
-        <v>359</v>
+      <c r="B177" s="143" t="s">
+        <v>358</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>54</v>
@@ -11931,15 +12378,15 @@
       <c r="J177" s="9"/>
       <c r="K177" s="15"/>
       <c r="L177" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M177" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" spans="1:13">
-      <c r="A178" s="113"/>
-      <c r="B178" s="126"/>
+      <c r="A178" s="130"/>
+      <c r="B178" s="144"/>
       <c r="C178" s="16" t="s">
         <v>77</v>
       </c>
@@ -11952,16 +12399,16 @@
       <c r="J178" s="12"/>
       <c r="K178" s="16"/>
       <c r="L178" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M178" s="13"/>
     </row>
     <row r="179" spans="1:13">
-      <c r="A179" s="113">
+      <c r="A179" s="130">
         <v>89</v>
       </c>
-      <c r="B179" s="125" t="s">
-        <v>360</v>
+      <c r="B179" s="143" t="s">
+        <v>359</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>54</v>
@@ -11973,19 +12420,19 @@
       <c r="H179" s="9"/>
       <c r="I179" s="15"/>
       <c r="J179" s="9"/>
-      <c r="K179" s="97" t="s">
-        <v>447</v>
+      <c r="K179" s="38" t="s">
+        <v>438</v>
       </c>
       <c r="L179" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M179" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="113"/>
-      <c r="B180" s="126"/>
+      <c r="A180" s="130"/>
+      <c r="B180" s="144"/>
       <c r="C180" s="16" t="s">
         <v>0</v>
       </c>
@@ -11998,16 +12445,16 @@
       <c r="J180" s="12"/>
       <c r="K180" s="16"/>
       <c r="L180" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M180" s="13"/>
     </row>
     <row r="181" spans="1:13">
-      <c r="A181" s="113">
+      <c r="A181" s="130">
         <v>90</v>
       </c>
-      <c r="B181" s="125" t="s">
-        <v>361</v>
+      <c r="B181" s="143" t="s">
+        <v>360</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>54</v>
@@ -12021,15 +12468,15 @@
       <c r="J181" s="9"/>
       <c r="K181" s="15"/>
       <c r="L181" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M181" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="113"/>
-      <c r="B182" s="126"/>
+      <c r="A182" s="130"/>
+      <c r="B182" s="144"/>
       <c r="C182" s="16" t="s">
         <v>0</v>
       </c>
@@ -12042,16 +12489,16 @@
       <c r="J182" s="12"/>
       <c r="K182" s="16"/>
       <c r="L182" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M182" s="13"/>
     </row>
     <row r="183" spans="1:13">
-      <c r="A183" s="113">
+      <c r="A183" s="130">
         <v>91</v>
       </c>
-      <c r="B183" s="125" t="s">
-        <v>362</v>
+      <c r="B183" s="143" t="s">
+        <v>361</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>54</v>
@@ -12065,15 +12512,15 @@
       <c r="J183" s="9"/>
       <c r="K183" s="15"/>
       <c r="L183" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M183" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184" s="113"/>
-      <c r="B184" s="126"/>
+      <c r="A184" s="130"/>
+      <c r="B184" s="144"/>
       <c r="C184" s="16" t="s">
         <v>0</v>
       </c>
@@ -12086,16 +12533,16 @@
       <c r="J184" s="12"/>
       <c r="K184" s="16"/>
       <c r="L184" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M184" s="13"/>
     </row>
     <row r="185" spans="1:13">
-      <c r="A185" s="113">
+      <c r="A185" s="130">
         <v>92</v>
       </c>
-      <c r="B185" s="130" t="s">
-        <v>355</v>
+      <c r="B185" s="148" t="s">
+        <v>354</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>54</v>
@@ -12109,15 +12556,15 @@
       <c r="J185" s="9"/>
       <c r="K185" s="15"/>
       <c r="L185" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M185" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="186" spans="1:13">
-      <c r="A186" s="113"/>
-      <c r="B186" s="126"/>
+      <c r="A186" s="130"/>
+      <c r="B186" s="144"/>
       <c r="C186" s="16" t="s">
         <v>0</v>
       </c>
@@ -12130,16 +12577,16 @@
       <c r="J186" s="12"/>
       <c r="K186" s="16"/>
       <c r="L186" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M186" s="13"/>
     </row>
     <row r="187" spans="1:13">
-      <c r="A187" s="113">
+      <c r="A187" s="130">
         <v>93</v>
       </c>
-      <c r="B187" s="130" t="s">
-        <v>357</v>
+      <c r="B187" s="148" t="s">
+        <v>356</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>54</v>
@@ -12153,15 +12600,15 @@
       <c r="J187" s="9"/>
       <c r="K187" s="15"/>
       <c r="L187" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M187" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="1:13">
-      <c r="A188" s="113"/>
-      <c r="B188" s="126"/>
+      <c r="A188" s="130"/>
+      <c r="B188" s="144"/>
       <c r="C188" s="16" t="s">
         <v>0</v>
       </c>
@@ -12174,48 +12621,32 @@
       <c r="J188" s="12"/>
       <c r="K188" s="16"/>
       <c r="L188" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M188" s="13"/>
     </row>
     <row r="189" spans="1:13">
-      <c r="A189" s="113">
+      <c r="A189" s="130">
         <v>94</v>
       </c>
-      <c r="B189" s="125" t="s">
-        <v>398</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D189" s="61">
-        <v>45705.541666666664</v>
-      </c>
+      <c r="B189" s="143"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="9"/>
       <c r="E189" s="15"/>
       <c r="F189" s="9"/>
       <c r="G189" s="15"/>
       <c r="H189" s="9"/>
       <c r="I189" s="15"/>
       <c r="J189" s="9"/>
-      <c r="K189" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="L189" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="M189" s="11" t="s">
-        <v>395</v>
-      </c>
+      <c r="K189" s="38"/>
+      <c r="L189" s="10"/>
+      <c r="M189" s="11"/>
     </row>
     <row r="190" spans="1:13">
-      <c r="A190" s="113"/>
-      <c r="B190" s="126"/>
-      <c r="C190" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D190" s="83" t="s">
-        <v>399</v>
-      </c>
+      <c r="A190" s="130"/>
+      <c r="B190" s="144"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="12"/>
       <c r="E190" s="16"/>
       <c r="F190" s="12"/>
       <c r="G190" s="16"/>
@@ -12223,16 +12654,14 @@
       <c r="I190" s="16"/>
       <c r="J190" s="12"/>
       <c r="K190" s="16"/>
-      <c r="L190" s="18" t="s">
-        <v>397</v>
-      </c>
+      <c r="L190" s="18"/>
       <c r="M190" s="13"/>
     </row>
     <row r="191" spans="1:13">
-      <c r="A191" s="113">
+      <c r="A191" s="130">
         <v>95</v>
       </c>
-      <c r="B191" s="130"/>
+      <c r="B191" s="148"/>
       <c r="C191" s="15"/>
       <c r="D191" s="9"/>
       <c r="E191" s="15"/>
@@ -12243,11 +12672,11 @@
       <c r="J191" s="9"/>
       <c r="K191" s="15"/>
       <c r="L191" s="9"/>
-      <c r="M191" s="66"/>
+      <c r="M191" s="57"/>
     </row>
     <row r="192" spans="1:13">
-      <c r="A192" s="113"/>
-      <c r="B192" s="126"/>
+      <c r="A192" s="130"/>
+      <c r="B192" s="144"/>
       <c r="C192" s="16"/>
       <c r="D192" s="12"/>
       <c r="E192" s="16"/>
@@ -12261,10 +12690,10 @@
       <c r="M192" s="13"/>
     </row>
     <row r="193" spans="1:13">
-      <c r="A193" s="113">
+      <c r="A193" s="130">
         <v>96</v>
       </c>
-      <c r="B193" s="130"/>
+      <c r="B193" s="148"/>
       <c r="C193" s="15"/>
       <c r="D193" s="9"/>
       <c r="E193" s="15"/>
@@ -12275,11 +12704,11 @@
       <c r="J193" s="9"/>
       <c r="K193" s="15"/>
       <c r="L193" s="9"/>
-      <c r="M193" s="66"/>
+      <c r="M193" s="57"/>
     </row>
     <row r="194" spans="1:13">
-      <c r="A194" s="113"/>
-      <c r="B194" s="126"/>
+      <c r="A194" s="130"/>
+      <c r="B194" s="144"/>
       <c r="C194" s="16"/>
       <c r="D194" s="12"/>
       <c r="E194" s="16"/>
@@ -12293,10 +12722,10 @@
       <c r="M194" s="13"/>
     </row>
     <row r="195" spans="1:13">
-      <c r="A195" s="113">
+      <c r="A195" s="130">
         <v>97</v>
       </c>
-      <c r="B195" s="130"/>
+      <c r="B195" s="148"/>
       <c r="C195" s="15"/>
       <c r="D195" s="9"/>
       <c r="E195" s="15"/>
@@ -12307,11 +12736,11 @@
       <c r="J195" s="9"/>
       <c r="K195" s="15"/>
       <c r="L195" s="9"/>
-      <c r="M195" s="66"/>
+      <c r="M195" s="57"/>
     </row>
     <row r="196" spans="1:13">
-      <c r="A196" s="113"/>
-      <c r="B196" s="126"/>
+      <c r="A196" s="130"/>
+      <c r="B196" s="144"/>
       <c r="C196" s="16"/>
       <c r="D196" s="12"/>
       <c r="E196" s="16"/>
@@ -12325,10 +12754,10 @@
       <c r="M196" s="13"/>
     </row>
     <row r="197" spans="1:13">
-      <c r="A197" s="113">
+      <c r="A197" s="130">
         <v>98</v>
       </c>
-      <c r="B197" s="130"/>
+      <c r="B197" s="148"/>
       <c r="C197" s="15"/>
       <c r="D197" s="9"/>
       <c r="E197" s="15"/>
@@ -12339,11 +12768,11 @@
       <c r="J197" s="9"/>
       <c r="K197" s="15"/>
       <c r="L197" s="9"/>
-      <c r="M197" s="66"/>
+      <c r="M197" s="57"/>
     </row>
     <row r="198" spans="1:13">
-      <c r="A198" s="113"/>
-      <c r="B198" s="126"/>
+      <c r="A198" s="130"/>
+      <c r="B198" s="144"/>
       <c r="C198" s="16"/>
       <c r="D198" s="12"/>
       <c r="E198" s="16"/>
@@ -12357,10 +12786,10 @@
       <c r="M198" s="13"/>
     </row>
     <row r="199" spans="1:13">
-      <c r="A199" s="113">
+      <c r="A199" s="130">
         <v>99</v>
       </c>
-      <c r="B199" s="130"/>
+      <c r="B199" s="148"/>
       <c r="C199" s="15"/>
       <c r="D199" s="9"/>
       <c r="E199" s="15"/>
@@ -12371,11 +12800,11 @@
       <c r="J199" s="9"/>
       <c r="K199" s="15"/>
       <c r="L199" s="9"/>
-      <c r="M199" s="66"/>
+      <c r="M199" s="57"/>
     </row>
     <row r="200" spans="1:13">
-      <c r="A200" s="113"/>
-      <c r="B200" s="126"/>
+      <c r="A200" s="130"/>
+      <c r="B200" s="144"/>
       <c r="C200" s="16"/>
       <c r="D200" s="12"/>
       <c r="E200" s="16"/>
@@ -12389,10 +12818,10 @@
       <c r="M200" s="13"/>
     </row>
     <row r="201" spans="1:13">
-      <c r="A201" s="113">
+      <c r="A201" s="130">
         <v>100</v>
       </c>
-      <c r="B201" s="130"/>
+      <c r="B201" s="148"/>
       <c r="C201" s="15"/>
       <c r="D201" s="9"/>
       <c r="E201" s="15"/>
@@ -12403,11 +12832,11 @@
       <c r="J201" s="9"/>
       <c r="K201" s="15"/>
       <c r="L201" s="9"/>
-      <c r="M201" s="66"/>
+      <c r="M201" s="57"/>
     </row>
     <row r="202" spans="1:13">
-      <c r="A202" s="113"/>
-      <c r="B202" s="126"/>
+      <c r="A202" s="130"/>
+      <c r="B202" s="144"/>
       <c r="C202" s="16"/>
       <c r="D202" s="12"/>
       <c r="E202" s="16"/>
@@ -12421,10 +12850,10 @@
       <c r="M202" s="13"/>
     </row>
     <row r="203" spans="1:13">
-      <c r="A203" s="113">
+      <c r="A203" s="130">
         <v>101</v>
       </c>
-      <c r="B203" s="130"/>
+      <c r="B203" s="148"/>
       <c r="C203" s="15"/>
       <c r="D203" s="9"/>
       <c r="E203" s="15"/>
@@ -12435,11 +12864,11 @@
       <c r="J203" s="9"/>
       <c r="K203" s="15"/>
       <c r="L203" s="9"/>
-      <c r="M203" s="66"/>
+      <c r="M203" s="57"/>
     </row>
     <row r="204" spans="1:13">
-      <c r="A204" s="113"/>
-      <c r="B204" s="126"/>
+      <c r="A204" s="130"/>
+      <c r="B204" s="144"/>
       <c r="C204" s="16"/>
       <c r="D204" s="12"/>
       <c r="E204" s="16"/>
@@ -12703,6 +13132,8 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
     <mergeCell ref="B113:B114"/>
     <mergeCell ref="B121:B122"/>
     <mergeCell ref="B97:B98"/>
@@ -12716,8 +13147,6 @@
     <mergeCell ref="B115:B116"/>
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -12962,23 +13391,53 @@
     <hyperlink ref="L116" r:id="rId239" xr:uid="{0BA42C72-57FC-471C-940F-318C1C98D88F}"/>
     <hyperlink ref="K57" r:id="rId240" xr:uid="{DB260219-2ECF-48E4-A400-9636ED828194}"/>
     <hyperlink ref="K169" r:id="rId241" xr:uid="{2AF295A6-E6BE-4B22-9C27-E3C7DF92ED42}"/>
-    <hyperlink ref="M189" r:id="rId242" xr:uid="{E8E4B94B-8EBC-42B6-87E1-5A9EC1C46EEB}"/>
-    <hyperlink ref="L189" r:id="rId243" xr:uid="{0E6DCDDF-235B-47EC-B56E-49E99EBF8681}"/>
-    <hyperlink ref="L190" r:id="rId244" xr:uid="{D465BC30-6BC9-4EF7-902A-20FEAD728D0B}"/>
-    <hyperlink ref="K189" r:id="rId245" xr:uid="{A39AA1D2-0F8D-4B50-A195-3F6E66389CA9}"/>
-    <hyperlink ref="K77" r:id="rId246" xr:uid="{198E9FD4-DAFE-4743-B6A8-51F97C0FF6EB}"/>
-    <hyperlink ref="L78" r:id="rId247" xr:uid="{17F9DB79-7A14-4945-98A2-22C8DCE2316D}"/>
-    <hyperlink ref="L152" r:id="rId248" xr:uid="{CC083A8E-DF07-4027-A0FA-1BA146053366}"/>
-    <hyperlink ref="K151" r:id="rId249" xr:uid="{BD40D005-9684-448B-9505-28D27A558615}"/>
-    <hyperlink ref="K75" r:id="rId250" xr:uid="{2F03CA9A-A605-413A-A388-1A93C7DB7F43}"/>
-    <hyperlink ref="M164" r:id="rId251" xr:uid="{0ED7A13A-7A88-4317-ABF3-740949C49FC2}"/>
-    <hyperlink ref="K179" r:id="rId252" xr:uid="{2145EB58-4068-4FA4-9919-5CBED8DE90B6}"/>
-    <hyperlink ref="K163" r:id="rId253" xr:uid="{A6B977A7-0A8F-423A-B161-37371C74DD2C}"/>
-    <hyperlink ref="L126" r:id="rId254" xr:uid="{5E635E4E-8009-479D-9228-732BF317B901}"/>
-    <hyperlink ref="M28" r:id="rId255" xr:uid="{D3C3CD07-020B-4B09-A145-936B290DC759}"/>
+    <hyperlink ref="K77" r:id="rId242" xr:uid="{198E9FD4-DAFE-4743-B6A8-51F97C0FF6EB}"/>
+    <hyperlink ref="L78" r:id="rId243" xr:uid="{17F9DB79-7A14-4945-98A2-22C8DCE2316D}"/>
+    <hyperlink ref="L152" r:id="rId244" xr:uid="{CC083A8E-DF07-4027-A0FA-1BA146053366}"/>
+    <hyperlink ref="K151" r:id="rId245" xr:uid="{BD40D005-9684-448B-9505-28D27A558615}"/>
+    <hyperlink ref="K75" r:id="rId246" xr:uid="{2F03CA9A-A605-413A-A388-1A93C7DB7F43}"/>
+    <hyperlink ref="M164" r:id="rId247" xr:uid="{0ED7A13A-7A88-4317-ABF3-740949C49FC2}"/>
+    <hyperlink ref="K179" r:id="rId248" xr:uid="{2145EB58-4068-4FA4-9919-5CBED8DE90B6}"/>
+    <hyperlink ref="K163" r:id="rId249" xr:uid="{A6B977A7-0A8F-423A-B161-37371C74DD2C}"/>
+    <hyperlink ref="L126" r:id="rId250" xr:uid="{5E635E4E-8009-479D-9228-732BF317B901}"/>
+    <hyperlink ref="M28" r:id="rId251" xr:uid="{D3C3CD07-020B-4B09-A145-936B290DC759}"/>
+    <hyperlink ref="K117" r:id="rId252" xr:uid="{EF0AB174-A6CE-4509-B5B2-2815FA161579}"/>
+    <hyperlink ref="M58" r:id="rId253" xr:uid="{236D6B92-75A8-413D-AE8A-0D372EB285EA}"/>
+    <hyperlink ref="M10" r:id="rId254" xr:uid="{34434A76-FB29-48AA-BF68-225BC47766F3}"/>
+    <hyperlink ref="K63" r:id="rId255" display="https://www.e2r.jp/ja/otsuka_shokai2026/" xr:uid="{9D139656-15AE-4C3A-B752-39BA6E96A3EC}"/>
+    <hyperlink ref="M116" r:id="rId256" xr:uid="{5E6E02FF-70C7-4C7D-84A7-738FABDB0DB0}"/>
+    <hyperlink ref="K71" r:id="rId257" xr:uid="{93CD6F03-25A7-4494-A047-02DE676853EA}"/>
+    <hyperlink ref="K55" r:id="rId258" xr:uid="{94864F72-9F13-429E-AD78-7D06F4010752}"/>
+    <hyperlink ref="L156" r:id="rId259" xr:uid="{B28FFC09-F349-4F78-B027-8150BF96E8B5}"/>
+    <hyperlink ref="K9" r:id="rId260" xr:uid="{9F1F73EF-C564-4925-A787-D21B65C86E75}"/>
+    <hyperlink ref="M52" r:id="rId261" xr:uid="{FAD5ABEF-D585-4ED7-80F6-C99EE807C998}"/>
+    <hyperlink ref="L52" r:id="rId262" xr:uid="{2E79790C-BC45-449D-A500-02D8868F1710}"/>
+    <hyperlink ref="M62" r:id="rId263" xr:uid="{25F905AF-7A7C-48DE-B737-4635905798F2}"/>
+    <hyperlink ref="L62" r:id="rId264" xr:uid="{D6687FD4-2CD9-4A33-BBA3-60513AA0A8D2}"/>
+    <hyperlink ref="K61" r:id="rId265" xr:uid="{C31F4937-485E-4977-95F2-86B176103E88}"/>
+    <hyperlink ref="L128" r:id="rId266" xr:uid="{66E7C7E8-24C0-410E-859B-41E2552DF24F}"/>
+    <hyperlink ref="M128" r:id="rId267" location="company-nav" xr:uid="{6187771C-78F1-4AE3-9A06-E88C7AF60A32}"/>
+    <hyperlink ref="M78" r:id="rId268" xr:uid="{0871576A-89F5-4A65-98AF-90BF3B7FEF35}"/>
+    <hyperlink ref="L32" r:id="rId269" xr:uid="{1754F5B3-2595-471A-8C3E-B45F1E41177E}"/>
+    <hyperlink ref="M32" r:id="rId270" xr:uid="{013B59A1-A89D-45C6-80BF-8708A7BA5673}"/>
+    <hyperlink ref="L30" r:id="rId271" xr:uid="{05789F6F-5579-4E37-8764-A3FCB1F2E044}"/>
+    <hyperlink ref="M30" r:id="rId272" xr:uid="{65077C03-768F-496F-832B-3F17A5B5114C}"/>
+    <hyperlink ref="L22" r:id="rId273" xr:uid="{789A7C9F-3FB4-4F42-9BA2-836B117A8B53}"/>
+    <hyperlink ref="M22" r:id="rId274" xr:uid="{8758CEE4-2385-4096-8846-108BC56FA8DD}"/>
+    <hyperlink ref="M118" r:id="rId275" xr:uid="{CC9617FC-88B0-49BB-A2E7-E16D97782BE0}"/>
+    <hyperlink ref="L118" r:id="rId276" xr:uid="{3322BFF8-DFDF-4457-AE0B-4CF13ECC7CCD}"/>
+    <hyperlink ref="K35" r:id="rId277" xr:uid="{294FEA89-F65F-4FB6-9AF3-692C867B9B3C}"/>
+    <hyperlink ref="K33" r:id="rId278" xr:uid="{7373ECB4-1ED3-45CD-B9C9-5978C9869414}"/>
+    <hyperlink ref="K39" r:id="rId279" xr:uid="{2989DB04-C049-4008-BC3E-23ABB9A5C76F}"/>
+    <hyperlink ref="K45" r:id="rId280" xr:uid="{34EA8CE9-15A6-47FF-9702-C9101C93ADDC}"/>
+    <hyperlink ref="L142" r:id="rId281" xr:uid="{8EA08C63-52F4-4376-A162-347A141FAE5D}"/>
+    <hyperlink ref="L76" r:id="rId282" xr:uid="{87E37E76-7989-4719-8684-14241752793B}"/>
+    <hyperlink ref="L50" r:id="rId283" xr:uid="{FEAC102A-E8F1-4AD8-9EC4-03F66385624B}"/>
+    <hyperlink ref="L140" r:id="rId284" xr:uid="{D1076991-1382-4E59-B003-41CA3FB97C40}"/>
+    <hyperlink ref="L134" r:id="rId285" xr:uid="{645DC2EC-915B-4E87-B931-4E1C459EDB1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId256"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId286"/>
 </worksheet>
 </file>
 
@@ -12986,223 +13445,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38F57D0-F254-4DD1-AED1-EBC7AE38B116}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="96" customWidth="1"/>
-    <col min="2" max="2" width="66.75" style="96" customWidth="1"/>
+    <col min="1" max="1" width="28.25" style="75" customWidth="1"/>
+    <col min="2" max="2" width="66.75" style="75" customWidth="1"/>
     <col min="3" max="3" width="35.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="99.75" style="85" customWidth="1"/>
+    <col min="4" max="4" width="99.75" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="108">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="36">
+      <c r="A2" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="36">
-      <c r="A2" s="96" t="s">
+      <c r="C3" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="144">
+      <c r="A4" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36">
+      <c r="A5" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
+      <c r="A6" s="75" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="108">
+      <c r="A7" s="75" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="73" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="C7" s="75" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="54">
+      <c r="A8" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36">
+      <c r="A9" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="162" customHeight="1">
+      <c r="A10" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36">
+      <c r="A11" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="73" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="96" t="s">
+      <c r="C11" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="54">
+      <c r="A12" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="C12" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="144">
-      <c r="A4" s="96" t="s">
-        <v>414</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>441</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="36">
-      <c r="A5" s="96" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>419</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="36">
-      <c r="A6" s="96" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>420</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="108">
-      <c r="A7" s="96" t="s">
-        <v>417</v>
-      </c>
-      <c r="B7" s="85" t="s">
+      <c r="D12" s="73" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36">
+      <c r="A13" s="75" t="s">
         <v>422</v>
       </c>
-      <c r="C7" s="96" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="54">
-      <c r="A8" s="96" t="s">
+      <c r="B13" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36">
+      <c r="A14" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36">
+      <c r="A15" s="75" t="s">
+        <v>426</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="75" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" s="75" t="s">
         <v>423</v>
       </c>
-      <c r="B8" s="85" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="36">
-      <c r="A9" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>425</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="162" customHeight="1">
-      <c r="A10" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="85" t="s">
+      <c r="C16" s="75" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="75" t="s">
         <v>426</v>
       </c>
-      <c r="C10" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="36">
-      <c r="A11" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="B11" s="85" t="s">
-        <v>427</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="54">
-      <c r="A12" s="96" t="s">
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="75" t="s">
         <v>428</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>430</v>
-      </c>
-      <c r="C12" s="96" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36">
-      <c r="A13" s="96" t="s">
-        <v>431</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>433</v>
-      </c>
-      <c r="C13" s="96" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="36">
-      <c r="A14" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>434</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="36">
-      <c r="A15" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>436</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="96" t="s">
-        <v>437</v>
-      </c>
-      <c r="B16" s="96" t="s">
-        <v>432</v>
-      </c>
-      <c r="C16" s="96" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="96" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="96" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -13213,323 +13672,469 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090B0416-F1D2-4A08-9C25-1FAF8F39F174}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="27.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="60" style="42" customWidth="1"/>
+    <col min="2" max="2" width="60" style="39" customWidth="1"/>
     <col min="3" max="3" width="111.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="77" t="s">
+      <c r="A1" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="76" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="90">
+      <c r="A2" s="134" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="90">
-      <c r="A2" s="116" t="s">
+      <c r="B2" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72">
+      <c r="A3" s="134"/>
+      <c r="B3" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36">
+      <c r="A4" s="134"/>
+      <c r="B4" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="54">
+      <c r="A5" s="134"/>
+      <c r="B5" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72.75" thickBot="1">
+      <c r="A6" s="160"/>
+      <c r="B6" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36">
+      <c r="A7" s="161" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="72">
-      <c r="A3" s="116"/>
-      <c r="B3" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="36">
-      <c r="A4" s="116"/>
-      <c r="B4" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="54">
-      <c r="A5" s="116"/>
-      <c r="B5" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="72.75" thickBot="1">
-      <c r="A6" s="134"/>
-      <c r="B6" s="75" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="36">
-      <c r="A7" s="135" t="s">
+      <c r="B7" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="C7" s="40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36">
+      <c r="A8" s="161"/>
+      <c r="B8" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C8" s="40" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="36">
-      <c r="A8" s="135"/>
-      <c r="B8" s="45" t="s">
+    <row r="9" spans="1:3" ht="72">
+      <c r="A9" s="161"/>
+      <c r="B9" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C9" s="40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72">
+      <c r="A10" s="161"/>
+      <c r="B10" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="72">
-      <c r="A9" s="135"/>
-      <c r="B9" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="43" t="s">
+    <row r="11" spans="1:3" ht="108">
+      <c r="A11" s="161"/>
+      <c r="B11" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="108">
+      <c r="A12" s="161"/>
+      <c r="B12" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="216.75" thickBot="1">
+      <c r="A13" s="162"/>
+      <c r="B13" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="62" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72">
-      <c r="A10" s="135"/>
-      <c r="B10" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="108">
-      <c r="A11" s="135"/>
-      <c r="B11" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="108">
-      <c r="A12" s="135"/>
-      <c r="B12" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="216.75" thickBot="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="73" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="74" t="s">
+    <row r="14" spans="1:3" ht="72">
+      <c r="A14" s="158" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="108">
+      <c r="A15" s="130"/>
+      <c r="B15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="72">
-      <c r="A14" s="133" t="s">
-        <v>319</v>
-      </c>
-      <c r="B14" s="79" t="s">
-        <v>320</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="108">
-      <c r="A15" s="113"/>
-      <c r="B15" s="48" t="s">
+    <row r="16" spans="1:3" ht="126">
+      <c r="A16" s="130"/>
+      <c r="B16" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="63" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="126">
-      <c r="A16" s="113"/>
-      <c r="B16" s="48" t="s">
+      <c r="C16" s="54" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="72">
+      <c r="A17" s="130"/>
+      <c r="B17" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C17" s="54" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="72">
-      <c r="A17" s="113"/>
-      <c r="B17" s="48" t="s">
+    <row r="18" spans="1:3" ht="36.75" thickBot="1">
+      <c r="A18" s="159"/>
+      <c r="B18" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="C17" s="63" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="36.75" thickBot="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="71" t="s">
+      <c r="C18" s="60"/>
+    </row>
+    <row r="19" spans="1:3" ht="36">
+      <c r="A19" s="133" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" s="115" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="126">
+      <c r="A20" s="130"/>
+      <c r="B20" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="126">
+      <c r="A21" s="130"/>
+      <c r="B21" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="C18" s="72"/>
-    </row>
-    <row r="19" spans="1:3" ht="36">
-      <c r="A19" s="115" t="s">
-        <v>363</v>
-      </c>
-      <c r="B19" s="70" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="90">
+      <c r="A22" s="130"/>
+      <c r="B22" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="144.75" thickBot="1">
+      <c r="A23" s="159"/>
+      <c r="B23" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="126">
+      <c r="A24" s="158" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" s="67" t="s">
         <v>365</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="126">
-      <c r="A20" s="113"/>
-      <c r="B20" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="126">
-      <c r="A21" s="113"/>
-      <c r="B21" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="90">
-      <c r="A22" s="113"/>
-      <c r="B22" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="144.75" thickBot="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="71" t="s">
-        <v>368</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="126">
-      <c r="A24" s="133" t="s">
+      <c r="C24" s="68" t="s">
         <v>375</v>
       </c>
-      <c r="B24" s="79" t="s">
-        <v>366</v>
-      </c>
-      <c r="C24" s="80" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="126.75" thickBot="1">
+      <c r="A25" s="159"/>
+      <c r="B25" s="59" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="126.75" thickBot="1">
-      <c r="A25" s="132"/>
-      <c r="B25" s="71" t="s">
+      <c r="C25" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="C25" s="78" t="s">
-        <v>378</v>
-      </c>
     </row>
     <row r="26" spans="1:3" ht="72">
-      <c r="A26" s="133" t="s">
+      <c r="A26" s="158" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="C26" s="68" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="108">
+      <c r="A27" s="130"/>
+      <c r="B27" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C27" s="54" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="108">
-      <c r="A27" s="113"/>
-      <c r="B27" s="48" t="s">
+    <row r="28" spans="1:3" ht="90">
+      <c r="A28" s="130"/>
+      <c r="B28" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C28" s="54" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="90">
-      <c r="A28" s="113"/>
-      <c r="B28" s="48" t="s">
+    <row r="29" spans="1:3" ht="90">
+      <c r="A29" s="130"/>
+      <c r="B29" s="45" t="s">
         <v>385</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C29" s="54" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="90">
-      <c r="A29" s="113"/>
-      <c r="B29" s="48" t="s">
+    <row r="30" spans="1:3" ht="108.75" thickBot="1">
+      <c r="A30" s="159"/>
+      <c r="B30" s="59" t="s">
         <v>386</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C30" s="66" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="108.75" thickBot="1">
-      <c r="A30" s="132"/>
-      <c r="B30" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="C30" s="78" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="108">
-      <c r="A31" s="115" t="s">
-        <v>400</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>401</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="126.75" thickBot="1">
+    <row r="31" spans="1:3" ht="180">
+      <c r="A31" s="133" t="s">
+        <v>394</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="180.75" thickBot="1">
       <c r="A32" s="132"/>
-      <c r="B32" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>403</v>
-      </c>
+      <c r="B32" s="101" t="s">
+        <v>396</v>
+      </c>
+      <c r="C32" s="106" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="126">
+      <c r="A33" s="152" t="s">
+        <v>483</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>487</v>
+      </c>
+      <c r="C33" s="107" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="126">
+      <c r="A34" s="153"/>
+      <c r="B34" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="C34" s="108" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="108.75" thickBot="1">
+      <c r="A35" s="154"/>
+      <c r="B35" s="101" t="s">
+        <v>485</v>
+      </c>
+      <c r="C35" s="110" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="126">
+      <c r="A36" s="155" t="s">
+        <v>493</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="C36" s="107" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="180">
+      <c r="A37" s="156"/>
+      <c r="B37" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="C37" s="108" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="108">
+      <c r="A38" s="156"/>
+      <c r="B38" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="C38" s="108" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="162">
+      <c r="A39" s="156"/>
+      <c r="B39" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="C39" s="108" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="36.75" thickBot="1">
+      <c r="A40" s="157"/>
+      <c r="B40" s="101" t="s">
+        <v>498</v>
+      </c>
+      <c r="C40" s="114"/>
+    </row>
+    <row r="41" spans="1:3" ht="144">
+      <c r="A41" s="152" t="s">
+        <v>506</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" s="107" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="90">
+      <c r="A42" s="153"/>
+      <c r="B42" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="C42" s="108" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="108.75" thickBot="1">
+      <c r="A43" s="154"/>
+      <c r="B43" s="101" t="s">
+        <v>509</v>
+      </c>
+      <c r="C43" s="110" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="180">
+      <c r="A44" s="152" t="s">
+        <v>518</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>516</v>
+      </c>
+      <c r="C44" s="107" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="54.75" thickBot="1">
+      <c r="A45" s="154"/>
+      <c r="B45" s="101" t="s">
+        <v>515</v>
+      </c>
+      <c r="C45" s="110" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="54">
+      <c r="A46" s="149" t="s">
+        <v>520</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="C46" s="125"/>
+    </row>
+    <row r="47" spans="1:3" ht="144">
+      <c r="A47" s="150"/>
+      <c r="B47" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="C47" s="126"/>
+    </row>
+    <row r="48" spans="1:3" ht="36.75" thickBot="1">
+      <c r="A48" s="151"/>
+      <c r="B48" s="59" t="s">
+        <v>523</v>
+      </c>
+      <c r="C48" s="127"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A2:A6"/>
@@ -13537,6 +14142,11 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13547,369 +14157,369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458BD083-343D-440D-936A-58D1166E7EC1}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="36" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.125" style="137" customWidth="1"/>
-    <col min="3" max="3" width="106.875" style="138" customWidth="1"/>
+    <col min="2" max="2" width="35.125" style="83" customWidth="1"/>
+    <col min="3" max="3" width="106.875" style="84" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="108" customHeight="1">
-      <c r="A1" s="139" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
+      <c r="A1" s="165" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="140" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="3" spans="1:3" ht="108">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="163" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="C3" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="164.25" customHeight="1">
+      <c r="A4" s="164"/>
+      <c r="B4" s="83" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="126">
+      <c r="A5" s="164"/>
+      <c r="B5" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="162">
+      <c r="A6" s="164"/>
+      <c r="B6" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="162">
+      <c r="A7" s="164"/>
+      <c r="B7" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C7" s="83" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="162">
+      <c r="A8" s="164"/>
+      <c r="B8" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="162">
+      <c r="A9" s="164"/>
+      <c r="B9" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="180">
+      <c r="A10" s="164"/>
+      <c r="B10" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="90">
+      <c r="A11" s="164"/>
+      <c r="B11" s="83" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="180">
+      <c r="A12" s="164"/>
+      <c r="B12" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="126">
+      <c r="A13" s="164"/>
+      <c r="B13" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="144">
+      <c r="A14" s="164"/>
+      <c r="B14" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="144">
+      <c r="A15" s="164"/>
+      <c r="B15" s="83" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="126">
+      <c r="A16" s="164"/>
+      <c r="B16" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="54">
+      <c r="A17" s="164"/>
+      <c r="B17" s="83" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" s="83" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="164.25" customHeight="1">
-      <c r="A4" s="142"/>
-      <c r="B4" s="137" t="s">
-        <v>464</v>
-      </c>
-      <c r="C4" s="137" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="126">
-      <c r="A5" s="142"/>
-      <c r="B5" s="137" t="s">
-        <v>478</v>
-      </c>
-      <c r="C5" s="137" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="162">
-      <c r="A6" s="142"/>
-      <c r="B6" s="137" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="137" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="162">
-      <c r="A7" s="142"/>
-      <c r="B7" s="137" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="162">
-      <c r="A8" s="142"/>
-      <c r="B8" s="137" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="137" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="162">
-      <c r="A9" s="142"/>
-      <c r="B9" s="137" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="137" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="180">
-      <c r="A10" s="142"/>
-      <c r="B10" s="137" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" s="137" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="90">
-      <c r="A11" s="142"/>
-      <c r="B11" s="137" t="s">
-        <v>473</v>
-      </c>
-      <c r="C11" s="137" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="180">
-      <c r="A12" s="142"/>
-      <c r="B12" s="137" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="137" t="s">
+    <row r="18" spans="1:3" ht="126">
+      <c r="A18" s="164"/>
+      <c r="B18" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="126">
+      <c r="A19" s="164"/>
+      <c r="B19" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="144">
+      <c r="A20" s="164"/>
+      <c r="B20" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="83" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="126">
-      <c r="A13" s="142"/>
-      <c r="B13" s="137" t="s">
-        <v>475</v>
-      </c>
-      <c r="C13" s="137" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="144">
-      <c r="A14" s="142"/>
-      <c r="B14" s="137" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="137" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="144">
-      <c r="A15" s="142"/>
-      <c r="B15" s="137" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="137" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="126">
-      <c r="A16" s="142"/>
-      <c r="B16" s="137" t="s">
-        <v>273</v>
-      </c>
-      <c r="C16" s="137" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="54">
-      <c r="A17" s="142"/>
-      <c r="B17" s="137" t="s">
-        <v>413</v>
-      </c>
-      <c r="C17" s="137" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="126">
-      <c r="A18" s="142"/>
-      <c r="B18" s="137" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="137" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="126">
-      <c r="A19" s="142"/>
-      <c r="B19" s="137" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="137" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="144">
-      <c r="A20" s="142"/>
-      <c r="B20" s="137" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="164"/>
+      <c r="B21" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="C20" s="137" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="142"/>
-      <c r="B21" s="137" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="164"/>
+    </row>
+    <row r="23" spans="1:3" ht="36">
+      <c r="A23" s="164"/>
+      <c r="B23" s="83" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="142"/>
-    </row>
-    <row r="23" spans="1:3" ht="36">
-      <c r="A23" s="142"/>
-      <c r="B23" s="137" t="s">
+    <row r="24" spans="1:3" ht="36">
+      <c r="A24" s="164"/>
+      <c r="B24" s="83" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="36">
-      <c r="A24" s="142"/>
-      <c r="B24" s="137" t="s">
+    <row r="25" spans="1:3" ht="36">
+      <c r="A25" s="164"/>
+      <c r="B25" s="83" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="36">
-      <c r="A25" s="142"/>
-      <c r="B25" s="137" t="s">
+    <row r="26" spans="1:3" ht="72">
+      <c r="A26" s="164"/>
+      <c r="B26" s="83" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72">
-      <c r="A26" s="142"/>
-      <c r="B26" s="137" t="s">
+    <row r="27" spans="1:3" ht="36">
+      <c r="A27" s="164"/>
+      <c r="B27" s="73" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="36">
-      <c r="A27" s="142"/>
-      <c r="B27" s="85" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="164"/>
+      <c r="B28" s="83" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="142"/>
-      <c r="B28" s="137" t="s">
+    <row r="29" spans="1:3" ht="54">
+      <c r="A29" s="164"/>
+      <c r="B29" s="73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="54">
+      <c r="A30" s="164"/>
+      <c r="B30" s="73" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="54">
-      <c r="A29" s="142"/>
-      <c r="B29" s="85" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="54">
-      <c r="A30" s="142"/>
-      <c r="B30" s="85" t="s">
+    <row r="31" spans="1:3" ht="54">
+      <c r="A31" s="164"/>
+      <c r="B31" s="73" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="54">
-      <c r="A31" s="142"/>
-      <c r="B31" s="85" t="s">
+    <row r="32" spans="1:3" ht="54">
+      <c r="A32" s="164"/>
+      <c r="B32" s="73" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="54">
-      <c r="A32" s="142"/>
-      <c r="B32" s="85" t="s">
+    <row r="33" spans="1:2" ht="54">
+      <c r="A33" s="164"/>
+      <c r="B33" s="73" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="54">
-      <c r="A33" s="142"/>
-      <c r="B33" s="85" t="s">
+    <row r="34" spans="1:2" ht="54">
+      <c r="A34" s="164"/>
+      <c r="B34" s="73" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="54">
-      <c r="A34" s="142"/>
-      <c r="B34" s="85" t="s">
+    <row r="35" spans="1:2" ht="36">
+      <c r="A35" s="164"/>
+      <c r="B35" s="73" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="36">
-      <c r="A35" s="142"/>
-      <c r="B35" s="85" t="s">
+    <row r="36" spans="1:2" ht="54">
+      <c r="A36" s="164"/>
+      <c r="B36" s="73" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="54">
-      <c r="A36" s="142"/>
-      <c r="B36" s="85" t="s">
+    <row r="37" spans="1:2" ht="54">
+      <c r="A37" s="164"/>
+      <c r="B37" s="73" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="54">
-      <c r="A37" s="142"/>
-      <c r="B37" s="85" t="s">
+    <row r="38" spans="1:2" ht="36">
+      <c r="A38" s="164"/>
+      <c r="B38" s="73" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="36">
-      <c r="A38" s="142"/>
-      <c r="B38" s="85" t="s">
+    <row r="39" spans="1:2" ht="72">
+      <c r="A39" s="164"/>
+      <c r="B39" s="73" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="72">
-      <c r="A39" s="142"/>
-      <c r="B39" s="85" t="s">
+    <row r="40" spans="1:2" ht="72">
+      <c r="A40" s="164"/>
+      <c r="B40" s="73" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="72">
-      <c r="A40" s="142"/>
-      <c r="B40" s="85" t="s">
+    <row r="41" spans="1:2" ht="72">
+      <c r="A41" s="164"/>
+      <c r="B41" s="73" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="72">
-      <c r="A41" s="142"/>
-      <c r="B41" s="85" t="s">
+    <row r="42" spans="1:2" ht="54">
+      <c r="A42" s="164"/>
+      <c r="B42" s="73" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="54">
-      <c r="A42" s="142"/>
-      <c r="B42" s="85" t="s">
+    <row r="43" spans="1:2" ht="54">
+      <c r="A43" s="164"/>
+      <c r="B43" s="73" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="54">
-      <c r="A43" s="142"/>
-      <c r="B43" s="85" t="s">
+    <row r="44" spans="1:2" ht="54">
+      <c r="A44" s="164"/>
+      <c r="B44" s="73" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="54">
-      <c r="A44" s="142"/>
-      <c r="B44" s="85" t="s">
+    <row r="45" spans="1:2" ht="54">
+      <c r="A45" s="164"/>
+      <c r="B45" s="73" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="54">
-      <c r="A45" s="142"/>
-      <c r="B45" s="85" t="s">
+    <row r="46" spans="1:2" ht="54">
+      <c r="A46" s="164"/>
+      <c r="B46" s="73" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="54">
-      <c r="A46" s="142"/>
-      <c r="B46" s="85" t="s">
-        <v>300</v>
-      </c>
-    </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="142"/>
+      <c r="A47" s="164"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="142"/>
+      <c r="A48" s="164"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="142"/>
+      <c r="A49" s="164"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="142"/>
+      <c r="A50" s="164"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="142"/>
+      <c r="A51" s="164"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="142"/>
+      <c r="A52" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/就活.xlsx
+++ b/就活.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C2C014-DCCA-4731-9FC5-36A9CEFBF833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3BBD89-0C5C-42A6-960C-C4D8043731A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
   </bookViews>
   <sheets>
     <sheet name="日程" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="531">
   <si>
     <t>SIer</t>
     <phoneticPr fontId="1"/>
@@ -3683,19 +3683,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부터</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>趣味は音楽鑑賞です。特に日本の歌を聴き、元気な歌詞に元気をもらっています。
 特技は文章を書くことです。中学生の頃から記者の仕事をしたことがあるくらい、自分の考えを文章で表現することが好きです。</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -4840,10 +4827,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>onecareer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学生時代に力を入れたこと</t>
     <rPh sb="0" eb="4">
       <t>ガクセイジダイ</t>
@@ -4884,10 +4867,6 @@
   </si>
   <si>
     <t>まで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>から</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5880,172 +5859,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">大学の専攻
-空軍の情報職
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>スポーツのスタッフ職
-協調性・恐れずに挑戦する精神</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>クウグン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ジョウホウショク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ショク</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>キョウチョウセイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>チョウセン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セイシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">積極的に行動して貢献できる協調性
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>スポーツの大会運営・放送演出
-自分の専攻知識と特技を活かして組織全体に貢献する
-開発チームと連携・マーケティング部署のレポート作成の支援
-タイへの出張、視野を広げる
-御社でも、自分の強みを発揮しながら～貢献できる人材になりたい</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウケン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>キョウチョウセイ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>タイカイウンエイ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>ホウソウエンシュツ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>センコウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>チシキ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>トクギ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="48" eb="52">
-      <t>ソシキゼンタイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>コウケン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>シュッチョウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>シヤ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>オンシャ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ハッキ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>コウケン</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ジンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未経験の分野、前任者もいない状況
 今しかできないと考え、楽しみながらチャレンジ
 他のゲームの事例を参考、自社のゲームに応用しながら試行錯誤を重ねた
@@ -6145,153 +5958,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">自分の役割だけでなくチームメンバーを配慮して積極的に手伝おうとする姿勢が大切だ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>スポーツの仕事で、初期メンバーとして経験が多かった
-後で合流したメンバーに自分の経験を通じてアドバイスをあげた
-信頼関係が強くなって楽しく働くことができた
-大学の卒業作品の発表会で、発表時間が短ったので特別なトレーラーを作りました。
-ゲームのキャスターとして活躍している同僚にそれを依頼したとき、快く引き受けてくれて、大きな感謝の気持ちと、これまで取り組んできたことへのやりがいを感じました</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヤクワリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハイリョ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>テツダ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シセイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>タイセツ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ゴウリュウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ツウ</t>
-    </rPh>
-    <rPh sb="97" eb="101">
-      <t>シンライカンケイ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ハタラ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="122" eb="126">
-      <t>ソツギョウサクヒン</t>
-    </rPh>
-    <rPh sb="127" eb="130">
-      <t>ハッピョウカイ</t>
-    </rPh>
-    <rPh sb="132" eb="136">
-      <t>ハッピョウジカン</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>ミジカ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>カツヤク</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>ドウリョウ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="189" eb="190">
-      <t>ココロヨ</t>
-    </rPh>
-    <rPh sb="191" eb="192">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="193" eb="194">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="200" eb="201">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>カンシャ</t>
-    </rPh>
-    <rPh sb="206" eb="208">
-      <t>キモ</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="217" eb="218">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="231" eb="232">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リーダーとしてチームを統率した経験がまだ少ない
 リーダーとは、全体の流れを把握し、果敢な決断を下す役割
 何事にも慎重に考えて決定するタイプなので、サポート役割が自分にもっと似合うと思いました。
@@ -6382,457 +6048,6 @@
     </rPh>
     <rPh sb="162" eb="163">
       <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>人生を楽しむ人
-「やってみないと分からない」口癖のように言っていたからかも
-中学生の時は、書き物がすきで、ブログに投稿、優秀ブログに選ばれ、記者として活動する機会をいただいた
-大学では、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>スポーツや日本語など、学業以外の活動にも凝り組んできた
-しかし、今しかできないと考えて取り組んだ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>スポーツの仕事のために、2年間大学を休学し、周囲に心配をかけたことがあるので、これからは着実に未来を設計できる環境で、新しい挑戦を続けていきたいと</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ジンセイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>クチグセ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>チュウガクセイ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ユウシュウ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>キシャ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="99" eb="102">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="105" eb="109">
-      <t>ガクギョウイガイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ネンカン</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>キュウガク</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>シュウイ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>シンパイ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>チャクジツ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>ミライ</t>
-    </rPh>
-    <rPh sb="193" eb="195">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="205" eb="207">
-      <t>チョウセン</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">日本独自の文化やチームワークを重視する社会に大きな魅力を感じた
-疲れた時、希望をうたう日本のバンド音楽を聴きながら力をもらっています
-ただ翻訳された歌詞ではなく、原文そのままのメッセージを知りたい
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>スポーツの国際交流大会で、日本人と一緒に働いた
-お互いに尊重しながら明るい雰囲気で仕事する様子に感銘を
-この経験をきっかけに、日本という新しい環境で広い視野を身につけたい
-私にとって原動力になった日本語をさらに磨きながら、専攻知識を活用して幅広い分野で経験を積みたい</t>
-    </r>
-    <rPh sb="0" eb="4">
-      <t>ニホンドクジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ブンカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジュウシ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シャカイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ミリョク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>キボウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>オンガク</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ゲンブン</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="105" eb="111">
-      <t>コクサイコウリュウタイカイ</t>
-    </rPh>
-    <rPh sb="113" eb="116">
-      <t>ニホンジン</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>ハタラ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>タガ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ソンチョウ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="137" eb="140">
-      <t>フンイキ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ヨウス</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>カンメイ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="174" eb="175">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>シヤ</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="191" eb="194">
-      <t>ゲンドウリョク</t>
-    </rPh>
-    <rPh sb="198" eb="201">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>ミガ</t>
-    </rPh>
-    <rPh sb="211" eb="215">
-      <t>センコウチシキ</t>
-    </rPh>
-    <rPh sb="216" eb="218">
-      <t>カツヨウ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>ハバヒロ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>ブンヤ</t>
-    </rPh>
-    <rPh sb="226" eb="228">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="229" eb="230">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">卒業プロジェクトコンテストで、3人チームでゲームを開発した
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>スポーツへ携わった経験を活かしたいと思って、コンテンツ企画を担当
-上流工程からテストまで、プロジェクト全体の流れを理解できるきっかけ
-特に開発段階でアジャイル手法を適用
-実際にプレイできるほど完成度がたかい、最優秀賞を受賞
-それぞれの強みを発揮しながら協力したら大きな成果を生み出せるというのを実感</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ソツギョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>タズサ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="64" eb="68">
-      <t>ジョウリュウコウテイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>リカイ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="100" eb="104">
-      <t>カイハツダンカイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="127" eb="130">
-      <t>カンセイド</t>
-    </rPh>
-    <rPh sb="135" eb="139">
-      <t>サイユウシュウショウ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ジュショウ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>ハッキ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>キョウリョク</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>セイカ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>ジッカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7078,51 +6293,842 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">独立系Sierとして柔軟性がある、提案力をいかして最適なソリューションを提供している
+    <t>東京海上日動システムズ</t>
+    <rPh sb="0" eb="6">
+      <t>トウキョウカイジョウニチドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己紹介</t>
+    <rPh sb="0" eb="4">
+      <t>ジコショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己PR（自分の強み）</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の弱み</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本で働きたい理由</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志望動機</t>
+    <rPh sb="0" eb="4">
+      <t>シボウドウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITに興味を持った理由</t>
+    <rPh sb="3" eb="5">
+      <t>キョウミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学・学部を選んだ理由</t>
+    <rPh sb="0" eb="2">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクブ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学で勉強したこと</t>
+    <rPh sb="0" eb="2">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学のプロジェクトの経験</t>
+    <rPh sb="0" eb="2">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語の勉強を始めた理由</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームで働いたこと</t>
+    <rPh sb="4" eb="5">
+      <t>ハタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームでの難しさ</t>
+    <rPh sb="5" eb="6">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム内での自分の役割</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番大変だったこと</t>
+    <rPh sb="0" eb="4">
+      <t>イチバンタイヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイトの経験</t>
+    <rPh sb="6" eb="8">
+      <t>ケイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サークル活動や課外活動</t>
+    <rPh sb="4" eb="6">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社後取り組みたいこと</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシャゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学時代で勉強意外に頑張ったこと</t>
+    <rPh sb="0" eb="4">
+      <t>ダイガクジダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆質問</t>
+    <rPh sb="0" eb="3">
+      <t>ギャクシツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学の専攻
+空軍の情報職
+eスポーツのスタッフ職
+協調性・恐れずに挑戦する精神</t>
+    <rPh sb="0" eb="2">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クウグン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ジョウホウショク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>キョウチョウセイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積極的に行動して貢献できる協調性
+eスポーツの大会運営・放送演出
+自分の専攻知識と特技を活かして組織全体に貢献する
+開発チームと連携・マーケティング部署のレポート作成の支援
+タイへの出張、視野を広げる
+御社でも、自分の強みを発揮しながら～貢献できる人材になりたい</t>
+    <rPh sb="0" eb="3">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウケン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>キョウチョウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>タイカイウンエイ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ホウソウエンシュツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トクギ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>ソシキゼンタイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウケン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>シュッチョウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>シヤ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>オンシャ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ハッキ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>コウケン</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の役割だけでなくチームメンバーを配慮して積極的に手伝おうとする姿勢が大切だ
+eスポーツの仕事で、初期メンバーとして経験が多かった
+後で合流したメンバーに自分の経験を通じてアドバイスをあげた
+信頼関係が強くなって楽しく働くことができた
+大学の卒業作品の発表会で、発表時間が短ったので特別なトレーラーを作りました。
+ゲームのキャスターとして活躍している同僚にそれを依頼したとき、快く引き受けてくれて、大きな感謝の気持ちと、これまで取り組んできたことへのやりがいを感じました</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハイリョ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テツダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タイセツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ゴウリュウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="97" eb="101">
+      <t>シンライカンケイ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="122" eb="126">
+      <t>ソツギョウサクヒン</t>
+    </rPh>
+    <rPh sb="127" eb="130">
+      <t>ハッピョウカイ</t>
+    </rPh>
+    <rPh sb="132" eb="136">
+      <t>ハッピョウジカン</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>カツヤク</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ドウリョウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>ココロヨ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>カンシャ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>キモ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人生を楽しむ人
+「やってみないと分からない」口癖のように言っていたからかも
+中学生の時は、書き物がすきで、ブログに投稿、優秀ブログに選ばれ、記者として活動する機会をいただいた
+大学では、eスポーツや日本語など、学業以外の活動にも凝り組んできた
+しかし、今しかできないと考えて取り組んだeスポーツの仕事のために、2年間大学を休学し、周囲に心配をかけたことがあるので、これからは着実に未来を設計できる環境で、新しい挑戦を続けていきたいと</t>
+    <rPh sb="0" eb="2">
+      <t>ジンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>クチグセ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>チュウガクセイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ユウシュウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>キシャ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="105" eb="109">
+      <t>ガクギョウイガイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>キュウガク</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>シンパイ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>チャクジツ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本独自の文化やチームワークを重視する社会に大きな魅力を感じた
+疲れた時、希望をうたう日本のバンド音楽を聴きながら力をもらっています
+ただ翻訳された歌詞ではなく、原文そのままのメッセージを知りたい
+eスポーツの国際交流大会で、日本人と一緒に働いた
+お互いに尊重しながら明るい雰囲気で仕事する様子に感銘を
+この経験をきっかけに、日本という新しい環境で広い視野を身につけたい
+私にとって原動力になった日本語をさらに磨きながら、専攻知識を活用して幅広い分野で経験を積みたい</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンドクジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュウシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ゲンブン</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="105" eb="111">
+      <t>コクサイコウリュウタイカイ</t>
+    </rPh>
+    <rPh sb="113" eb="116">
+      <t>ニホンジン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ソンチョウ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="137" eb="140">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>カンメイ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>シヤ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="191" eb="194">
+      <t>ゲンドウリョク</t>
+    </rPh>
+    <rPh sb="198" eb="201">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>ミガ</t>
+    </rPh>
+    <rPh sb="211" eb="215">
+      <t>センコウチシキ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>ハバヒロ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卒業プロジェクトコンテストで、3人チームでゲームを開発した
+eスポーツへ携わった経験を活かしたいと思って、コンテンツ企画を担当
+上流工程からテストまで、プロジェクト全体の流れを理解できるきっかけ
+特に開発段階でアジャイル手法を適用
+実際にプレイできるほど完成度がたかい、最優秀賞を受賞
+それぞれの強みを発揮しながら協力したら大きな成果を生み出せるというのを実感</t>
+    <rPh sb="0" eb="2">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タズサ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="64" eb="68">
+      <t>ジョウリュウコウテイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="100" eb="104">
+      <t>カイハツダンカイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="127" eb="130">
+      <t>カンセイド</t>
+    </rPh>
+    <rPh sb="135" eb="139">
+      <t>サイユウシュウショウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ジュショウ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ハッキ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ジッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独立系Sierとして柔軟性がある、提案力をいかして最適なソリューションを提供している
 特定のドメインに限定されていなく、幅広い技術に挑戦しながら専門性を身に付けられる
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>moreNOTE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">などの自社サービスも展開しているので、御社ならではの実感しやすい社会貢献ができる
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>AIS-CRM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>のような新領域への取り組み、新たな価値を創出できる
+moreNOTEなどの自社サービスも展開しているので、御社ならではの実感しやすい社会貢献ができる
+AIS-CRMのような新領域への取り組み、新たな価値を創出できる
 こうした環境で、様々な分野に挑戦しながら幅広い社会貢献ができる人材になりたいと思い、御社を志望しています</t>
-    </r>
     <rPh sb="0" eb="3">
       <t>ドクリツケイ</t>
     </rPh>
@@ -7174,31 +7180,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">SEとして業務系ソリューションに携わりたい
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>スポーツの仕事で視聴者からのフィードバックを反映した経験から、顧客のニーズを満たすことの難しさを実感しました
+    <t>SEとして業務系ソリューションに携わりたい
+eスポーツの仕事で視聴者からのフィードバックを反映した経験から、顧客のニーズを満たすことの難しさを実感しました
 御社ならではの、「お客様にとってのベストは何か」を徹底的に追求する環境のもとで、多くのことを学びたい
 人々の生活に欠かせない分野への社会貢献をしながら責任を持って働きたい</t>
-    </r>
     <rPh sb="5" eb="8">
       <t>ギョウムケイ</t>
     </rPh>
@@ -7270,6 +7255,548 @@
     </rPh>
     <rPh sb="159" eb="160">
       <t>ハタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仁荷大学ソフトウェア融合学部のキム・ジュホと申します。
+大学では、コンピューター工学を専攻し、主にC++やC#言語を扱って様々なチームプロジェクトを経験しました。
+また、韓国の空軍では、情報職として勤務しながらIT関連の実務について学びました。
+課外活動では、2021年から現在まで、フリーランスとしてeスポーツのスタッフ職を担当しています。
+本日は短い時間ですが、私のチームに貢献できる協調性と恐れずに挑戦する精神というのをお伝えできればいいなと考えています。
+本日はよろしくお願いいたします。</t>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ユウゴウガクブ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウガク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>カンコク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>クウグン</t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t>ジョウホウショク</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジツム</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="123" eb="127">
+      <t>カガイカツドウ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>コウケン</t>
+    </rPh>
+    <rPh sb="194" eb="197">
+      <t>キョウチョウセイ</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>セイシン</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．大学
+２．軍隊
+３．eスポーツ
+４．協調性と挑戦する精神</t>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>グンタイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>キョウチョウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．日本語を始めた理由
+２．国際交流大会で日本人と一緒に働いた経験</t>
+    <rPh sb="2" eb="5">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="14" eb="20">
+      <t>コクサイコウリュウタイカイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ニホンジン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>１．リーダーとしてチームを統率した経験が少ないこと
+２．</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>eスポーツ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の業務でリーダーとして必要なことを気づいた
+３．これからの覚悟</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>トウソツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．協調性
+２．eスポーツ
+３．開発チームやマーケティング部署と連携した経験
+４．タイへの出張の機会</t>
+    <rPh sb="2" eb="5">
+      <t>キョウチョウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シュッチョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>１．</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>AlphaGo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+２．囲碁教室</t>
+    </r>
+    <rPh sb="12" eb="16">
+      <t>イゴキョウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卒業チームプロジェクト</t>
+    <rPh sb="0" eb="2">
+      <t>ソツギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピューター工学</t>
+    <rPh sb="7" eb="9">
+      <t>コウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は大学で培った知識と経験を活かし、IT技術を通じて社会に貢献できるSIer企業を志望しております。
+中でも、大規模プロジェクトに携わる機会の多いユーザー系SIerで、チームワークや協力の大切さを深く学びたいと考えています。
+貴社は、損害保険業界トップである東京海上日動グループという強固な基盤のもと、大きな社会的インパクトを生み出せる環境が整っていると感じました。
+特に人々の生活と密接にかかわる保険・金融分野で、年金商品を案内するアプリの開発など、日常生活の利便性を高めるDXを推進している点に大変魅力を感じています。
+また、チームプロジェクトや空軍情報兵としての経験を通じて、上流工程から運用・保守までの一連のプロセスがどれほど重要かを実感いたしました。
+そこで、親会社のサービスを企画段階から運用まで一貫して担う貴社で、プロジェクト全体を見渡すエンジニア兼PMとして成長したいと考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JBS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己紹介</t>
+    <rPh sb="0" eb="4">
+      <t>ジコショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己PR</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の弱み</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>困難だったこと</t>
+    <rPh sb="0" eb="2">
+      <t>コンナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本で働きたい理由</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT業界の志望理由</t>
+    <rPh sb="2" eb="4">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シボウリユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JBSの志望動機</t>
+    <rPh sb="4" eb="8">
+      <t>シボウドウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周りからどんな人だと言われますか？</t>
+    <rPh sb="0" eb="1">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社後取り組みたいこと</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウシャゴト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆質問</t>
+    <rPh sb="0" eb="3">
+      <t>ギャクシツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仁荷大学、ソフトウェア工学部のキム・ジュホと申します。
+大学では、コンピューター工学を専攻し、主にC++やC#言語を扱って多様なチームプロジェクトを経験しました。
+また、韓国の空軍では、情報職として勤務しながら、IT関連の実務について学びました。
+学業以外は、2021年から現在まで、フリーランスとしてeスポーツのスタッフ職を担当しています。
+本日は短い時間ですが、私のチームに貢献できる協調性と恐れずに挑戦する精神というのをお伝えできればいいなと考えています。
+本日はよろしくお願いします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の強みは、チームの一員として積極的に行動して貢献できる協調性です。
+2021年から現在まで、eスポーツのスタッフ職として、大会の運営や放送の演出を担当しています。
+私は、与えられた業務をこなすだけでなく、自分の知識を活かして組織全体の発展に貢献したいと考えました。
+そこで、社内の開発チームとゲームシステムの改善点について連携したり、マーケティング部署の選手分析レポート作成を支援したりするなど、積極的に行動してきました。
+こうした姿勢が評価され、フリーランスでありながらも会社の一員としてタイへの出張の機会をいただき、世界への視野を広げるきっかけにもなりました。
+この経験を活かし、御社でも自分の強みを発揮しながら、チームの共通の目標達成に貢献できる人材になりたいと考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は、周りから「人生を楽しむ人」とよく言われます。
+子供の頃から、「やってみないとわからない！」を口癖のように言っていたからかもしれません。
+例えば、中学生の頃は文章を書くことが好きで、自分のブログにコツコツと投稿を続けた結果、ポータルサイトで優秀ブログに選ばれ、記者として活動する機会をいただきました。
+大学では、eスポーツや日本語など、学業以外の活動にも積極的に取り組んできました。しかし、「今しかできない」と考えて取り組んだeスポーツの仕事のために、2年間大学を休学し、周囲に心配をかけたこともありました。
+その経験から、これからは着実に未来を設計できる環境で、新しい挑戦を続けていきたいと考えています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私はeスポーツ関連の業務は未経験で、しかも前任者もいない状況だったので、困難なことがありました。
+ですが、こうした新しい仕事だからこそ「今しかできない」と思い、楽しみながらチャレンジしました。
+はじめは、他のゲームの事例を参考にしながら、自社のゲームにどう応用できるか試行錯誤を重ねました。
+その後は、視聴者からいただいたフィードバックをもとに、放送チームとも密にコミュニケーションを取りながら改善を続けました。
+そうして独自の演出手法を確立した結果、視聴者から好評をいただき、当初より視聴者数が最大4倍以上に増えたんです。
+チームのみんなと一緒に苦労して成果を出せたことが、とても大きなやりがいになりました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>協調性を発揮するため一番大切なこと</t>
+  </si>
+  <si>
+    <t>私は、チームワークにおいて最も大切なのは、自分が担当する役割に全力を尽くすだけでなく、さらに他のメンバーにも積極的に手を差し伸べることだと考えています。
+eスポーツの放送チームで働いていたときも、私は初期メンバーの一員だったことから、さまざまな方と協力する機会が多くありました。その際には、ほかに手伝えることがないか積極的に声をかけ、自分の知識を基にアドバイスをするなど、できる限りのサポートを行ってきました。
+そのおかげもあって、大学の卒業プロジェクトの発表会の際、大会の実況を担当していた仲間に作品のトレーラーのナレーションを依頼したところ、快く引き受けてくれました。そのときは大きな感謝の気持ちと同時に、これまで取り組んできたことへのやりがいを強く感じました。
+御社でも、常に自分の役割を果たすだけでなく、より広い視野で貢献する姿勢を大切にして働きたいと考えています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の弱みは、人の意見を尊重しすぎて、自分の考えを口にするのをためらってしまうところです。
+対立する意見を言うことで、チームメンバーの活躍の機会を奪ってしまうのではないかと感じていたからです。
+しかし、eスポーツの仕事に携わって今年で4年目になり、放送チームで最も経験が長い存在として大会進行のリーダーを任された際、選手のルール違反などの問題が起きたときには、私が主導して解決しなければならない場面がありました。
+そのような役割は慣れていませんでしたが、自分の経験と考えを信じて迅速に判断を下すことがチーム全体のためになるのだと気づきました。
+これからはチームメンバーの意見を尊重しつつ、多くのことを学び、その経験を基に果敢に決断できる人材として成長していきたいと考えています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私が日本での就職を決めた理由は、日本独自の文化やチームワークを重んじる社会に大きな魅力を感じたからです。
+私は疲れたとき、希望あふれる歌詞が印象的な日本のバンド音楽を聴いて力をもらっています。
+そこで、ただ翻訳された歌詞ではなく原文そのままのメッセージを知りたいと思い、日本語の勉強を始めました。
+昨年、eスポーツの業務で国際交流大会に参加し、日本の方々と一緒に働く機会がありましたが、互いを尊重しながら明るい雰囲気で仕事をする様子やチームワークの高さに深い感銘を受けました。
+この経験をきっかけに、日本という新しい環境でより広い視野を身に付け、多くのことを学びたいと強く思うようになりました。
+そこで、私にとって大きな原動力となった日本語をさらに磨きつつ、専攻知識を活かして幅広い分野で経験を積みたいと考え、最終的に日本での就職を決めました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は大学で身につけた専攻知識を活かし、技術の最前線で社会の発展に貢献したいと考え、IT業界を志望しています。
+私がITに強い興味を持つようになった最も大きなきっかけは、2016年のAlphaGoとイ・セドルさんの対局です。
+子どもの頃から父の影響で囲碁教室に長く通っていたため、囲碁というものがどれほど難しいかはよく理解していました。
+だからこそ、AlphaGoのAIが見せたパフォーマンスには、本当に大きな衝撃を受けたんです。
+そこで大学では情報工学系の学部を選び、兵役でもあえて情報関連の職を志願して、ITに関する幅広い知識を身につけるように努めてきました。
+こうした経緯から、今まで学んできたことを活かして、社会を前に進めるような仕事に携わりたいと考え、IT業界を志望しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．今まで携わった業務の中で一番やりがいを感じたことについて教えていただきたいです。
+２．大変なことがあったらどんな方法で克服できるかについて教えていただきたいです。
+３．御社で活躍している先輩社員の方々の共通点について教えていただきたいです。
+４．OOさんが御社への入社を決めた理由について教えていただきたいです。</t>
+    <rPh sb="2" eb="3">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タズサ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コクフク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>オンシャ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カツヤク</t>
+    </rPh>
+    <rPh sb="95" eb="99">
+      <t>センパイシャイン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カタガタ</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>キョウツウテン</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>オンシャ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>オシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7387,7 +7914,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7430,8 +7957,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -7922,6 +8461,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7931,7 +8498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8073,15 +8640,6 @@
     <xf numFmtId="14" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8130,9 +8688,6 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8166,9 +8721,6 @@
     <xf numFmtId="56" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8184,9 +8736,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8247,18 +8796,123 @@
     <xf numFmtId="22" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8349,17 +9003,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8698,8 +9349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC70DC4-F0DC-4C6F-8135-CC403CCD1BBE}">
   <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView topLeftCell="F48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8716,22 +9367,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="117" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="118"/>
+      <c r="A1" s="146" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="147"/>
       <c r="M1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8765,19 +9416,19 @@
       <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="114"/>
+      <c r="L2" s="143"/>
       <c r="M2" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A3" s="112">
+      <c r="A3" s="141">
         <v>1</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="139" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -8799,12 +9450,12 @@
         <v>81</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -8819,10 +9470,10 @@
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A5" s="112">
+      <c r="A5" s="141">
         <v>2</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="139" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -8845,8 +9496,8 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="112"/>
-      <c r="B6" s="110"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
@@ -8858,10 +9509,10 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A7" s="112">
+      <c r="A7" s="141">
         <v>3</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="139" t="s">
         <v>153</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -8884,8 +9535,8 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="112"/>
-      <c r="B8" s="110"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
@@ -8900,22 +9551,22 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A9" s="112">
+      <c r="A9" s="141">
         <v>4</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="58">
         <v>45670.666666666664</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="72">
         <v>45711</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="65">
         <v>45708</v>
       </c>
       <c r="G9" s="9"/>
@@ -8932,17 +9583,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="112"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="58" t="s">
+      <c r="A10" s="141"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="60">
         <v>45674.458333333336</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="58" t="s">
-        <v>370</v>
+      <c r="E10" s="60"/>
+      <c r="F10" s="55" t="s">
+        <v>367</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="16"/>
@@ -8952,15 +9603,15 @@
         <v>8</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A11" s="112">
+      <c r="A11" s="141">
         <v>5</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="139" t="s">
         <v>155</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -8983,12 +9634,12 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="112"/>
-      <c r="B12" s="110"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="12"/>
@@ -8999,10 +9650,10 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="112">
+      <c r="A13" s="141">
         <v>6</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="139" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -9015,7 +9666,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="9"/>
       <c r="J13" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>9</v>
@@ -9025,8 +9676,8 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="112"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="141"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="16" t="s">
         <v>3</v>
       </c>
@@ -9041,16 +9692,16 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A15" s="112">
+      <c r="A15" s="141">
         <v>7</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="58">
         <v>45667.541666666664</v>
       </c>
       <c r="E15" s="15"/>
@@ -9071,12 +9722,12 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="112"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="58" t="s">
+      <c r="A16" s="141"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="62"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="29"/>
       <c r="F16" s="16"/>
       <c r="G16" s="12"/>
@@ -9087,10 +9738,10 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A17" s="112">
+      <c r="A17" s="141">
         <v>8</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="139" t="s">
         <v>158</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -9111,8 +9762,8 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="112"/>
-      <c r="B18" s="110"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="16" t="s">
         <v>50</v>
       </c>
@@ -9127,10 +9778,10 @@
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="112">
+      <c r="A19" s="141">
         <v>9</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="139" t="s">
         <v>159</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -9143,7 +9794,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="9"/>
       <c r="J19" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>12</v>
@@ -9153,8 +9804,8 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="112"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="16" t="s">
         <v>3</v>
       </c>
@@ -9169,10 +9820,10 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="112">
+      <c r="A21" s="141">
         <v>10</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="139" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -9193,8 +9844,8 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="112"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="16" t="s">
         <v>3</v>
       </c>
@@ -9206,18 +9857,18 @@
       <c r="I22" s="12"/>
       <c r="J22" s="16"/>
       <c r="K22" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="112">
+      <c r="A23" s="141">
         <v>11</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="139" t="s">
         <v>161</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -9238,8 +9889,8 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="112"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="141"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="16" t="s">
         <v>3</v>
       </c>
@@ -9256,22 +9907,22 @@
       <c r="L24" s="19"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="112">
+      <c r="A25" s="141">
         <v>12</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="138" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="58">
         <v>45667.541666666664</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="54">
         <v>45696.556250000001</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="54">
         <v>45699.999305555553</v>
       </c>
       <c r="G25" s="9"/>
@@ -9288,51 +9939,51 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="112"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="58" t="s">
+      <c r="A26" s="141"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="60">
         <v>45681.604166666664</v>
       </c>
-      <c r="E26" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>277</v>
+      <c r="E26" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>276</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="16"/>
       <c r="I26" s="12"/>
       <c r="J26" s="16"/>
       <c r="K26" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="L26" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="L26" s="19" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="27" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A27" s="112">
+      <c r="A27" s="141">
         <v>13</v>
       </c>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="58">
         <v>45685.635416666664</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="65">
         <v>45693</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="54">
         <v>45689.5</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="66">
         <v>45702.548611111109</v>
       </c>
       <c r="H27" s="15"/>
@@ -9348,20 +9999,20 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="112"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="58" t="s">
+      <c r="A28" s="141"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="58" t="s">
-        <v>328</v>
-      </c>
-      <c r="F28" s="93" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" s="87" t="s">
         <v>132</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="12"/>
@@ -9370,14 +10021,14 @@
         <v>8</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A29" s="112">
+      <c r="A29" s="141">
         <v>14</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="139" t="s">
         <v>164</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -9390,7 +10041,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="9"/>
       <c r="J29" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>18</v>
@@ -9400,8 +10051,8 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="112"/>
-      <c r="B30" s="110"/>
+      <c r="A30" s="141"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="16" t="s">
         <v>0</v>
       </c>
@@ -9413,17 +10064,17 @@
       <c r="I30" s="12"/>
       <c r="J30" s="16"/>
       <c r="K30" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A31" s="112">
+      <c r="A31" s="141">
         <v>15</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="139" t="s">
         <v>165</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -9436,7 +10087,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="9"/>
       <c r="J31" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>19</v>
@@ -9446,42 +10097,40 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="112"/>
-      <c r="B32" s="110"/>
+      <c r="A32" s="141"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
       <c r="G32" s="12"/>
       <c r="H32" s="16"/>
       <c r="I32" s="12"/>
       <c r="J32" s="16"/>
       <c r="K32" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="112">
+      <c r="A33" s="141">
         <v>16</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="139" t="s">
         <v>166</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="77">
         <v>45667</v>
       </c>
-      <c r="E33" s="46">
-        <v>45717</v>
-      </c>
-      <c r="F33" s="15"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="9"/>
       <c r="H33" s="15"/>
       <c r="I33" s="9"/>
@@ -9496,16 +10145,14 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="112"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="F34" s="16"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
       <c r="G34" s="12"/>
       <c r="H34" s="16"/>
       <c r="I34" s="12"/>
@@ -9514,20 +10161,20 @@
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A35" s="112">
+      <c r="A35" s="141">
         <v>17</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="139" t="s">
         <v>167</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="77">
         <v>45667</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="9"/>
       <c r="H35" s="15"/>
       <c r="I35" s="9"/>
@@ -9542,14 +10189,14 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="112"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="139"/>
       <c r="C36" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="12"/>
       <c r="H36" s="16"/>
       <c r="I36" s="12"/>
@@ -9558,27 +10205,23 @@
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A37" s="112">
+      <c r="A37" s="141">
         <v>18</v>
       </c>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="139" t="s">
         <v>168</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="20"/>
-      <c r="E37" s="46">
-        <v>45725</v>
-      </c>
-      <c r="F37" s="46">
-        <v>45725</v>
-      </c>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
       <c r="G37" s="9"/>
       <c r="H37" s="15"/>
       <c r="I37" s="9"/>
       <c r="J37" s="36" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>22</v>
@@ -9588,28 +10231,28 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="112"/>
-      <c r="B38" s="110"/>
+      <c r="A38" s="141"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="21"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
       <c r="G38" s="12"/>
       <c r="H38" s="16"/>
       <c r="I38" s="12"/>
       <c r="J38" s="16"/>
       <c r="K38" s="18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A39" s="112">
+      <c r="A39" s="141">
         <v>19</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="139" t="s">
         <v>169</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -9618,8 +10261,8 @@
       <c r="D39" s="24">
         <v>45691.416666666664</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="9"/>
       <c r="H39" s="15"/>
       <c r="I39" s="9"/>
@@ -9634,28 +10277,28 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="112"/>
-      <c r="B40" s="110"/>
+      <c r="A40" s="141"/>
+      <c r="B40" s="139"/>
       <c r="C40" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
       <c r="G40" s="12"/>
       <c r="H40" s="16"/>
       <c r="I40" s="12"/>
       <c r="J40" s="16"/>
       <c r="K40" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A41" s="112">
+      <c r="A41" s="141">
         <v>20</v>
       </c>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="139" t="s">
         <v>170</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -9678,8 +10321,8 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="112"/>
-      <c r="B42" s="110"/>
+      <c r="A42" s="141"/>
+      <c r="B42" s="139"/>
       <c r="C42" s="16" t="s">
         <v>0</v>
       </c>
@@ -9694,16 +10337,16 @@
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A43" s="112">
+      <c r="A43" s="141">
         <v>21</v>
       </c>
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="138" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="74"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="H43" s="17"/>
@@ -9718,12 +10361,12 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="112"/>
-      <c r="B44" s="109"/>
-      <c r="C44" s="71" t="s">
+      <c r="A44" s="141"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="77"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="30"/>
       <c r="F44" s="17"/>
       <c r="H44" s="17"/>
@@ -9731,10 +10374,10 @@
       <c r="L44" s="14"/>
     </row>
     <row r="45" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A45" s="112">
+      <c r="A45" s="141">
         <v>22</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="139" t="s">
         <v>172</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -9757,8 +10400,8 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="112"/>
-      <c r="B46" s="110"/>
+      <c r="A46" s="141"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="16" t="s">
         <v>0</v>
       </c>
@@ -9773,10 +10416,10 @@
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A47" s="112">
+      <c r="A47" s="141">
         <v>23</v>
       </c>
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="139" t="s">
         <v>173</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -9798,8 +10441,8 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="112"/>
-      <c r="B48" s="110"/>
+      <c r="A48" s="141"/>
+      <c r="B48" s="139"/>
       <c r="C48" s="17" t="s">
         <v>0</v>
       </c>
@@ -9813,10 +10456,10 @@
       <c r="L48" s="14"/>
     </row>
     <row r="49" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A49" s="112">
+      <c r="A49" s="141">
         <v>24</v>
       </c>
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="139" t="s">
         <v>174</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -9839,8 +10482,8 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="112"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="141"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="16" t="s">
         <v>0</v>
       </c>
@@ -9852,25 +10495,25 @@
       <c r="I50" s="12"/>
       <c r="J50" s="16"/>
       <c r="K50" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L50" s="13"/>
     </row>
     <row r="51" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A51" s="112">
+      <c r="A51" s="141">
         <v>25</v>
       </c>
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="138" t="s">
         <v>175</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="84">
+      <c r="D51" s="70"/>
+      <c r="E51" s="69">
         <v>45712</v>
       </c>
-      <c r="F51" s="84">
+      <c r="F51" s="69">
         <v>45712</v>
       </c>
       <c r="H51" s="17"/>
@@ -9885,28 +10528,28 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="112"/>
-      <c r="B52" s="110"/>
-      <c r="C52" s="17" t="s">
+      <c r="A52" s="141"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
       <c r="H52" s="17"/>
       <c r="J52" s="17"/>
       <c r="K52" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L52" s="26" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A53" s="112">
+      <c r="A53" s="141">
         <v>26</v>
       </c>
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="139" t="s">
         <v>176</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -9927,8 +10570,8 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="112"/>
-      <c r="B54" s="110"/>
+      <c r="A54" s="141"/>
+      <c r="B54" s="139"/>
       <c r="C54" s="16" t="s">
         <v>0</v>
       </c>
@@ -9943,16 +10586,16 @@
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="112">
+      <c r="A55" s="141">
         <v>27</v>
       </c>
-      <c r="B55" s="112" t="s">
+      <c r="B55" s="141" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="67">
+      <c r="D55" s="63">
         <v>45719</v>
       </c>
       <c r="E55" s="17"/>
@@ -9969,12 +10612,12 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="112"/>
-      <c r="B56" s="112"/>
+      <c r="A56" s="141"/>
+      <c r="B56" s="141"/>
       <c r="C56" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="64"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="H56" s="17"/>
@@ -9982,31 +10625,31 @@
       <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A57" s="112">
+      <c r="A57" s="141">
         <v>28</v>
       </c>
-      <c r="B57" s="110" t="s">
+      <c r="B57" s="139" t="s">
         <v>177</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="111">
         <v>45681.416666666664</v>
       </c>
       <c r="E57" s="35">
         <v>45690.5</v>
       </c>
-      <c r="F57" s="94">
+      <c r="F57" s="88">
         <v>45697</v>
       </c>
-      <c r="G57" s="107">
+      <c r="G57" s="99">
         <v>45715</v>
       </c>
-      <c r="H57" s="115" t="s">
-        <v>431</v>
-      </c>
-      <c r="I57" s="105">
+      <c r="H57" s="144" t="s">
+        <v>428</v>
+      </c>
+      <c r="I57" s="62">
         <v>45726</v>
       </c>
       <c r="J57" s="36" t="s">
@@ -10020,36 +10663,36 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="112"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="141"/>
+      <c r="B58" s="139"/>
       <c r="C58" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="95" t="s">
-        <v>358</v>
-      </c>
-      <c r="G58" s="108" t="s">
-        <v>362</v>
-      </c>
-      <c r="H58" s="116"/>
-      <c r="I58" s="106">
+      <c r="D58" s="112"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="89" t="s">
+        <v>356</v>
+      </c>
+      <c r="G58" s="100" t="s">
+        <v>359</v>
+      </c>
+      <c r="H58" s="145"/>
+      <c r="I58" s="103">
         <v>0.625</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A59" s="112">
+      <c r="A59" s="141">
         <v>29</v>
       </c>
-      <c r="B59" s="110" t="s">
+      <c r="B59" s="139" t="s">
         <v>178</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -10071,8 +10714,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="112"/>
-      <c r="B60" s="110"/>
+      <c r="A60" s="141"/>
+      <c r="B60" s="139"/>
       <c r="C60" s="17" t="s">
         <v>117</v>
       </c>
@@ -10087,22 +10730,22 @@
       <c r="L60" s="14"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="112">
+      <c r="A61" s="141">
         <v>30</v>
       </c>
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="78">
+      <c r="D61" s="65">
         <v>45712</v>
       </c>
-      <c r="E61" s="78">
+      <c r="E61" s="65">
         <v>45721</v>
       </c>
-      <c r="F61" s="46"/>
+      <c r="F61" s="101"/>
       <c r="G61" s="9"/>
       <c r="H61" s="15"/>
       <c r="I61" s="9"/>
@@ -10117,41 +10760,41 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="112"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="16" t="s">
+      <c r="A62" s="141"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="45"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="104"/>
       <c r="G62" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="12"/>
       <c r="J62" s="16"/>
       <c r="K62" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A63" s="112">
+      <c r="A63" s="141">
         <v>31</v>
       </c>
-      <c r="B63" s="109" t="s">
+      <c r="B63" s="138" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="72">
+      <c r="D63" s="68">
         <v>45694.583333333336</v>
       </c>
-      <c r="E63" s="73">
+      <c r="E63" s="69">
         <v>45706</v>
       </c>
       <c r="F63" s="17"/>
@@ -10167,13 +10810,13 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="112"/>
-      <c r="B64" s="109"/>
-      <c r="C64" s="71" t="s">
+      <c r="A64" s="141"/>
+      <c r="B64" s="138"/>
+      <c r="C64" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="74"/>
-      <c r="E64" s="71" t="s">
+      <c r="D64" s="70"/>
+      <c r="E64" s="67" t="s">
         <v>243</v>
       </c>
       <c r="F64" s="17"/>
@@ -10182,10 +10825,10 @@
       <c r="L64" s="14"/>
     </row>
     <row r="65" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A65" s="112">
+      <c r="A65" s="141">
         <v>32</v>
       </c>
-      <c r="B65" s="110" t="s">
+      <c r="B65" s="139" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -10206,8 +10849,8 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="112"/>
-      <c r="B66" s="110"/>
+      <c r="A66" s="141"/>
+      <c r="B66" s="139"/>
       <c r="C66" s="16" t="s">
         <v>0</v>
       </c>
@@ -10222,10 +10865,10 @@
       <c r="L66" s="13"/>
     </row>
     <row r="67" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A67" s="112">
+      <c r="A67" s="141">
         <v>33</v>
       </c>
-      <c r="B67" s="110" t="s">
+      <c r="B67" s="139" t="s">
         <v>180</v>
       </c>
       <c r="C67" s="17" t="s">
@@ -10235,7 +10878,7 @@
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="H67" s="17"/>
-      <c r="J67" s="96" t="s">
+      <c r="J67" s="90" t="s">
         <v>95</v>
       </c>
       <c r="K67" s="7" t="s">
@@ -10246,8 +10889,8 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="112"/>
-      <c r="B68" s="110"/>
+      <c r="A68" s="141"/>
+      <c r="B68" s="139"/>
       <c r="C68" s="17" t="s">
         <v>0</v>
       </c>
@@ -10259,10 +10902,10 @@
       <c r="L68" s="14"/>
     </row>
     <row r="69" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A69" s="112">
+      <c r="A69" s="141">
         <v>34</v>
       </c>
-      <c r="B69" s="110" t="s">
+      <c r="B69" s="139" t="s">
         <v>181</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -10283,8 +10926,8 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="112"/>
-      <c r="B70" s="110"/>
+      <c r="A70" s="141"/>
+      <c r="B70" s="139"/>
       <c r="C70" s="16" t="s">
         <v>0</v>
       </c>
@@ -10299,10 +10942,10 @@
       <c r="L70" s="13"/>
     </row>
     <row r="71" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A71" s="112">
+      <c r="A71" s="141">
         <v>35</v>
       </c>
-      <c r="B71" s="110" t="s">
+      <c r="B71" s="139" t="s">
         <v>182</v>
       </c>
       <c r="C71" s="17" t="s">
@@ -10323,8 +10966,8 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="112"/>
-      <c r="B72" s="110"/>
+      <c r="A72" s="141"/>
+      <c r="B72" s="139"/>
       <c r="C72" s="17" t="s">
         <v>0</v>
       </c>
@@ -10334,17 +10977,17 @@
       <c r="H72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A73" s="112">
+      <c r="A73" s="141">
         <v>36</v>
       </c>
-      <c r="B73" s="110" t="s">
+      <c r="B73" s="139" t="s">
         <v>183</v>
       </c>
       <c r="C73" s="15" t="s">
@@ -10365,8 +11008,8 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="112"/>
-      <c r="B74" s="110"/>
+      <c r="A74" s="141"/>
+      <c r="B74" s="139"/>
       <c r="C74" s="16" t="s">
         <v>184</v>
       </c>
@@ -10381,19 +11024,17 @@
       <c r="L74" s="13"/>
     </row>
     <row r="75" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A75" s="112">
+      <c r="A75" s="141">
         <v>37</v>
       </c>
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="139" t="s">
         <v>185</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="47">
-        <v>45722</v>
-      </c>
+      <c r="E75" s="105"/>
       <c r="F75" s="17"/>
       <c r="H75" s="17"/>
       <c r="J75" s="40" t="s">
@@ -10407,38 +11048,36 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="112"/>
-      <c r="B76" s="110"/>
+      <c r="A76" s="141"/>
+      <c r="B76" s="139"/>
       <c r="C76" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="48" t="s">
-        <v>359</v>
-      </c>
+      <c r="E76" s="106"/>
       <c r="F76" s="17"/>
       <c r="H76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L76" s="14"/>
     </row>
     <row r="77" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A77" s="112">
+      <c r="A77" s="141">
         <v>38</v>
       </c>
-      <c r="B77" s="110" t="s">
+      <c r="B77" s="139" t="s">
         <v>186</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D77" s="20"/>
-      <c r="E77" s="86">
+      <c r="E77" s="80">
         <v>45713.5</v>
       </c>
-      <c r="F77" s="86">
+      <c r="F77" s="80">
         <v>45715.5</v>
       </c>
       <c r="G77" s="9"/>
@@ -10455,36 +11094,36 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="112"/>
-      <c r="B78" s="110"/>
+      <c r="A78" s="141"/>
+      <c r="B78" s="139"/>
       <c r="C78" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D78" s="21"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
       <c r="G78" s="12"/>
       <c r="H78" s="16"/>
       <c r="I78" s="12"/>
       <c r="J78" s="16"/>
       <c r="K78" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A79" s="112">
+      <c r="A79" s="141">
         <v>39</v>
       </c>
-      <c r="B79" s="109" t="s">
+      <c r="B79" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="C79" s="71" t="s">
+      <c r="C79" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="74"/>
+      <c r="D79" s="70"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="H79" s="17"/>
@@ -10497,12 +11136,12 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="112"/>
-      <c r="B80" s="109"/>
-      <c r="C80" s="71" t="s">
+      <c r="A80" s="141"/>
+      <c r="B80" s="138"/>
+      <c r="C80" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D80" s="74"/>
+      <c r="D80" s="70"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="H80" s="17"/>
@@ -10510,10 +11149,10 @@
       <c r="L80" s="14"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="112">
+      <c r="A81" s="141">
         <v>40</v>
       </c>
-      <c r="B81" s="112" t="s">
+      <c r="B81" s="141" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -10534,8 +11173,8 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="112"/>
-      <c r="B82" s="112"/>
+      <c r="A82" s="141"/>
+      <c r="B82" s="141"/>
       <c r="C82" s="16" t="s">
         <v>184</v>
       </c>
@@ -10550,10 +11189,10 @@
       <c r="L82" s="13"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A83" s="112">
+      <c r="A83" s="141">
         <v>41</v>
       </c>
-      <c r="B83" s="110" t="s">
+      <c r="B83" s="139" t="s">
         <v>188</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -10572,8 +11211,8 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="112"/>
-      <c r="B84" s="110"/>
+      <c r="A84" s="141"/>
+      <c r="B84" s="139"/>
       <c r="C84" s="17" t="s">
         <v>0</v>
       </c>
@@ -10585,10 +11224,10 @@
       <c r="L84" s="14"/>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A85" s="112">
+      <c r="A85" s="141">
         <v>42</v>
       </c>
-      <c r="B85" s="110" t="s">
+      <c r="B85" s="139" t="s">
         <v>189</v>
       </c>
       <c r="C85" s="15" t="s">
@@ -10609,8 +11248,8 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="112"/>
-      <c r="B86" s="110"/>
+      <c r="A86" s="141"/>
+      <c r="B86" s="139"/>
       <c r="C86" s="16" t="s">
         <v>190</v>
       </c>
@@ -10625,27 +11264,30 @@
       <c r="L86" s="13"/>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A87" s="112">
+      <c r="A87" s="141">
         <v>43</v>
       </c>
-      <c r="B87" s="110" t="s">
-        <v>348</v>
+      <c r="B87" s="139" t="s">
+        <v>347</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="67">
+      <c r="D87" s="107">
         <v>45704</v>
       </c>
-      <c r="E87" s="84">
+      <c r="E87" s="108">
         <v>45721</v>
       </c>
-      <c r="F87" s="84">
+      <c r="F87" s="108">
         <v>45721</v>
+      </c>
+      <c r="G87" s="113">
+        <v>45734</v>
       </c>
       <c r="H87" s="17"/>
       <c r="J87" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>58</v>
@@ -10655,40 +11297,43 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="112"/>
-      <c r="B88" s="110"/>
+      <c r="A88" s="141"/>
+      <c r="B88" s="139"/>
       <c r="C88" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D88" s="64" t="s">
-        <v>349</v>
-      </c>
-      <c r="E88" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="F88" s="49" t="s">
-        <v>388</v>
+      <c r="D88" s="109" t="s">
+        <v>348</v>
+      </c>
+      <c r="E88" s="110" t="s">
+        <v>385</v>
+      </c>
+      <c r="F88" s="110" t="s">
+        <v>385</v>
+      </c>
+      <c r="G88" s="114">
+        <v>0.54861111111111116</v>
       </c>
       <c r="H88" s="17"/>
       <c r="J88" s="17"/>
       <c r="K88" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L88" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A89" s="112">
+      <c r="A89" s="141">
         <v>44</v>
       </c>
-      <c r="B89" s="109" t="s">
+      <c r="B89" s="138" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="61"/>
+      <c r="D89" s="58"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="9"/>
@@ -10705,12 +11350,12 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="112"/>
-      <c r="B90" s="109"/>
-      <c r="C90" s="58" t="s">
+      <c r="A90" s="141"/>
+      <c r="B90" s="138"/>
+      <c r="C90" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D90" s="62"/>
+      <c r="D90" s="59"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="12"/>
@@ -10721,10 +11366,10 @@
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A91" s="112">
+      <c r="A91" s="141">
         <v>45</v>
       </c>
-      <c r="B91" s="110" t="s">
+      <c r="B91" s="139" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="17" t="s">
@@ -10743,8 +11388,8 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="112"/>
-      <c r="B92" s="110"/>
+      <c r="A92" s="141"/>
+      <c r="B92" s="139"/>
       <c r="C92" s="17" t="s">
         <v>73</v>
       </c>
@@ -10756,10 +11401,10 @@
       <c r="L92" s="14"/>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A93" s="112">
+      <c r="A93" s="141">
         <v>46</v>
       </c>
-      <c r="B93" s="110" t="s">
+      <c r="B93" s="139" t="s">
         <v>193</v>
       </c>
       <c r="C93" s="15" t="s">
@@ -10780,8 +11425,8 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="112"/>
-      <c r="B94" s="110"/>
+      <c r="A94" s="141"/>
+      <c r="B94" s="139"/>
       <c r="C94" s="16" t="s">
         <v>74</v>
       </c>
@@ -10796,10 +11441,10 @@
       <c r="L94" s="13"/>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A95" s="112">
+      <c r="A95" s="141">
         <v>47</v>
       </c>
-      <c r="B95" s="110" t="s">
+      <c r="B95" s="139" t="s">
         <v>194</v>
       </c>
       <c r="C95" s="17" t="s">
@@ -10818,8 +11463,8 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="112"/>
-      <c r="B96" s="110"/>
+      <c r="A96" s="141"/>
+      <c r="B96" s="139"/>
       <c r="C96" s="17" t="s">
         <v>0</v>
       </c>
@@ -10831,10 +11476,10 @@
       <c r="L96" s="14"/>
     </row>
     <row r="97" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A97" s="112">
+      <c r="A97" s="141">
         <v>48</v>
       </c>
-      <c r="B97" s="110" t="s">
+      <c r="B97" s="139" t="s">
         <v>195</v>
       </c>
       <c r="C97" s="15" t="s">
@@ -10847,7 +11492,7 @@
       <c r="H97" s="15"/>
       <c r="I97" s="9"/>
       <c r="J97" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K97" s="10" t="s">
         <v>63</v>
@@ -10857,8 +11502,8 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="112"/>
-      <c r="B98" s="110"/>
+      <c r="A98" s="141"/>
+      <c r="B98" s="139"/>
       <c r="C98" s="16" t="s">
         <v>0</v>
       </c>
@@ -10873,22 +11518,22 @@
       <c r="L98" s="13"/>
     </row>
     <row r="99" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A99" s="112">
+      <c r="A99" s="141">
         <v>49</v>
       </c>
-      <c r="B99" s="109" t="s">
+      <c r="B99" s="138" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="71" t="s">
+      <c r="C99" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D99" s="72">
+      <c r="D99" s="68">
         <v>45694.416666666664</v>
       </c>
-      <c r="E99" s="90">
+      <c r="E99" s="84">
         <v>45695.666666666664</v>
       </c>
-      <c r="F99" s="73">
+      <c r="F99" s="69">
         <v>45719</v>
       </c>
       <c r="H99" s="17"/>
@@ -10903,47 +11548,47 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="112"/>
-      <c r="B100" s="109"/>
-      <c r="C100" s="71" t="s">
+      <c r="A100" s="141"/>
+      <c r="B100" s="138"/>
+      <c r="C100" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D100" s="74"/>
-      <c r="E100" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="F100" s="71" t="s">
-        <v>360</v>
+      <c r="D100" s="70"/>
+      <c r="E100" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="F100" s="67" t="s">
+        <v>358</v>
       </c>
       <c r="H100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L100" s="14"/>
     </row>
     <row r="101" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A101" s="112">
+      <c r="A101" s="141">
         <v>50</v>
       </c>
-      <c r="B101" s="109" t="s">
+      <c r="B101" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="C101" s="60" t="s">
+      <c r="C101" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D101" s="76">
+      <c r="D101" s="72">
         <v>45697</v>
       </c>
-      <c r="E101" s="60"/>
-      <c r="F101" s="69">
+      <c r="E101" s="57"/>
+      <c r="F101" s="65">
         <v>45704</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="15"/>
       <c r="I101" s="9"/>
       <c r="J101" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>65</v>
@@ -10953,16 +11598,16 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="112"/>
-      <c r="B102" s="109"/>
-      <c r="C102" s="58" t="s">
+      <c r="A102" s="141"/>
+      <c r="B102" s="138"/>
+      <c r="C102" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D102" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58" t="s">
+      <c r="D102" s="59" t="s">
+        <v>349</v>
+      </c>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55" t="s">
         <v>127</v>
       </c>
       <c r="G102" s="12"/>
@@ -10970,15 +11615,15 @@
       <c r="I102" s="12"/>
       <c r="J102" s="16"/>
       <c r="K102" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L102" s="13"/>
     </row>
     <row r="103" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A103" s="112">
+      <c r="A103" s="141">
         <v>51</v>
       </c>
-      <c r="B103" s="110" t="s">
+      <c r="B103" s="139" t="s">
         <v>198</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -10997,8 +11642,8 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="112"/>
-      <c r="B104" s="110"/>
+      <c r="A104" s="141"/>
+      <c r="B104" s="139"/>
       <c r="C104" s="17" t="s">
         <v>0</v>
       </c>
@@ -11010,10 +11655,10 @@
       <c r="L104" s="14"/>
     </row>
     <row r="105" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A105" s="112">
+      <c r="A105" s="141">
         <v>52</v>
       </c>
-      <c r="B105" s="110" t="s">
+      <c r="B105" s="139" t="s">
         <v>199</v>
       </c>
       <c r="C105" s="15" t="s">
@@ -11026,7 +11671,7 @@
       <c r="H105" s="15"/>
       <c r="I105" s="9"/>
       <c r="J105" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K105" s="10" t="s">
         <v>67</v>
@@ -11036,8 +11681,8 @@
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="112"/>
-      <c r="B106" s="110"/>
+      <c r="A106" s="141"/>
+      <c r="B106" s="139"/>
       <c r="C106" s="16" t="s">
         <v>0</v>
       </c>
@@ -11052,10 +11697,10 @@
       <c r="L106" s="13"/>
     </row>
     <row r="107" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A107" s="112">
+      <c r="A107" s="141">
         <v>53</v>
       </c>
-      <c r="B107" s="110" t="s">
+      <c r="B107" s="139" t="s">
         <v>200</v>
       </c>
       <c r="C107" s="17" t="s">
@@ -11074,8 +11719,8 @@
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="112"/>
-      <c r="B108" s="110"/>
+      <c r="A108" s="141"/>
+      <c r="B108" s="139"/>
       <c r="C108" s="17" t="s">
         <v>0</v>
       </c>
@@ -11087,17 +11732,17 @@
       <c r="L108" s="14"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="112">
+      <c r="A109" s="141">
         <v>54</v>
       </c>
-      <c r="B109" s="111" t="s">
+      <c r="B109" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="C109" s="60" t="s">
+      <c r="C109" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D109" s="68"/>
-      <c r="E109" s="57">
+      <c r="D109" s="64"/>
+      <c r="E109" s="54">
         <v>45688.625</v>
       </c>
       <c r="F109" s="15"/>
@@ -11113,13 +11758,13 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="112"/>
-      <c r="B110" s="111"/>
-      <c r="C110" s="58" t="s">
+      <c r="A110" s="141"/>
+      <c r="B110" s="140"/>
+      <c r="C110" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D110" s="62"/>
-      <c r="E110" s="58"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="55"/>
       <c r="F110" s="16"/>
       <c r="G110" s="12"/>
       <c r="H110" s="16"/>
@@ -11131,10 +11776,10 @@
       <c r="L110" s="13"/>
     </row>
     <row r="111" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A111" s="112">
+      <c r="A111" s="141">
         <v>55</v>
       </c>
-      <c r="B111" s="110" t="s">
+      <c r="B111" s="139" t="s">
         <v>201</v>
       </c>
       <c r="C111" s="17" t="s">
@@ -11153,8 +11798,8 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="112"/>
-      <c r="B112" s="110"/>
+      <c r="A112" s="141"/>
+      <c r="B112" s="139"/>
       <c r="C112" s="17" t="s">
         <v>0</v>
       </c>
@@ -11166,20 +11811,20 @@
       <c r="L112" s="14"/>
     </row>
     <row r="113" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A113" s="112">
+      <c r="A113" s="141">
         <v>56</v>
       </c>
-      <c r="B113" s="109" t="s">
+      <c r="B113" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C113" s="60" t="s">
+      <c r="C113" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D113" s="61">
+      <c r="D113" s="58">
         <v>45680.583333333336</v>
       </c>
-      <c r="E113" s="60"/>
-      <c r="F113" s="60" t="s">
+      <c r="E113" s="57"/>
+      <c r="F113" s="57" t="s">
         <v>132</v>
       </c>
       <c r="G113" s="9"/>
@@ -11196,14 +11841,14 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="112"/>
-      <c r="B114" s="109"/>
-      <c r="C114" s="58" t="s">
+      <c r="A114" s="141"/>
+      <c r="B114" s="138"/>
+      <c r="C114" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D114" s="62"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="93">
+      <c r="D114" s="59"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="87">
         <v>45689.416666666664</v>
       </c>
       <c r="G114" s="12"/>
@@ -11214,22 +11859,22 @@
       <c r="L114" s="13"/>
     </row>
     <row r="115" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A115" s="112">
+      <c r="A115" s="141">
         <v>57</v>
       </c>
-      <c r="B115" s="109" t="s">
+      <c r="B115" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C115" s="71" t="s">
+      <c r="C115" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="89">
+      <c r="D115" s="83">
         <v>45707</v>
       </c>
-      <c r="E115" s="90">
+      <c r="E115" s="84">
         <v>45702.416666666664</v>
       </c>
-      <c r="F115" s="73">
+      <c r="F115" s="69">
         <v>45716</v>
       </c>
       <c r="H115" s="17"/>
@@ -11244,44 +11889,44 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="112"/>
-      <c r="B116" s="109"/>
-      <c r="C116" s="71" t="s">
+      <c r="A116" s="141"/>
+      <c r="B116" s="138"/>
+      <c r="C116" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D116" s="74"/>
-      <c r="E116" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="F116" s="71" t="s">
-        <v>367</v>
+      <c r="D116" s="70"/>
+      <c r="E116" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="F116" s="67" t="s">
+        <v>364</v>
       </c>
       <c r="H116" s="17"/>
       <c r="J116" s="17"/>
       <c r="K116" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L116" s="26" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A117" s="112">
+      <c r="A117" s="141">
         <v>58</v>
       </c>
-      <c r="B117" s="111" t="s">
+      <c r="B117" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="C117" s="60" t="s">
+      <c r="C117" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D117" s="61">
+      <c r="D117" s="58">
         <v>45702.625</v>
       </c>
-      <c r="E117" s="69">
+      <c r="E117" s="65">
         <v>45712</v>
       </c>
-      <c r="F117" s="69">
+      <c r="F117" s="65">
         <v>45720</v>
       </c>
       <c r="G117" s="9"/>
@@ -11298,32 +11943,32 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="112"/>
-      <c r="B118" s="111"/>
-      <c r="C118" s="58" t="s">
+      <c r="A118" s="141"/>
+      <c r="B118" s="140"/>
+      <c r="C118" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D118" s="62"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58" t="s">
-        <v>398</v>
+      <c r="D118" s="59"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55" t="s">
+        <v>395</v>
       </c>
       <c r="G118" s="12"/>
       <c r="H118" s="16"/>
       <c r="I118" s="12"/>
       <c r="J118" s="16"/>
       <c r="K118" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L118" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A119" s="112">
+      <c r="A119" s="141">
         <v>59</v>
       </c>
-      <c r="B119" s="110" t="s">
+      <c r="B119" s="139" t="s">
         <v>204</v>
       </c>
       <c r="C119" s="17" t="s">
@@ -11342,8 +11987,8 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="112"/>
-      <c r="B120" s="110"/>
+      <c r="A120" s="141"/>
+      <c r="B120" s="139"/>
       <c r="C120" s="17" t="s">
         <v>0</v>
       </c>
@@ -11355,10 +12000,10 @@
       <c r="L120" s="14"/>
     </row>
     <row r="121" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A121" s="112">
+      <c r="A121" s="141">
         <v>60</v>
       </c>
-      <c r="B121" s="110" t="s">
+      <c r="B121" s="139" t="s">
         <v>205</v>
       </c>
       <c r="C121" s="15" t="s">
@@ -11379,8 +12024,8 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="112"/>
-      <c r="B122" s="110"/>
+      <c r="A122" s="141"/>
+      <c r="B122" s="139"/>
       <c r="C122" s="16" t="s">
         <v>0</v>
       </c>
@@ -11397,25 +12042,25 @@
       <c r="L122" s="13"/>
     </row>
     <row r="123" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A123" s="112">
+      <c r="A123" s="141">
         <v>61</v>
       </c>
-      <c r="B123" s="109" t="s">
+      <c r="B123" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="C123" s="71" t="s">
+      <c r="C123" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D123" s="72">
+      <c r="D123" s="68">
         <v>45701.729166666664</v>
       </c>
-      <c r="E123" s="71"/>
-      <c r="F123" s="73">
+      <c r="E123" s="67"/>
+      <c r="F123" s="69">
         <v>45716</v>
       </c>
       <c r="H123" s="17"/>
       <c r="J123" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>104</v>
@@ -11425,15 +12070,15 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="112"/>
-      <c r="B124" s="109"/>
-      <c r="C124" s="71" t="s">
+      <c r="A124" s="141"/>
+      <c r="B124" s="138"/>
+      <c r="C124" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D124" s="74"/>
-      <c r="E124" s="71"/>
-      <c r="F124" s="71" t="s">
-        <v>359</v>
+      <c r="D124" s="70"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67" t="s">
+        <v>357</v>
       </c>
       <c r="H124" s="17"/>
       <c r="J124" s="17"/>
@@ -11441,27 +12086,27 @@
       <c r="L124" s="26"/>
     </row>
     <row r="125" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A125" s="112">
+      <c r="A125" s="141">
         <v>62</v>
       </c>
-      <c r="B125" s="109" t="s">
+      <c r="B125" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="C125" s="60" t="s">
+      <c r="C125" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D125" s="61">
+      <c r="D125" s="58">
         <v>45698.5625</v>
       </c>
-      <c r="E125" s="60"/>
-      <c r="F125" s="69">
+      <c r="E125" s="57"/>
+      <c r="F125" s="65">
         <v>45705</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="15"/>
       <c r="I125" s="9"/>
       <c r="J125" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K125" s="10" t="s">
         <v>105</v>
@@ -11471,15 +12116,15 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="112"/>
-      <c r="B126" s="109"/>
-      <c r="C126" s="58" t="s">
+      <c r="A126" s="141"/>
+      <c r="B126" s="138"/>
+      <c r="C126" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D126" s="62"/>
-      <c r="E126" s="58"/>
-      <c r="F126" s="58" t="s">
-        <v>360</v>
+      <c r="D126" s="59"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="55" t="s">
+        <v>358</v>
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="16"/>
@@ -11491,20 +12136,18 @@
       <c r="L126" s="19"/>
     </row>
     <row r="127" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A127" s="112">
+      <c r="A127" s="141">
         <v>63</v>
       </c>
-      <c r="B127" s="110" t="s">
+      <c r="B127" s="139" t="s">
         <v>208</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D127" s="15"/>
-      <c r="E127" s="47">
-        <v>45705</v>
-      </c>
-      <c r="F127" s="17"/>
+      <c r="E127" s="105"/>
+      <c r="F127" s="106"/>
       <c r="H127" s="17"/>
       <c r="J127" s="40" t="s">
         <v>108</v>
@@ -11517,30 +12160,28 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="112"/>
-      <c r="B128" s="110"/>
+      <c r="A128" s="141"/>
+      <c r="B128" s="139"/>
       <c r="C128" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D128" s="16"/>
-      <c r="E128" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="F128" s="17"/>
+      <c r="E128" s="106"/>
+      <c r="F128" s="106"/>
       <c r="H128" s="17"/>
       <c r="J128" s="17"/>
       <c r="K128" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L128" s="26" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A129" s="112">
+      <c r="A129" s="141">
         <v>64</v>
       </c>
-      <c r="B129" s="110" t="s">
+      <c r="B129" s="139" t="s">
         <v>209</v>
       </c>
       <c r="C129" s="15" t="s">
@@ -11549,8 +12190,8 @@
       <c r="D129" s="27">
         <v>45691.75</v>
       </c>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
+      <c r="E129" s="129"/>
+      <c r="F129" s="129"/>
       <c r="G129" s="9"/>
       <c r="H129" s="15"/>
       <c r="I129" s="9"/>
@@ -11565,14 +12206,14 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="112"/>
-      <c r="B130" s="110"/>
+      <c r="A130" s="141"/>
+      <c r="B130" s="139"/>
       <c r="C130" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D130" s="51"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="104"/>
+      <c r="F130" s="104"/>
       <c r="G130" s="12"/>
       <c r="H130" s="16"/>
       <c r="I130" s="12"/>
@@ -11581,21 +12222,21 @@
       <c r="L130" s="13"/>
     </row>
     <row r="131" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A131" s="112">
+      <c r="A131" s="141">
         <v>65</v>
       </c>
-      <c r="B131" s="110" t="s">
+      <c r="B131" s="139" t="s">
         <v>210</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D131" s="22"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
+      <c r="E131" s="106"/>
+      <c r="F131" s="106"/>
       <c r="H131" s="17"/>
       <c r="J131" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K131" s="7" t="s">
         <v>112</v>
@@ -11605,23 +12246,23 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="112"/>
-      <c r="B132" s="110"/>
+      <c r="A132" s="141"/>
+      <c r="B132" s="139"/>
       <c r="C132" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D132" s="22"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
+      <c r="E132" s="106"/>
+      <c r="F132" s="106"/>
       <c r="H132" s="17"/>
       <c r="J132" s="17"/>
       <c r="L132" s="14"/>
     </row>
     <row r="133" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A133" s="112">
+      <c r="A133" s="141">
         <v>66</v>
       </c>
-      <c r="B133" s="110" t="s">
+      <c r="B133" s="139" t="s">
         <v>211</v>
       </c>
       <c r="C133" s="15" t="s">
@@ -11644,8 +12285,8 @@
       </c>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="112"/>
-      <c r="B134" s="110"/>
+      <c r="A134" s="141"/>
+      <c r="B134" s="139"/>
       <c r="C134" s="16" t="s">
         <v>0</v>
       </c>
@@ -11657,15 +12298,15 @@
       <c r="I134" s="12"/>
       <c r="J134" s="16"/>
       <c r="K134" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L134" s="13"/>
     </row>
     <row r="135" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A135" s="112">
+      <c r="A135" s="141">
         <v>67</v>
       </c>
-      <c r="B135" s="110" t="s">
+      <c r="B135" s="139" t="s">
         <v>212</v>
       </c>
       <c r="C135" s="17" t="s">
@@ -11686,8 +12327,8 @@
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="112"/>
-      <c r="B136" s="110"/>
+      <c r="A136" s="141"/>
+      <c r="B136" s="139"/>
       <c r="C136" s="17" t="s">
         <v>0</v>
       </c>
@@ -11699,10 +12340,10 @@
       <c r="L136" s="14"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="112">
+      <c r="A137" s="141">
         <v>68</v>
       </c>
-      <c r="B137" s="112" t="s">
+      <c r="B137" s="141" t="s">
         <v>115</v>
       </c>
       <c r="C137" s="15" t="s">
@@ -11723,8 +12364,8 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="112"/>
-      <c r="B138" s="112"/>
+      <c r="A138" s="141"/>
+      <c r="B138" s="141"/>
       <c r="C138" s="16" t="s">
         <v>117</v>
       </c>
@@ -11739,10 +12380,10 @@
       <c r="L138" s="13"/>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="112">
+      <c r="A139" s="141">
         <v>69</v>
       </c>
-      <c r="B139" s="110" t="s">
+      <c r="B139" s="139" t="s">
         <v>213</v>
       </c>
       <c r="C139" s="17" t="s">
@@ -11765,32 +12406,32 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="112"/>
-      <c r="B140" s="112"/>
+      <c r="A140" s="141"/>
+      <c r="B140" s="141"/>
       <c r="C140" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D140" s="64"/>
+      <c r="D140" s="61"/>
       <c r="E140" s="17"/>
       <c r="F140" s="17"/>
       <c r="H140" s="17"/>
       <c r="J140" s="17"/>
       <c r="K140" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L140" s="14"/>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="112">
+      <c r="A141" s="141">
         <v>70</v>
       </c>
-      <c r="B141" s="110" t="s">
+      <c r="B141" s="139" t="s">
         <v>214</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D141" s="104">
+      <c r="D141" s="98">
         <v>45732.666666666664</v>
       </c>
       <c r="E141" s="15"/>
@@ -11809,12 +12450,12 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="112"/>
-      <c r="B142" s="112"/>
+      <c r="A142" s="141"/>
+      <c r="B142" s="141"/>
       <c r="C142" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D142" s="87"/>
+      <c r="D142" s="81"/>
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
       <c r="G142" s="12"/>
@@ -11822,15 +12463,15 @@
       <c r="I142" s="12"/>
       <c r="J142" s="16"/>
       <c r="K142" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L142" s="13"/>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="112">
+      <c r="A143" s="141">
         <v>71</v>
       </c>
-      <c r="B143" s="110" t="s">
+      <c r="B143" s="139" t="s">
         <v>215</v>
       </c>
       <c r="C143" s="17" t="s">
@@ -11849,8 +12490,8 @@
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="112"/>
-      <c r="B144" s="112"/>
+      <c r="A144" s="141"/>
+      <c r="B144" s="141"/>
       <c r="C144" s="17" t="s">
         <v>0</v>
       </c>
@@ -11865,20 +12506,20 @@
       <c r="L144" s="14"/>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="112">
+      <c r="A145" s="141">
         <v>72</v>
       </c>
-      <c r="B145" s="109" t="s">
+      <c r="B145" s="138" t="s">
         <v>216</v>
       </c>
-      <c r="C145" s="60" t="s">
+      <c r="C145" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D145" s="68"/>
-      <c r="E145" s="57">
+      <c r="D145" s="64"/>
+      <c r="E145" s="54">
         <v>45700.416666666664</v>
       </c>
-      <c r="F145" s="69">
+      <c r="F145" s="65">
         <v>45706</v>
       </c>
       <c r="G145" s="9"/>
@@ -11895,14 +12536,14 @@
       </c>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="112"/>
-      <c r="B146" s="111"/>
-      <c r="C146" s="58" t="s">
+      <c r="A146" s="141"/>
+      <c r="B146" s="140"/>
+      <c r="C146" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D146" s="62"/>
-      <c r="E146" s="58"/>
-      <c r="F146" s="58" t="s">
+      <c r="D146" s="59"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="55" t="s">
         <v>243</v>
       </c>
       <c r="G146" s="12"/>
@@ -11915,10 +12556,10 @@
       <c r="L146" s="13"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="112">
+      <c r="A147" s="141">
         <v>73</v>
       </c>
-      <c r="B147" s="110" t="s">
+      <c r="B147" s="139" t="s">
         <v>217</v>
       </c>
       <c r="C147" s="17" t="s">
@@ -11941,12 +12582,12 @@
       </c>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="112"/>
-      <c r="B148" s="112"/>
+      <c r="A148" s="141"/>
+      <c r="B148" s="141"/>
       <c r="C148" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D148" s="64"/>
+      <c r="D148" s="61"/>
       <c r="E148" s="17"/>
       <c r="F148" s="17"/>
       <c r="H148" s="17"/>
@@ -11954,10 +12595,10 @@
       <c r="L148" s="14"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="112">
+      <c r="A149" s="141">
         <v>74</v>
       </c>
-      <c r="B149" s="110" t="s">
+      <c r="B149" s="139" t="s">
         <v>218</v>
       </c>
       <c r="C149" s="15" t="s">
@@ -11980,15 +12621,15 @@
       </c>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="112"/>
-      <c r="B150" s="112"/>
+      <c r="A150" s="141"/>
+      <c r="B150" s="141"/>
       <c r="C150" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D150" s="21"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="12"/>
+      <c r="D150" s="130"/>
+      <c r="E150" s="104"/>
+      <c r="F150" s="104"/>
+      <c r="G150" s="131"/>
       <c r="H150" s="16"/>
       <c r="I150" s="12"/>
       <c r="J150" s="16"/>
@@ -11996,22 +12637,19 @@
       <c r="L150" s="13"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="112">
+      <c r="A151" s="141">
         <v>75</v>
       </c>
-      <c r="B151" s="110" t="s">
+      <c r="B151" s="139" t="s">
         <v>219</v>
       </c>
       <c r="C151" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D151" s="22"/>
-      <c r="E151" s="47">
-        <v>45723.5</v>
-      </c>
-      <c r="F151" s="84">
-        <v>45726.5</v>
-      </c>
+      <c r="D151" s="132"/>
+      <c r="E151" s="105"/>
+      <c r="F151" s="105"/>
+      <c r="G151" s="133"/>
       <c r="H151" s="17"/>
       <c r="J151" s="40" t="s">
         <v>146</v>
@@ -12024,39 +12662,36 @@
       </c>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="112"/>
-      <c r="B152" s="112"/>
+      <c r="A152" s="141"/>
+      <c r="B152" s="141"/>
       <c r="C152" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D152" s="22"/>
-      <c r="E152" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="F152" s="49" t="s">
-        <v>243</v>
-      </c>
+      <c r="D152" s="132"/>
+      <c r="E152" s="106"/>
+      <c r="F152" s="106"/>
+      <c r="G152" s="133"/>
       <c r="H152" s="17"/>
       <c r="J152" s="17"/>
       <c r="K152" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L152" s="26"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="112">
+      <c r="A153" s="141">
         <v>76</v>
       </c>
-      <c r="B153" s="110" t="s">
+      <c r="B153" s="139" t="s">
         <v>228</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D153" s="20"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="9"/>
+      <c r="D153" s="134"/>
+      <c r="E153" s="129"/>
+      <c r="F153" s="129"/>
+      <c r="G153" s="135"/>
       <c r="H153" s="15"/>
       <c r="I153" s="9"/>
       <c r="J153" s="15"/>
@@ -12068,39 +12703,40 @@
       </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="112"/>
-      <c r="B154" s="112"/>
+      <c r="A154" s="141"/>
+      <c r="B154" s="141"/>
       <c r="C154" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D154" s="21"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="12"/>
+      <c r="D154" s="130"/>
+      <c r="E154" s="104"/>
+      <c r="F154" s="104"/>
+      <c r="G154" s="131"/>
       <c r="H154" s="16"/>
       <c r="I154" s="12"/>
       <c r="J154" s="16"/>
       <c r="K154" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L154" s="13"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="112">
+      <c r="A155" s="141">
         <v>77</v>
       </c>
-      <c r="B155" s="110" t="s">
+      <c r="B155" s="139" t="s">
         <v>220</v>
       </c>
       <c r="C155" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
+      <c r="D155" s="132"/>
+      <c r="E155" s="106"/>
+      <c r="F155" s="106"/>
+      <c r="G155" s="133"/>
       <c r="H155" s="17"/>
       <c r="J155" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K155" s="7" t="s">
         <v>225</v>
@@ -12110,26 +12746,27 @@
       </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="112"/>
-      <c r="B156" s="112"/>
+      <c r="A156" s="141"/>
+      <c r="B156" s="141"/>
       <c r="C156" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D156" s="22"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="17"/>
+      <c r="D156" s="132"/>
+      <c r="E156" s="106"/>
+      <c r="F156" s="106"/>
+      <c r="G156" s="133"/>
       <c r="H156" s="17"/>
       <c r="J156" s="17"/>
       <c r="K156" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L156" s="14"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="112">
+      <c r="A157" s="141">
         <v>78</v>
       </c>
-      <c r="B157" s="110" t="s">
+      <c r="B157" s="139" t="s">
         <v>221</v>
       </c>
       <c r="C157" s="15" t="s">
@@ -12150,8 +12787,8 @@
       </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="112"/>
-      <c r="B158" s="112"/>
+      <c r="A158" s="141"/>
+      <c r="B158" s="141"/>
       <c r="C158" s="16" t="s">
         <v>74</v>
       </c>
@@ -12166,11 +12803,11 @@
       <c r="L158" s="13"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="112">
+      <c r="A159" s="141">
         <v>79</v>
       </c>
-      <c r="B159" s="119" t="s">
-        <v>264</v>
+      <c r="B159" s="148" t="s">
+        <v>263</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>51</v>
@@ -12178,20 +12815,20 @@
       <c r="D159" s="15"/>
       <c r="E159" s="9"/>
       <c r="F159" s="15"/>
-      <c r="G159" s="50"/>
+      <c r="G159" s="47"/>
       <c r="H159" s="9"/>
       <c r="I159" s="15"/>
       <c r="J159" s="9"/>
       <c r="K159" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="L159" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="L159" s="11" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="112"/>
-      <c r="B160" s="120"/>
+      <c r="A160" s="141"/>
+      <c r="B160" s="149"/>
       <c r="C160" s="16" t="s">
         <v>0</v>
       </c>
@@ -12203,16 +12840,16 @@
       <c r="I160" s="16"/>
       <c r="J160" s="12"/>
       <c r="K160" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L160" s="13"/>
     </row>
     <row r="161" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A161" s="112">
+      <c r="A161" s="141">
         <v>80</v>
       </c>
-      <c r="B161" s="119" t="s">
-        <v>265</v>
+      <c r="B161" s="148" t="s">
+        <v>264</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>51</v>
@@ -12220,20 +12857,20 @@
       <c r="D161" s="15"/>
       <c r="E161" s="9"/>
       <c r="F161" s="15"/>
-      <c r="G161" s="50"/>
+      <c r="G161" s="47"/>
       <c r="H161" s="9"/>
       <c r="I161" s="15"/>
       <c r="J161" s="9"/>
       <c r="K161" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L161" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="112"/>
-      <c r="B162" s="120"/>
+      <c r="A162" s="141"/>
+      <c r="B162" s="149"/>
       <c r="C162" s="16" t="s">
         <v>0</v>
       </c>
@@ -12245,80 +12882,80 @@
       <c r="I162" s="16"/>
       <c r="J162" s="12"/>
       <c r="K162" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L162" s="13"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="112">
+      <c r="A163" s="141">
         <v>81</v>
       </c>
-      <c r="B163" s="121" t="s">
-        <v>285</v>
+      <c r="B163" s="150" t="s">
+        <v>284</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D163" s="15"/>
-      <c r="E163" s="65">
+      <c r="E163" s="125">
         <v>45698</v>
       </c>
-      <c r="F163" s="46">
+      <c r="F163" s="126">
         <v>45721</v>
       </c>
-      <c r="G163" s="91">
+      <c r="G163" s="85">
         <v>45745</v>
       </c>
-      <c r="H163" s="122" t="s">
-        <v>356</v>
+      <c r="H163" s="151" t="s">
+        <v>354</v>
       </c>
       <c r="I163" s="46">
         <v>45745</v>
       </c>
       <c r="J163" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K163" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L163" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="112"/>
-      <c r="B164" s="116"/>
+      <c r="A164" s="141"/>
+      <c r="B164" s="145"/>
       <c r="C164" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D164" s="16"/>
-      <c r="E164" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="F164" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="G164" s="92" t="s">
+      <c r="E164" s="127" t="s">
+        <v>346</v>
+      </c>
+      <c r="F164" s="128" t="s">
         <v>355</v>
       </c>
-      <c r="H164" s="123"/>
+      <c r="G164" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="H164" s="152"/>
       <c r="I164" s="45" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J164" s="12"/>
       <c r="K164" s="44" t="s">
         <v>8</v>
       </c>
       <c r="L164" s="19" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="112">
+      <c r="A165" s="141">
         <v>82</v>
       </c>
-      <c r="B165" s="119" t="s">
-        <v>286</v>
+      <c r="B165" s="148" t="s">
+        <v>285</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>51</v>
@@ -12331,15 +12968,15 @@
       <c r="I165" s="9"/>
       <c r="J165" s="15"/>
       <c r="K165" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="L165" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="L165" s="11" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="112"/>
-      <c r="B166" s="120"/>
+      <c r="A166" s="141"/>
+      <c r="B166" s="149"/>
       <c r="C166" s="16" t="s">
         <v>0</v>
       </c>
@@ -12351,16 +12988,16 @@
       <c r="I166" s="12"/>
       <c r="J166" s="16"/>
       <c r="K166" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L166" s="13"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="112">
+      <c r="A167" s="141">
         <v>83</v>
       </c>
-      <c r="B167" s="119" t="s">
-        <v>287</v>
+      <c r="B167" s="148" t="s">
+        <v>286</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>51</v>
@@ -12373,15 +13010,15 @@
       <c r="I167" s="9"/>
       <c r="J167" s="15"/>
       <c r="K167" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L167" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="112"/>
-      <c r="B168" s="120"/>
+      <c r="A168" s="141"/>
+      <c r="B168" s="149"/>
       <c r="C168" s="16" t="s">
         <v>0</v>
       </c>
@@ -12393,16 +13030,16 @@
       <c r="I168" s="12"/>
       <c r="J168" s="16"/>
       <c r="K168" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L168" s="13"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="112">
+      <c r="A169" s="141">
         <v>84</v>
       </c>
-      <c r="B169" s="119" t="s">
-        <v>288</v>
+      <c r="B169" s="148" t="s">
+        <v>287</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>51</v>
@@ -12414,24 +13051,24 @@
       <c r="H169" s="15"/>
       <c r="I169" s="9"/>
       <c r="J169" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K169" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L169" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="112"/>
-      <c r="B170" s="120"/>
+      <c r="A170" s="141"/>
+      <c r="B170" s="149"/>
       <c r="C170" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="12"/>
@@ -12439,16 +13076,16 @@
       <c r="I170" s="12"/>
       <c r="J170" s="16"/>
       <c r="K170" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L170" s="13"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="112">
+      <c r="A171" s="141">
         <v>85</v>
       </c>
-      <c r="B171" s="119" t="s">
-        <v>293</v>
+      <c r="B171" s="148" t="s">
+        <v>292</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>51</v>
@@ -12461,15 +13098,15 @@
       <c r="I171" s="9"/>
       <c r="J171" s="15"/>
       <c r="K171" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L171" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="112"/>
-      <c r="B172" s="120"/>
+      <c r="A172" s="141"/>
+      <c r="B172" s="149"/>
       <c r="C172" s="16" t="s">
         <v>0</v>
       </c>
@@ -12481,16 +13118,16 @@
       <c r="I172" s="12"/>
       <c r="J172" s="16"/>
       <c r="K172" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L172" s="13"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="112">
+      <c r="A173" s="141">
         <v>86</v>
       </c>
-      <c r="B173" s="119" t="s">
-        <v>294</v>
+      <c r="B173" s="148" t="s">
+        <v>293</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>51</v>
@@ -12503,15 +13140,15 @@
       <c r="I173" s="9"/>
       <c r="J173" s="15"/>
       <c r="K173" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L173" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="112"/>
-      <c r="B174" s="120"/>
+      <c r="A174" s="141"/>
+      <c r="B174" s="149"/>
       <c r="C174" s="16" t="s">
         <v>0</v>
       </c>
@@ -12523,16 +13160,16 @@
       <c r="I174" s="12"/>
       <c r="J174" s="16"/>
       <c r="K174" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L174" s="13"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="112">
+      <c r="A175" s="141">
         <v>87</v>
       </c>
-      <c r="B175" s="119" t="s">
-        <v>295</v>
+      <c r="B175" s="148" t="s">
+        <v>294</v>
       </c>
       <c r="C175" s="15" t="s">
         <v>51</v>
@@ -12545,15 +13182,15 @@
       <c r="I175" s="9"/>
       <c r="J175" s="15"/>
       <c r="K175" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L175" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="112"/>
-      <c r="B176" s="120"/>
+      <c r="A176" s="141"/>
+      <c r="B176" s="149"/>
       <c r="C176" s="16" t="s">
         <v>0</v>
       </c>
@@ -12565,16 +13202,16 @@
       <c r="I176" s="12"/>
       <c r="J176" s="16"/>
       <c r="K176" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L176" s="13"/>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="112">
+      <c r="A177" s="141">
         <v>88</v>
       </c>
-      <c r="B177" s="119" t="s">
-        <v>308</v>
+      <c r="B177" s="148" t="s">
+        <v>307</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>51</v>
@@ -12587,15 +13224,15 @@
       <c r="I177" s="9"/>
       <c r="J177" s="15"/>
       <c r="K177" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L177" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="112"/>
-      <c r="B178" s="120"/>
+      <c r="A178" s="141"/>
+      <c r="B178" s="149"/>
       <c r="C178" s="16" t="s">
         <v>74</v>
       </c>
@@ -12607,16 +13244,16 @@
       <c r="I178" s="12"/>
       <c r="J178" s="16"/>
       <c r="K178" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L178" s="13"/>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="112">
+      <c r="A179" s="141">
         <v>89</v>
       </c>
-      <c r="B179" s="119" t="s">
-        <v>309</v>
+      <c r="B179" s="148" t="s">
+        <v>308</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>51</v>
@@ -12628,18 +13265,18 @@
       <c r="H179" s="15"/>
       <c r="I179" s="9"/>
       <c r="J179" s="36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K179" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L179" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="112"/>
-      <c r="B180" s="120"/>
+      <c r="A180" s="141"/>
+      <c r="B180" s="149"/>
       <c r="C180" s="16" t="s">
         <v>0</v>
       </c>
@@ -12651,16 +13288,16 @@
       <c r="I180" s="12"/>
       <c r="J180" s="16"/>
       <c r="K180" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L180" s="13"/>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="112">
+      <c r="A181" s="141">
         <v>90</v>
       </c>
-      <c r="B181" s="119" t="s">
-        <v>310</v>
+      <c r="B181" s="148" t="s">
+        <v>309</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>51</v>
@@ -12673,15 +13310,15 @@
       <c r="I181" s="9"/>
       <c r="J181" s="15"/>
       <c r="K181" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L181" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="112"/>
-      <c r="B182" s="120"/>
+      <c r="A182" s="141"/>
+      <c r="B182" s="149"/>
       <c r="C182" s="16" t="s">
         <v>0</v>
       </c>
@@ -12693,16 +13330,16 @@
       <c r="I182" s="12"/>
       <c r="J182" s="16"/>
       <c r="K182" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L182" s="13"/>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="112">
+      <c r="A183" s="141">
         <v>91</v>
       </c>
-      <c r="B183" s="119" t="s">
-        <v>311</v>
+      <c r="B183" s="148" t="s">
+        <v>310</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>51</v>
@@ -12715,15 +13352,15 @@
       <c r="I183" s="9"/>
       <c r="J183" s="15"/>
       <c r="K183" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L183" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="112"/>
-      <c r="B184" s="120"/>
+      <c r="A184" s="141"/>
+      <c r="B184" s="149"/>
       <c r="C184" s="16" t="s">
         <v>0</v>
       </c>
@@ -12735,16 +13372,16 @@
       <c r="I184" s="12"/>
       <c r="J184" s="16"/>
       <c r="K184" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L184" s="13"/>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="112">
+      <c r="A185" s="141">
         <v>92</v>
       </c>
-      <c r="B185" s="124" t="s">
-        <v>304</v>
+      <c r="B185" s="153" t="s">
+        <v>303</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>51</v>
@@ -12757,15 +13394,15 @@
       <c r="I185" s="9"/>
       <c r="J185" s="15"/>
       <c r="K185" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L185" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="112"/>
-      <c r="B186" s="120"/>
+      <c r="A186" s="141"/>
+      <c r="B186" s="149"/>
       <c r="C186" s="16" t="s">
         <v>0</v>
       </c>
@@ -12777,16 +13414,16 @@
       <c r="I186" s="12"/>
       <c r="J186" s="16"/>
       <c r="K186" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L186" s="13"/>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="112">
+      <c r="A187" s="141">
         <v>93</v>
       </c>
-      <c r="B187" s="124" t="s">
-        <v>306</v>
+      <c r="B187" s="153" t="s">
+        <v>305</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>51</v>
@@ -12799,15 +13436,15 @@
       <c r="I187" s="9"/>
       <c r="J187" s="15"/>
       <c r="K187" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L187" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="112"/>
-      <c r="B188" s="120"/>
+      <c r="A188" s="141"/>
+      <c r="B188" s="149"/>
       <c r="C188" s="16" t="s">
         <v>0</v>
       </c>
@@ -12819,15 +13456,15 @@
       <c r="I188" s="12"/>
       <c r="J188" s="16"/>
       <c r="K188" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L188" s="13"/>
     </row>
     <row r="189" spans="1:12">
-      <c r="A189" s="112">
+      <c r="A189" s="141">
         <v>94</v>
       </c>
-      <c r="B189" s="119"/>
+      <c r="B189" s="148"/>
       <c r="C189" s="15"/>
       <c r="D189" s="9"/>
       <c r="E189" s="15"/>
@@ -12840,8 +13477,8 @@
       <c r="L189" s="11"/>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="112"/>
-      <c r="B190" s="120"/>
+      <c r="A190" s="141"/>
+      <c r="B190" s="149"/>
       <c r="C190" s="16"/>
       <c r="D190" s="12"/>
       <c r="E190" s="16"/>
@@ -12854,10 +13491,10 @@
       <c r="L190" s="13"/>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="112">
+      <c r="A191" s="141">
         <v>95</v>
       </c>
-      <c r="B191" s="124"/>
+      <c r="B191" s="153"/>
       <c r="C191" s="15"/>
       <c r="D191" s="9"/>
       <c r="E191" s="15"/>
@@ -12867,11 +13504,11 @@
       <c r="I191" s="9"/>
       <c r="J191" s="15"/>
       <c r="K191" s="9"/>
-      <c r="L191" s="50"/>
+      <c r="L191" s="47"/>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="112"/>
-      <c r="B192" s="120"/>
+      <c r="A192" s="141"/>
+      <c r="B192" s="149"/>
       <c r="C192" s="16"/>
       <c r="D192" s="12"/>
       <c r="E192" s="16"/>
@@ -12884,10 +13521,10 @@
       <c r="L192" s="13"/>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="112">
+      <c r="A193" s="141">
         <v>96</v>
       </c>
-      <c r="B193" s="124"/>
+      <c r="B193" s="153"/>
       <c r="C193" s="15"/>
       <c r="D193" s="9"/>
       <c r="E193" s="15"/>
@@ -12897,11 +13534,11 @@
       <c r="I193" s="9"/>
       <c r="J193" s="15"/>
       <c r="K193" s="9"/>
-      <c r="L193" s="50"/>
+      <c r="L193" s="47"/>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="112"/>
-      <c r="B194" s="120"/>
+      <c r="A194" s="141"/>
+      <c r="B194" s="149"/>
       <c r="C194" s="16"/>
       <c r="D194" s="12"/>
       <c r="E194" s="16"/>
@@ -12914,10 +13551,10 @@
       <c r="L194" s="13"/>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="112">
+      <c r="A195" s="141">
         <v>97</v>
       </c>
-      <c r="B195" s="124"/>
+      <c r="B195" s="153"/>
       <c r="C195" s="15"/>
       <c r="D195" s="9"/>
       <c r="E195" s="15"/>
@@ -12927,11 +13564,11 @@
       <c r="I195" s="9"/>
       <c r="J195" s="15"/>
       <c r="K195" s="9"/>
-      <c r="L195" s="50"/>
+      <c r="L195" s="47"/>
     </row>
     <row r="196" spans="1:12">
-      <c r="A196" s="112"/>
-      <c r="B196" s="120"/>
+      <c r="A196" s="141"/>
+      <c r="B196" s="149"/>
       <c r="C196" s="16"/>
       <c r="D196" s="12"/>
       <c r="E196" s="16"/>
@@ -12944,10 +13581,10 @@
       <c r="L196" s="13"/>
     </row>
     <row r="197" spans="1:12">
-      <c r="A197" s="112">
+      <c r="A197" s="141">
         <v>98</v>
       </c>
-      <c r="B197" s="124"/>
+      <c r="B197" s="153"/>
       <c r="C197" s="15"/>
       <c r="D197" s="9"/>
       <c r="E197" s="15"/>
@@ -12957,11 +13594,11 @@
       <c r="I197" s="9"/>
       <c r="J197" s="15"/>
       <c r="K197" s="9"/>
-      <c r="L197" s="50"/>
+      <c r="L197" s="47"/>
     </row>
     <row r="198" spans="1:12">
-      <c r="A198" s="112"/>
-      <c r="B198" s="120"/>
+      <c r="A198" s="141"/>
+      <c r="B198" s="149"/>
       <c r="C198" s="16"/>
       <c r="D198" s="12"/>
       <c r="E198" s="16"/>
@@ -12974,10 +13611,10 @@
       <c r="L198" s="13"/>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="112">
+      <c r="A199" s="141">
         <v>99</v>
       </c>
-      <c r="B199" s="124"/>
+      <c r="B199" s="153"/>
       <c r="C199" s="15"/>
       <c r="D199" s="9"/>
       <c r="E199" s="15"/>
@@ -12987,11 +13624,11 @@
       <c r="I199" s="9"/>
       <c r="J199" s="15"/>
       <c r="K199" s="9"/>
-      <c r="L199" s="50"/>
+      <c r="L199" s="47"/>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="112"/>
-      <c r="B200" s="120"/>
+      <c r="A200" s="141"/>
+      <c r="B200" s="149"/>
       <c r="C200" s="16"/>
       <c r="D200" s="12"/>
       <c r="E200" s="16"/>
@@ -13004,10 +13641,10 @@
       <c r="L200" s="13"/>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="112">
+      <c r="A201" s="141">
         <v>100</v>
       </c>
-      <c r="B201" s="124"/>
+      <c r="B201" s="153"/>
       <c r="C201" s="15"/>
       <c r="D201" s="9"/>
       <c r="E201" s="15"/>
@@ -13017,11 +13654,11 @@
       <c r="I201" s="9"/>
       <c r="J201" s="15"/>
       <c r="K201" s="9"/>
-      <c r="L201" s="50"/>
+      <c r="L201" s="47"/>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="112"/>
-      <c r="B202" s="120"/>
+      <c r="A202" s="141"/>
+      <c r="B202" s="149"/>
       <c r="C202" s="16"/>
       <c r="D202" s="12"/>
       <c r="E202" s="16"/>
@@ -13034,10 +13671,10 @@
       <c r="L202" s="13"/>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="112">
+      <c r="A203" s="141">
         <v>101</v>
       </c>
-      <c r="B203" s="124"/>
+      <c r="B203" s="153"/>
       <c r="C203" s="15"/>
       <c r="D203" s="9"/>
       <c r="E203" s="15"/>
@@ -13047,11 +13684,11 @@
       <c r="I203" s="9"/>
       <c r="J203" s="15"/>
       <c r="K203" s="9"/>
-      <c r="L203" s="50"/>
+      <c r="L203" s="47"/>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="112"/>
-      <c r="B204" s="120"/>
+      <c r="A204" s="141"/>
+      <c r="B204" s="149"/>
       <c r="C204" s="16"/>
       <c r="D204" s="12"/>
       <c r="E204" s="16"/>
@@ -13619,8 +14256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090B0416-F1D2-4A08-9C25-1FAF8F39F174}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13631,488 +14268,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="94" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="164" t="s">
         <v>233</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="101" t="s">
-        <v>410</v>
+      <c r="C2" s="95" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72">
-      <c r="A3" s="135"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="95" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36">
-      <c r="A4" s="135"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="95" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54">
-      <c r="A5" s="135"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="95" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="72.75" thickBot="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="165"/>
+      <c r="B6" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="102" t="s">
-        <v>411</v>
+      <c r="C6" s="96" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="166" t="s">
         <v>234</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="101" t="s">
-        <v>245</v>
+      <c r="C7" s="95" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36">
-      <c r="A8" s="137"/>
+      <c r="A8" s="166"/>
       <c r="B8" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="101" t="s">
-        <v>246</v>
+      <c r="C8" s="95" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72">
-      <c r="A9" s="137"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="101" t="s">
-        <v>248</v>
+      <c r="C9" s="95" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72">
-      <c r="A10" s="137"/>
+      <c r="A10" s="166"/>
       <c r="B10" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="101" t="s">
-        <v>247</v>
+      <c r="C10" s="95" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="108">
-      <c r="A11" s="137"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="101" t="s">
-        <v>250</v>
+      <c r="C11" s="95" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="108">
-      <c r="A12" s="137"/>
+      <c r="A12" s="166"/>
       <c r="B12" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="101" t="s">
-        <v>251</v>
+      <c r="C12" s="95" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="216.75" thickBot="1">
-      <c r="A13" s="138"/>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="167"/>
+      <c r="B13" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="96" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72">
+      <c r="A14" s="157" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="108">
+      <c r="A15" s="155"/>
+      <c r="B15" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="76" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="72">
-      <c r="A14" s="128" t="s">
-        <v>269</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="108">
-      <c r="A15" s="126"/>
-      <c r="B15" s="41" t="s">
+    <row r="16" spans="1:3" ht="126">
+      <c r="A16" s="155"/>
+      <c r="B16" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="C15" s="81" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="126">
-      <c r="A16" s="126"/>
-      <c r="B16" s="41" t="s">
+      <c r="C16" s="76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="72">
+      <c r="A17" s="155"/>
+      <c r="B17" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C17" s="76" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="72">
-      <c r="A17" s="126"/>
-      <c r="B17" s="41" t="s">
+    <row r="18" spans="1:3" ht="36.75" thickBot="1">
+      <c r="A18" s="156"/>
+      <c r="B18" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="C17" s="81" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="36.75" thickBot="1">
-      <c r="A18" s="127"/>
-      <c r="B18" s="52" t="s">
+      <c r="C18" s="82"/>
+    </row>
+    <row r="19" spans="1:3" ht="36">
+      <c r="A19" s="154" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="126">
+      <c r="A20" s="155"/>
+      <c r="B20" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="126">
+      <c r="A21" s="155"/>
+      <c r="B21" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="76" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="88"/>
-    </row>
-    <row r="19" spans="1:3" ht="36">
-      <c r="A19" s="125" t="s">
-        <v>312</v>
-      </c>
-      <c r="B19" s="85" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="90">
+      <c r="A22" s="155"/>
+      <c r="B22" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="144.75" thickBot="1">
+      <c r="A23" s="156"/>
+      <c r="B23" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="126">
+      <c r="A24" s="157" t="s">
+        <v>323</v>
+      </c>
+      <c r="B24" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="C19" s="103" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="126">
-      <c r="A20" s="126"/>
-      <c r="B20" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="126">
-      <c r="A21" s="126"/>
-      <c r="B21" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="90">
-      <c r="A22" s="126"/>
-      <c r="B22" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="144.75" thickBot="1">
-      <c r="A23" s="127"/>
-      <c r="B23" s="52" t="s">
-        <v>317</v>
-      </c>
-      <c r="C23" s="97" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="126">
-      <c r="A24" s="128" t="s">
+      <c r="C24" s="75" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="80" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="126.75" thickBot="1">
+      <c r="A25" s="156"/>
+      <c r="B25" s="49" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="126.75" thickBot="1">
-      <c r="A25" s="127"/>
-      <c r="B25" s="52" t="s">
+      <c r="C25" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="97" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="26" spans="1:3" ht="72">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="157" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="C26" s="75" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="108">
+      <c r="A27" s="155"/>
+      <c r="B27" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C27" s="76" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="108">
-      <c r="A27" s="126"/>
-      <c r="B27" s="41" t="s">
+    <row r="28" spans="1:3" ht="90">
+      <c r="A28" s="155"/>
+      <c r="B28" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C28" s="76" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="90">
-      <c r="A28" s="126"/>
-      <c r="B28" s="41" t="s">
+    <row r="29" spans="1:3" ht="90">
+      <c r="A29" s="155"/>
+      <c r="B29" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C29" s="76" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="90">
-      <c r="A29" s="126"/>
-      <c r="B29" s="41" t="s">
+    <row r="30" spans="1:3" ht="108.75" thickBot="1">
+      <c r="A30" s="156"/>
+      <c r="B30" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C30" s="91" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="108.75" thickBot="1">
-      <c r="A30" s="127"/>
-      <c r="B30" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="C30" s="97" t="s">
-        <v>341</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" ht="180">
-      <c r="A31" s="125" t="s">
+      <c r="A31" s="154" t="s">
+        <v>343</v>
+      </c>
+      <c r="B31" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="C31" s="97" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="180.75" thickBot="1">
+      <c r="A32" s="158"/>
+      <c r="B32" s="71" t="s">
         <v>345</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C32" s="78" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="126">
+      <c r="A33" s="157" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="180.75" thickBot="1">
-      <c r="A32" s="129"/>
-      <c r="B32" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="C32" s="83" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="126">
-      <c r="A33" s="128" t="s">
+      <c r="B33" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="B33" s="55" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="126">
+      <c r="A34" s="155"/>
+      <c r="B34" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="108.75" thickBot="1">
+      <c r="A35" s="158"/>
+      <c r="B35" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="C35" s="78" t="s">
         <v>373</v>
       </c>
-      <c r="C33" s="80" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="126">
-      <c r="A34" s="126"/>
-      <c r="B34" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="C34" s="81" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="108.75" thickBot="1">
-      <c r="A35" s="129"/>
-      <c r="B35" s="75" t="s">
-        <v>371</v>
-      </c>
-      <c r="C35" s="83" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="126">
+      <c r="A36" s="159" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="126">
-      <c r="A36" s="130" t="s">
+      <c r="B36" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="180">
+      <c r="A37" s="160"/>
+      <c r="B37" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="108">
+      <c r="A38" s="160"/>
+      <c r="B38" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="C38" s="76" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="162.75" thickBot="1">
+      <c r="A39" s="160"/>
+      <c r="B39" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C39" s="76" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="180">
-      <c r="A37" s="131"/>
-      <c r="B37" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="C37" s="81" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="108">
-      <c r="A38" s="131"/>
-      <c r="B38" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="C38" s="81" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="162.75" thickBot="1">
-      <c r="A39" s="131"/>
-      <c r="B39" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="C39" s="81" t="s">
-        <v>387</v>
-      </c>
-    </row>
     <row r="40" spans="1:3" ht="144">
-      <c r="A40" s="128" t="s">
+      <c r="A40" s="157" t="s">
+        <v>388</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="90">
+      <c r="A41" s="155"/>
+      <c r="B41" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="108.75" thickBot="1">
+      <c r="A42" s="158"/>
+      <c r="B42" s="71" t="s">
         <v>391</v>
       </c>
-      <c r="B40" s="55" t="s">
-        <v>392</v>
-      </c>
-      <c r="C40" s="80" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="90">
-      <c r="A41" s="126"/>
-      <c r="B41" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="C41" s="81" t="s">
+      <c r="C42" s="78" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="180">
+      <c r="A43" s="157" t="s">
+        <v>400</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="C43" s="75" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="108.75" thickBot="1">
-      <c r="A42" s="129"/>
-      <c r="B42" s="75" t="s">
-        <v>394</v>
-      </c>
-      <c r="C42" s="83" t="s">
+    <row r="44" spans="1:3" ht="54.75" thickBot="1">
+      <c r="A44" s="158"/>
+      <c r="B44" s="71" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="180">
-      <c r="A43" s="128" t="s">
+      <c r="C44" s="78" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="144">
+      <c r="A45" s="161" t="s">
+        <v>402</v>
+      </c>
+      <c r="B45" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="B43" s="55" t="s">
-        <v>401</v>
-      </c>
-      <c r="C43" s="80" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="54.75" thickBot="1">
-      <c r="A44" s="129"/>
-      <c r="B44" s="75" t="s">
-        <v>400</v>
-      </c>
-      <c r="C44" s="83" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="144">
-      <c r="A45" s="132" t="s">
+      <c r="C45" s="75" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="144">
+      <c r="A46" s="162"/>
+      <c r="B46" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="C46" s="76" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="36">
+      <c r="A47" s="162"/>
+      <c r="B47" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="B45" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="C45" s="80" t="s">
+      <c r="C47" s="76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="198.75" thickBot="1">
+      <c r="A48" s="163"/>
+      <c r="B48" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="C48" s="91" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="144">
-      <c r="A46" s="133"/>
-      <c r="B46" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="36">
-      <c r="A47" s="133"/>
-      <c r="B47" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="C47" s="81" t="s">
+    <row r="49" spans="1:3" ht="144">
+      <c r="A49" s="154" t="s">
+        <v>411</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="C49" s="97" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="180">
+      <c r="A50" s="155"/>
+      <c r="B50" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="C50" s="76" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="72.75" thickBot="1">
+      <c r="A51" s="156"/>
+      <c r="B51" s="49" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="198.75" thickBot="1">
-      <c r="A48" s="134"/>
-      <c r="B48" s="52" t="s">
-        <v>418</v>
-      </c>
-      <c r="C48" s="97" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="144">
-      <c r="A49" s="125" t="s">
-        <v>414</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="C49" s="103" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="180">
-      <c r="A50" s="126"/>
-      <c r="B50" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="C50" s="81" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="72.75" thickBot="1">
-      <c r="A51" s="127"/>
-      <c r="B51" s="52" t="s">
+      <c r="C51" s="91" t="s">
         <v>423</v>
-      </c>
-      <c r="C51" s="97" t="s">
-        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -14138,245 +14775,533 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D35423-1F38-4F2F-BC17-D0A66D822A8A}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="44.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="64.5" style="56" customWidth="1"/>
-    <col min="4" max="4" width="96.5" style="56" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="44.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="53" customWidth="1"/>
+    <col min="4" max="4" width="96.5" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A1" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="122" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="129.75" customHeight="1">
+      <c r="A2" s="154" t="s">
         <v>432</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="B2" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="C2" s="117" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="162">
+      <c r="A3" s="155"/>
+      <c r="B3" s="102" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="162">
+      <c r="A4" s="155"/>
+      <c r="B4" s="102" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="180">
+      <c r="A5" s="155"/>
+      <c r="B5" s="102" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="129.75" customHeight="1">
-      <c r="A2" s="140" t="s">
+      <c r="C5" s="115" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="180">
+      <c r="A6" s="155"/>
+      <c r="B6" s="102" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="144">
+      <c r="A7" s="155"/>
+      <c r="B7" s="102" t="s">
         <v>435</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C7" s="115" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="180">
+      <c r="A8" s="155"/>
+      <c r="B8" s="102" t="s">
+        <v>446</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>496</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="180">
+      <c r="A9" s="155"/>
+      <c r="B9" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>497</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="198">
+      <c r="A10" s="155"/>
+      <c r="B10" s="102" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="180">
+      <c r="A11" s="155"/>
+      <c r="B11" s="102" t="s">
         <v>436</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C11" s="115" t="s">
         <v>470</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="162">
-      <c r="A3" s="140"/>
-      <c r="B3" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" s="56" t="s">
+      <c r="D11" s="76" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="234">
+      <c r="A12" s="155"/>
+      <c r="B12" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="115" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="162">
-      <c r="A4" s="140"/>
-      <c r="B4" s="8" t="s">
+      <c r="D12" s="76" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="198">
+      <c r="A13" s="155"/>
+      <c r="B13" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>498</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="126">
+      <c r="A14" s="155"/>
+      <c r="B14" s="102" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="162">
+      <c r="A15" s="155"/>
+      <c r="B15" s="102" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" s="115"/>
+      <c r="D15" s="76" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="126">
+      <c r="A16" s="155"/>
+      <c r="B16" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" s="115"/>
+      <c r="D16" s="76" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="108">
+      <c r="A17" s="155"/>
+      <c r="B17" s="102" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" s="115"/>
+      <c r="D17" s="76" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36">
+      <c r="A18" s="155"/>
+      <c r="B18" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="115"/>
+      <c r="D18" s="76" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="216.75" thickBot="1">
+      <c r="A19" s="158"/>
+      <c r="B19" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C19" s="116"/>
+      <c r="D19" s="78" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="126">
+      <c r="A20" s="157" t="s">
         <v>472</v>
       </c>
-      <c r="D4" s="56" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="180">
-      <c r="A5" s="140"/>
-      <c r="B5" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C5" s="56" t="s">
+      <c r="B20" s="121" t="s">
         <v>473</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="180">
-      <c r="A6" s="140"/>
-      <c r="B6" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C6" s="56" t="s">
+      <c r="C20" s="123" t="s">
+        <v>501</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72">
+      <c r="A21" s="155"/>
+      <c r="B21" s="102" t="s">
         <v>474</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="144">
-      <c r="A7" s="140"/>
-      <c r="B7" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C7" s="56" t="s">
+      <c r="C21" s="115" t="s">
+        <v>504</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="54">
+      <c r="A22" s="155"/>
+      <c r="B22" s="102" t="s">
         <v>475</v>
       </c>
-      <c r="D7" s="56" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="180">
-      <c r="A8" s="140"/>
-      <c r="B8" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="C22" s="124" t="s">
+        <v>503</v>
+      </c>
+      <c r="D22" s="76"/>
+    </row>
+    <row r="23" spans="1:4" ht="36">
+      <c r="A23" s="155"/>
+      <c r="B23" s="102" t="s">
         <v>476</v>
       </c>
-      <c r="D8" s="56" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="180">
-      <c r="A9" s="140"/>
-      <c r="B9" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C9" s="56" t="s">
+      <c r="C23" s="115" t="s">
+        <v>502</v>
+      </c>
+      <c r="D23" s="76"/>
+    </row>
+    <row r="24" spans="1:4" ht="198">
+      <c r="A24" s="155"/>
+      <c r="B24" s="102" t="s">
         <v>477</v>
       </c>
-      <c r="D9" s="56" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="198">
-      <c r="A10" s="140"/>
-      <c r="B10" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C10" s="56" t="s">
+      <c r="C24" s="115"/>
+      <c r="D24" s="76" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="36">
+      <c r="A25" s="155"/>
+      <c r="B25" s="102" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="180">
-      <c r="A11" s="140"/>
-      <c r="B11" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="C11" s="56" t="s">
+      <c r="C25" s="115" t="s">
+        <v>505</v>
+      </c>
+      <c r="D25" s="76"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="155"/>
+      <c r="B26" s="102" t="s">
         <v>479</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="234">
-      <c r="A12" s="140"/>
-      <c r="B12" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C12" s="56" t="s">
+      <c r="C26" s="115" t="s">
+        <v>506</v>
+      </c>
+      <c r="D26" s="76"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="155"/>
+      <c r="B27" s="102" t="s">
         <v>480</v>
       </c>
-      <c r="D12" s="56" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="198">
-      <c r="A13" s="140"/>
-      <c r="B13" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C13" s="56" t="s">
+      <c r="C27" s="115" t="s">
+        <v>508</v>
+      </c>
+      <c r="D27" s="76"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="155"/>
+      <c r="B28" s="102" t="s">
         <v>481</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="126">
-      <c r="A14" s="140"/>
-      <c r="B14" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14" s="56" t="s">
+      <c r="C28" s="115" t="s">
+        <v>507</v>
+      </c>
+      <c r="D28" s="76"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="155"/>
+      <c r="B29" s="102" t="s">
         <v>482</v>
       </c>
-      <c r="D14" s="56" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="162">
-      <c r="A15" s="140"/>
-      <c r="B15" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="126">
-      <c r="A16" s="140"/>
-      <c r="B16" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="108">
-      <c r="A17" s="140"/>
-      <c r="B17" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="36">
-      <c r="A18" s="140"/>
-      <c r="B18" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="216">
-      <c r="A19" s="140"/>
-      <c r="B19" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" s="142" t="s">
-        <v>6</v>
+      <c r="C29" s="115" t="s">
+        <v>506</v>
+      </c>
+      <c r="D29" s="76"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="155"/>
+      <c r="B30" s="102" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" s="115"/>
+      <c r="D30" s="76"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="155"/>
+      <c r="B31" s="102" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="115"/>
+      <c r="D31" s="76"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="155"/>
+      <c r="B32" s="102" t="s">
+        <v>485</v>
+      </c>
+      <c r="C32" s="115"/>
+      <c r="D32" s="76"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="155"/>
+      <c r="B33" s="102" t="s">
+        <v>486</v>
+      </c>
+      <c r="C33" s="115"/>
+      <c r="D33" s="76"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="155"/>
+      <c r="B34" s="102" t="s">
+        <v>487</v>
+      </c>
+      <c r="C34" s="115"/>
+      <c r="D34" s="76"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="155"/>
+      <c r="B35" s="102" t="s">
+        <v>488</v>
+      </c>
+      <c r="C35" s="115"/>
+      <c r="D35" s="76"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="155"/>
+      <c r="B36" s="102" t="s">
+        <v>489</v>
+      </c>
+      <c r="C36" s="115"/>
+      <c r="D36" s="76"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="155"/>
+      <c r="B37" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="C37" s="115"/>
+      <c r="D37" s="76"/>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A38" s="158"/>
+      <c r="B38" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C38" s="136"/>
+      <c r="D38" s="78"/>
+    </row>
+    <row r="39" spans="1:4" ht="126">
+      <c r="A39" s="168" t="s">
+        <v>510</v>
+      </c>
+      <c r="B39" s="121" t="s">
+        <v>511</v>
+      </c>
+      <c r="C39" s="137"/>
+      <c r="D39" s="75" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="162">
+      <c r="A40" s="169"/>
+      <c r="B40" s="102" t="s">
+        <v>512</v>
+      </c>
+      <c r="C40" s="115"/>
+      <c r="D40" s="76" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="144">
+      <c r="A41" s="169"/>
+      <c r="B41" s="102" t="s">
+        <v>514</v>
+      </c>
+      <c r="C41" s="115"/>
+      <c r="D41" s="76" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="180">
+      <c r="A42" s="169"/>
+      <c r="B42" s="102" t="s">
+        <v>525</v>
+      </c>
+      <c r="C42" s="115"/>
+      <c r="D42" s="76" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="162">
+      <c r="A43" s="169"/>
+      <c r="B43" s="102" t="s">
+        <v>513</v>
+      </c>
+      <c r="C43" s="115"/>
+      <c r="D43" s="76" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="180">
+      <c r="A44" s="169"/>
+      <c r="B44" s="102" t="s">
+        <v>515</v>
+      </c>
+      <c r="C44" s="115"/>
+      <c r="D44" s="76" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="180">
+      <c r="A45" s="169"/>
+      <c r="B45" s="102" t="s">
+        <v>516</v>
+      </c>
+      <c r="C45" s="115"/>
+      <c r="D45" s="76" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="169"/>
+      <c r="B46" s="102" t="s">
+        <v>517</v>
+      </c>
+      <c r="C46" s="115"/>
+      <c r="D46" s="76"/>
+    </row>
+    <row r="47" spans="1:4" ht="126">
+      <c r="A47" s="169"/>
+      <c r="B47" s="102" t="s">
+        <v>518</v>
+      </c>
+      <c r="C47" s="115"/>
+      <c r="D47" s="76" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="169"/>
+      <c r="B48" s="102" t="s">
+        <v>519</v>
+      </c>
+      <c r="C48" s="115"/>
+      <c r="D48" s="76"/>
+    </row>
+    <row r="49" spans="1:4" ht="72.75" thickBot="1">
+      <c r="A49" s="170"/>
+      <c r="B49" s="120" t="s">
+        <v>520</v>
+      </c>
+      <c r="C49" s="116"/>
+      <c r="D49" s="91" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A38"/>
+    <mergeCell ref="A39:A49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/就活.xlsx
+++ b/就活.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3BBD89-0C5C-42A6-960C-C4D8043731A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A3939-C2B9-4DEB-9793-F75FB1336A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="515">
   <si>
     <t>SIer</t>
     <phoneticPr fontId="1"/>
@@ -6300,36 +6300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自己紹介</t>
-    <rPh sb="0" eb="4">
-      <t>ジコショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自己PR（自分の強み）</t>
-    <rPh sb="0" eb="2">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分の弱み</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日本で働きたい理由</t>
     <rPh sb="0" eb="2">
       <t>ニホン</t>
@@ -6339,161 +6309,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>志望動機</t>
-    <rPh sb="0" eb="4">
-      <t>シボウドウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ITに興味を持った理由</t>
-    <rPh sb="3" eb="5">
-      <t>キョウミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大学・学部を選んだ理由</t>
-    <rPh sb="0" eb="2">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガクブ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大学で勉強したこと</t>
-    <rPh sb="0" eb="2">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大学のプロジェクトの経験</t>
-    <rPh sb="0" eb="2">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケイケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本語の勉強を始めた理由</t>
-    <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チームで働いたこと</t>
-    <rPh sb="4" eb="5">
-      <t>ハタラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チームでの難しさ</t>
-    <rPh sb="5" eb="6">
-      <t>ムズカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チーム内での自分の役割</t>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヤクワリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一番大変だったこと</t>
-    <rPh sb="0" eb="4">
-      <t>イチバンタイヘン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイトの経験</t>
-    <rPh sb="6" eb="8">
-      <t>ケイケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サークル活動や課外活動</t>
-    <rPh sb="4" eb="6">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カガイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カツドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入社後取り組みたいこと</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウシャゴ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大学時代で勉強意外に頑張ったこと</t>
-    <rPh sb="0" eb="4">
-      <t>ダイガクジダイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガンバ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7376,192 +7191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１．大学
-２．軍隊
-３．eスポーツ
-４．協調性と挑戦する精神</t>
-    <rPh sb="2" eb="4">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>グンタイ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>キョウチョウセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>チョウセン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セイシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１．日本語を始めた理由
-２．国際交流大会で日本人と一緒に働いた経験</t>
-    <rPh sb="2" eb="5">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="14" eb="20">
-      <t>コクサイコウリュウタイカイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ニホンジン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ハタラ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ケイケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>１．リーダーとしてチームを統率した経験が少ないこと
-２．</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>eスポーツ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の業務でリーダーとして必要なことを気づいた
-３．これからの覚悟</t>
-    </r>
-    <rPh sb="13" eb="15">
-      <t>トウソツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>カクゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１．協調性
-２．eスポーツ
-３．開発チームやマーケティング部署と連携した経験
-４．タイへの出張の機会</t>
-    <rPh sb="2" eb="5">
-      <t>キョウチョウセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シュッチョウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>１．</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>AlphaGo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-２．囲碁教室</t>
-    </r>
-    <rPh sb="12" eb="16">
-      <t>イゴキョウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同じ</t>
-    <rPh sb="0" eb="1">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業チームプロジェクト</t>
-    <rPh sb="0" eb="2">
-      <t>ソツギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンピューター工学</t>
-    <rPh sb="7" eb="9">
-      <t>コウガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私は大学で培った知識と経験を活かし、IT技術を通じて社会に貢献できるSIer企業を志望しております。
-中でも、大規模プロジェクトに携わる機会の多いユーザー系SIerで、チームワークや協力の大切さを深く学びたいと考えています。
-貴社は、損害保険業界トップである東京海上日動グループという強固な基盤のもと、大きな社会的インパクトを生み出せる環境が整っていると感じました。
-特に人々の生活と密接にかかわる保険・金融分野で、年金商品を案内するアプリの開発など、日常生活の利便性を高めるDXを推進している点に大変魅力を感じています。
-また、チームプロジェクトや空軍情報兵としての経験を通じて、上流工程から運用・保守までの一連のプロセスがどれほど重要かを実感いたしました。
-そこで、親会社のサービスを企画段階から運用まで一貫して担う貴社で、プロジェクト全体を見渡すエンジニア兼PMとして成長したいと考えております。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JBS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -7797,6 +7426,91 @@
     </rPh>
     <rPh sb="146" eb="147">
       <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就活の軸</t>
+    <rPh sb="0" eb="2">
+      <t>シュウカツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京海上日動システムズの志望理由</t>
+    <rPh sb="0" eb="6">
+      <t>トウキョウカイジョウニチドウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>シボウリユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は金融分野の大規模プロジェクトに携わることができる貴社を第一志望としております。
+大学でのチームプロジェクトやeスポーツの業務などにおいて、各々の専門性を持つメンバーとの協働を通じてシナジーを生み出した経験から、より大規模なチームで大きな成果を上げたいという思いが強くなりました。
+また、空軍で情報兵として勤務し、部隊の装備の運用・保守を通じてシステム全体の安全を支えるやりがいを感じました。
+ユーザー系SIer企業の中でも、東京海上グループの大規模システムを支え、上流工程から運用まで幅広く経験できる貴社は、私の自己実現に最適な環境だと考えております。
+特に、日常生活に欠かせない金融・保険分野の専門性をさらに高めながら、より直接的な社会貢献が可能な貴社で責任を持って業務に取り組み、エンジニアとして成長していきたいと考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は御社において、新技術に関する研鑽を積み重ね、システムの発展に貢献していきたいと考えております。
+具体的には、先輩社員の方々のお話から、現在御社ではAWSなどのクラウドへの移行によるサーバーレス化を推進されていると伺いました。
+クラウドはあらゆる分野で必須の要素になりつつあると認識しておりますので、入社後は関連業務に携わりながら、その知識を深めていきたいと考えております。
+また、金融や保険に関する知識がまだ十分でないため、日本の金融資格であるFPの学習を進めることで、IT技術だけでなく東京海上グループ全体の業務フローについても、より明確に理解していきたいと考えています。
+このような姿勢で常に挑戦を続け、御社のあらゆる分野でお役に立てる人材になりたいと考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社後取り組みたいこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．今まで携わった業務の中で一番やりがいを感じたことについて教えていただきたいです。
+２．大変なことがあったらどんな方法で克服できるかについて教えていただきたいです。
+３．御社で活躍している先輩社員の方々の共通点について教えていただきたいです。
+４．OOさんが御社への入社を決めた理由について教えていただきたいです。
+５．入社後、できるだけ早く仕事に慣れて貢献したいと考えております。そのため、入社前にどのような勉強をしておくと良いか、アドバイスをいただけますでしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は、周りから「人生を楽しむ人」とよく言われます。
+子供の頃から、「やってみないとわからない！」を口癖のように言っていたからかもしれません。
+例えば、中学生の頃は文章を書くことが好きで、自分のブログにコツコツと投稿を続けた結果、ポータルサイトで優秀ブログに選ばれ、記者として活動する機会をいただきました。
+大学では、eスポーツや日本語など、学業以外の活動にも積極的に取り組んできました。
+しかし、「今しかできない」と考えて取り組んだeスポーツの仕事のために、2年間大学を休学し、周囲に心配をかけたこともありました。
+その経験から、これからは着実に未来を設計できる環境で、新しい挑戦を続けていきたいと考えています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空白期の理由</t>
+    <rPh sb="0" eb="3">
+      <t>クウハクキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私が日本での就職を決めた理由は、日本独自の文化やチームワークを重んじる社会に大きな魅力を感じたからです。
+そこで、ただ翻訳された歌詞ではなく原文そのままのメッセージを知りたいと思い、日本語の勉強を始めました。
+昨年、eスポーツの業務で国際交流大会に参加し、日本の方々と一緒に働く機会がありましたが、互いを尊重しながら明るい雰囲気で仕事をする様子やチームワークの高さに深い感銘を受けました。
+この経験をきっかけに、日本という新しい環境でより広い視野を身に付け、多くのことを学びたいと強く思うようになりました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IT業界の志望理由
+</t>
+    <rPh sb="2" eb="4">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シボウリユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8498,7 +8212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8742,9 +8456,6 @@
     <xf numFmtId="22" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -8793,9 +8504,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8871,9 +8579,6 @@
     <xf numFmtId="49" fontId="10" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8911,6 +8616,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9349,8 +9060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC70DC4-F0DC-4C6F-8135-CC403CCD1BBE}">
   <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L164" sqref="L164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9367,20 +9078,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="145" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="147"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="146"/>
       <c r="M1" s="1" t="s">
         <v>295</v>
       </c>
@@ -9416,19 +9127,19 @@
       <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="142" t="s">
+      <c r="K2" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="143"/>
+      <c r="L2" s="142"/>
       <c r="M2" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A3" s="141">
+      <c r="A3" s="140">
         <v>1</v>
       </c>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="138" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -9454,8 +9165,8 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="141"/>
-      <c r="B4" s="141"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -9470,10 +9181,10 @@
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A5" s="141">
+      <c r="A5" s="140">
         <v>2</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="138" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -9496,8 +9207,8 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="141"/>
-      <c r="B6" s="139"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
@@ -9509,10 +9220,10 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A7" s="141">
+      <c r="A7" s="140">
         <v>3</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="138" t="s">
         <v>153</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -9535,8 +9246,8 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="141"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
@@ -9551,10 +9262,10 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A9" s="141">
+      <c r="A9" s="140">
         <v>4</v>
       </c>
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="137" t="s">
         <v>154</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -9583,8 +9294,8 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="141"/>
-      <c r="B10" s="138"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="55" t="s">
         <v>3</v>
       </c>
@@ -9608,10 +9319,10 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A11" s="141">
+      <c r="A11" s="140">
         <v>5</v>
       </c>
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="138" t="s">
         <v>155</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -9634,8 +9345,8 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="141"/>
-      <c r="B12" s="139"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
@@ -9650,10 +9361,10 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="141">
+      <c r="A13" s="140">
         <v>6</v>
       </c>
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="138" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -9676,8 +9387,8 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="141"/>
-      <c r="B14" s="139"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="16" t="s">
         <v>3</v>
       </c>
@@ -9692,10 +9403,10 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A15" s="141">
+      <c r="A15" s="140">
         <v>7</v>
       </c>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="137" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="57" t="s">
@@ -9722,8 +9433,8 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="141"/>
-      <c r="B16" s="138"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="55" t="s">
         <v>3</v>
       </c>
@@ -9738,10 +9449,10 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A17" s="141">
+      <c r="A17" s="140">
         <v>8</v>
       </c>
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="138" t="s">
         <v>158</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -9762,8 +9473,8 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="141"/>
-      <c r="B18" s="139"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="16" t="s">
         <v>50</v>
       </c>
@@ -9778,10 +9489,10 @@
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="141">
+      <c r="A19" s="140">
         <v>9</v>
       </c>
-      <c r="B19" s="139" t="s">
+      <c r="B19" s="138" t="s">
         <v>159</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -9804,8 +9515,8 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="141"/>
-      <c r="B20" s="139"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="16" t="s">
         <v>3</v>
       </c>
@@ -9820,10 +9531,10 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="141">
+      <c r="A21" s="140">
         <v>10</v>
       </c>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="138" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -9844,8 +9555,8 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="141"/>
-      <c r="B22" s="139"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="138"/>
       <c r="C22" s="16" t="s">
         <v>3</v>
       </c>
@@ -9865,10 +9576,10 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="141">
+      <c r="A23" s="140">
         <v>11</v>
       </c>
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="138" t="s">
         <v>161</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -9889,8 +9600,8 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="141"/>
-      <c r="B24" s="139"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="138"/>
       <c r="C24" s="16" t="s">
         <v>3</v>
       </c>
@@ -9907,10 +9618,10 @@
       <c r="L24" s="19"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="141">
+      <c r="A25" s="140">
         <v>12</v>
       </c>
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="137" t="s">
         <v>162</v>
       </c>
       <c r="C25" s="57" t="s">
@@ -9939,8 +9650,8 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="141"/>
-      <c r="B26" s="138"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="137"/>
       <c r="C26" s="55" t="s">
         <v>0</v>
       </c>
@@ -9965,10 +9676,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A27" s="141">
+      <c r="A27" s="140">
         <v>13</v>
       </c>
-      <c r="B27" s="138" t="s">
+      <c r="B27" s="137" t="s">
         <v>163</v>
       </c>
       <c r="C27" s="57" t="s">
@@ -9999,8 +9710,8 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="141"/>
-      <c r="B28" s="138"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="55" t="s">
         <v>0</v>
       </c>
@@ -10008,7 +9719,7 @@
       <c r="E28" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="86" t="s">
         <v>132</v>
       </c>
       <c r="G28" s="42" t="s">
@@ -10025,10 +9736,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A29" s="141">
+      <c r="A29" s="140">
         <v>14</v>
       </c>
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="138" t="s">
         <v>164</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -10051,8 +9762,8 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="141"/>
-      <c r="B30" s="139"/>
+      <c r="A30" s="140"/>
+      <c r="B30" s="138"/>
       <c r="C30" s="16" t="s">
         <v>0</v>
       </c>
@@ -10071,10 +9782,10 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A31" s="141">
+      <c r="A31" s="140">
         <v>15</v>
       </c>
-      <c r="B31" s="139" t="s">
+      <c r="B31" s="138" t="s">
         <v>165</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -10097,14 +9808,14 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="141"/>
-      <c r="B32" s="139"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="138"/>
       <c r="C32" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
       <c r="G32" s="12"/>
       <c r="H32" s="16"/>
       <c r="I32" s="12"/>
@@ -10117,10 +9828,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="141">
+      <c r="A33" s="140">
         <v>16</v>
       </c>
-      <c r="B33" s="139" t="s">
+      <c r="B33" s="138" t="s">
         <v>166</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -10129,8 +9840,8 @@
       <c r="D33" s="77">
         <v>45667</v>
       </c>
-      <c r="E33" s="101"/>
-      <c r="F33" s="129"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="126"/>
       <c r="G33" s="9"/>
       <c r="H33" s="15"/>
       <c r="I33" s="9"/>
@@ -10145,14 +9856,14 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="141"/>
-      <c r="B34" s="139"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="138"/>
       <c r="C34" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="48"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
       <c r="G34" s="12"/>
       <c r="H34" s="16"/>
       <c r="I34" s="12"/>
@@ -10161,10 +9872,10 @@
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A35" s="141">
+      <c r="A35" s="140">
         <v>17</v>
       </c>
-      <c r="B35" s="139" t="s">
+      <c r="B35" s="138" t="s">
         <v>167</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -10173,8 +9884,8 @@
       <c r="D35" s="77">
         <v>45667</v>
       </c>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
       <c r="G35" s="9"/>
       <c r="H35" s="15"/>
       <c r="I35" s="9"/>
@@ -10189,14 +9900,14 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="141"/>
-      <c r="B36" s="139"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="138"/>
       <c r="C36" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="48"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
       <c r="G36" s="12"/>
       <c r="H36" s="16"/>
       <c r="I36" s="12"/>
@@ -10205,18 +9916,18 @@
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A37" s="141">
+      <c r="A37" s="140">
         <v>18</v>
       </c>
-      <c r="B37" s="139" t="s">
+      <c r="B37" s="138" t="s">
         <v>168</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="20"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
       <c r="G37" s="9"/>
       <c r="H37" s="15"/>
       <c r="I37" s="9"/>
@@ -10231,14 +9942,14 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="141"/>
-      <c r="B38" s="139"/>
+      <c r="A38" s="140"/>
+      <c r="B38" s="138"/>
       <c r="C38" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="21"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
       <c r="G38" s="12"/>
       <c r="H38" s="16"/>
       <c r="I38" s="12"/>
@@ -10249,10 +9960,10 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A39" s="141">
+      <c r="A39" s="140">
         <v>19</v>
       </c>
-      <c r="B39" s="139" t="s">
+      <c r="B39" s="138" t="s">
         <v>169</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -10261,8 +9972,8 @@
       <c r="D39" s="24">
         <v>45691.416666666664</v>
       </c>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
       <c r="G39" s="9"/>
       <c r="H39" s="15"/>
       <c r="I39" s="9"/>
@@ -10277,14 +9988,14 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="141"/>
-      <c r="B40" s="139"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="138"/>
       <c r="C40" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="48"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
       <c r="G40" s="12"/>
       <c r="H40" s="16"/>
       <c r="I40" s="12"/>
@@ -10295,10 +10006,10 @@
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A41" s="141">
+      <c r="A41" s="140">
         <v>20</v>
       </c>
-      <c r="B41" s="139" t="s">
+      <c r="B41" s="138" t="s">
         <v>170</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -10321,8 +10032,8 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="141"/>
-      <c r="B42" s="139"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="138"/>
       <c r="C42" s="16" t="s">
         <v>0</v>
       </c>
@@ -10337,10 +10048,10 @@
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A43" s="141">
+      <c r="A43" s="140">
         <v>21</v>
       </c>
-      <c r="B43" s="138" t="s">
+      <c r="B43" s="137" t="s">
         <v>171</v>
       </c>
       <c r="C43" s="67" t="s">
@@ -10361,8 +10072,8 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="141"/>
-      <c r="B44" s="138"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="67" t="s">
         <v>0</v>
       </c>
@@ -10374,10 +10085,10 @@
       <c r="L44" s="14"/>
     </row>
     <row r="45" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A45" s="141">
+      <c r="A45" s="140">
         <v>22</v>
       </c>
-      <c r="B45" s="139" t="s">
+      <c r="B45" s="138" t="s">
         <v>172</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -10400,8 +10111,8 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="141"/>
-      <c r="B46" s="139"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="138"/>
       <c r="C46" s="16" t="s">
         <v>0</v>
       </c>
@@ -10416,10 +10127,10 @@
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A47" s="141">
+      <c r="A47" s="140">
         <v>23</v>
       </c>
-      <c r="B47" s="139" t="s">
+      <c r="B47" s="138" t="s">
         <v>173</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -10441,8 +10152,8 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="141"/>
-      <c r="B48" s="139"/>
+      <c r="A48" s="140"/>
+      <c r="B48" s="138"/>
       <c r="C48" s="17" t="s">
         <v>0</v>
       </c>
@@ -10456,10 +10167,10 @@
       <c r="L48" s="14"/>
     </row>
     <row r="49" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A49" s="141">
+      <c r="A49" s="140">
         <v>24</v>
       </c>
-      <c r="B49" s="139" t="s">
+      <c r="B49" s="138" t="s">
         <v>174</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -10482,8 +10193,8 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="141"/>
-      <c r="B50" s="139"/>
+      <c r="A50" s="140"/>
+      <c r="B50" s="138"/>
       <c r="C50" s="16" t="s">
         <v>0</v>
       </c>
@@ -10500,10 +10211,10 @@
       <c r="L50" s="13"/>
     </row>
     <row r="51" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A51" s="141">
+      <c r="A51" s="140">
         <v>25</v>
       </c>
-      <c r="B51" s="138" t="s">
+      <c r="B51" s="137" t="s">
         <v>175</v>
       </c>
       <c r="C51" s="67" t="s">
@@ -10528,8 +10239,8 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="141"/>
-      <c r="B52" s="138"/>
+      <c r="A52" s="140"/>
+      <c r="B52" s="137"/>
       <c r="C52" s="67" t="s">
         <v>0</v>
       </c>
@@ -10546,10 +10257,10 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A53" s="141">
+      <c r="A53" s="140">
         <v>26</v>
       </c>
-      <c r="B53" s="139" t="s">
+      <c r="B53" s="138" t="s">
         <v>176</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -10570,8 +10281,8 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="141"/>
-      <c r="B54" s="139"/>
+      <c r="A54" s="140"/>
+      <c r="B54" s="138"/>
       <c r="C54" s="16" t="s">
         <v>0</v>
       </c>
@@ -10586,10 +10297,10 @@
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="141">
+      <c r="A55" s="140">
         <v>27</v>
       </c>
-      <c r="B55" s="141" t="s">
+      <c r="B55" s="140" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -10612,8 +10323,8 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="141"/>
-      <c r="B56" s="141"/>
+      <c r="A56" s="140"/>
+      <c r="B56" s="140"/>
       <c r="C56" s="17" t="s">
         <v>0</v>
       </c>
@@ -10625,28 +10336,28 @@
       <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A57" s="141">
+      <c r="A57" s="140">
         <v>28</v>
       </c>
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="138" t="s">
         <v>177</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="111">
+      <c r="D57" s="109">
         <v>45681.416666666664</v>
       </c>
       <c r="E57" s="35">
         <v>45690.5</v>
       </c>
-      <c r="F57" s="88">
+      <c r="F57" s="87">
         <v>45697</v>
       </c>
-      <c r="G57" s="99">
+      <c r="G57" s="97">
         <v>45715</v>
       </c>
-      <c r="H57" s="144" t="s">
+      <c r="H57" s="143" t="s">
         <v>428</v>
       </c>
       <c r="I57" s="62">
@@ -10663,21 +10374,21 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="141"/>
-      <c r="B58" s="139"/>
+      <c r="A58" s="140"/>
+      <c r="B58" s="138"/>
       <c r="C58" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="112"/>
+      <c r="D58" s="110"/>
       <c r="E58" s="56"/>
-      <c r="F58" s="89" t="s">
+      <c r="F58" s="88" t="s">
         <v>356</v>
       </c>
-      <c r="G58" s="100" t="s">
+      <c r="G58" s="98" t="s">
         <v>359</v>
       </c>
-      <c r="H58" s="145"/>
-      <c r="I58" s="103">
+      <c r="H58" s="144"/>
+      <c r="I58" s="101">
         <v>0.625</v>
       </c>
       <c r="J58" s="16"/>
@@ -10689,10 +10400,10 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A59" s="141">
+      <c r="A59" s="140">
         <v>29</v>
       </c>
-      <c r="B59" s="139" t="s">
+      <c r="B59" s="138" t="s">
         <v>178</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -10714,8 +10425,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="141"/>
-      <c r="B60" s="139"/>
+      <c r="A60" s="140"/>
+      <c r="B60" s="138"/>
       <c r="C60" s="17" t="s">
         <v>117</v>
       </c>
@@ -10730,10 +10441,10 @@
       <c r="L60" s="14"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="141">
+      <c r="A61" s="140">
         <v>30</v>
       </c>
-      <c r="B61" s="140" t="s">
+      <c r="B61" s="139" t="s">
         <v>33</v>
       </c>
       <c r="C61" s="57" t="s">
@@ -10745,7 +10456,7 @@
       <c r="E61" s="65">
         <v>45721</v>
       </c>
-      <c r="F61" s="101"/>
+      <c r="F61" s="99"/>
       <c r="G61" s="9"/>
       <c r="H61" s="15"/>
       <c r="I61" s="9"/>
@@ -10760,14 +10471,14 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="141"/>
-      <c r="B62" s="140"/>
+      <c r="A62" s="140"/>
+      <c r="B62" s="139"/>
       <c r="C62" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
-      <c r="F62" s="104"/>
+      <c r="F62" s="102"/>
       <c r="G62" s="12" t="s">
         <v>298</v>
       </c>
@@ -10782,10 +10493,10 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A63" s="141">
+      <c r="A63" s="140">
         <v>31</v>
       </c>
-      <c r="B63" s="138" t="s">
+      <c r="B63" s="137" t="s">
         <v>179</v>
       </c>
       <c r="C63" s="67" t="s">
@@ -10810,8 +10521,8 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="141"/>
-      <c r="B64" s="138"/>
+      <c r="A64" s="140"/>
+      <c r="B64" s="137"/>
       <c r="C64" s="67" t="s">
         <v>0</v>
       </c>
@@ -10825,10 +10536,10 @@
       <c r="L64" s="14"/>
     </row>
     <row r="65" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A65" s="141">
+      <c r="A65" s="140">
         <v>32</v>
       </c>
-      <c r="B65" s="139" t="s">
+      <c r="B65" s="138" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -10849,8 +10560,8 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="141"/>
-      <c r="B66" s="139"/>
+      <c r="A66" s="140"/>
+      <c r="B66" s="138"/>
       <c r="C66" s="16" t="s">
         <v>0</v>
       </c>
@@ -10865,10 +10576,10 @@
       <c r="L66" s="13"/>
     </row>
     <row r="67" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A67" s="141">
+      <c r="A67" s="140">
         <v>33</v>
       </c>
-      <c r="B67" s="139" t="s">
+      <c r="B67" s="138" t="s">
         <v>180</v>
       </c>
       <c r="C67" s="17" t="s">
@@ -10878,7 +10589,7 @@
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="H67" s="17"/>
-      <c r="J67" s="90" t="s">
+      <c r="J67" s="89" t="s">
         <v>95</v>
       </c>
       <c r="K67" s="7" t="s">
@@ -10889,8 +10600,8 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="141"/>
-      <c r="B68" s="139"/>
+      <c r="A68" s="140"/>
+      <c r="B68" s="138"/>
       <c r="C68" s="17" t="s">
         <v>0</v>
       </c>
@@ -10902,10 +10613,10 @@
       <c r="L68" s="14"/>
     </row>
     <row r="69" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A69" s="141">
+      <c r="A69" s="140">
         <v>34</v>
       </c>
-      <c r="B69" s="139" t="s">
+      <c r="B69" s="138" t="s">
         <v>181</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -10926,8 +10637,8 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="141"/>
-      <c r="B70" s="139"/>
+      <c r="A70" s="140"/>
+      <c r="B70" s="138"/>
       <c r="C70" s="16" t="s">
         <v>0</v>
       </c>
@@ -10942,10 +10653,10 @@
       <c r="L70" s="13"/>
     </row>
     <row r="71" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A71" s="141">
+      <c r="A71" s="140">
         <v>35</v>
       </c>
-      <c r="B71" s="139" t="s">
+      <c r="B71" s="138" t="s">
         <v>182</v>
       </c>
       <c r="C71" s="17" t="s">
@@ -10966,8 +10677,8 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="141"/>
-      <c r="B72" s="139"/>
+      <c r="A72" s="140"/>
+      <c r="B72" s="138"/>
       <c r="C72" s="17" t="s">
         <v>0</v>
       </c>
@@ -10984,10 +10695,10 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A73" s="141">
+      <c r="A73" s="140">
         <v>36</v>
       </c>
-      <c r="B73" s="139" t="s">
+      <c r="B73" s="138" t="s">
         <v>183</v>
       </c>
       <c r="C73" s="15" t="s">
@@ -11008,8 +10719,8 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="141"/>
-      <c r="B74" s="139"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="138"/>
       <c r="C74" s="16" t="s">
         <v>184</v>
       </c>
@@ -11024,17 +10735,17 @@
       <c r="L74" s="13"/>
     </row>
     <row r="75" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A75" s="141">
+      <c r="A75" s="140">
         <v>37</v>
       </c>
-      <c r="B75" s="139" t="s">
+      <c r="B75" s="138" t="s">
         <v>185</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="105"/>
+      <c r="E75" s="103"/>
       <c r="F75" s="17"/>
       <c r="H75" s="17"/>
       <c r="J75" s="40" t="s">
@@ -11048,13 +10759,13 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="141"/>
-      <c r="B76" s="139"/>
+      <c r="A76" s="140"/>
+      <c r="B76" s="138"/>
       <c r="C76" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="106"/>
+      <c r="E76" s="104"/>
       <c r="F76" s="17"/>
       <c r="H76" s="17"/>
       <c r="J76" s="17"/>
@@ -11064,10 +10775,10 @@
       <c r="L76" s="14"/>
     </row>
     <row r="77" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A77" s="141">
+      <c r="A77" s="140">
         <v>38</v>
       </c>
-      <c r="B77" s="139" t="s">
+      <c r="B77" s="138" t="s">
         <v>186</v>
       </c>
       <c r="C77" s="15" t="s">
@@ -11094,8 +10805,8 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="141"/>
-      <c r="B78" s="139"/>
+      <c r="A78" s="140"/>
+      <c r="B78" s="138"/>
       <c r="C78" s="16" t="s">
         <v>0</v>
       </c>
@@ -11114,10 +10825,10 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A79" s="141">
+      <c r="A79" s="140">
         <v>39</v>
       </c>
-      <c r="B79" s="138" t="s">
+      <c r="B79" s="137" t="s">
         <v>187</v>
       </c>
       <c r="C79" s="67" t="s">
@@ -11136,8 +10847,8 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="141"/>
-      <c r="B80" s="138"/>
+      <c r="A80" s="140"/>
+      <c r="B80" s="137"/>
       <c r="C80" s="67" t="s">
         <v>0</v>
       </c>
@@ -11149,10 +10860,10 @@
       <c r="L80" s="14"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="141">
+      <c r="A81" s="140">
         <v>40</v>
       </c>
-      <c r="B81" s="141" t="s">
+      <c r="B81" s="140" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -11173,8 +10884,8 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="141"/>
-      <c r="B82" s="141"/>
+      <c r="A82" s="140"/>
+      <c r="B82" s="140"/>
       <c r="C82" s="16" t="s">
         <v>184</v>
       </c>
@@ -11189,10 +10900,10 @@
       <c r="L82" s="13"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A83" s="141">
+      <c r="A83" s="140">
         <v>41</v>
       </c>
-      <c r="B83" s="139" t="s">
+      <c r="B83" s="138" t="s">
         <v>188</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -11211,8 +10922,8 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="141"/>
-      <c r="B84" s="139"/>
+      <c r="A84" s="140"/>
+      <c r="B84" s="138"/>
       <c r="C84" s="17" t="s">
         <v>0</v>
       </c>
@@ -11224,10 +10935,10 @@
       <c r="L84" s="14"/>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A85" s="141">
+      <c r="A85" s="140">
         <v>42</v>
       </c>
-      <c r="B85" s="139" t="s">
+      <c r="B85" s="138" t="s">
         <v>189</v>
       </c>
       <c r="C85" s="15" t="s">
@@ -11248,8 +10959,8 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="141"/>
-      <c r="B86" s="139"/>
+      <c r="A86" s="140"/>
+      <c r="B86" s="138"/>
       <c r="C86" s="16" t="s">
         <v>190</v>
       </c>
@@ -11264,25 +10975,25 @@
       <c r="L86" s="13"/>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A87" s="141">
+      <c r="A87" s="140">
         <v>43</v>
       </c>
-      <c r="B87" s="139" t="s">
+      <c r="B87" s="138" t="s">
         <v>347</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="107">
+      <c r="D87" s="105">
         <v>45704</v>
       </c>
-      <c r="E87" s="108">
+      <c r="E87" s="106">
         <v>45721</v>
       </c>
-      <c r="F87" s="108">
+      <c r="F87" s="106">
         <v>45721</v>
       </c>
-      <c r="G87" s="113">
+      <c r="G87" s="111">
         <v>45734</v>
       </c>
       <c r="H87" s="17"/>
@@ -11297,21 +11008,21 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="141"/>
-      <c r="B88" s="139"/>
+      <c r="A88" s="140"/>
+      <c r="B88" s="138"/>
       <c r="C88" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D88" s="109" t="s">
+      <c r="D88" s="107" t="s">
         <v>348</v>
       </c>
-      <c r="E88" s="110" t="s">
+      <c r="E88" s="108" t="s">
         <v>385</v>
       </c>
-      <c r="F88" s="110" t="s">
+      <c r="F88" s="108" t="s">
         <v>385</v>
       </c>
-      <c r="G88" s="114">
+      <c r="G88" s="112">
         <v>0.54861111111111116</v>
       </c>
       <c r="H88" s="17"/>
@@ -11324,10 +11035,10 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A89" s="141">
+      <c r="A89" s="140">
         <v>44</v>
       </c>
-      <c r="B89" s="138" t="s">
+      <c r="B89" s="137" t="s">
         <v>191</v>
       </c>
       <c r="C89" s="57" t="s">
@@ -11350,8 +11061,8 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="141"/>
-      <c r="B90" s="138"/>
+      <c r="A90" s="140"/>
+      <c r="B90" s="137"/>
       <c r="C90" s="55" t="s">
         <v>0</v>
       </c>
@@ -11366,10 +11077,10 @@
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A91" s="141">
+      <c r="A91" s="140">
         <v>45</v>
       </c>
-      <c r="B91" s="139" t="s">
+      <c r="B91" s="138" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="17" t="s">
@@ -11388,8 +11099,8 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="141"/>
-      <c r="B92" s="139"/>
+      <c r="A92" s="140"/>
+      <c r="B92" s="138"/>
       <c r="C92" s="17" t="s">
         <v>73</v>
       </c>
@@ -11401,10 +11112,10 @@
       <c r="L92" s="14"/>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A93" s="141">
+      <c r="A93" s="140">
         <v>46</v>
       </c>
-      <c r="B93" s="139" t="s">
+      <c r="B93" s="138" t="s">
         <v>193</v>
       </c>
       <c r="C93" s="15" t="s">
@@ -11425,8 +11136,8 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="141"/>
-      <c r="B94" s="139"/>
+      <c r="A94" s="140"/>
+      <c r="B94" s="138"/>
       <c r="C94" s="16" t="s">
         <v>74</v>
       </c>
@@ -11441,10 +11152,10 @@
       <c r="L94" s="13"/>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A95" s="141">
+      <c r="A95" s="140">
         <v>47</v>
       </c>
-      <c r="B95" s="139" t="s">
+      <c r="B95" s="138" t="s">
         <v>194</v>
       </c>
       <c r="C95" s="17" t="s">
@@ -11463,8 +11174,8 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="141"/>
-      <c r="B96" s="139"/>
+      <c r="A96" s="140"/>
+      <c r="B96" s="138"/>
       <c r="C96" s="17" t="s">
         <v>0</v>
       </c>
@@ -11476,10 +11187,10 @@
       <c r="L96" s="14"/>
     </row>
     <row r="97" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A97" s="141">
+      <c r="A97" s="140">
         <v>48</v>
       </c>
-      <c r="B97" s="139" t="s">
+      <c r="B97" s="138" t="s">
         <v>195</v>
       </c>
       <c r="C97" s="15" t="s">
@@ -11502,8 +11213,8 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="141"/>
-      <c r="B98" s="139"/>
+      <c r="A98" s="140"/>
+      <c r="B98" s="138"/>
       <c r="C98" s="16" t="s">
         <v>0</v>
       </c>
@@ -11518,10 +11229,10 @@
       <c r="L98" s="13"/>
     </row>
     <row r="99" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A99" s="141">
+      <c r="A99" s="140">
         <v>49</v>
       </c>
-      <c r="B99" s="138" t="s">
+      <c r="B99" s="137" t="s">
         <v>196</v>
       </c>
       <c r="C99" s="67" t="s">
@@ -11530,7 +11241,7 @@
       <c r="D99" s="68">
         <v>45694.416666666664</v>
       </c>
-      <c r="E99" s="84">
+      <c r="E99" s="83">
         <v>45695.666666666664</v>
       </c>
       <c r="F99" s="69">
@@ -11548,8 +11259,8 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="141"/>
-      <c r="B100" s="138"/>
+      <c r="A100" s="140"/>
+      <c r="B100" s="137"/>
       <c r="C100" s="67" t="s">
         <v>0</v>
       </c>
@@ -11568,10 +11279,10 @@
       <c r="L100" s="14"/>
     </row>
     <row r="101" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A101" s="141">
+      <c r="A101" s="140">
         <v>50</v>
       </c>
-      <c r="B101" s="138" t="s">
+      <c r="B101" s="137" t="s">
         <v>197</v>
       </c>
       <c r="C101" s="57" t="s">
@@ -11598,8 +11309,8 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="141"/>
-      <c r="B102" s="138"/>
+      <c r="A102" s="140"/>
+      <c r="B102" s="137"/>
       <c r="C102" s="55" t="s">
         <v>0</v>
       </c>
@@ -11620,10 +11331,10 @@
       <c r="L102" s="13"/>
     </row>
     <row r="103" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A103" s="141">
+      <c r="A103" s="140">
         <v>51</v>
       </c>
-      <c r="B103" s="139" t="s">
+      <c r="B103" s="138" t="s">
         <v>198</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -11642,8 +11353,8 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="141"/>
-      <c r="B104" s="139"/>
+      <c r="A104" s="140"/>
+      <c r="B104" s="138"/>
       <c r="C104" s="17" t="s">
         <v>0</v>
       </c>
@@ -11655,10 +11366,10 @@
       <c r="L104" s="14"/>
     </row>
     <row r="105" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A105" s="141">
+      <c r="A105" s="140">
         <v>52</v>
       </c>
-      <c r="B105" s="139" t="s">
+      <c r="B105" s="138" t="s">
         <v>199</v>
       </c>
       <c r="C105" s="15" t="s">
@@ -11681,8 +11392,8 @@
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="141"/>
-      <c r="B106" s="139"/>
+      <c r="A106" s="140"/>
+      <c r="B106" s="138"/>
       <c r="C106" s="16" t="s">
         <v>0</v>
       </c>
@@ -11697,10 +11408,10 @@
       <c r="L106" s="13"/>
     </row>
     <row r="107" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A107" s="141">
+      <c r="A107" s="140">
         <v>53</v>
       </c>
-      <c r="B107" s="139" t="s">
+      <c r="B107" s="138" t="s">
         <v>200</v>
       </c>
       <c r="C107" s="17" t="s">
@@ -11719,8 +11430,8 @@
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="141"/>
-      <c r="B108" s="139"/>
+      <c r="A108" s="140"/>
+      <c r="B108" s="138"/>
       <c r="C108" s="17" t="s">
         <v>0</v>
       </c>
@@ -11732,10 +11443,10 @@
       <c r="L108" s="14"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="141">
+      <c r="A109" s="140">
         <v>54</v>
       </c>
-      <c r="B109" s="140" t="s">
+      <c r="B109" s="139" t="s">
         <v>69</v>
       </c>
       <c r="C109" s="57" t="s">
@@ -11758,8 +11469,8 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="141"/>
-      <c r="B110" s="140"/>
+      <c r="A110" s="140"/>
+      <c r="B110" s="139"/>
       <c r="C110" s="55" t="s">
         <v>73</v>
       </c>
@@ -11776,10 +11487,10 @@
       <c r="L110" s="13"/>
     </row>
     <row r="111" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A111" s="141">
+      <c r="A111" s="140">
         <v>55</v>
       </c>
-      <c r="B111" s="139" t="s">
+      <c r="B111" s="138" t="s">
         <v>201</v>
       </c>
       <c r="C111" s="17" t="s">
@@ -11798,8 +11509,8 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="141"/>
-      <c r="B112" s="139"/>
+      <c r="A112" s="140"/>
+      <c r="B112" s="138"/>
       <c r="C112" s="17" t="s">
         <v>0</v>
       </c>
@@ -11811,10 +11522,10 @@
       <c r="L112" s="14"/>
     </row>
     <row r="113" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A113" s="141">
+      <c r="A113" s="140">
         <v>56</v>
       </c>
-      <c r="B113" s="138" t="s">
+      <c r="B113" s="137" t="s">
         <v>202</v>
       </c>
       <c r="C113" s="57" t="s">
@@ -11841,14 +11552,14 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="141"/>
-      <c r="B114" s="138"/>
+      <c r="A114" s="140"/>
+      <c r="B114" s="137"/>
       <c r="C114" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D114" s="59"/>
       <c r="E114" s="55"/>
-      <c r="F114" s="87">
+      <c r="F114" s="86">
         <v>45689.416666666664</v>
       </c>
       <c r="G114" s="12"/>
@@ -11859,19 +11570,19 @@
       <c r="L114" s="13"/>
     </row>
     <row r="115" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A115" s="141">
+      <c r="A115" s="140">
         <v>57</v>
       </c>
-      <c r="B115" s="138" t="s">
+      <c r="B115" s="137" t="s">
         <v>203</v>
       </c>
       <c r="C115" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="83">
+      <c r="D115" s="82">
         <v>45707</v>
       </c>
-      <c r="E115" s="84">
+      <c r="E115" s="83">
         <v>45702.416666666664</v>
       </c>
       <c r="F115" s="69">
@@ -11889,8 +11600,8 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="141"/>
-      <c r="B116" s="138"/>
+      <c r="A116" s="140"/>
+      <c r="B116" s="137"/>
       <c r="C116" s="67" t="s">
         <v>0</v>
       </c>
@@ -11911,10 +11622,10 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A117" s="141">
+      <c r="A117" s="140">
         <v>58</v>
       </c>
-      <c r="B117" s="140" t="s">
+      <c r="B117" s="139" t="s">
         <v>100</v>
       </c>
       <c r="C117" s="57" t="s">
@@ -11943,8 +11654,8 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="141"/>
-      <c r="B118" s="140"/>
+      <c r="A118" s="140"/>
+      <c r="B118" s="139"/>
       <c r="C118" s="55" t="s">
         <v>0</v>
       </c>
@@ -11965,10 +11676,10 @@
       </c>
     </row>
     <row r="119" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A119" s="141">
+      <c r="A119" s="140">
         <v>59</v>
       </c>
-      <c r="B119" s="139" t="s">
+      <c r="B119" s="138" t="s">
         <v>204</v>
       </c>
       <c r="C119" s="17" t="s">
@@ -11987,8 +11698,8 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="141"/>
-      <c r="B120" s="139"/>
+      <c r="A120" s="140"/>
+      <c r="B120" s="138"/>
       <c r="C120" s="17" t="s">
         <v>0</v>
       </c>
@@ -12000,10 +11711,10 @@
       <c r="L120" s="14"/>
     </row>
     <row r="121" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A121" s="141">
+      <c r="A121" s="140">
         <v>60</v>
       </c>
-      <c r="B121" s="139" t="s">
+      <c r="B121" s="138" t="s">
         <v>205</v>
       </c>
       <c r="C121" s="15" t="s">
@@ -12024,8 +11735,8 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="141"/>
-      <c r="B122" s="139"/>
+      <c r="A122" s="140"/>
+      <c r="B122" s="138"/>
       <c r="C122" s="16" t="s">
         <v>0</v>
       </c>
@@ -12042,10 +11753,10 @@
       <c r="L122" s="13"/>
     </row>
     <row r="123" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A123" s="141">
+      <c r="A123" s="140">
         <v>61</v>
       </c>
-      <c r="B123" s="138" t="s">
+      <c r="B123" s="137" t="s">
         <v>206</v>
       </c>
       <c r="C123" s="67" t="s">
@@ -12070,8 +11781,8 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="141"/>
-      <c r="B124" s="138"/>
+      <c r="A124" s="140"/>
+      <c r="B124" s="137"/>
       <c r="C124" s="67" t="s">
         <v>0</v>
       </c>
@@ -12086,10 +11797,10 @@
       <c r="L124" s="26"/>
     </row>
     <row r="125" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A125" s="141">
+      <c r="A125" s="140">
         <v>62</v>
       </c>
-      <c r="B125" s="138" t="s">
+      <c r="B125" s="137" t="s">
         <v>207</v>
       </c>
       <c r="C125" s="57" t="s">
@@ -12116,8 +11827,8 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="141"/>
-      <c r="B126" s="138"/>
+      <c r="A126" s="140"/>
+      <c r="B126" s="137"/>
       <c r="C126" s="55" t="s">
         <v>0</v>
       </c>
@@ -12136,18 +11847,18 @@
       <c r="L126" s="19"/>
     </row>
     <row r="127" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A127" s="141">
+      <c r="A127" s="140">
         <v>63</v>
       </c>
-      <c r="B127" s="139" t="s">
+      <c r="B127" s="138" t="s">
         <v>208</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D127" s="15"/>
-      <c r="E127" s="105"/>
-      <c r="F127" s="106"/>
+      <c r="E127" s="103"/>
+      <c r="F127" s="104"/>
       <c r="H127" s="17"/>
       <c r="J127" s="40" t="s">
         <v>108</v>
@@ -12160,14 +11871,14 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="141"/>
-      <c r="B128" s="139"/>
+      <c r="A128" s="140"/>
+      <c r="B128" s="138"/>
       <c r="C128" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D128" s="16"/>
-      <c r="E128" s="106"/>
-      <c r="F128" s="106"/>
+      <c r="E128" s="104"/>
+      <c r="F128" s="104"/>
       <c r="H128" s="17"/>
       <c r="J128" s="17"/>
       <c r="K128" s="6" t="s">
@@ -12178,10 +11889,10 @@
       </c>
     </row>
     <row r="129" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A129" s="141">
+      <c r="A129" s="140">
         <v>64</v>
       </c>
-      <c r="B129" s="139" t="s">
+      <c r="B129" s="138" t="s">
         <v>209</v>
       </c>
       <c r="C129" s="15" t="s">
@@ -12190,8 +11901,8 @@
       <c r="D129" s="27">
         <v>45691.75</v>
       </c>
-      <c r="E129" s="129"/>
-      <c r="F129" s="129"/>
+      <c r="E129" s="126"/>
+      <c r="F129" s="126"/>
       <c r="G129" s="9"/>
       <c r="H129" s="15"/>
       <c r="I129" s="9"/>
@@ -12206,14 +11917,14 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="141"/>
-      <c r="B130" s="139"/>
+      <c r="A130" s="140"/>
+      <c r="B130" s="138"/>
       <c r="C130" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D130" s="48"/>
-      <c r="E130" s="104"/>
-      <c r="F130" s="104"/>
+      <c r="E130" s="102"/>
+      <c r="F130" s="102"/>
       <c r="G130" s="12"/>
       <c r="H130" s="16"/>
       <c r="I130" s="12"/>
@@ -12222,18 +11933,18 @@
       <c r="L130" s="13"/>
     </row>
     <row r="131" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A131" s="141">
+      <c r="A131" s="140">
         <v>65</v>
       </c>
-      <c r="B131" s="139" t="s">
+      <c r="B131" s="138" t="s">
         <v>210</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D131" s="22"/>
-      <c r="E131" s="106"/>
-      <c r="F131" s="106"/>
+      <c r="E131" s="104"/>
+      <c r="F131" s="104"/>
       <c r="H131" s="17"/>
       <c r="J131" s="40" t="s">
         <v>254</v>
@@ -12246,23 +11957,23 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="141"/>
-      <c r="B132" s="139"/>
+      <c r="A132" s="140"/>
+      <c r="B132" s="138"/>
       <c r="C132" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D132" s="22"/>
-      <c r="E132" s="106"/>
-      <c r="F132" s="106"/>
+      <c r="E132" s="104"/>
+      <c r="F132" s="104"/>
       <c r="H132" s="17"/>
       <c r="J132" s="17"/>
       <c r="L132" s="14"/>
     </row>
     <row r="133" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A133" s="141">
+      <c r="A133" s="140">
         <v>66</v>
       </c>
-      <c r="B133" s="139" t="s">
+      <c r="B133" s="138" t="s">
         <v>211</v>
       </c>
       <c r="C133" s="15" t="s">
@@ -12285,8 +11996,8 @@
       </c>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="141"/>
-      <c r="B134" s="139"/>
+      <c r="A134" s="140"/>
+      <c r="B134" s="138"/>
       <c r="C134" s="16" t="s">
         <v>0</v>
       </c>
@@ -12303,10 +12014,10 @@
       <c r="L134" s="13"/>
     </row>
     <row r="135" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A135" s="141">
+      <c r="A135" s="140">
         <v>67</v>
       </c>
-      <c r="B135" s="139" t="s">
+      <c r="B135" s="138" t="s">
         <v>212</v>
       </c>
       <c r="C135" s="17" t="s">
@@ -12327,8 +12038,8 @@
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="141"/>
-      <c r="B136" s="139"/>
+      <c r="A136" s="140"/>
+      <c r="B136" s="138"/>
       <c r="C136" s="17" t="s">
         <v>0</v>
       </c>
@@ -12340,10 +12051,10 @@
       <c r="L136" s="14"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="141">
+      <c r="A137" s="140">
         <v>68</v>
       </c>
-      <c r="B137" s="141" t="s">
+      <c r="B137" s="140" t="s">
         <v>115</v>
       </c>
       <c r="C137" s="15" t="s">
@@ -12364,8 +12075,8 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="141"/>
-      <c r="B138" s="141"/>
+      <c r="A138" s="140"/>
+      <c r="B138" s="140"/>
       <c r="C138" s="16" t="s">
         <v>117</v>
       </c>
@@ -12380,10 +12091,10 @@
       <c r="L138" s="13"/>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="141">
+      <c r="A139" s="140">
         <v>69</v>
       </c>
-      <c r="B139" s="139" t="s">
+      <c r="B139" s="138" t="s">
         <v>213</v>
       </c>
       <c r="C139" s="17" t="s">
@@ -12406,8 +12117,8 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="141"/>
-      <c r="B140" s="141"/>
+      <c r="A140" s="140"/>
+      <c r="B140" s="140"/>
       <c r="C140" s="17" t="s">
         <v>0</v>
       </c>
@@ -12422,16 +12133,16 @@
       <c r="L140" s="14"/>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="141">
+      <c r="A141" s="140">
         <v>70</v>
       </c>
-      <c r="B141" s="139" t="s">
+      <c r="B141" s="138" t="s">
         <v>214</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D141" s="98">
+      <c r="D141" s="135">
         <v>45732.666666666664</v>
       </c>
       <c r="E141" s="15"/>
@@ -12450,12 +12161,12 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="141"/>
-      <c r="B142" s="141"/>
+      <c r="A142" s="140"/>
+      <c r="B142" s="140"/>
       <c r="C142" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D142" s="81"/>
+      <c r="D142" s="48"/>
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
       <c r="G142" s="12"/>
@@ -12468,10 +12179,10 @@
       <c r="L142" s="13"/>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="141">
+      <c r="A143" s="140">
         <v>71</v>
       </c>
-      <c r="B143" s="139" t="s">
+      <c r="B143" s="138" t="s">
         <v>215</v>
       </c>
       <c r="C143" s="17" t="s">
@@ -12490,8 +12201,8 @@
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="141"/>
-      <c r="B144" s="141"/>
+      <c r="A144" s="140"/>
+      <c r="B144" s="140"/>
       <c r="C144" s="17" t="s">
         <v>0</v>
       </c>
@@ -12506,10 +12217,10 @@
       <c r="L144" s="14"/>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="141">
+      <c r="A145" s="140">
         <v>72</v>
       </c>
-      <c r="B145" s="138" t="s">
+      <c r="B145" s="137" t="s">
         <v>216</v>
       </c>
       <c r="C145" s="57" t="s">
@@ -12536,8 +12247,8 @@
       </c>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="141"/>
-      <c r="B146" s="140"/>
+      <c r="A146" s="140"/>
+      <c r="B146" s="139"/>
       <c r="C146" s="55" t="s">
         <v>0</v>
       </c>
@@ -12556,10 +12267,10 @@
       <c r="L146" s="13"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="141">
+      <c r="A147" s="140">
         <v>73</v>
       </c>
-      <c r="B147" s="139" t="s">
+      <c r="B147" s="138" t="s">
         <v>217</v>
       </c>
       <c r="C147" s="17" t="s">
@@ -12582,8 +12293,8 @@
       </c>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="141"/>
-      <c r="B148" s="141"/>
+      <c r="A148" s="140"/>
+      <c r="B148" s="140"/>
       <c r="C148" s="17" t="s">
         <v>0</v>
       </c>
@@ -12595,10 +12306,10 @@
       <c r="L148" s="14"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="141">
+      <c r="A149" s="140">
         <v>74</v>
       </c>
-      <c r="B149" s="139" t="s">
+      <c r="B149" s="138" t="s">
         <v>218</v>
       </c>
       <c r="C149" s="15" t="s">
@@ -12621,15 +12332,15 @@
       </c>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="141"/>
-      <c r="B150" s="141"/>
+      <c r="A150" s="140"/>
+      <c r="B150" s="140"/>
       <c r="C150" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D150" s="130"/>
-      <c r="E150" s="104"/>
-      <c r="F150" s="104"/>
-      <c r="G150" s="131"/>
+      <c r="D150" s="127"/>
+      <c r="E150" s="102"/>
+      <c r="F150" s="102"/>
+      <c r="G150" s="128"/>
       <c r="H150" s="16"/>
       <c r="I150" s="12"/>
       <c r="J150" s="16"/>
@@ -12637,19 +12348,19 @@
       <c r="L150" s="13"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="141">
+      <c r="A151" s="140">
         <v>75</v>
       </c>
-      <c r="B151" s="139" t="s">
+      <c r="B151" s="138" t="s">
         <v>219</v>
       </c>
       <c r="C151" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D151" s="132"/>
-      <c r="E151" s="105"/>
-      <c r="F151" s="105"/>
-      <c r="G151" s="133"/>
+      <c r="D151" s="129"/>
+      <c r="E151" s="103"/>
+      <c r="F151" s="103"/>
+      <c r="G151" s="130"/>
       <c r="H151" s="17"/>
       <c r="J151" s="40" t="s">
         <v>146</v>
@@ -12662,15 +12373,15 @@
       </c>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="141"/>
-      <c r="B152" s="141"/>
+      <c r="A152" s="140"/>
+      <c r="B152" s="140"/>
       <c r="C152" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D152" s="132"/>
-      <c r="E152" s="106"/>
-      <c r="F152" s="106"/>
-      <c r="G152" s="133"/>
+      <c r="D152" s="129"/>
+      <c r="E152" s="104"/>
+      <c r="F152" s="104"/>
+      <c r="G152" s="130"/>
       <c r="H152" s="17"/>
       <c r="J152" s="17"/>
       <c r="K152" s="6" t="s">
@@ -12679,19 +12390,19 @@
       <c r="L152" s="26"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="141">
+      <c r="A153" s="140">
         <v>76</v>
       </c>
-      <c r="B153" s="139" t="s">
+      <c r="B153" s="138" t="s">
         <v>228</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D153" s="134"/>
-      <c r="E153" s="129"/>
-      <c r="F153" s="129"/>
-      <c r="G153" s="135"/>
+      <c r="D153" s="131"/>
+      <c r="E153" s="126"/>
+      <c r="F153" s="126"/>
+      <c r="G153" s="132"/>
       <c r="H153" s="15"/>
       <c r="I153" s="9"/>
       <c r="J153" s="15"/>
@@ -12703,15 +12414,15 @@
       </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="141"/>
-      <c r="B154" s="141"/>
+      <c r="A154" s="140"/>
+      <c r="B154" s="140"/>
       <c r="C154" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D154" s="130"/>
-      <c r="E154" s="104"/>
-      <c r="F154" s="104"/>
-      <c r="G154" s="131"/>
+      <c r="D154" s="127"/>
+      <c r="E154" s="102"/>
+      <c r="F154" s="102"/>
+      <c r="G154" s="128"/>
       <c r="H154" s="16"/>
       <c r="I154" s="12"/>
       <c r="J154" s="16"/>
@@ -12721,19 +12432,19 @@
       <c r="L154" s="13"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="141">
+      <c r="A155" s="140">
         <v>77</v>
       </c>
-      <c r="B155" s="139" t="s">
+      <c r="B155" s="138" t="s">
         <v>220</v>
       </c>
       <c r="C155" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D155" s="132"/>
-      <c r="E155" s="106"/>
-      <c r="F155" s="106"/>
-      <c r="G155" s="133"/>
+      <c r="D155" s="129"/>
+      <c r="E155" s="104"/>
+      <c r="F155" s="104"/>
+      <c r="G155" s="130"/>
       <c r="H155" s="17"/>
       <c r="J155" s="40" t="s">
         <v>255</v>
@@ -12746,15 +12457,15 @@
       </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="141"/>
-      <c r="B156" s="141"/>
+      <c r="A156" s="140"/>
+      <c r="B156" s="140"/>
       <c r="C156" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D156" s="132"/>
-      <c r="E156" s="106"/>
-      <c r="F156" s="106"/>
-      <c r="G156" s="133"/>
+      <c r="D156" s="129"/>
+      <c r="E156" s="104"/>
+      <c r="F156" s="104"/>
+      <c r="G156" s="130"/>
       <c r="H156" s="17"/>
       <c r="J156" s="17"/>
       <c r="K156" s="6" t="s">
@@ -12763,10 +12474,10 @@
       <c r="L156" s="14"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="141">
+      <c r="A157" s="140">
         <v>78</v>
       </c>
-      <c r="B157" s="139" t="s">
+      <c r="B157" s="138" t="s">
         <v>221</v>
       </c>
       <c r="C157" s="15" t="s">
@@ -12787,8 +12498,8 @@
       </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="141"/>
-      <c r="B158" s="141"/>
+      <c r="A158" s="140"/>
+      <c r="B158" s="140"/>
       <c r="C158" s="16" t="s">
         <v>74</v>
       </c>
@@ -12803,10 +12514,10 @@
       <c r="L158" s="13"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="141">
+      <c r="A159" s="140">
         <v>79</v>
       </c>
-      <c r="B159" s="148" t="s">
+      <c r="B159" s="147" t="s">
         <v>263</v>
       </c>
       <c r="C159" s="15" t="s">
@@ -12827,8 +12538,8 @@
       </c>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="141"/>
-      <c r="B160" s="149"/>
+      <c r="A160" s="140"/>
+      <c r="B160" s="148"/>
       <c r="C160" s="16" t="s">
         <v>0</v>
       </c>
@@ -12845,10 +12556,10 @@
       <c r="L160" s="13"/>
     </row>
     <row r="161" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A161" s="141">
+      <c r="A161" s="140">
         <v>80</v>
       </c>
-      <c r="B161" s="148" t="s">
+      <c r="B161" s="147" t="s">
         <v>264</v>
       </c>
       <c r="C161" s="15" t="s">
@@ -12869,8 +12580,8 @@
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="141"/>
-      <c r="B162" s="149"/>
+      <c r="A162" s="140"/>
+      <c r="B162" s="148"/>
       <c r="C162" s="16" t="s">
         <v>0</v>
       </c>
@@ -12887,26 +12598,26 @@
       <c r="L162" s="13"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="141">
+      <c r="A163" s="140">
         <v>81</v>
       </c>
-      <c r="B163" s="150" t="s">
+      <c r="B163" s="149" t="s">
         <v>284</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D163" s="15"/>
-      <c r="E163" s="125">
+      <c r="E163" s="122">
         <v>45698</v>
       </c>
-      <c r="F163" s="126">
+      <c r="F163" s="123">
         <v>45721</v>
       </c>
-      <c r="G163" s="85">
+      <c r="G163" s="84">
         <v>45745</v>
       </c>
-      <c r="H163" s="151" t="s">
+      <c r="H163" s="150" t="s">
         <v>354</v>
       </c>
       <c r="I163" s="46">
@@ -12923,22 +12634,22 @@
       </c>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="141"/>
-      <c r="B164" s="145"/>
+      <c r="A164" s="140"/>
+      <c r="B164" s="144"/>
       <c r="C164" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D164" s="16"/>
-      <c r="E164" s="127" t="s">
+      <c r="E164" s="124" t="s">
         <v>346</v>
       </c>
-      <c r="F164" s="128" t="s">
+      <c r="F164" s="125" t="s">
         <v>355</v>
       </c>
-      <c r="G164" s="86" t="s">
+      <c r="G164" s="85" t="s">
         <v>353</v>
       </c>
-      <c r="H164" s="152"/>
+      <c r="H164" s="151"/>
       <c r="I164" s="45" t="s">
         <v>353</v>
       </c>
@@ -12951,10 +12662,10 @@
       </c>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="141">
+      <c r="A165" s="140">
         <v>82</v>
       </c>
-      <c r="B165" s="148" t="s">
+      <c r="B165" s="147" t="s">
         <v>285</v>
       </c>
       <c r="C165" s="15" t="s">
@@ -12975,8 +12686,8 @@
       </c>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="141"/>
-      <c r="B166" s="149"/>
+      <c r="A166" s="140"/>
+      <c r="B166" s="148"/>
       <c r="C166" s="16" t="s">
         <v>0</v>
       </c>
@@ -12993,10 +12704,10 @@
       <c r="L166" s="13"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="141">
+      <c r="A167" s="140">
         <v>83</v>
       </c>
-      <c r="B167" s="148" t="s">
+      <c r="B167" s="147" t="s">
         <v>286</v>
       </c>
       <c r="C167" s="15" t="s">
@@ -13017,8 +12728,8 @@
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="141"/>
-      <c r="B168" s="149"/>
+      <c r="A168" s="140"/>
+      <c r="B168" s="148"/>
       <c r="C168" s="16" t="s">
         <v>0</v>
       </c>
@@ -13035,10 +12746,10 @@
       <c r="L168" s="13"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="141">
+      <c r="A169" s="140">
         <v>84</v>
       </c>
-      <c r="B169" s="148" t="s">
+      <c r="B169" s="147" t="s">
         <v>287</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -13061,8 +12772,8 @@
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="141"/>
-      <c r="B170" s="149"/>
+      <c r="A170" s="140"/>
+      <c r="B170" s="148"/>
       <c r="C170" s="16" t="s">
         <v>0</v>
       </c>
@@ -13081,10 +12792,10 @@
       <c r="L170" s="13"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="141">
+      <c r="A171" s="140">
         <v>85</v>
       </c>
-      <c r="B171" s="148" t="s">
+      <c r="B171" s="147" t="s">
         <v>292</v>
       </c>
       <c r="C171" s="15" t="s">
@@ -13105,8 +12816,8 @@
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="141"/>
-      <c r="B172" s="149"/>
+      <c r="A172" s="140"/>
+      <c r="B172" s="148"/>
       <c r="C172" s="16" t="s">
         <v>0</v>
       </c>
@@ -13123,10 +12834,10 @@
       <c r="L172" s="13"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="141">
+      <c r="A173" s="140">
         <v>86</v>
       </c>
-      <c r="B173" s="148" t="s">
+      <c r="B173" s="147" t="s">
         <v>293</v>
       </c>
       <c r="C173" s="15" t="s">
@@ -13147,8 +12858,8 @@
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="141"/>
-      <c r="B174" s="149"/>
+      <c r="A174" s="140"/>
+      <c r="B174" s="148"/>
       <c r="C174" s="16" t="s">
         <v>0</v>
       </c>
@@ -13165,10 +12876,10 @@
       <c r="L174" s="13"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="141">
+      <c r="A175" s="140">
         <v>87</v>
       </c>
-      <c r="B175" s="148" t="s">
+      <c r="B175" s="147" t="s">
         <v>294</v>
       </c>
       <c r="C175" s="15" t="s">
@@ -13189,8 +12900,8 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="141"/>
-      <c r="B176" s="149"/>
+      <c r="A176" s="140"/>
+      <c r="B176" s="148"/>
       <c r="C176" s="16" t="s">
         <v>0</v>
       </c>
@@ -13207,10 +12918,10 @@
       <c r="L176" s="13"/>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="141">
+      <c r="A177" s="140">
         <v>88</v>
       </c>
-      <c r="B177" s="148" t="s">
+      <c r="B177" s="147" t="s">
         <v>307</v>
       </c>
       <c r="C177" s="15" t="s">
@@ -13231,8 +12942,8 @@
       </c>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="141"/>
-      <c r="B178" s="149"/>
+      <c r="A178" s="140"/>
+      <c r="B178" s="148"/>
       <c r="C178" s="16" t="s">
         <v>74</v>
       </c>
@@ -13249,10 +12960,10 @@
       <c r="L178" s="13"/>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="141">
+      <c r="A179" s="140">
         <v>89</v>
       </c>
-      <c r="B179" s="148" t="s">
+      <c r="B179" s="147" t="s">
         <v>308</v>
       </c>
       <c r="C179" s="15" t="s">
@@ -13275,8 +12986,8 @@
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="141"/>
-      <c r="B180" s="149"/>
+      <c r="A180" s="140"/>
+      <c r="B180" s="148"/>
       <c r="C180" s="16" t="s">
         <v>0</v>
       </c>
@@ -13293,10 +13004,10 @@
       <c r="L180" s="13"/>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="141">
+      <c r="A181" s="140">
         <v>90</v>
       </c>
-      <c r="B181" s="148" t="s">
+      <c r="B181" s="147" t="s">
         <v>309</v>
       </c>
       <c r="C181" s="15" t="s">
@@ -13317,8 +13028,8 @@
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="141"/>
-      <c r="B182" s="149"/>
+      <c r="A182" s="140"/>
+      <c r="B182" s="148"/>
       <c r="C182" s="16" t="s">
         <v>0</v>
       </c>
@@ -13335,10 +13046,10 @@
       <c r="L182" s="13"/>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="141">
+      <c r="A183" s="140">
         <v>91</v>
       </c>
-      <c r="B183" s="148" t="s">
+      <c r="B183" s="147" t="s">
         <v>310</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -13359,8 +13070,8 @@
       </c>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="141"/>
-      <c r="B184" s="149"/>
+      <c r="A184" s="140"/>
+      <c r="B184" s="148"/>
       <c r="C184" s="16" t="s">
         <v>0</v>
       </c>
@@ -13377,10 +13088,10 @@
       <c r="L184" s="13"/>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="141">
+      <c r="A185" s="140">
         <v>92</v>
       </c>
-      <c r="B185" s="153" t="s">
+      <c r="B185" s="152" t="s">
         <v>303</v>
       </c>
       <c r="C185" s="15" t="s">
@@ -13401,8 +13112,8 @@
       </c>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="141"/>
-      <c r="B186" s="149"/>
+      <c r="A186" s="140"/>
+      <c r="B186" s="148"/>
       <c r="C186" s="16" t="s">
         <v>0</v>
       </c>
@@ -13419,10 +13130,10 @@
       <c r="L186" s="13"/>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="141">
+      <c r="A187" s="140">
         <v>93</v>
       </c>
-      <c r="B187" s="153" t="s">
+      <c r="B187" s="152" t="s">
         <v>305</v>
       </c>
       <c r="C187" s="15" t="s">
@@ -13443,8 +13154,8 @@
       </c>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="141"/>
-      <c r="B188" s="149"/>
+      <c r="A188" s="140"/>
+      <c r="B188" s="148"/>
       <c r="C188" s="16" t="s">
         <v>0</v>
       </c>
@@ -13461,10 +13172,10 @@
       <c r="L188" s="13"/>
     </row>
     <row r="189" spans="1:12">
-      <c r="A189" s="141">
+      <c r="A189" s="140">
         <v>94</v>
       </c>
-      <c r="B189" s="148"/>
+      <c r="B189" s="147"/>
       <c r="C189" s="15"/>
       <c r="D189" s="9"/>
       <c r="E189" s="15"/>
@@ -13477,8 +13188,8 @@
       <c r="L189" s="11"/>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="141"/>
-      <c r="B190" s="149"/>
+      <c r="A190" s="140"/>
+      <c r="B190" s="148"/>
       <c r="C190" s="16"/>
       <c r="D190" s="12"/>
       <c r="E190" s="16"/>
@@ -13491,10 +13202,10 @@
       <c r="L190" s="13"/>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="141">
+      <c r="A191" s="140">
         <v>95</v>
       </c>
-      <c r="B191" s="153"/>
+      <c r="B191" s="152"/>
       <c r="C191" s="15"/>
       <c r="D191" s="9"/>
       <c r="E191" s="15"/>
@@ -13507,8 +13218,8 @@
       <c r="L191" s="47"/>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="141"/>
-      <c r="B192" s="149"/>
+      <c r="A192" s="140"/>
+      <c r="B192" s="148"/>
       <c r="C192" s="16"/>
       <c r="D192" s="12"/>
       <c r="E192" s="16"/>
@@ -13521,10 +13232,10 @@
       <c r="L192" s="13"/>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="141">
+      <c r="A193" s="140">
         <v>96</v>
       </c>
-      <c r="B193" s="153"/>
+      <c r="B193" s="152"/>
       <c r="C193" s="15"/>
       <c r="D193" s="9"/>
       <c r="E193" s="15"/>
@@ -13537,8 +13248,8 @@
       <c r="L193" s="47"/>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="141"/>
-      <c r="B194" s="149"/>
+      <c r="A194" s="140"/>
+      <c r="B194" s="148"/>
       <c r="C194" s="16"/>
       <c r="D194" s="12"/>
       <c r="E194" s="16"/>
@@ -13551,10 +13262,10 @@
       <c r="L194" s="13"/>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="141">
+      <c r="A195" s="140">
         <v>97</v>
       </c>
-      <c r="B195" s="153"/>
+      <c r="B195" s="152"/>
       <c r="C195" s="15"/>
       <c r="D195" s="9"/>
       <c r="E195" s="15"/>
@@ -13567,8 +13278,8 @@
       <c r="L195" s="47"/>
     </row>
     <row r="196" spans="1:12">
-      <c r="A196" s="141"/>
-      <c r="B196" s="149"/>
+      <c r="A196" s="140"/>
+      <c r="B196" s="148"/>
       <c r="C196" s="16"/>
       <c r="D196" s="12"/>
       <c r="E196" s="16"/>
@@ -13581,10 +13292,10 @@
       <c r="L196" s="13"/>
     </row>
     <row r="197" spans="1:12">
-      <c r="A197" s="141">
+      <c r="A197" s="140">
         <v>98</v>
       </c>
-      <c r="B197" s="153"/>
+      <c r="B197" s="152"/>
       <c r="C197" s="15"/>
       <c r="D197" s="9"/>
       <c r="E197" s="15"/>
@@ -13597,8 +13308,8 @@
       <c r="L197" s="47"/>
     </row>
     <row r="198" spans="1:12">
-      <c r="A198" s="141"/>
-      <c r="B198" s="149"/>
+      <c r="A198" s="140"/>
+      <c r="B198" s="148"/>
       <c r="C198" s="16"/>
       <c r="D198" s="12"/>
       <c r="E198" s="16"/>
@@ -13611,10 +13322,10 @@
       <c r="L198" s="13"/>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="141">
+      <c r="A199" s="140">
         <v>99</v>
       </c>
-      <c r="B199" s="153"/>
+      <c r="B199" s="152"/>
       <c r="C199" s="15"/>
       <c r="D199" s="9"/>
       <c r="E199" s="15"/>
@@ -13627,8 +13338,8 @@
       <c r="L199" s="47"/>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="141"/>
-      <c r="B200" s="149"/>
+      <c r="A200" s="140"/>
+      <c r="B200" s="148"/>
       <c r="C200" s="16"/>
       <c r="D200" s="12"/>
       <c r="E200" s="16"/>
@@ -13641,10 +13352,10 @@
       <c r="L200" s="13"/>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="141">
+      <c r="A201" s="140">
         <v>100</v>
       </c>
-      <c r="B201" s="153"/>
+      <c r="B201" s="152"/>
       <c r="C201" s="15"/>
       <c r="D201" s="9"/>
       <c r="E201" s="15"/>
@@ -13657,8 +13368,8 @@
       <c r="L201" s="47"/>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="141"/>
-      <c r="B202" s="149"/>
+      <c r="A202" s="140"/>
+      <c r="B202" s="148"/>
       <c r="C202" s="16"/>
       <c r="D202" s="12"/>
       <c r="E202" s="16"/>
@@ -13671,10 +13382,10 @@
       <c r="L202" s="13"/>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="141">
+      <c r="A203" s="140">
         <v>101</v>
       </c>
-      <c r="B203" s="153"/>
+      <c r="B203" s="152"/>
       <c r="C203" s="15"/>
       <c r="D203" s="9"/>
       <c r="E203" s="15"/>
@@ -13687,8 +13398,8 @@
       <c r="L203" s="47"/>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="141"/>
-      <c r="B204" s="149"/>
+      <c r="A204" s="140"/>
+      <c r="B204" s="148"/>
       <c r="C204" s="16"/>
       <c r="D204" s="12"/>
       <c r="E204" s="16"/>
@@ -14268,130 +13979,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="93" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="163" t="s">
         <v>233</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72">
-      <c r="A3" s="164"/>
+      <c r="A3" s="163"/>
       <c r="B3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="94" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36">
-      <c r="A4" s="164"/>
+      <c r="A4" s="163"/>
       <c r="B4" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="94" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54">
-      <c r="A5" s="164"/>
+      <c r="A5" s="163"/>
       <c r="B5" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="94" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="72.75" thickBot="1">
-      <c r="A6" s="165"/>
+      <c r="A6" s="164"/>
       <c r="B6" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="95" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="165" t="s">
         <v>234</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="94" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36">
-      <c r="A8" s="166"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="94" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72">
-      <c r="A9" s="166"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="94" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72">
-      <c r="A10" s="166"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="94" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="108">
-      <c r="A11" s="166"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="94" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="108">
-      <c r="A12" s="166"/>
+      <c r="A12" s="165"/>
       <c r="B12" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="94" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="216.75" thickBot="1">
-      <c r="A13" s="167"/>
+      <c r="A13" s="166"/>
       <c r="B13" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="95" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72">
-      <c r="A14" s="157" t="s">
+      <c r="A14" s="156" t="s">
         <v>268</v>
       </c>
       <c r="B14" s="52" t="s">
@@ -14402,7 +14113,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="108">
-      <c r="A15" s="155"/>
+      <c r="A15" s="154"/>
       <c r="B15" s="41" t="s">
         <v>270</v>
       </c>
@@ -14411,7 +14122,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="126">
-      <c r="A16" s="155"/>
+      <c r="A16" s="154"/>
       <c r="B16" s="41" t="s">
         <v>271</v>
       </c>
@@ -14420,7 +14131,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="72">
-      <c r="A17" s="155"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="41" t="s">
         <v>272</v>
       </c>
@@ -14429,25 +14140,25 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="36.75" thickBot="1">
-      <c r="A18" s="156"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="81"/>
     </row>
     <row r="19" spans="1:3" ht="36">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="153" t="s">
         <v>311</v>
       </c>
       <c r="B19" s="79" t="s">
         <v>313</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="96" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="126">
-      <c r="A20" s="155"/>
+      <c r="A20" s="154"/>
       <c r="B20" s="41" t="s">
         <v>312</v>
       </c>
@@ -14456,7 +14167,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="126">
-      <c r="A21" s="155"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="41" t="s">
         <v>314</v>
       </c>
@@ -14465,7 +14176,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="90">
-      <c r="A22" s="155"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="41" t="s">
         <v>315</v>
       </c>
@@ -14474,16 +14185,16 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="144.75" thickBot="1">
-      <c r="A23" s="156"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="90" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="126">
-      <c r="A24" s="157" t="s">
+      <c r="A24" s="156" t="s">
         <v>323</v>
       </c>
       <c r="B24" s="52" t="s">
@@ -14494,16 +14205,16 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="126.75" thickBot="1">
-      <c r="A25" s="156"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="90" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="156" t="s">
         <v>330</v>
       </c>
       <c r="B26" s="52" t="s">
@@ -14514,7 +14225,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="108">
-      <c r="A27" s="155"/>
+      <c r="A27" s="154"/>
       <c r="B27" s="41" t="s">
         <v>332</v>
       </c>
@@ -14523,7 +14234,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="90">
-      <c r="A28" s="155"/>
+      <c r="A28" s="154"/>
       <c r="B28" s="41" t="s">
         <v>333</v>
       </c>
@@ -14532,7 +14243,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="90">
-      <c r="A29" s="155"/>
+      <c r="A29" s="154"/>
       <c r="B29" s="41" t="s">
         <v>334</v>
       </c>
@@ -14541,27 +14252,27 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="108.75" thickBot="1">
-      <c r="A30" s="156"/>
+      <c r="A30" s="155"/>
       <c r="B30" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="90" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="180">
-      <c r="A31" s="154" t="s">
+      <c r="A31" s="153" t="s">
         <v>343</v>
       </c>
       <c r="B31" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="96" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="180.75" thickBot="1">
-      <c r="A32" s="158"/>
+      <c r="A32" s="157"/>
       <c r="B32" s="71" t="s">
         <v>345</v>
       </c>
@@ -14570,7 +14281,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="126">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="156" t="s">
         <v>366</v>
       </c>
       <c r="B33" s="52" t="s">
@@ -14581,7 +14292,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="126">
-      <c r="A34" s="155"/>
+      <c r="A34" s="154"/>
       <c r="B34" s="41" t="s">
         <v>371</v>
       </c>
@@ -14590,7 +14301,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="108.75" thickBot="1">
-      <c r="A35" s="158"/>
+      <c r="A35" s="157"/>
       <c r="B35" s="71" t="s">
         <v>368</v>
       </c>
@@ -14599,7 +14310,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="126">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="158" t="s">
         <v>376</v>
       </c>
       <c r="B36" s="52" t="s">
@@ -14610,7 +14321,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="180">
-      <c r="A37" s="160"/>
+      <c r="A37" s="159"/>
       <c r="B37" s="41" t="s">
         <v>378</v>
       </c>
@@ -14619,7 +14330,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="108">
-      <c r="A38" s="160"/>
+      <c r="A38" s="159"/>
       <c r="B38" s="41" t="s">
         <v>379</v>
       </c>
@@ -14628,7 +14339,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="162.75" thickBot="1">
-      <c r="A39" s="160"/>
+      <c r="A39" s="159"/>
       <c r="B39" s="41" t="s">
         <v>380</v>
       </c>
@@ -14637,7 +14348,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="144">
-      <c r="A40" s="157" t="s">
+      <c r="A40" s="156" t="s">
         <v>388</v>
       </c>
       <c r="B40" s="52" t="s">
@@ -14648,7 +14359,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="90">
-      <c r="A41" s="155"/>
+      <c r="A41" s="154"/>
       <c r="B41" s="41" t="s">
         <v>390</v>
       </c>
@@ -14657,7 +14368,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="108.75" thickBot="1">
-      <c r="A42" s="158"/>
+      <c r="A42" s="157"/>
       <c r="B42" s="71" t="s">
         <v>391</v>
       </c>
@@ -14666,7 +14377,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="180">
-      <c r="A43" s="157" t="s">
+      <c r="A43" s="156" t="s">
         <v>400</v>
       </c>
       <c r="B43" s="52" t="s">
@@ -14677,7 +14388,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="54.75" thickBot="1">
-      <c r="A44" s="158"/>
+      <c r="A44" s="157"/>
       <c r="B44" s="71" t="s">
         <v>397</v>
       </c>
@@ -14686,7 +14397,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="144">
-      <c r="A45" s="161" t="s">
+      <c r="A45" s="160" t="s">
         <v>402</v>
       </c>
       <c r="B45" s="52" t="s">
@@ -14697,7 +14408,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="144">
-      <c r="A46" s="162"/>
+      <c r="A46" s="161"/>
       <c r="B46" s="41" t="s">
         <v>404</v>
       </c>
@@ -14706,7 +14417,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="36">
-      <c r="A47" s="162"/>
+      <c r="A47" s="161"/>
       <c r="B47" s="41" t="s">
         <v>405</v>
       </c>
@@ -14715,27 +14426,27 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="198.75" thickBot="1">
-      <c r="A48" s="163"/>
+      <c r="A48" s="162"/>
       <c r="B48" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="C48" s="91" t="s">
+      <c r="C48" s="90" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="144">
-      <c r="A49" s="154" t="s">
+      <c r="A49" s="153" t="s">
         <v>411</v>
       </c>
       <c r="B49" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="C49" s="97" t="s">
+      <c r="C49" s="96" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="180">
-      <c r="A50" s="155"/>
+      <c r="A50" s="154"/>
       <c r="B50" s="41" t="s">
         <v>419</v>
       </c>
@@ -14744,11 +14455,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="72.75" thickBot="1">
-      <c r="A51" s="156"/>
+      <c r="A51" s="155"/>
       <c r="B51" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="C51" s="91" t="s">
+      <c r="C51" s="90" t="s">
         <v>423</v>
       </c>
     </row>
@@ -14775,10 +14486,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D35423-1F38-4F2F-BC17-D0A66D822A8A}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -14790,51 +14501,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="120" t="s">
         <v>429</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="116" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="117" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="129.75" customHeight="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="153" t="s">
         <v>432</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C2" s="117" t="s">
-        <v>492</v>
-      </c>
-      <c r="D2" s="97" t="s">
+      <c r="C2" s="115" t="s">
+        <v>475</v>
+      </c>
+      <c r="D2" s="96" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="162">
-      <c r="A3" s="155"/>
-      <c r="B3" s="102" t="s">
+      <c r="A3" s="154"/>
+      <c r="B3" s="100" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="115" t="s">
-        <v>493</v>
+      <c r="C3" s="113" t="s">
+        <v>476</v>
       </c>
       <c r="D3" s="76" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="162">
-      <c r="A4" s="155"/>
-      <c r="B4" s="102" t="s">
+      <c r="A4" s="154"/>
+      <c r="B4" s="100" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="113" t="s">
         <v>467</v>
       </c>
       <c r="D4" s="76" t="s">
@@ -14842,23 +14553,23 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="180">
-      <c r="A5" s="155"/>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="154"/>
+      <c r="B5" s="100" t="s">
         <v>434</v>
       </c>
-      <c r="C5" s="115" t="s">
-        <v>494</v>
+      <c r="C5" s="113" t="s">
+        <v>477</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="180">
-      <c r="A6" s="155"/>
-      <c r="B6" s="102" t="s">
+      <c r="A6" s="154"/>
+      <c r="B6" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="113" t="s">
         <v>468</v>
       </c>
       <c r="D6" s="76" t="s">
@@ -14866,47 +14577,47 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="144">
-      <c r="A7" s="155"/>
-      <c r="B7" s="102" t="s">
+      <c r="A7" s="154"/>
+      <c r="B7" s="100" t="s">
         <v>435</v>
       </c>
-      <c r="C7" s="115" t="s">
-        <v>495</v>
+      <c r="C7" s="113" t="s">
+        <v>478</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="180">
-      <c r="A8" s="155"/>
-      <c r="B8" s="102" t="s">
+      <c r="A8" s="154"/>
+      <c r="B8" s="100" t="s">
         <v>446</v>
       </c>
-      <c r="C8" s="115" t="s">
-        <v>496</v>
+      <c r="C8" s="113" t="s">
+        <v>479</v>
       </c>
       <c r="D8" s="76" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="180">
-      <c r="A9" s="155"/>
-      <c r="B9" s="102" t="s">
+      <c r="A9" s="154"/>
+      <c r="B9" s="100" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="115" t="s">
-        <v>497</v>
+      <c r="C9" s="113" t="s">
+        <v>480</v>
       </c>
       <c r="D9" s="76" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="198">
-      <c r="A10" s="155"/>
-      <c r="B10" s="102" t="s">
+      <c r="A10" s="154"/>
+      <c r="B10" s="100" t="s">
         <v>448</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="113" t="s">
         <v>469</v>
       </c>
       <c r="D10" s="76" t="s">
@@ -14914,11 +14625,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="180">
-      <c r="A11" s="155"/>
-      <c r="B11" s="102" t="s">
+      <c r="A11" s="154"/>
+      <c r="B11" s="100" t="s">
         <v>436</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="113" t="s">
         <v>470</v>
       </c>
       <c r="D11" s="76" t="s">
@@ -14926,11 +14637,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="234">
-      <c r="A12" s="155"/>
-      <c r="B12" s="102" t="s">
+      <c r="A12" s="154"/>
+      <c r="B12" s="100" t="s">
         <v>437</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="113" t="s">
         <v>471</v>
       </c>
       <c r="D12" s="76" t="s">
@@ -14938,370 +14649,320 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="198">
-      <c r="A13" s="155"/>
-      <c r="B13" s="102" t="s">
+      <c r="A13" s="154"/>
+      <c r="B13" s="100" t="s">
         <v>438</v>
       </c>
-      <c r="C13" s="115" t="s">
-        <v>498</v>
+      <c r="C13" s="113" t="s">
+        <v>481</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="126">
-      <c r="A14" s="155"/>
-      <c r="B14" s="102" t="s">
+      <c r="A14" s="154"/>
+      <c r="B14" s="100" t="s">
         <v>439</v>
       </c>
-      <c r="C14" s="115" t="s">
-        <v>499</v>
+      <c r="C14" s="113" t="s">
+        <v>482</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="162">
-      <c r="A15" s="155"/>
-      <c r="B15" s="102" t="s">
+      <c r="A15" s="154"/>
+      <c r="B15" s="100" t="s">
         <v>440</v>
       </c>
-      <c r="C15" s="115"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="76" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="126">
-      <c r="A16" s="155"/>
-      <c r="B16" s="102" t="s">
+      <c r="A16" s="154"/>
+      <c r="B16" s="100" t="s">
         <v>441</v>
       </c>
-      <c r="C16" s="115"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="76" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="108">
-      <c r="A17" s="155"/>
-      <c r="B17" s="102" t="s">
+      <c r="A17" s="154"/>
+      <c r="B17" s="100" t="s">
         <v>442</v>
       </c>
-      <c r="C17" s="115"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="76" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="36">
-      <c r="A18" s="155"/>
-      <c r="B18" s="102" t="s">
+      <c r="A18" s="154"/>
+      <c r="B18" s="100" t="s">
         <v>443</v>
       </c>
-      <c r="C18" s="115"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="76" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="216.75" thickBot="1">
-      <c r="A19" s="158"/>
+      <c r="A19" s="157"/>
       <c r="B19" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C19" s="116"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="78" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="126">
-      <c r="A20" s="157" t="s">
+      <c r="A20" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="C20" s="121"/>
+      <c r="D20" s="75" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="162">
+      <c r="A21" s="154"/>
+      <c r="B21" s="100" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="113"/>
+      <c r="D21" s="76" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="144">
+      <c r="A22" s="154"/>
+      <c r="B22" s="100" t="s">
+        <v>488</v>
+      </c>
+      <c r="C22" s="113"/>
+      <c r="D22" s="76" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="154"/>
+      <c r="B23" s="100" t="s">
+        <v>499</v>
+      </c>
+      <c r="C23" s="113"/>
+      <c r="D23" s="136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="162">
+      <c r="A24" s="154"/>
+      <c r="B24" s="100" t="s">
+        <v>461</v>
+      </c>
+      <c r="C24" s="113"/>
+      <c r="D24" s="76" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="126">
+      <c r="A25" s="154"/>
+      <c r="B25" s="100" t="s">
         <v>473</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C25" s="113"/>
+      <c r="D25" s="76" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="144">
+      <c r="A26" s="154"/>
+      <c r="B26" s="100" t="s">
+        <v>492</v>
+      </c>
+      <c r="C26" s="113"/>
+      <c r="D26" s="76" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="180">
+      <c r="A27" s="154"/>
+      <c r="B27" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C27" s="113"/>
+      <c r="D27" s="76" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="154"/>
+      <c r="B28" s="100" t="s">
+        <v>505</v>
+      </c>
+      <c r="C28" s="113"/>
+      <c r="D28" s="76"/>
+    </row>
+    <row r="29" spans="1:4" ht="162">
+      <c r="A29" s="154"/>
+      <c r="B29" s="100" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" s="113"/>
+      <c r="D29" s="76" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="144">
+      <c r="A30" s="154"/>
+      <c r="B30" s="100" t="s">
+        <v>509</v>
+      </c>
+      <c r="C30" s="113"/>
+      <c r="D30" s="76" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="154"/>
+      <c r="B31" s="100" t="s">
+        <v>512</v>
+      </c>
+      <c r="C31" s="113"/>
+      <c r="D31" s="76"/>
+    </row>
+    <row r="32" spans="1:4" ht="108.75" thickBot="1">
+      <c r="A32" s="157"/>
+      <c r="B32" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C32" s="133"/>
+      <c r="D32" s="78" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="126">
+      <c r="A33" s="167" t="s">
+        <v>484</v>
+      </c>
+      <c r="B33" s="119" t="s">
+        <v>485</v>
+      </c>
+      <c r="C33" s="134"/>
+      <c r="D33" s="75" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="162">
+      <c r="A34" s="168"/>
+      <c r="B34" s="100" t="s">
+        <v>486</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="76" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="144">
+      <c r="A35" s="168"/>
+      <c r="B35" s="100" t="s">
+        <v>488</v>
+      </c>
+      <c r="C35" s="113"/>
+      <c r="D35" s="76" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="180">
+      <c r="A36" s="168"/>
+      <c r="B36" s="100" t="s">
+        <v>499</v>
+      </c>
+      <c r="C36" s="113"/>
+      <c r="D36" s="76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="162">
+      <c r="A37" s="168"/>
+      <c r="B37" s="100" t="s">
+        <v>487</v>
+      </c>
+      <c r="C37" s="113"/>
+      <c r="D37" s="76" t="s">
         <v>501</v>
       </c>
-      <c r="D20" s="75" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="72">
-      <c r="A21" s="155"/>
-      <c r="B21" s="102" t="s">
-        <v>474</v>
-      </c>
-      <c r="C21" s="115" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="180">
+      <c r="A38" s="168"/>
+      <c r="B38" s="100" t="s">
+        <v>489</v>
+      </c>
+      <c r="C38" s="113"/>
+      <c r="D38" s="76" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="180">
+      <c r="A39" s="168"/>
+      <c r="B39" s="100" t="s">
+        <v>490</v>
+      </c>
+      <c r="C39" s="113"/>
+      <c r="D39" s="76" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="168"/>
+      <c r="B40" s="100" t="s">
+        <v>491</v>
+      </c>
+      <c r="C40" s="113"/>
+      <c r="D40" s="76"/>
+    </row>
+    <row r="41" spans="1:4" ht="126">
+      <c r="A41" s="168"/>
+      <c r="B41" s="100" t="s">
+        <v>492</v>
+      </c>
+      <c r="C41" s="113"/>
+      <c r="D41" s="76" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="168"/>
+      <c r="B42" s="100" t="s">
+        <v>493</v>
+      </c>
+      <c r="C42" s="113"/>
+      <c r="D42" s="76"/>
+    </row>
+    <row r="43" spans="1:4" ht="72.75" thickBot="1">
+      <c r="A43" s="169"/>
+      <c r="B43" s="118" t="s">
+        <v>494</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="90" t="s">
         <v>504</v>
-      </c>
-      <c r="D21" s="76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="54">
-      <c r="A22" s="155"/>
-      <c r="B22" s="102" t="s">
-        <v>475</v>
-      </c>
-      <c r="C22" s="124" t="s">
-        <v>503</v>
-      </c>
-      <c r="D22" s="76"/>
-    </row>
-    <row r="23" spans="1:4" ht="36">
-      <c r="A23" s="155"/>
-      <c r="B23" s="102" t="s">
-        <v>476</v>
-      </c>
-      <c r="C23" s="115" t="s">
-        <v>502</v>
-      </c>
-      <c r="D23" s="76"/>
-    </row>
-    <row r="24" spans="1:4" ht="198">
-      <c r="A24" s="155"/>
-      <c r="B24" s="102" t="s">
-        <v>477</v>
-      </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="76" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="36">
-      <c r="A25" s="155"/>
-      <c r="B25" s="102" t="s">
-        <v>478</v>
-      </c>
-      <c r="C25" s="115" t="s">
-        <v>505</v>
-      </c>
-      <c r="D25" s="76"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="155"/>
-      <c r="B26" s="102" t="s">
-        <v>479</v>
-      </c>
-      <c r="C26" s="115" t="s">
-        <v>506</v>
-      </c>
-      <c r="D26" s="76"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="155"/>
-      <c r="B27" s="102" t="s">
-        <v>480</v>
-      </c>
-      <c r="C27" s="115" t="s">
-        <v>508</v>
-      </c>
-      <c r="D27" s="76"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="155"/>
-      <c r="B28" s="102" t="s">
-        <v>481</v>
-      </c>
-      <c r="C28" s="115" t="s">
-        <v>507</v>
-      </c>
-      <c r="D28" s="76"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="155"/>
-      <c r="B29" s="102" t="s">
-        <v>482</v>
-      </c>
-      <c r="C29" s="115" t="s">
-        <v>506</v>
-      </c>
-      <c r="D29" s="76"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="155"/>
-      <c r="B30" s="102" t="s">
-        <v>483</v>
-      </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="76"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="155"/>
-      <c r="B31" s="102" t="s">
-        <v>484</v>
-      </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="76"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="155"/>
-      <c r="B32" s="102" t="s">
-        <v>485</v>
-      </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="76"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="155"/>
-      <c r="B33" s="102" t="s">
-        <v>486</v>
-      </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="76"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="155"/>
-      <c r="B34" s="102" t="s">
-        <v>487</v>
-      </c>
-      <c r="C34" s="115"/>
-      <c r="D34" s="76"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="155"/>
-      <c r="B35" s="102" t="s">
-        <v>488</v>
-      </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="76"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="155"/>
-      <c r="B36" s="102" t="s">
-        <v>489</v>
-      </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="76"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="155"/>
-      <c r="B37" s="102" t="s">
-        <v>490</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="76"/>
-    </row>
-    <row r="38" spans="1:4" ht="19.5" thickBot="1">
-      <c r="A38" s="158"/>
-      <c r="B38" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="C38" s="136"/>
-      <c r="D38" s="78"/>
-    </row>
-    <row r="39" spans="1:4" ht="126">
-      <c r="A39" s="168" t="s">
-        <v>510</v>
-      </c>
-      <c r="B39" s="121" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="75" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="162">
-      <c r="A40" s="169"/>
-      <c r="B40" s="102" t="s">
-        <v>512</v>
-      </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="76" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="144">
-      <c r="A41" s="169"/>
-      <c r="B41" s="102" t="s">
-        <v>514</v>
-      </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="76" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="180">
-      <c r="A42" s="169"/>
-      <c r="B42" s="102" t="s">
-        <v>525</v>
-      </c>
-      <c r="C42" s="115"/>
-      <c r="D42" s="76" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="162">
-      <c r="A43" s="169"/>
-      <c r="B43" s="102" t="s">
-        <v>513</v>
-      </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="76" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="180">
-      <c r="A44" s="169"/>
-      <c r="B44" s="102" t="s">
-        <v>515</v>
-      </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="76" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="180">
-      <c r="A45" s="169"/>
-      <c r="B45" s="102" t="s">
-        <v>516</v>
-      </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="76" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="169"/>
-      <c r="B46" s="102" t="s">
-        <v>517</v>
-      </c>
-      <c r="C46" s="115"/>
-      <c r="D46" s="76"/>
-    </row>
-    <row r="47" spans="1:4" ht="126">
-      <c r="A47" s="169"/>
-      <c r="B47" s="102" t="s">
-        <v>518</v>
-      </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="76" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="169"/>
-      <c r="B48" s="102" t="s">
-        <v>519</v>
-      </c>
-      <c r="C48" s="115"/>
-      <c r="D48" s="76"/>
-    </row>
-    <row r="49" spans="1:4" ht="72.75" thickBot="1">
-      <c r="A49" s="170"/>
-      <c r="B49" s="120" t="s">
-        <v>520</v>
-      </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="91" t="s">
-        <v>530</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A38"/>
-    <mergeCell ref="A39:A49"/>
+    <mergeCell ref="A20:A32"/>
+    <mergeCell ref="A33:A43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/就活.xlsx
+++ b/就活.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3BBD89-0C5C-42A6-960C-C4D8043731A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2CC888-EF4C-46AA-9DC8-EB707BDD557B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
   </bookViews>
   <sheets>
     <sheet name="日程" sheetId="1" r:id="rId1"/>
@@ -7675,14 +7675,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>私は、周りから「人生を楽しむ人」とよく言われます。
-子供の頃から、「やってみないとわからない！」を口癖のように言っていたからかもしれません。
-例えば、中学生の頃は文章を書くことが好きで、自分のブログにコツコツと投稿を続けた結果、ポータルサイトで優秀ブログに選ばれ、記者として活動する機会をいただきました。
-大学では、eスポーツや日本語など、学業以外の活動にも積極的に取り組んできました。しかし、「今しかできない」と考えて取り組んだeスポーツの仕事のために、2年間大学を休学し、周囲に心配をかけたこともありました。
-その経験から、これからは着実に未来を設計できる環境で、新しい挑戦を続けていきたいと考えています。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>私はeスポーツ関連の業務は未経験で、しかも前任者もいない状況だったので、困難なことがありました。
 ですが、こうした新しい仕事だからこそ「今しかできない」と思い、楽しみながらチャレンジしました。
 はじめは、他のゲームの事例を参考にしながら、自社のゲームにどう応用できるか試行錯誤を重ねました。
@@ -7798,6 +7790,15 @@
     <rPh sb="146" eb="147">
       <t>オシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は、周りから「人生を楽しむ人」とよく言われます。
+子供の頃から、「やってみないとわからない！」を口癖のように言っていたからかもしれません。
+例えば、中学生の頃は文章を書くことが好きで、自分のブログにコツコツと投稿を続けた結果、ポータルサイトで優秀ブログに選ばれ、記者として活動する機会をいただきました。
+大学では、eスポーツや日本語など、学業以外の活動にも積極的に取り組んできました。
+しかし、「今しかできない」と考えて取り組んだeスポーツの仕事のために、2年間大学を休学し、周囲に心配をかけたこともありました。
+その経験から、これからは着実に未来を設計できる環境で、新しい挑戦を続けていきたいと考えています。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7809,14 +7810,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -7832,14 +7833,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -9349,11 +9350,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC70DC4-F0DC-4C6F-8135-CC403CCD1BBE}">
   <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView topLeftCell="D74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="6.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="5" customWidth="1"/>
@@ -14256,18 +14257,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090B0416-F1D2-4A08-9C25-1FAF8F39F174}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="27.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="60" style="37" customWidth="1"/>
     <col min="3" max="3" width="111.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1">
+    <row r="1" spans="1:3" ht="17.25" thickBot="1">
       <c r="A1" s="92" t="s">
         <v>229</v>
       </c>
@@ -14278,7 +14279,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90">
+    <row r="2" spans="1:3" ht="51">
       <c r="A2" s="164" t="s">
         <v>233</v>
       </c>
@@ -14289,7 +14290,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="72">
+    <row r="3" spans="1:3" ht="38.25">
       <c r="A3" s="164"/>
       <c r="B3" s="37" t="s">
         <v>134</v>
@@ -14298,7 +14299,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36">
+    <row r="4" spans="1:3" ht="25.5">
       <c r="A4" s="164"/>
       <c r="B4" s="37" t="s">
         <v>135</v>
@@ -14307,7 +14308,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="54">
+    <row r="5" spans="1:3" ht="38.25">
       <c r="A5" s="164"/>
       <c r="B5" s="37" t="s">
         <v>136</v>
@@ -14316,7 +14317,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="72.75" thickBot="1">
+    <row r="6" spans="1:3" ht="38.65" thickBot="1">
       <c r="A6" s="165"/>
       <c r="B6" s="51" t="s">
         <v>140</v>
@@ -14325,7 +14326,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="36">
+    <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="166" t="s">
         <v>234</v>
       </c>
@@ -14336,7 +14337,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="36">
+    <row r="8" spans="1:3" ht="25.5">
       <c r="A8" s="166"/>
       <c r="B8" s="38" t="s">
         <v>236</v>
@@ -14345,7 +14346,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="72">
+    <row r="9" spans="1:3" ht="51">
       <c r="A9" s="166"/>
       <c r="B9" s="38" t="s">
         <v>237</v>
@@ -14354,7 +14355,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72">
+    <row r="10" spans="1:3" ht="38.25">
       <c r="A10" s="166"/>
       <c r="B10" s="38" t="s">
         <v>238</v>
@@ -14363,7 +14364,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="108">
+    <row r="11" spans="1:3" ht="63.75">
       <c r="A11" s="166"/>
       <c r="B11" s="38" t="s">
         <v>241</v>
@@ -14372,7 +14373,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="108">
+    <row r="12" spans="1:3" ht="63.75">
       <c r="A12" s="166"/>
       <c r="B12" s="38" t="s">
         <v>239</v>
@@ -14381,7 +14382,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="216.75" thickBot="1">
+    <row r="13" spans="1:3" ht="140.65" thickBot="1">
       <c r="A13" s="167"/>
       <c r="B13" s="50" t="s">
         <v>240</v>
@@ -14390,7 +14391,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="72">
+    <row r="14" spans="1:3" ht="38.25">
       <c r="A14" s="157" t="s">
         <v>268</v>
       </c>
@@ -14401,7 +14402,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="108">
+    <row r="15" spans="1:3" ht="63.75">
       <c r="A15" s="155"/>
       <c r="B15" s="41" t="s">
         <v>270</v>
@@ -14410,7 +14411,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="126">
+    <row r="16" spans="1:3" ht="76.5">
       <c r="A16" s="155"/>
       <c r="B16" s="41" t="s">
         <v>271</v>
@@ -14419,7 +14420,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="72">
+    <row r="17" spans="1:3" ht="38.25">
       <c r="A17" s="155"/>
       <c r="B17" s="41" t="s">
         <v>272</v>
@@ -14428,14 +14429,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="36.75" thickBot="1">
+    <row r="18" spans="1:3" ht="25.9" thickBot="1">
       <c r="A18" s="156"/>
       <c r="B18" s="49" t="s">
         <v>273</v>
       </c>
       <c r="C18" s="82"/>
     </row>
-    <row r="19" spans="1:3" ht="36">
+    <row r="19" spans="1:3" ht="25.5">
       <c r="A19" s="154" t="s">
         <v>311</v>
       </c>
@@ -14446,7 +14447,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="126">
+    <row r="20" spans="1:3" ht="89.25">
       <c r="A20" s="155"/>
       <c r="B20" s="41" t="s">
         <v>312</v>
@@ -14455,7 +14456,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="126">
+    <row r="21" spans="1:3" ht="76.5">
       <c r="A21" s="155"/>
       <c r="B21" s="41" t="s">
         <v>314</v>
@@ -14464,7 +14465,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="90">
+    <row r="22" spans="1:3" ht="51">
       <c r="A22" s="155"/>
       <c r="B22" s="41" t="s">
         <v>315</v>
@@ -14473,7 +14474,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="144.75" thickBot="1">
+    <row r="23" spans="1:3" ht="76.900000000000006" thickBot="1">
       <c r="A23" s="156"/>
       <c r="B23" s="49" t="s">
         <v>316</v>
@@ -14482,7 +14483,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="126">
+    <row r="24" spans="1:3" ht="89.25">
       <c r="A24" s="157" t="s">
         <v>323</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="126.75" thickBot="1">
+    <row r="25" spans="1:3" ht="89.65" thickBot="1">
       <c r="A25" s="156"/>
       <c r="B25" s="49" t="s">
         <v>325</v>
@@ -14502,7 +14503,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72">
+    <row r="26" spans="1:3" ht="38.25">
       <c r="A26" s="157" t="s">
         <v>330</v>
       </c>
@@ -14513,7 +14514,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="108">
+    <row r="27" spans="1:3" ht="63.75">
       <c r="A27" s="155"/>
       <c r="B27" s="41" t="s">
         <v>332</v>
@@ -14522,7 +14523,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="90">
+    <row r="28" spans="1:3" ht="51">
       <c r="A28" s="155"/>
       <c r="B28" s="41" t="s">
         <v>333</v>
@@ -14531,7 +14532,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="90">
+    <row r="29" spans="1:3" ht="63.75">
       <c r="A29" s="155"/>
       <c r="B29" s="41" t="s">
         <v>334</v>
@@ -14540,7 +14541,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="108.75" thickBot="1">
+    <row r="30" spans="1:3" ht="64.150000000000006" thickBot="1">
       <c r="A30" s="156"/>
       <c r="B30" s="49" t="s">
         <v>335</v>
@@ -14549,7 +14550,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="180">
+    <row r="31" spans="1:3" ht="114.75">
       <c r="A31" s="154" t="s">
         <v>343</v>
       </c>
@@ -14560,7 +14561,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="180.75" thickBot="1">
+    <row r="32" spans="1:3" ht="127.9" thickBot="1">
       <c r="A32" s="158"/>
       <c r="B32" s="71" t="s">
         <v>345</v>
@@ -14569,7 +14570,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="126">
+    <row r="33" spans="1:3" ht="76.5">
       <c r="A33" s="157" t="s">
         <v>366</v>
       </c>
@@ -14580,7 +14581,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="126">
+    <row r="34" spans="1:3" ht="89.25">
       <c r="A34" s="155"/>
       <c r="B34" s="41" t="s">
         <v>371</v>
@@ -14589,7 +14590,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="108.75" thickBot="1">
+    <row r="35" spans="1:3" ht="76.900000000000006" thickBot="1">
       <c r="A35" s="158"/>
       <c r="B35" s="71" t="s">
         <v>368</v>
@@ -14598,7 +14599,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="126">
+    <row r="36" spans="1:3" ht="76.5">
       <c r="A36" s="159" t="s">
         <v>376</v>
       </c>
@@ -14609,7 +14610,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="180">
+    <row r="37" spans="1:3" ht="114.75">
       <c r="A37" s="160"/>
       <c r="B37" s="41" t="s">
         <v>378</v>
@@ -14618,7 +14619,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="108">
+    <row r="38" spans="1:3" ht="63.75">
       <c r="A38" s="160"/>
       <c r="B38" s="41" t="s">
         <v>379</v>
@@ -14627,7 +14628,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="162.75" thickBot="1">
+    <row r="39" spans="1:3" ht="76.900000000000006" thickBot="1">
       <c r="A39" s="160"/>
       <c r="B39" s="41" t="s">
         <v>380</v>
@@ -14636,7 +14637,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="144">
+    <row r="40" spans="1:3" ht="76.5">
       <c r="A40" s="157" t="s">
         <v>388</v>
       </c>
@@ -14647,7 +14648,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="90">
+    <row r="41" spans="1:3" ht="51">
       <c r="A41" s="155"/>
       <c r="B41" s="41" t="s">
         <v>390</v>
@@ -14656,7 +14657,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="108.75" thickBot="1">
+    <row r="42" spans="1:3" ht="64.150000000000006" thickBot="1">
       <c r="A42" s="158"/>
       <c r="B42" s="71" t="s">
         <v>391</v>
@@ -14665,7 +14666,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="180">
+    <row r="43" spans="1:3" ht="127.5">
       <c r="A43" s="157" t="s">
         <v>400</v>
       </c>
@@ -14676,7 +14677,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="54.75" thickBot="1">
+    <row r="44" spans="1:3" ht="38.65" thickBot="1">
       <c r="A44" s="158"/>
       <c r="B44" s="71" t="s">
         <v>397</v>
@@ -14685,7 +14686,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="144">
+    <row r="45" spans="1:3" ht="89.25">
       <c r="A45" s="161" t="s">
         <v>402</v>
       </c>
@@ -14696,7 +14697,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="144">
+    <row r="46" spans="1:3" ht="89.25">
       <c r="A46" s="162"/>
       <c r="B46" s="41" t="s">
         <v>404</v>
@@ -14705,7 +14706,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="36">
+    <row r="47" spans="1:3" ht="25.5">
       <c r="A47" s="162"/>
       <c r="B47" s="41" t="s">
         <v>405</v>
@@ -14714,7 +14715,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="198.75" thickBot="1">
+    <row r="48" spans="1:3" ht="140.65" thickBot="1">
       <c r="A48" s="163"/>
       <c r="B48" s="49" t="s">
         <v>415</v>
@@ -14723,7 +14724,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="144">
+    <row r="49" spans="1:3" ht="63.75">
       <c r="A49" s="154" t="s">
         <v>411</v>
       </c>
@@ -14734,7 +14735,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="180">
+    <row r="50" spans="1:3" ht="89.25">
       <c r="A50" s="155"/>
       <c r="B50" s="41" t="s">
         <v>419</v>
@@ -14743,7 +14744,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="72.75" thickBot="1">
+    <row r="51" spans="1:3" ht="51.4" thickBot="1">
       <c r="A51" s="156"/>
       <c r="B51" s="49" t="s">
         <v>420</v>
@@ -14777,11 +14778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D35423-1F38-4F2F-BC17-D0A66D822A8A}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="23.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="44.125" style="5" customWidth="1"/>
@@ -14789,7 +14790,7 @@
     <col min="4" max="4" width="96.5" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1">
       <c r="A1" s="92" t="s">
         <v>229</v>
       </c>
@@ -14817,7 +14818,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="162">
+    <row r="3" spans="1:4" ht="114.75">
       <c r="A3" s="155"/>
       <c r="B3" s="102" t="s">
         <v>344</v>
@@ -14829,7 +14830,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="162">
+    <row r="4" spans="1:4" ht="89.25">
       <c r="A4" s="155"/>
       <c r="B4" s="102" t="s">
         <v>449</v>
@@ -14841,7 +14842,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="180">
+    <row r="5" spans="1:4" ht="114.75">
       <c r="A5" s="155"/>
       <c r="B5" s="102" t="s">
         <v>434</v>
@@ -14853,7 +14854,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="180">
+    <row r="6" spans="1:4" ht="127.5">
       <c r="A6" s="155"/>
       <c r="B6" s="102" t="s">
         <v>461</v>
@@ -14865,7 +14866,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="144">
+    <row r="7" spans="1:4" ht="102">
       <c r="A7" s="155"/>
       <c r="B7" s="102" t="s">
         <v>435</v>
@@ -14877,7 +14878,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="180">
+    <row r="8" spans="1:4" ht="102">
       <c r="A8" s="155"/>
       <c r="B8" s="102" t="s">
         <v>446</v>
@@ -14889,7 +14890,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="180">
+    <row r="9" spans="1:4" ht="102">
       <c r="A9" s="155"/>
       <c r="B9" s="102" t="s">
         <v>350</v>
@@ -14901,7 +14902,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="198">
+    <row r="10" spans="1:4" ht="114.75">
       <c r="A10" s="155"/>
       <c r="B10" s="102" t="s">
         <v>448</v>
@@ -14913,7 +14914,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="180">
+    <row r="11" spans="1:4" ht="102">
       <c r="A11" s="155"/>
       <c r="B11" s="102" t="s">
         <v>436</v>
@@ -14925,7 +14926,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="234">
+    <row r="12" spans="1:4" ht="140.25">
       <c r="A12" s="155"/>
       <c r="B12" s="102" t="s">
         <v>437</v>
@@ -14937,7 +14938,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="198">
+    <row r="13" spans="1:4" ht="114.75">
       <c r="A13" s="155"/>
       <c r="B13" s="102" t="s">
         <v>438</v>
@@ -14949,7 +14950,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="126">
+    <row r="14" spans="1:4" ht="89.25">
       <c r="A14" s="155"/>
       <c r="B14" s="102" t="s">
         <v>439</v>
@@ -14961,7 +14962,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="162">
+    <row r="15" spans="1:4" ht="102">
       <c r="A15" s="155"/>
       <c r="B15" s="102" t="s">
         <v>440</v>
@@ -14971,7 +14972,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="126">
+    <row r="16" spans="1:4" ht="89.25">
       <c r="A16" s="155"/>
       <c r="B16" s="102" t="s">
         <v>441</v>
@@ -14981,7 +14982,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="108">
+    <row r="17" spans="1:4" ht="51">
       <c r="A17" s="155"/>
       <c r="B17" s="102" t="s">
         <v>442</v>
@@ -14991,7 +14992,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="36">
+    <row r="18" spans="1:4" ht="25.5">
       <c r="A18" s="155"/>
       <c r="B18" s="102" t="s">
         <v>443</v>
@@ -15001,7 +15002,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="216.75" thickBot="1">
+    <row r="19" spans="1:4" ht="127.9" thickBot="1">
       <c r="A19" s="158"/>
       <c r="B19" s="15" t="s">
         <v>452</v>
@@ -15011,7 +15012,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="126">
+    <row r="20" spans="1:4" ht="89.25">
       <c r="A20" s="157" t="s">
         <v>472</v>
       </c>
@@ -15025,7 +15026,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="72">
+    <row r="21" spans="1:4" ht="51">
       <c r="A21" s="155"/>
       <c r="B21" s="102" t="s">
         <v>474</v>
@@ -15037,7 +15038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54">
+    <row r="22" spans="1:4" ht="38.25">
       <c r="A22" s="155"/>
       <c r="B22" s="102" t="s">
         <v>475</v>
@@ -15047,7 +15048,7 @@
       </c>
       <c r="D22" s="76"/>
     </row>
-    <row r="23" spans="1:4" ht="36">
+    <row r="23" spans="1:4" ht="25.5">
       <c r="A23" s="155"/>
       <c r="B23" s="102" t="s">
         <v>476</v>
@@ -15057,7 +15058,7 @@
       </c>
       <c r="D23" s="76"/>
     </row>
-    <row r="24" spans="1:4" ht="198">
+    <row r="24" spans="1:4" ht="140.25">
       <c r="A24" s="155"/>
       <c r="B24" s="102" t="s">
         <v>477</v>
@@ -15067,7 +15068,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="36">
+    <row r="25" spans="1:4" ht="29.65">
       <c r="A25" s="155"/>
       <c r="B25" s="102" t="s">
         <v>478</v>
@@ -15181,7 +15182,7 @@
       <c r="C37" s="115"/>
       <c r="D37" s="76"/>
     </row>
-    <row r="38" spans="1:4" ht="19.5" thickBot="1">
+    <row r="38" spans="1:4" ht="17.25" thickBot="1">
       <c r="A38" s="158"/>
       <c r="B38" s="15" t="s">
         <v>491</v>
@@ -15189,7 +15190,7 @@
       <c r="C38" s="136"/>
       <c r="D38" s="78"/>
     </row>
-    <row r="39" spans="1:4" ht="126">
+    <row r="39" spans="1:4" ht="89.25">
       <c r="A39" s="168" t="s">
         <v>510</v>
       </c>
@@ -15201,7 +15202,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="162">
+    <row r="40" spans="1:4" ht="114.75">
       <c r="A40" s="169"/>
       <c r="B40" s="102" t="s">
         <v>512</v>
@@ -15211,54 +15212,54 @@
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="144">
+    <row r="41" spans="1:4" ht="76.5">
       <c r="A41" s="169"/>
       <c r="B41" s="102" t="s">
         <v>514</v>
       </c>
       <c r="C41" s="115"/>
       <c r="D41" s="76" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="180">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="114.75">
       <c r="A42" s="169"/>
       <c r="B42" s="102" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C42" s="115"/>
       <c r="D42" s="76" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="162">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="102">
       <c r="A43" s="169"/>
       <c r="B43" s="102" t="s">
         <v>513</v>
       </c>
       <c r="C43" s="115"/>
       <c r="D43" s="76" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="180">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="102">
       <c r="A44" s="169"/>
       <c r="B44" s="102" t="s">
         <v>515</v>
       </c>
       <c r="C44" s="115"/>
       <c r="D44" s="76" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="180">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="102">
       <c r="A45" s="169"/>
       <c r="B45" s="102" t="s">
         <v>516</v>
       </c>
       <c r="C45" s="115"/>
       <c r="D45" s="76" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -15269,14 +15270,14 @@
       <c r="C46" s="115"/>
       <c r="D46" s="76"/>
     </row>
-    <row r="47" spans="1:4" ht="126">
+    <row r="47" spans="1:4" ht="102">
       <c r="A47" s="169"/>
       <c r="B47" s="102" t="s">
         <v>518</v>
       </c>
       <c r="C47" s="115"/>
       <c r="D47" s="76" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -15287,14 +15288,14 @@
       <c r="C48" s="115"/>
       <c r="D48" s="76"/>
     </row>
-    <row r="49" spans="1:4" ht="72.75" thickBot="1">
+    <row r="49" spans="1:4" ht="51.4" thickBot="1">
       <c r="A49" s="170"/>
       <c r="B49" s="120" t="s">
         <v>520</v>
       </c>
       <c r="C49" s="116"/>
       <c r="D49" s="91" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/就活.xlsx
+++ b/就活.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A3939-C2B9-4DEB-9793-F75FB1336A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF74AA3-5092-422A-ABE8-1BD07D20C2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37500ABD-9D1E-4E72-A5EF-C2F3119ADD29}"/>
   </bookViews>
@@ -4846,14 +4846,6 @@
     <t>n6v1011667</t>
   </si>
   <si>
-    <t>WEB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GAB</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -7512,6 +7504,17 @@
     <rPh sb="5" eb="9">
       <t>シボウリユウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文章テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ブンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7628,7 +7631,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7662,12 +7665,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8212,7 +8209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8318,9 +8315,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8348,12 +8342,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8381,9 +8369,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8399,9 +8384,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8465,21 +8447,9 @@
     <xf numFmtId="22" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8504,21 +8474,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8540,18 +8501,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8576,19 +8525,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8624,16 +8564,70 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8642,50 +8636,38 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8702,18 +8684,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8721,6 +8691,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9060,8 +9078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC70DC4-F0DC-4C6F-8135-CC403CCD1BBE}">
   <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L164" sqref="L164"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K163" sqref="K163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9078,20 +9096,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="138" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="146"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
       <c r="M1" s="1" t="s">
         <v>295</v>
       </c>
@@ -9127,19 +9145,19 @@
       <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="141" t="s">
+      <c r="K2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="142"/>
+      <c r="L2" s="141"/>
       <c r="M2" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A3" s="140">
+      <c r="A3" s="134">
         <v>1</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -9151,7 +9169,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="15"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>141</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -9165,8 +9183,8 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -9181,10 +9199,10 @@
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A5" s="140">
+      <c r="A5" s="134">
         <v>2</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="135" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -9207,8 +9225,8 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="140"/>
-      <c r="B6" s="138"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
@@ -9220,10 +9238,10 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A7" s="140">
+      <c r="A7" s="134">
         <v>3</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="135" t="s">
         <v>153</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -9246,8 +9264,8 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="140"/>
-      <c r="B8" s="138"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
@@ -9262,28 +9280,28 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A9" s="140">
+      <c r="A9" s="134">
         <v>4</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="54">
         <v>45670.666666666664</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="67">
         <v>45711</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="60">
         <v>45708</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="15"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="35" t="s">
         <v>86</v>
       </c>
       <c r="K9" s="10" t="s">
@@ -9294,17 +9312,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="140"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="55" t="s">
+      <c r="A10" s="134"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="56">
         <v>45674.458333333336</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="55" t="s">
-        <v>367</v>
+      <c r="E10" s="56"/>
+      <c r="F10" s="52" t="s">
+        <v>365</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="16"/>
@@ -9314,15 +9332,15 @@
         <v>8</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A11" s="140">
+      <c r="A11" s="134">
         <v>5</v>
       </c>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="135" t="s">
         <v>155</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -9345,12 +9363,12 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="140"/>
-      <c r="B12" s="138"/>
+      <c r="A12" s="134"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="12"/>
@@ -9361,10 +9379,10 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="140">
+      <c r="A13" s="134">
         <v>6</v>
       </c>
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="135" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -9376,7 +9394,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="15"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="35" t="s">
         <v>265</v>
       </c>
       <c r="K13" s="10" t="s">
@@ -9387,8 +9405,8 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="140"/>
-      <c r="B14" s="138"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="16" t="s">
         <v>3</v>
       </c>
@@ -9403,16 +9421,16 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A15" s="140">
+      <c r="A15" s="134">
         <v>7</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="54">
         <v>45667.541666666664</v>
       </c>
       <c r="E15" s="15"/>
@@ -9422,7 +9440,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="35" t="s">
         <v>85</v>
       </c>
       <c r="K15" s="10" t="s">
@@ -9433,12 +9451,12 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="140"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="55" t="s">
+      <c r="A16" s="134"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="29"/>
       <c r="F16" s="16"/>
       <c r="G16" s="12"/>
@@ -9449,10 +9467,10 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A17" s="140">
+      <c r="A17" s="134">
         <v>8</v>
       </c>
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="135" t="s">
         <v>158</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -9473,8 +9491,8 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="140"/>
-      <c r="B18" s="138"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="16" t="s">
         <v>50</v>
       </c>
@@ -9489,10 +9507,10 @@
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="140">
+      <c r="A19" s="134">
         <v>9</v>
       </c>
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="135" t="s">
         <v>159</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -9515,8 +9533,8 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="140"/>
-      <c r="B20" s="138"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="16" t="s">
         <v>3</v>
       </c>
@@ -9531,10 +9549,10 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="140">
+      <c r="A21" s="134">
         <v>10</v>
       </c>
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="135" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -9555,8 +9573,8 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="140"/>
-      <c r="B22" s="138"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="16" t="s">
         <v>3</v>
       </c>
@@ -9568,18 +9586,18 @@
       <c r="I22" s="12"/>
       <c r="J22" s="16"/>
       <c r="K22" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="140">
+      <c r="A23" s="134">
         <v>11</v>
       </c>
-      <c r="B23" s="138" t="s">
+      <c r="B23" s="135" t="s">
         <v>161</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -9600,8 +9618,8 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="140"/>
-      <c r="B24" s="138"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="16" t="s">
         <v>3</v>
       </c>
@@ -9618,28 +9636,28 @@
       <c r="L24" s="19"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="140">
+      <c r="A25" s="134">
         <v>12</v>
       </c>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="136" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="54">
         <v>45667.541666666664</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="51">
         <v>45696.556250000001</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="51">
         <v>45699.999305555553</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="15"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="35" t="s">
         <v>242</v>
       </c>
       <c r="K25" s="10" t="s">
@@ -9650,18 +9668,18 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="140"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="55" t="s">
+      <c r="A26" s="134"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="56">
         <v>45681.604166666664</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="52" t="s">
         <v>276</v>
       </c>
       <c r="G26" s="12"/>
@@ -9676,30 +9694,30 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A27" s="140">
+      <c r="A27" s="134">
         <v>13</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="54">
         <v>45685.635416666664</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="60">
         <v>45693</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="51">
         <v>45689.5</v>
       </c>
-      <c r="G27" s="66">
+      <c r="G27" s="61">
         <v>45702.548611111109</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="36" t="s">
+      <c r="J27" s="35" t="s">
         <v>79</v>
       </c>
       <c r="K27" s="10" t="s">
@@ -9710,19 +9728,19 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="140"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="55" t="s">
+      <c r="A28" s="134"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="55" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="F28" s="86" t="s">
+      <c r="F28" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="41" t="s">
         <v>251</v>
       </c>
       <c r="H28" s="16"/>
@@ -9736,10 +9754,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A29" s="140">
+      <c r="A29" s="134">
         <v>14</v>
       </c>
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="135" t="s">
         <v>164</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -9751,7 +9769,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="15"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="35" t="s">
         <v>328</v>
       </c>
       <c r="K29" s="10" t="s">
@@ -9762,8 +9780,8 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="140"/>
-      <c r="B30" s="138"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="16" t="s">
         <v>0</v>
       </c>
@@ -9775,17 +9793,17 @@
       <c r="I30" s="12"/>
       <c r="J30" s="16"/>
       <c r="K30" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A31" s="140">
+      <c r="A31" s="134">
         <v>15</v>
       </c>
-      <c r="B31" s="138" t="s">
+      <c r="B31" s="135" t="s">
         <v>165</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -9797,7 +9815,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="15"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="36" t="s">
+      <c r="J31" s="35" t="s">
         <v>257</v>
       </c>
       <c r="K31" s="10" t="s">
@@ -9808,44 +9826,44 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="140"/>
-      <c r="B32" s="138"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="135"/>
       <c r="C32" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="12"/>
       <c r="H32" s="16"/>
       <c r="I32" s="12"/>
       <c r="J32" s="16"/>
       <c r="K32" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="140">
+      <c r="A33" s="134">
         <v>16</v>
       </c>
-      <c r="B33" s="138" t="s">
+      <c r="B33" s="135" t="s">
         <v>166</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="72">
         <v>45667</v>
       </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="126"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="9"/>
       <c r="H33" s="15"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="36" t="s">
+      <c r="J33" s="35" t="s">
         <v>130</v>
       </c>
       <c r="K33" s="10" t="s">
@@ -9856,14 +9874,14 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="140"/>
-      <c r="B34" s="138"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
       <c r="G34" s="12"/>
       <c r="H34" s="16"/>
       <c r="I34" s="12"/>
@@ -9872,24 +9890,24 @@
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A35" s="140">
+      <c r="A35" s="134">
         <v>17</v>
       </c>
-      <c r="B35" s="138" t="s">
+      <c r="B35" s="135" t="s">
         <v>167</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="77">
+      <c r="D35" s="72">
         <v>45667</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
       <c r="G35" s="9"/>
       <c r="H35" s="15"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="36" t="s">
+      <c r="J35" s="35" t="s">
         <v>130</v>
       </c>
       <c r="K35" s="10" t="s">
@@ -9900,14 +9918,14 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="140"/>
-      <c r="B36" s="138"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="135"/>
       <c r="C36" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
       <c r="G36" s="12"/>
       <c r="H36" s="16"/>
       <c r="I36" s="12"/>
@@ -9916,23 +9934,23 @@
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A37" s="140">
+      <c r="A37" s="134">
         <v>18</v>
       </c>
-      <c r="B37" s="138" t="s">
+      <c r="B37" s="135" t="s">
         <v>168</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="20"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
       <c r="G37" s="9"/>
       <c r="H37" s="15"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="36" t="s">
-        <v>410</v>
+      <c r="J37" s="35" t="s">
+        <v>408</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>22</v>
@@ -9942,28 +9960,28 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="140"/>
-      <c r="B38" s="138"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="135"/>
       <c r="C38" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="21"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
       <c r="G38" s="12"/>
       <c r="H38" s="16"/>
       <c r="I38" s="12"/>
       <c r="J38" s="16"/>
       <c r="K38" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A39" s="140">
+      <c r="A39" s="134">
         <v>19</v>
       </c>
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="135" t="s">
         <v>169</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -9972,12 +9990,12 @@
       <c r="D39" s="24">
         <v>45691.416666666664</v>
       </c>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
       <c r="G39" s="9"/>
       <c r="H39" s="15"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="36" t="s">
+      <c r="J39" s="35" t="s">
         <v>130</v>
       </c>
       <c r="K39" s="10" t="s">
@@ -9988,28 +10006,28 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="140"/>
-      <c r="B40" s="138"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
       <c r="G40" s="12"/>
       <c r="H40" s="16"/>
       <c r="I40" s="12"/>
       <c r="J40" s="16"/>
       <c r="K40" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A41" s="140">
+      <c r="A41" s="134">
         <v>20</v>
       </c>
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="135" t="s">
         <v>170</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -10021,7 +10039,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="15"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="36" t="s">
+      <c r="J41" s="35" t="s">
         <v>142</v>
       </c>
       <c r="K41" s="10" t="s">
@@ -10032,8 +10050,8 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="140"/>
-      <c r="B42" s="138"/>
+      <c r="A42" s="134"/>
+      <c r="B42" s="135"/>
       <c r="C42" s="16" t="s">
         <v>0</v>
       </c>
@@ -10048,16 +10066,16 @@
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A43" s="140">
+      <c r="A43" s="134">
         <v>21</v>
       </c>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="136" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="70"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="H43" s="17"/>
@@ -10072,12 +10090,12 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="140"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="67" t="s">
+      <c r="A44" s="134"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="73"/>
+      <c r="D44" s="68"/>
       <c r="E44" s="30"/>
       <c r="F44" s="17"/>
       <c r="H44" s="17"/>
@@ -10085,10 +10103,10 @@
       <c r="L44" s="14"/>
     </row>
     <row r="45" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A45" s="140">
+      <c r="A45" s="134">
         <v>22</v>
       </c>
-      <c r="B45" s="138" t="s">
+      <c r="B45" s="135" t="s">
         <v>172</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -10100,7 +10118,7 @@
       <c r="G45" s="9"/>
       <c r="H45" s="15"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="36" t="s">
+      <c r="J45" s="35" t="s">
         <v>130</v>
       </c>
       <c r="K45" s="10" t="s">
@@ -10111,8 +10129,8 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="140"/>
-      <c r="B46" s="138"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="135"/>
       <c r="C46" s="16" t="s">
         <v>0</v>
       </c>
@@ -10127,10 +10145,10 @@
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A47" s="140">
+      <c r="A47" s="134">
         <v>23</v>
       </c>
-      <c r="B47" s="138" t="s">
+      <c r="B47" s="135" t="s">
         <v>173</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -10152,8 +10170,8 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="140"/>
-      <c r="B48" s="138"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="135"/>
       <c r="C48" s="17" t="s">
         <v>0</v>
       </c>
@@ -10167,10 +10185,10 @@
       <c r="L48" s="14"/>
     </row>
     <row r="49" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A49" s="140">
+      <c r="A49" s="134">
         <v>24</v>
       </c>
-      <c r="B49" s="138" t="s">
+      <c r="B49" s="135" t="s">
         <v>174</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -10182,7 +10200,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="15"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="36" t="s">
+      <c r="J49" s="35" t="s">
         <v>141</v>
       </c>
       <c r="K49" s="10" t="s">
@@ -10193,8 +10211,8 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="140"/>
-      <c r="B50" s="138"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="135"/>
       <c r="C50" s="16" t="s">
         <v>0</v>
       </c>
@@ -10206,29 +10224,29 @@
       <c r="I50" s="12"/>
       <c r="J50" s="16"/>
       <c r="K50" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L50" s="13"/>
     </row>
     <row r="51" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A51" s="140">
+      <c r="A51" s="134">
         <v>25</v>
       </c>
-      <c r="B51" s="137" t="s">
+      <c r="B51" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="69">
+      <c r="D51" s="65"/>
+      <c r="E51" s="64">
         <v>45712</v>
       </c>
-      <c r="F51" s="69">
+      <c r="F51" s="64">
         <v>45712</v>
       </c>
       <c r="H51" s="17"/>
-      <c r="J51" s="40" t="s">
+      <c r="J51" s="39" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="7" t="s">
@@ -10239,28 +10257,28 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="140"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="67" t="s">
+      <c r="A52" s="134"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
       <c r="H52" s="17"/>
       <c r="J52" s="17"/>
       <c r="K52" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L52" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A53" s="140">
+      <c r="A53" s="134">
         <v>26</v>
       </c>
-      <c r="B53" s="138" t="s">
+      <c r="B53" s="135" t="s">
         <v>176</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -10281,8 +10299,8 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="140"/>
-      <c r="B54" s="138"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="135"/>
       <c r="C54" s="16" t="s">
         <v>0</v>
       </c>
@@ -10297,22 +10315,22 @@
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="140">
+      <c r="A55" s="134">
         <v>27</v>
       </c>
-      <c r="B55" s="140" t="s">
+      <c r="B55" s="134" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="63">
+      <c r="D55" s="58">
         <v>45719</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="H55" s="17"/>
-      <c r="J55" s="40" t="s">
+      <c r="J55" s="39" t="s">
         <v>87</v>
       </c>
       <c r="K55" s="7" t="s">
@@ -10323,12 +10341,12 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="140"/>
-      <c r="B56" s="140"/>
+      <c r="A56" s="134"/>
+      <c r="B56" s="134"/>
       <c r="C56" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="61"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="H56" s="17"/>
@@ -10336,34 +10354,34 @@
       <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A57" s="140">
+      <c r="A57" s="134">
         <v>28</v>
       </c>
-      <c r="B57" s="138" t="s">
+      <c r="B57" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="109">
+      <c r="D57" s="54">
         <v>45681.416666666664</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E57" s="51">
         <v>45690.5</v>
       </c>
-      <c r="F57" s="87">
+      <c r="F57" s="60">
         <v>45697</v>
       </c>
-      <c r="G57" s="97">
+      <c r="G57" s="118">
         <v>45715</v>
       </c>
-      <c r="H57" s="143" t="s">
-        <v>428</v>
-      </c>
-      <c r="I57" s="62">
+      <c r="H57" s="142" t="s">
+        <v>426</v>
+      </c>
+      <c r="I57" s="118">
         <v>45726</v>
       </c>
-      <c r="J57" s="36" t="s">
+      <c r="J57" s="35" t="s">
         <v>89</v>
       </c>
       <c r="K57" s="10" t="s">
@@ -10374,36 +10392,36 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="140"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="16" t="s">
+      <c r="A58" s="134"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="110"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="88" t="s">
-        <v>356</v>
-      </c>
-      <c r="G58" s="98" t="s">
-        <v>359</v>
-      </c>
-      <c r="H58" s="144"/>
-      <c r="I58" s="101">
+      <c r="D58" s="55"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="G58" s="120" t="s">
+        <v>357</v>
+      </c>
+      <c r="H58" s="143"/>
+      <c r="I58" s="121">
         <v>0.625</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A59" s="140">
+      <c r="A59" s="134">
         <v>29</v>
       </c>
-      <c r="B59" s="138" t="s">
+      <c r="B59" s="135" t="s">
         <v>178</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -10425,8 +10443,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="140"/>
-      <c r="B60" s="138"/>
+      <c r="A60" s="134"/>
+      <c r="B60" s="135"/>
       <c r="C60" s="17" t="s">
         <v>117</v>
       </c>
@@ -10441,26 +10459,26 @@
       <c r="L60" s="14"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="140">
+      <c r="A61" s="134">
         <v>30</v>
       </c>
-      <c r="B61" s="139" t="s">
+      <c r="B61" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="65">
+      <c r="D61" s="60">
         <v>45712</v>
       </c>
-      <c r="E61" s="65">
+      <c r="E61" s="60">
         <v>45721</v>
       </c>
-      <c r="F61" s="99"/>
+      <c r="F61" s="88"/>
       <c r="G61" s="9"/>
       <c r="H61" s="15"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="36" t="s">
+      <c r="J61" s="35" t="s">
         <v>84</v>
       </c>
       <c r="K61" s="10" t="s">
@@ -10471,14 +10489,14 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="140"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="55" t="s">
+      <c r="A62" s="134"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="102"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="90"/>
       <c r="G62" s="12" t="s">
         <v>298</v>
       </c>
@@ -10486,31 +10504,31 @@
       <c r="I62" s="12"/>
       <c r="J62" s="16"/>
       <c r="K62" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A63" s="140">
+      <c r="A63" s="134">
         <v>31</v>
       </c>
-      <c r="B63" s="137" t="s">
+      <c r="B63" s="136" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="68">
+      <c r="D63" s="63">
         <v>45694.583333333336</v>
       </c>
-      <c r="E63" s="69">
+      <c r="E63" s="64">
         <v>45706</v>
       </c>
       <c r="F63" s="17"/>
       <c r="H63" s="17"/>
-      <c r="J63" s="40">
+      <c r="J63" s="39">
         <v>2626588</v>
       </c>
       <c r="K63" s="7" t="s">
@@ -10521,13 +10539,13 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="140"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="67" t="s">
+      <c r="A64" s="134"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="67" t="s">
+      <c r="D64" s="65"/>
+      <c r="E64" s="62" t="s">
         <v>243</v>
       </c>
       <c r="F64" s="17"/>
@@ -10536,10 +10554,10 @@
       <c r="L64" s="14"/>
     </row>
     <row r="65" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A65" s="140">
+      <c r="A65" s="134">
         <v>32</v>
       </c>
-      <c r="B65" s="138" t="s">
+      <c r="B65" s="135" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -10560,8 +10578,8 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="140"/>
-      <c r="B66" s="138"/>
+      <c r="A66" s="134"/>
+      <c r="B66" s="135"/>
       <c r="C66" s="16" t="s">
         <v>0</v>
       </c>
@@ -10576,10 +10594,10 @@
       <c r="L66" s="13"/>
     </row>
     <row r="67" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A67" s="140">
+      <c r="A67" s="134">
         <v>33</v>
       </c>
-      <c r="B67" s="138" t="s">
+      <c r="B67" s="135" t="s">
         <v>180</v>
       </c>
       <c r="C67" s="17" t="s">
@@ -10589,7 +10607,7 @@
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="H67" s="17"/>
-      <c r="J67" s="89" t="s">
+      <c r="J67" s="80" t="s">
         <v>95</v>
       </c>
       <c r="K67" s="7" t="s">
@@ -10600,8 +10618,8 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="140"/>
-      <c r="B68" s="138"/>
+      <c r="A68" s="134"/>
+      <c r="B68" s="135"/>
       <c r="C68" s="17" t="s">
         <v>0</v>
       </c>
@@ -10613,10 +10631,10 @@
       <c r="L68" s="14"/>
     </row>
     <row r="69" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A69" s="140">
+      <c r="A69" s="134">
         <v>34</v>
       </c>
-      <c r="B69" s="138" t="s">
+      <c r="B69" s="135" t="s">
         <v>181</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -10637,8 +10655,8 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="140"/>
-      <c r="B70" s="138"/>
+      <c r="A70" s="134"/>
+      <c r="B70" s="135"/>
       <c r="C70" s="16" t="s">
         <v>0</v>
       </c>
@@ -10653,10 +10671,10 @@
       <c r="L70" s="13"/>
     </row>
     <row r="71" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A71" s="140">
+      <c r="A71" s="134">
         <v>35</v>
       </c>
-      <c r="B71" s="138" t="s">
+      <c r="B71" s="135" t="s">
         <v>182</v>
       </c>
       <c r="C71" s="17" t="s">
@@ -10666,7 +10684,7 @@
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
       <c r="H71" s="17"/>
-      <c r="J71" s="40" t="s">
+      <c r="J71" s="39" t="s">
         <v>88</v>
       </c>
       <c r="K71" s="7" t="s">
@@ -10677,8 +10695,8 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="140"/>
-      <c r="B72" s="138"/>
+      <c r="A72" s="134"/>
+      <c r="B72" s="135"/>
       <c r="C72" s="17" t="s">
         <v>0</v>
       </c>
@@ -10688,17 +10706,17 @@
       <c r="H72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A73" s="140">
+      <c r="A73" s="134">
         <v>36</v>
       </c>
-      <c r="B73" s="138" t="s">
+      <c r="B73" s="135" t="s">
         <v>183</v>
       </c>
       <c r="C73" s="15" t="s">
@@ -10719,8 +10737,8 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="140"/>
-      <c r="B74" s="138"/>
+      <c r="A74" s="134"/>
+      <c r="B74" s="135"/>
       <c r="C74" s="16" t="s">
         <v>184</v>
       </c>
@@ -10735,20 +10753,20 @@
       <c r="L74" s="13"/>
     </row>
     <row r="75" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A75" s="140">
+      <c r="A75" s="134">
         <v>37</v>
       </c>
-      <c r="B75" s="138" t="s">
+      <c r="B75" s="135" t="s">
         <v>185</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="103"/>
+      <c r="E75" s="91"/>
       <c r="F75" s="17"/>
       <c r="H75" s="17"/>
-      <c r="J75" s="40" t="s">
+      <c r="J75" s="39" t="s">
         <v>83</v>
       </c>
       <c r="K75" s="7" t="s">
@@ -10759,42 +10777,42 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="140"/>
-      <c r="B76" s="138"/>
+      <c r="A76" s="134"/>
+      <c r="B76" s="135"/>
       <c r="C76" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="104"/>
+      <c r="E76" s="92"/>
       <c r="F76" s="17"/>
       <c r="H76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L76" s="14"/>
     </row>
     <row r="77" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A77" s="140">
+      <c r="A77" s="134">
         <v>38</v>
       </c>
-      <c r="B77" s="138" t="s">
+      <c r="B77" s="135" t="s">
         <v>186</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D77" s="20"/>
-      <c r="E77" s="80">
+      <c r="E77" s="75">
         <v>45713.5</v>
       </c>
-      <c r="F77" s="80">
+      <c r="F77" s="75">
         <v>45715.5</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="15"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="36" t="s">
+      <c r="J77" s="35" t="s">
         <v>147</v>
       </c>
       <c r="K77" s="10" t="s">
@@ -10805,14 +10823,14 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="140"/>
-      <c r="B78" s="138"/>
+      <c r="A78" s="134"/>
+      <c r="B78" s="135"/>
       <c r="C78" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D78" s="21"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
       <c r="G78" s="12"/>
       <c r="H78" s="16"/>
       <c r="I78" s="12"/>
@@ -10821,20 +10839,20 @@
         <v>342</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A79" s="140">
+      <c r="A79" s="134">
         <v>39</v>
       </c>
-      <c r="B79" s="137" t="s">
+      <c r="B79" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="C79" s="67" t="s">
+      <c r="C79" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="70"/>
+      <c r="D79" s="65"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="H79" s="17"/>
@@ -10847,12 +10865,12 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="140"/>
-      <c r="B80" s="137"/>
-      <c r="C80" s="67" t="s">
+      <c r="A80" s="134"/>
+      <c r="B80" s="136"/>
+      <c r="C80" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D80" s="70"/>
+      <c r="D80" s="65"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="H80" s="17"/>
@@ -10860,10 +10878,10 @@
       <c r="L80" s="14"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="140">
+      <c r="A81" s="134">
         <v>40</v>
       </c>
-      <c r="B81" s="140" t="s">
+      <c r="B81" s="134" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -10884,8 +10902,8 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="140"/>
-      <c r="B82" s="140"/>
+      <c r="A82" s="134"/>
+      <c r="B82" s="134"/>
       <c r="C82" s="16" t="s">
         <v>184</v>
       </c>
@@ -10900,10 +10918,10 @@
       <c r="L82" s="13"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A83" s="140">
+      <c r="A83" s="134">
         <v>41</v>
       </c>
-      <c r="B83" s="138" t="s">
+      <c r="B83" s="135" t="s">
         <v>188</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -10922,8 +10940,8 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="140"/>
-      <c r="B84" s="138"/>
+      <c r="A84" s="134"/>
+      <c r="B84" s="135"/>
       <c r="C84" s="17" t="s">
         <v>0</v>
       </c>
@@ -10935,10 +10953,10 @@
       <c r="L84" s="14"/>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A85" s="140">
+      <c r="A85" s="134">
         <v>42</v>
       </c>
-      <c r="B85" s="138" t="s">
+      <c r="B85" s="135" t="s">
         <v>189</v>
       </c>
       <c r="C85" s="15" t="s">
@@ -10959,8 +10977,8 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="140"/>
-      <c r="B86" s="138"/>
+      <c r="A86" s="134"/>
+      <c r="B86" s="135"/>
       <c r="C86" s="16" t="s">
         <v>190</v>
       </c>
@@ -10975,29 +10993,31 @@
       <c r="L86" s="13"/>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A87" s="140">
+      <c r="A87" s="134">
         <v>43</v>
       </c>
-      <c r="B87" s="138" t="s">
+      <c r="B87" s="135" t="s">
         <v>347</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="105">
+      <c r="D87" s="93">
         <v>45704</v>
       </c>
-      <c r="E87" s="106">
+      <c r="E87" s="94">
         <v>45721</v>
       </c>
-      <c r="F87" s="106">
+      <c r="F87" s="94">
         <v>45721</v>
       </c>
-      <c r="G87" s="111">
+      <c r="G87" s="129">
         <v>45734</v>
       </c>
-      <c r="H87" s="17"/>
-      <c r="J87" s="40" t="s">
+      <c r="H87" s="127">
+        <v>45743</v>
+      </c>
+      <c r="J87" s="39" t="s">
         <v>258</v>
       </c>
       <c r="K87" s="7" t="s">
@@ -11008,49 +11028,51 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="140"/>
-      <c r="B88" s="138"/>
+      <c r="A88" s="134"/>
+      <c r="B88" s="135"/>
       <c r="C88" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D88" s="107" t="s">
+      <c r="D88" s="95" t="s">
         <v>348</v>
       </c>
-      <c r="E88" s="108" t="s">
-        <v>385</v>
-      </c>
-      <c r="F88" s="108" t="s">
-        <v>385</v>
-      </c>
-      <c r="G88" s="112">
+      <c r="E88" s="96" t="s">
+        <v>383</v>
+      </c>
+      <c r="F88" s="96" t="s">
+        <v>383</v>
+      </c>
+      <c r="G88" s="130">
         <v>0.54861111111111116</v>
       </c>
-      <c r="H88" s="17"/>
+      <c r="H88" s="128">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="J88" s="17"/>
       <c r="K88" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L88" s="26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A89" s="140">
+      <c r="A89" s="134">
         <v>44</v>
       </c>
-      <c r="B89" s="137" t="s">
+      <c r="B89" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="57" t="s">
+      <c r="C89" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="58"/>
+      <c r="D89" s="54"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="9"/>
       <c r="H89" s="15"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="36" t="s">
+      <c r="J89" s="35" t="s">
         <v>128</v>
       </c>
       <c r="K89" s="10" t="s">
@@ -11061,12 +11083,12 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="140"/>
-      <c r="B90" s="137"/>
-      <c r="C90" s="55" t="s">
+      <c r="A90" s="134"/>
+      <c r="B90" s="136"/>
+      <c r="C90" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D90" s="59"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="12"/>
@@ -11077,10 +11099,10 @@
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A91" s="140">
+      <c r="A91" s="134">
         <v>45</v>
       </c>
-      <c r="B91" s="138" t="s">
+      <c r="B91" s="135" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="17" t="s">
@@ -11099,8 +11121,8 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="140"/>
-      <c r="B92" s="138"/>
+      <c r="A92" s="134"/>
+      <c r="B92" s="135"/>
       <c r="C92" s="17" t="s">
         <v>73</v>
       </c>
@@ -11112,10 +11134,10 @@
       <c r="L92" s="14"/>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A93" s="140">
+      <c r="A93" s="134">
         <v>46</v>
       </c>
-      <c r="B93" s="138" t="s">
+      <c r="B93" s="135" t="s">
         <v>193</v>
       </c>
       <c r="C93" s="15" t="s">
@@ -11136,8 +11158,8 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="140"/>
-      <c r="B94" s="138"/>
+      <c r="A94" s="134"/>
+      <c r="B94" s="135"/>
       <c r="C94" s="16" t="s">
         <v>74</v>
       </c>
@@ -11152,10 +11174,10 @@
       <c r="L94" s="13"/>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A95" s="140">
+      <c r="A95" s="134">
         <v>47</v>
       </c>
-      <c r="B95" s="138" t="s">
+      <c r="B95" s="135" t="s">
         <v>194</v>
       </c>
       <c r="C95" s="17" t="s">
@@ -11174,8 +11196,8 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="140"/>
-      <c r="B96" s="138"/>
+      <c r="A96" s="134"/>
+      <c r="B96" s="135"/>
       <c r="C96" s="17" t="s">
         <v>0</v>
       </c>
@@ -11187,10 +11209,10 @@
       <c r="L96" s="14"/>
     </row>
     <row r="97" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A97" s="140">
+      <c r="A97" s="134">
         <v>48</v>
       </c>
-      <c r="B97" s="138" t="s">
+      <c r="B97" s="135" t="s">
         <v>195</v>
       </c>
       <c r="C97" s="15" t="s">
@@ -11202,7 +11224,7 @@
       <c r="G97" s="9"/>
       <c r="H97" s="15"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="36" t="s">
+      <c r="J97" s="35" t="s">
         <v>256</v>
       </c>
       <c r="K97" s="10" t="s">
@@ -11213,8 +11235,8 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="140"/>
-      <c r="B98" s="138"/>
+      <c r="A98" s="134"/>
+      <c r="B98" s="135"/>
       <c r="C98" s="16" t="s">
         <v>0</v>
       </c>
@@ -11229,26 +11251,26 @@
       <c r="L98" s="13"/>
     </row>
     <row r="99" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A99" s="140">
+      <c r="A99" s="134">
         <v>49</v>
       </c>
-      <c r="B99" s="137" t="s">
+      <c r="B99" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="67" t="s">
+      <c r="C99" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D99" s="68">
+      <c r="D99" s="63">
         <v>45694.416666666664</v>
       </c>
-      <c r="E99" s="83">
+      <c r="E99" s="78">
         <v>45695.666666666664</v>
       </c>
-      <c r="F99" s="69">
+      <c r="F99" s="64">
         <v>45719</v>
       </c>
       <c r="H99" s="17"/>
-      <c r="J99" s="40" t="s">
+      <c r="J99" s="39" t="s">
         <v>97</v>
       </c>
       <c r="K99" s="7" t="s">
@@ -11259,17 +11281,17 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="140"/>
-      <c r="B100" s="137"/>
-      <c r="C100" s="67" t="s">
+      <c r="A100" s="134"/>
+      <c r="B100" s="136"/>
+      <c r="C100" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D100" s="70"/>
-      <c r="E100" s="67" t="s">
+      <c r="D100" s="65"/>
+      <c r="E100" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="F100" s="67" t="s">
-        <v>358</v>
+      <c r="F100" s="62" t="s">
+        <v>356</v>
       </c>
       <c r="H100" s="17"/>
       <c r="J100" s="17"/>
@@ -11279,26 +11301,26 @@
       <c r="L100" s="14"/>
     </row>
     <row r="101" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A101" s="140">
+      <c r="A101" s="134">
         <v>50</v>
       </c>
-      <c r="B101" s="137" t="s">
+      <c r="B101" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="C101" s="57" t="s">
+      <c r="C101" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D101" s="72">
+      <c r="D101" s="67">
         <v>45697</v>
       </c>
-      <c r="E101" s="57"/>
-      <c r="F101" s="65">
+      <c r="E101" s="53"/>
+      <c r="F101" s="60">
         <v>45704</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="15"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="36" t="s">
+      <c r="J101" s="35" t="s">
         <v>288</v>
       </c>
       <c r="K101" s="10" t="s">
@@ -11309,16 +11331,16 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="140"/>
-      <c r="B102" s="137"/>
-      <c r="C102" s="55" t="s">
+      <c r="A102" s="134"/>
+      <c r="B102" s="136"/>
+      <c r="C102" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D102" s="59" t="s">
+      <c r="D102" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55" t="s">
+      <c r="E102" s="52"/>
+      <c r="F102" s="52" t="s">
         <v>127</v>
       </c>
       <c r="G102" s="12"/>
@@ -11331,10 +11353,10 @@
       <c r="L102" s="13"/>
     </row>
     <row r="103" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A103" s="140">
+      <c r="A103" s="134">
         <v>51</v>
       </c>
-      <c r="B103" s="138" t="s">
+      <c r="B103" s="135" t="s">
         <v>198</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -11353,8 +11375,8 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="140"/>
-      <c r="B104" s="138"/>
+      <c r="A104" s="134"/>
+      <c r="B104" s="135"/>
       <c r="C104" s="17" t="s">
         <v>0</v>
       </c>
@@ -11366,10 +11388,10 @@
       <c r="L104" s="14"/>
     </row>
     <row r="105" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A105" s="140">
+      <c r="A105" s="134">
         <v>52</v>
       </c>
-      <c r="B105" s="138" t="s">
+      <c r="B105" s="135" t="s">
         <v>199</v>
       </c>
       <c r="C105" s="15" t="s">
@@ -11381,7 +11403,7 @@
       <c r="G105" s="9"/>
       <c r="H105" s="15"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="36" t="s">
+      <c r="J105" s="35" t="s">
         <v>277</v>
       </c>
       <c r="K105" s="10" t="s">
@@ -11392,8 +11414,8 @@
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="140"/>
-      <c r="B106" s="138"/>
+      <c r="A106" s="134"/>
+      <c r="B106" s="135"/>
       <c r="C106" s="16" t="s">
         <v>0</v>
       </c>
@@ -11408,10 +11430,10 @@
       <c r="L106" s="13"/>
     </row>
     <row r="107" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A107" s="140">
+      <c r="A107" s="134">
         <v>53</v>
       </c>
-      <c r="B107" s="138" t="s">
+      <c r="B107" s="135" t="s">
         <v>200</v>
       </c>
       <c r="C107" s="17" t="s">
@@ -11430,8 +11452,8 @@
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="140"/>
-      <c r="B108" s="138"/>
+      <c r="A108" s="134"/>
+      <c r="B108" s="135"/>
       <c r="C108" s="17" t="s">
         <v>0</v>
       </c>
@@ -11443,17 +11465,17 @@
       <c r="L108" s="14"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="140">
+      <c r="A109" s="134">
         <v>54</v>
       </c>
-      <c r="B109" s="139" t="s">
+      <c r="B109" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="C109" s="57" t="s">
+      <c r="C109" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D109" s="64"/>
-      <c r="E109" s="54">
+      <c r="D109" s="59"/>
+      <c r="E109" s="51">
         <v>45688.625</v>
       </c>
       <c r="F109" s="15"/>
@@ -11469,13 +11491,13 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="140"/>
-      <c r="B110" s="139"/>
-      <c r="C110" s="55" t="s">
+      <c r="A110" s="134"/>
+      <c r="B110" s="137"/>
+      <c r="C110" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D110" s="59"/>
-      <c r="E110" s="55"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="52"/>
       <c r="F110" s="16"/>
       <c r="G110" s="12"/>
       <c r="H110" s="16"/>
@@ -11487,10 +11509,10 @@
       <c r="L110" s="13"/>
     </row>
     <row r="111" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A111" s="140">
+      <c r="A111" s="134">
         <v>55</v>
       </c>
-      <c r="B111" s="138" t="s">
+      <c r="B111" s="135" t="s">
         <v>201</v>
       </c>
       <c r="C111" s="17" t="s">
@@ -11509,8 +11531,8 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="140"/>
-      <c r="B112" s="138"/>
+      <c r="A112" s="134"/>
+      <c r="B112" s="135"/>
       <c r="C112" s="17" t="s">
         <v>0</v>
       </c>
@@ -11522,20 +11544,20 @@
       <c r="L112" s="14"/>
     </row>
     <row r="113" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A113" s="140">
+      <c r="A113" s="134">
         <v>56</v>
       </c>
-      <c r="B113" s="137" t="s">
+      <c r="B113" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="C113" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D113" s="58">
+      <c r="D113" s="54">
         <v>45680.583333333336</v>
       </c>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57" t="s">
+      <c r="E113" s="53"/>
+      <c r="F113" s="53" t="s">
         <v>132</v>
       </c>
       <c r="G113" s="9"/>
@@ -11552,14 +11574,14 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="140"/>
-      <c r="B114" s="137"/>
-      <c r="C114" s="55" t="s">
+      <c r="A114" s="134"/>
+      <c r="B114" s="136"/>
+      <c r="C114" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D114" s="59"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="86">
+      <c r="D114" s="55"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="79">
         <v>45689.416666666664</v>
       </c>
       <c r="G114" s="12"/>
@@ -11570,26 +11592,26 @@
       <c r="L114" s="13"/>
     </row>
     <row r="115" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A115" s="140">
+      <c r="A115" s="134">
         <v>57</v>
       </c>
-      <c r="B115" s="137" t="s">
+      <c r="B115" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="C115" s="67" t="s">
+      <c r="C115" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="82">
+      <c r="D115" s="77">
         <v>45707</v>
       </c>
-      <c r="E115" s="83">
+      <c r="E115" s="78">
         <v>45702.416666666664</v>
       </c>
-      <c r="F115" s="69">
+      <c r="F115" s="64">
         <v>45716</v>
       </c>
       <c r="H115" s="17"/>
-      <c r="J115" s="40" t="s">
+      <c r="J115" s="39" t="s">
         <v>91</v>
       </c>
       <c r="K115" s="7" t="s">
@@ -11600,17 +11622,17 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="140"/>
-      <c r="B116" s="137"/>
-      <c r="C116" s="67" t="s">
+      <c r="A116" s="134"/>
+      <c r="B116" s="136"/>
+      <c r="C116" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D116" s="70"/>
-      <c r="E116" s="67" t="s">
+      <c r="D116" s="65"/>
+      <c r="E116" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="F116" s="67" t="s">
-        <v>364</v>
+      <c r="F116" s="62" t="s">
+        <v>362</v>
       </c>
       <c r="H116" s="17"/>
       <c r="J116" s="17"/>
@@ -11618,32 +11640,32 @@
         <v>329</v>
       </c>
       <c r="L116" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A117" s="140">
+      <c r="A117" s="134">
         <v>58</v>
       </c>
-      <c r="B117" s="139" t="s">
+      <c r="B117" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="C117" s="57" t="s">
+      <c r="C117" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D117" s="58">
+      <c r="D117" s="54">
         <v>45702.625</v>
       </c>
-      <c r="E117" s="65">
+      <c r="E117" s="60">
         <v>45712</v>
       </c>
-      <c r="F117" s="65">
+      <c r="F117" s="60">
         <v>45720</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="15"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="36" t="s">
+      <c r="J117" s="35" t="s">
         <v>107</v>
       </c>
       <c r="K117" s="10" t="s">
@@ -11654,32 +11676,32 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="140"/>
-      <c r="B118" s="139"/>
-      <c r="C118" s="55" t="s">
+      <c r="A118" s="134"/>
+      <c r="B118" s="137"/>
+      <c r="C118" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D118" s="59"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55" t="s">
-        <v>395</v>
+      <c r="D118" s="55"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52" t="s">
+        <v>393</v>
       </c>
       <c r="G118" s="12"/>
       <c r="H118" s="16"/>
       <c r="I118" s="12"/>
       <c r="J118" s="16"/>
       <c r="K118" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L118" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A119" s="140">
+      <c r="A119" s="134">
         <v>59</v>
       </c>
-      <c r="B119" s="138" t="s">
+      <c r="B119" s="135" t="s">
         <v>204</v>
       </c>
       <c r="C119" s="17" t="s">
@@ -11698,8 +11720,8 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="140"/>
-      <c r="B120" s="138"/>
+      <c r="A120" s="134"/>
+      <c r="B120" s="135"/>
       <c r="C120" s="17" t="s">
         <v>0</v>
       </c>
@@ -11711,10 +11733,10 @@
       <c r="L120" s="14"/>
     </row>
     <row r="121" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A121" s="140">
+      <c r="A121" s="134">
         <v>60</v>
       </c>
-      <c r="B121" s="138" t="s">
+      <c r="B121" s="135" t="s">
         <v>205</v>
       </c>
       <c r="C121" s="15" t="s">
@@ -11735,8 +11757,8 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="140"/>
-      <c r="B122" s="138"/>
+      <c r="A122" s="134"/>
+      <c r="B122" s="135"/>
       <c r="C122" s="16" t="s">
         <v>0</v>
       </c>
@@ -11753,24 +11775,24 @@
       <c r="L122" s="13"/>
     </row>
     <row r="123" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A123" s="140">
+      <c r="A123" s="134">
         <v>61</v>
       </c>
-      <c r="B123" s="137" t="s">
+      <c r="B123" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="C123" s="67" t="s">
+      <c r="C123" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D123" s="68">
+      <c r="D123" s="63">
         <v>45701.729166666664</v>
       </c>
-      <c r="E123" s="67"/>
-      <c r="F123" s="69">
+      <c r="E123" s="62"/>
+      <c r="F123" s="64">
         <v>45716</v>
       </c>
       <c r="H123" s="17"/>
-      <c r="J123" s="40" t="s">
+      <c r="J123" s="39" t="s">
         <v>252</v>
       </c>
       <c r="K123" s="7" t="s">
@@ -11781,15 +11803,15 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="140"/>
-      <c r="B124" s="137"/>
-      <c r="C124" s="67" t="s">
+      <c r="A124" s="134"/>
+      <c r="B124" s="136"/>
+      <c r="C124" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D124" s="70"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67" t="s">
-        <v>357</v>
+      <c r="D124" s="65"/>
+      <c r="E124" s="62"/>
+      <c r="F124" s="62" t="s">
+        <v>355</v>
       </c>
       <c r="H124" s="17"/>
       <c r="J124" s="17"/>
@@ -11797,26 +11819,26 @@
       <c r="L124" s="26"/>
     </row>
     <row r="125" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A125" s="140">
+      <c r="A125" s="134">
         <v>62</v>
       </c>
-      <c r="B125" s="137" t="s">
+      <c r="B125" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="C125" s="57" t="s">
+      <c r="C125" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D125" s="58">
+      <c r="D125" s="54">
         <v>45698.5625</v>
       </c>
-      <c r="E125" s="57"/>
-      <c r="F125" s="65">
+      <c r="E125" s="53"/>
+      <c r="F125" s="60">
         <v>45705</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="15"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="36" t="s">
+      <c r="J125" s="35" t="s">
         <v>253</v>
       </c>
       <c r="K125" s="10" t="s">
@@ -11827,15 +11849,15 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="140"/>
-      <c r="B126" s="137"/>
-      <c r="C126" s="55" t="s">
+      <c r="A126" s="134"/>
+      <c r="B126" s="136"/>
+      <c r="C126" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D126" s="59"/>
-      <c r="E126" s="55"/>
-      <c r="F126" s="55" t="s">
-        <v>358</v>
+      <c r="D126" s="55"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="52" t="s">
+        <v>356</v>
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="16"/>
@@ -11847,20 +11869,20 @@
       <c r="L126" s="19"/>
     </row>
     <row r="127" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A127" s="140">
+      <c r="A127" s="134">
         <v>63</v>
       </c>
-      <c r="B127" s="138" t="s">
+      <c r="B127" s="135" t="s">
         <v>208</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D127" s="15"/>
-      <c r="E127" s="103"/>
-      <c r="F127" s="104"/>
+      <c r="E127" s="91"/>
+      <c r="F127" s="92"/>
       <c r="H127" s="17"/>
-      <c r="J127" s="40" t="s">
+      <c r="J127" s="39" t="s">
         <v>108</v>
       </c>
       <c r="K127" s="7" t="s">
@@ -11871,28 +11893,28 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="140"/>
-      <c r="B128" s="138"/>
+      <c r="A128" s="134"/>
+      <c r="B128" s="135"/>
       <c r="C128" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D128" s="16"/>
-      <c r="E128" s="104"/>
-      <c r="F128" s="104"/>
+      <c r="E128" s="92"/>
+      <c r="F128" s="92"/>
       <c r="H128" s="17"/>
       <c r="J128" s="17"/>
       <c r="K128" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L128" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A129" s="140">
+      <c r="A129" s="134">
         <v>64</v>
       </c>
-      <c r="B129" s="138" t="s">
+      <c r="B129" s="135" t="s">
         <v>209</v>
       </c>
       <c r="C129" s="15" t="s">
@@ -11901,8 +11923,8 @@
       <c r="D129" s="27">
         <v>45691.75</v>
       </c>
-      <c r="E129" s="126"/>
-      <c r="F129" s="126"/>
+      <c r="E129" s="107"/>
+      <c r="F129" s="107"/>
       <c r="G129" s="9"/>
       <c r="H129" s="15"/>
       <c r="I129" s="9"/>
@@ -11917,14 +11939,14 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="140"/>
-      <c r="B130" s="138"/>
+      <c r="A130" s="134"/>
+      <c r="B130" s="135"/>
       <c r="C130" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D130" s="48"/>
-      <c r="E130" s="102"/>
-      <c r="F130" s="102"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="90"/>
+      <c r="F130" s="90"/>
       <c r="G130" s="12"/>
       <c r="H130" s="16"/>
       <c r="I130" s="12"/>
@@ -11933,20 +11955,20 @@
       <c r="L130" s="13"/>
     </row>
     <row r="131" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A131" s="140">
+      <c r="A131" s="134">
         <v>65</v>
       </c>
-      <c r="B131" s="138" t="s">
+      <c r="B131" s="135" t="s">
         <v>210</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D131" s="22"/>
-      <c r="E131" s="104"/>
-      <c r="F131" s="104"/>
+      <c r="E131" s="92"/>
+      <c r="F131" s="92"/>
       <c r="H131" s="17"/>
-      <c r="J131" s="40" t="s">
+      <c r="J131" s="39" t="s">
         <v>254</v>
       </c>
       <c r="K131" s="7" t="s">
@@ -11957,23 +11979,23 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="140"/>
-      <c r="B132" s="138"/>
+      <c r="A132" s="134"/>
+      <c r="B132" s="135"/>
       <c r="C132" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D132" s="22"/>
-      <c r="E132" s="104"/>
-      <c r="F132" s="104"/>
+      <c r="E132" s="92"/>
+      <c r="F132" s="92"/>
       <c r="H132" s="17"/>
       <c r="J132" s="17"/>
       <c r="L132" s="14"/>
     </row>
     <row r="133" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A133" s="140">
+      <c r="A133" s="134">
         <v>66</v>
       </c>
-      <c r="B133" s="138" t="s">
+      <c r="B133" s="135" t="s">
         <v>211</v>
       </c>
       <c r="C133" s="15" t="s">
@@ -11996,8 +12018,8 @@
       </c>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="140"/>
-      <c r="B134" s="138"/>
+      <c r="A134" s="134"/>
+      <c r="B134" s="135"/>
       <c r="C134" s="16" t="s">
         <v>0</v>
       </c>
@@ -12009,15 +12031,15 @@
       <c r="I134" s="12"/>
       <c r="J134" s="16"/>
       <c r="K134" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L134" s="13"/>
     </row>
     <row r="135" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A135" s="140">
+      <c r="A135" s="134">
         <v>67</v>
       </c>
-      <c r="B135" s="138" t="s">
+      <c r="B135" s="135" t="s">
         <v>212</v>
       </c>
       <c r="C135" s="17" t="s">
@@ -12038,8 +12060,8 @@
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="140"/>
-      <c r="B136" s="138"/>
+      <c r="A136" s="134"/>
+      <c r="B136" s="135"/>
       <c r="C136" s="17" t="s">
         <v>0</v>
       </c>
@@ -12051,10 +12073,10 @@
       <c r="L136" s="14"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="140">
+      <c r="A137" s="134">
         <v>68</v>
       </c>
-      <c r="B137" s="140" t="s">
+      <c r="B137" s="134" t="s">
         <v>115</v>
       </c>
       <c r="C137" s="15" t="s">
@@ -12075,8 +12097,8 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="140"/>
-      <c r="B138" s="140"/>
+      <c r="A138" s="134"/>
+      <c r="B138" s="134"/>
       <c r="C138" s="16" t="s">
         <v>117</v>
       </c>
@@ -12091,10 +12113,10 @@
       <c r="L138" s="13"/>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="140">
+      <c r="A139" s="134">
         <v>69</v>
       </c>
-      <c r="B139" s="138" t="s">
+      <c r="B139" s="135" t="s">
         <v>213</v>
       </c>
       <c r="C139" s="17" t="s">
@@ -12106,7 +12128,7 @@
       <c r="E139" s="17"/>
       <c r="F139" s="17"/>
       <c r="H139" s="17"/>
-      <c r="J139" s="40">
+      <c r="J139" s="39">
         <v>2602078</v>
       </c>
       <c r="K139" s="7" t="s">
@@ -12117,32 +12139,32 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="140"/>
-      <c r="B140" s="140"/>
+      <c r="A140" s="134"/>
+      <c r="B140" s="134"/>
       <c r="C140" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D140" s="61"/>
+      <c r="D140" s="57"/>
       <c r="E140" s="17"/>
       <c r="F140" s="17"/>
       <c r="H140" s="17"/>
       <c r="J140" s="17"/>
       <c r="K140" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L140" s="14"/>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="140">
+      <c r="A141" s="134">
         <v>70</v>
       </c>
-      <c r="B141" s="138" t="s">
+      <c r="B141" s="135" t="s">
         <v>214</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D141" s="135">
+      <c r="D141" s="116">
         <v>45732.666666666664</v>
       </c>
       <c r="E141" s="15"/>
@@ -12150,7 +12172,7 @@
       <c r="G141" s="9"/>
       <c r="H141" s="15"/>
       <c r="I141" s="9"/>
-      <c r="J141" s="36" t="s">
+      <c r="J141" s="35" t="s">
         <v>129</v>
       </c>
       <c r="K141" s="10" t="s">
@@ -12161,12 +12183,12 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="140"/>
-      <c r="B142" s="140"/>
+      <c r="A142" s="134"/>
+      <c r="B142" s="134"/>
       <c r="C142" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D142" s="48"/>
+      <c r="D142" s="45"/>
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
       <c r="G142" s="12"/>
@@ -12174,15 +12196,15 @@
       <c r="I142" s="12"/>
       <c r="J142" s="16"/>
       <c r="K142" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L142" s="13"/>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="140">
+      <c r="A143" s="134">
         <v>71</v>
       </c>
-      <c r="B143" s="138" t="s">
+      <c r="B143" s="135" t="s">
         <v>215</v>
       </c>
       <c r="C143" s="17" t="s">
@@ -12201,8 +12223,8 @@
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="140"/>
-      <c r="B144" s="140"/>
+      <c r="A144" s="134"/>
+      <c r="B144" s="134"/>
       <c r="C144" s="17" t="s">
         <v>0</v>
       </c>
@@ -12217,26 +12239,26 @@
       <c r="L144" s="14"/>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="140">
+      <c r="A145" s="134">
         <v>72</v>
       </c>
-      <c r="B145" s="137" t="s">
+      <c r="B145" s="136" t="s">
         <v>216</v>
       </c>
-      <c r="C145" s="57" t="s">
+      <c r="C145" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D145" s="64"/>
-      <c r="E145" s="54">
+      <c r="D145" s="59"/>
+      <c r="E145" s="51">
         <v>45700.416666666664</v>
       </c>
-      <c r="F145" s="65">
+      <c r="F145" s="60">
         <v>45706</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="15"/>
       <c r="I145" s="9"/>
-      <c r="J145" s="36" t="s">
+      <c r="J145" s="35" t="s">
         <v>124</v>
       </c>
       <c r="K145" s="10" t="s">
@@ -12247,14 +12269,14 @@
       </c>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="140"/>
-      <c r="B146" s="139"/>
-      <c r="C146" s="55" t="s">
+      <c r="A146" s="134"/>
+      <c r="B146" s="137"/>
+      <c r="C146" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D146" s="59"/>
-      <c r="E146" s="55"/>
-      <c r="F146" s="55" t="s">
+      <c r="D146" s="55"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="52" t="s">
         <v>243</v>
       </c>
       <c r="G146" s="12"/>
@@ -12267,10 +12289,10 @@
       <c r="L146" s="13"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="140">
+      <c r="A147" s="134">
         <v>73</v>
       </c>
-      <c r="B147" s="138" t="s">
+      <c r="B147" s="135" t="s">
         <v>217</v>
       </c>
       <c r="C147" s="17" t="s">
@@ -12282,7 +12304,7 @@
       <c r="E147" s="17"/>
       <c r="F147" s="17"/>
       <c r="H147" s="17"/>
-      <c r="J147" s="40" t="s">
+      <c r="J147" s="39" t="s">
         <v>125</v>
       </c>
       <c r="K147" s="7" t="s">
@@ -12293,12 +12315,12 @@
       </c>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="140"/>
-      <c r="B148" s="140"/>
+      <c r="A148" s="134"/>
+      <c r="B148" s="134"/>
       <c r="C148" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D148" s="61"/>
+      <c r="D148" s="57"/>
       <c r="E148" s="17"/>
       <c r="F148" s="17"/>
       <c r="H148" s="17"/>
@@ -12306,10 +12328,10 @@
       <c r="L148" s="14"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="140">
+      <c r="A149" s="134">
         <v>74</v>
       </c>
-      <c r="B149" s="138" t="s">
+      <c r="B149" s="135" t="s">
         <v>218</v>
       </c>
       <c r="C149" s="15" t="s">
@@ -12332,15 +12354,15 @@
       </c>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="140"/>
-      <c r="B150" s="140"/>
+      <c r="A150" s="134"/>
+      <c r="B150" s="134"/>
       <c r="C150" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D150" s="127"/>
-      <c r="E150" s="102"/>
-      <c r="F150" s="102"/>
-      <c r="G150" s="128"/>
+      <c r="D150" s="108"/>
+      <c r="E150" s="90"/>
+      <c r="F150" s="90"/>
+      <c r="G150" s="109"/>
       <c r="H150" s="16"/>
       <c r="I150" s="12"/>
       <c r="J150" s="16"/>
@@ -12348,21 +12370,21 @@
       <c r="L150" s="13"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="140">
+      <c r="A151" s="134">
         <v>75</v>
       </c>
-      <c r="B151" s="138" t="s">
+      <c r="B151" s="135" t="s">
         <v>219</v>
       </c>
       <c r="C151" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D151" s="129"/>
-      <c r="E151" s="103"/>
-      <c r="F151" s="103"/>
-      <c r="G151" s="130"/>
+      <c r="D151" s="110"/>
+      <c r="E151" s="91"/>
+      <c r="F151" s="91"/>
+      <c r="G151" s="111"/>
       <c r="H151" s="17"/>
-      <c r="J151" s="40" t="s">
+      <c r="J151" s="39" t="s">
         <v>146</v>
       </c>
       <c r="K151" s="7" t="s">
@@ -12373,15 +12395,15 @@
       </c>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="140"/>
-      <c r="B152" s="140"/>
+      <c r="A152" s="134"/>
+      <c r="B152" s="134"/>
       <c r="C152" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D152" s="129"/>
-      <c r="E152" s="104"/>
-      <c r="F152" s="104"/>
-      <c r="G152" s="130"/>
+      <c r="D152" s="110"/>
+      <c r="E152" s="92"/>
+      <c r="F152" s="92"/>
+      <c r="G152" s="111"/>
       <c r="H152" s="17"/>
       <c r="J152" s="17"/>
       <c r="K152" s="6" t="s">
@@ -12390,19 +12412,19 @@
       <c r="L152" s="26"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="140">
+      <c r="A153" s="134">
         <v>76</v>
       </c>
-      <c r="B153" s="138" t="s">
+      <c r="B153" s="135" t="s">
         <v>228</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D153" s="131"/>
-      <c r="E153" s="126"/>
-      <c r="F153" s="126"/>
-      <c r="G153" s="132"/>
+      <c r="D153" s="112"/>
+      <c r="E153" s="107"/>
+      <c r="F153" s="107"/>
+      <c r="G153" s="113"/>
       <c r="H153" s="15"/>
       <c r="I153" s="9"/>
       <c r="J153" s="15"/>
@@ -12414,15 +12436,15 @@
       </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="140"/>
-      <c r="B154" s="140"/>
+      <c r="A154" s="134"/>
+      <c r="B154" s="134"/>
       <c r="C154" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D154" s="127"/>
-      <c r="E154" s="102"/>
-      <c r="F154" s="102"/>
-      <c r="G154" s="128"/>
+      <c r="D154" s="108"/>
+      <c r="E154" s="90"/>
+      <c r="F154" s="90"/>
+      <c r="G154" s="109"/>
       <c r="H154" s="16"/>
       <c r="I154" s="12"/>
       <c r="J154" s="16"/>
@@ -12432,21 +12454,21 @@
       <c r="L154" s="13"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="140">
+      <c r="A155" s="134">
         <v>77</v>
       </c>
-      <c r="B155" s="138" t="s">
+      <c r="B155" s="135" t="s">
         <v>220</v>
       </c>
       <c r="C155" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D155" s="129"/>
-      <c r="E155" s="104"/>
-      <c r="F155" s="104"/>
-      <c r="G155" s="130"/>
+      <c r="D155" s="110"/>
+      <c r="E155" s="92"/>
+      <c r="F155" s="92"/>
+      <c r="G155" s="111"/>
       <c r="H155" s="17"/>
-      <c r="J155" s="40" t="s">
+      <c r="J155" s="39" t="s">
         <v>255</v>
       </c>
       <c r="K155" s="7" t="s">
@@ -12457,27 +12479,27 @@
       </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="140"/>
-      <c r="B156" s="140"/>
+      <c r="A156" s="134"/>
+      <c r="B156" s="134"/>
       <c r="C156" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D156" s="129"/>
-      <c r="E156" s="104"/>
-      <c r="F156" s="104"/>
-      <c r="G156" s="130"/>
+      <c r="D156" s="110"/>
+      <c r="E156" s="92"/>
+      <c r="F156" s="92"/>
+      <c r="G156" s="111"/>
       <c r="H156" s="17"/>
       <c r="J156" s="17"/>
       <c r="K156" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L156" s="14"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="140">
+      <c r="A157" s="134">
         <v>78</v>
       </c>
-      <c r="B157" s="138" t="s">
+      <c r="B157" s="135" t="s">
         <v>221</v>
       </c>
       <c r="C157" s="15" t="s">
@@ -12498,8 +12520,8 @@
       </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="140"/>
-      <c r="B158" s="140"/>
+      <c r="A158" s="134"/>
+      <c r="B158" s="134"/>
       <c r="C158" s="16" t="s">
         <v>74</v>
       </c>
@@ -12514,10 +12536,10 @@
       <c r="L158" s="13"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="140">
+      <c r="A159" s="134">
         <v>79</v>
       </c>
-      <c r="B159" s="147" t="s">
+      <c r="B159" s="133" t="s">
         <v>263</v>
       </c>
       <c r="C159" s="15" t="s">
@@ -12526,11 +12548,11 @@
       <c r="D159" s="15"/>
       <c r="E159" s="9"/>
       <c r="F159" s="15"/>
-      <c r="G159" s="47"/>
+      <c r="G159" s="44"/>
       <c r="H159" s="9"/>
       <c r="I159" s="15"/>
       <c r="J159" s="9"/>
-      <c r="K159" s="43" t="s">
+      <c r="K159" s="42" t="s">
         <v>259</v>
       </c>
       <c r="L159" s="11" t="s">
@@ -12538,8 +12560,8 @@
       </c>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="140"/>
-      <c r="B160" s="148"/>
+      <c r="A160" s="134"/>
+      <c r="B160" s="132"/>
       <c r="C160" s="16" t="s">
         <v>0</v>
       </c>
@@ -12550,16 +12572,16 @@
       <c r="H160" s="12"/>
       <c r="I160" s="16"/>
       <c r="J160" s="12"/>
-      <c r="K160" s="44" t="s">
+      <c r="K160" s="43" t="s">
         <v>261</v>
       </c>
       <c r="L160" s="13"/>
     </row>
     <row r="161" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A161" s="140">
+      <c r="A161" s="134">
         <v>80</v>
       </c>
-      <c r="B161" s="147" t="s">
+      <c r="B161" s="133" t="s">
         <v>264</v>
       </c>
       <c r="C161" s="15" t="s">
@@ -12568,11 +12590,11 @@
       <c r="D161" s="15"/>
       <c r="E161" s="9"/>
       <c r="F161" s="15"/>
-      <c r="G161" s="47"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="15"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="122"/>
+      <c r="I161" s="123"/>
       <c r="J161" s="9"/>
-      <c r="K161" s="43" t="s">
+      <c r="K161" s="42" t="s">
         <v>262</v>
       </c>
       <c r="L161" s="11" t="s">
@@ -12580,8 +12602,8 @@
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="140"/>
-      <c r="B162" s="148"/>
+      <c r="A162" s="134"/>
+      <c r="B162" s="132"/>
       <c r="C162" s="16" t="s">
         <v>0</v>
       </c>
@@ -12592,80 +12614,82 @@
       <c r="H162" s="12"/>
       <c r="I162" s="16"/>
       <c r="J162" s="12"/>
-      <c r="K162" s="44" t="s">
+      <c r="K162" s="43" t="s">
         <v>261</v>
       </c>
       <c r="L162" s="13"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="140">
+      <c r="A163" s="161">
         <v>81</v>
       </c>
-      <c r="B163" s="149" t="s">
+      <c r="B163" s="162" t="s">
         <v>284</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C163" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="D163" s="15"/>
-      <c r="E163" s="122">
+      <c r="D163" s="164"/>
+      <c r="E163" s="124">
         <v>45698</v>
       </c>
-      <c r="F163" s="123">
+      <c r="F163" s="125">
         <v>45721</v>
       </c>
-      <c r="G163" s="84">
-        <v>45745</v>
-      </c>
-      <c r="H163" s="150" t="s">
-        <v>354</v>
-      </c>
-      <c r="I163" s="46">
-        <v>45745</v>
-      </c>
-      <c r="J163" s="10" t="s">
+      <c r="G163" s="165">
+        <v>45745.409722222219</v>
+      </c>
+      <c r="H163" s="166">
+        <v>45745.454861111109</v>
+      </c>
+      <c r="I163" s="167">
+        <v>45745.475694444445</v>
+      </c>
+      <c r="J163" s="168" t="s">
         <v>352</v>
       </c>
-      <c r="K163" s="43" t="s">
+      <c r="K163" s="169" t="s">
         <v>279</v>
       </c>
-      <c r="L163" s="11" t="s">
+      <c r="L163" s="170" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="140"/>
-      <c r="B164" s="144"/>
-      <c r="C164" s="16" t="s">
+      <c r="A164" s="161"/>
+      <c r="B164" s="171"/>
+      <c r="C164" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D164" s="16"/>
-      <c r="E164" s="124" t="s">
+      <c r="D164" s="172"/>
+      <c r="E164" s="126" t="s">
         <v>346</v>
       </c>
-      <c r="F164" s="125" t="s">
-        <v>355</v>
-      </c>
-      <c r="G164" s="85" t="s">
+      <c r="F164" s="106" t="s">
         <v>353</v>
       </c>
-      <c r="H164" s="151"/>
-      <c r="I164" s="45" t="s">
-        <v>353</v>
-      </c>
-      <c r="J164" s="12"/>
-      <c r="K164" s="44" t="s">
+      <c r="G164" s="173" t="s">
+        <v>513</v>
+      </c>
+      <c r="H164" s="174" t="s">
+        <v>514</v>
+      </c>
+      <c r="I164" s="106" t="s">
+        <v>514</v>
+      </c>
+      <c r="J164" s="174"/>
+      <c r="K164" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="L164" s="19" t="s">
+      <c r="L164" s="176" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="140">
+      <c r="A165" s="134">
         <v>82</v>
       </c>
-      <c r="B165" s="147" t="s">
+      <c r="B165" s="133" t="s">
         <v>285</v>
       </c>
       <c r="C165" s="15" t="s">
@@ -12686,8 +12710,8 @@
       </c>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="140"/>
-      <c r="B166" s="148"/>
+      <c r="A166" s="134"/>
+      <c r="B166" s="132"/>
       <c r="C166" s="16" t="s">
         <v>0</v>
       </c>
@@ -12704,10 +12728,10 @@
       <c r="L166" s="13"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="140">
+      <c r="A167" s="134">
         <v>83</v>
       </c>
-      <c r="B167" s="147" t="s">
+      <c r="B167" s="133" t="s">
         <v>286</v>
       </c>
       <c r="C167" s="15" t="s">
@@ -12728,8 +12752,8 @@
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="140"/>
-      <c r="B168" s="148"/>
+      <c r="A168" s="134"/>
+      <c r="B168" s="132"/>
       <c r="C168" s="16" t="s">
         <v>0</v>
       </c>
@@ -12746,10 +12770,10 @@
       <c r="L168" s="13"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="140">
+      <c r="A169" s="134">
         <v>84</v>
       </c>
-      <c r="B169" s="147" t="s">
+      <c r="B169" s="133" t="s">
         <v>287</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -12761,7 +12785,7 @@
       <c r="G169" s="9"/>
       <c r="H169" s="15"/>
       <c r="I169" s="9"/>
-      <c r="J169" s="36" t="s">
+      <c r="J169" s="35" t="s">
         <v>341</v>
       </c>
       <c r="K169" s="10" t="s">
@@ -12772,14 +12796,14 @@
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="140"/>
-      <c r="B170" s="148"/>
+      <c r="A170" s="134"/>
+      <c r="B170" s="132"/>
       <c r="C170" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="12"/>
@@ -12792,10 +12816,10 @@
       <c r="L170" s="13"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="140">
+      <c r="A171" s="134">
         <v>85</v>
       </c>
-      <c r="B171" s="147" t="s">
+      <c r="B171" s="133" t="s">
         <v>292</v>
       </c>
       <c r="C171" s="15" t="s">
@@ -12816,8 +12840,8 @@
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="140"/>
-      <c r="B172" s="148"/>
+      <c r="A172" s="134"/>
+      <c r="B172" s="132"/>
       <c r="C172" s="16" t="s">
         <v>0</v>
       </c>
@@ -12834,10 +12858,10 @@
       <c r="L172" s="13"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="140">
+      <c r="A173" s="134">
         <v>86</v>
       </c>
-      <c r="B173" s="147" t="s">
+      <c r="B173" s="133" t="s">
         <v>293</v>
       </c>
       <c r="C173" s="15" t="s">
@@ -12858,8 +12882,8 @@
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="140"/>
-      <c r="B174" s="148"/>
+      <c r="A174" s="134"/>
+      <c r="B174" s="132"/>
       <c r="C174" s="16" t="s">
         <v>0</v>
       </c>
@@ -12876,10 +12900,10 @@
       <c r="L174" s="13"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="140">
+      <c r="A175" s="134">
         <v>87</v>
       </c>
-      <c r="B175" s="147" t="s">
+      <c r="B175" s="133" t="s">
         <v>294</v>
       </c>
       <c r="C175" s="15" t="s">
@@ -12900,8 +12924,8 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="140"/>
-      <c r="B176" s="148"/>
+      <c r="A176" s="134"/>
+      <c r="B176" s="132"/>
       <c r="C176" s="16" t="s">
         <v>0</v>
       </c>
@@ -12918,10 +12942,10 @@
       <c r="L176" s="13"/>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="140">
+      <c r="A177" s="134">
         <v>88</v>
       </c>
-      <c r="B177" s="147" t="s">
+      <c r="B177" s="133" t="s">
         <v>307</v>
       </c>
       <c r="C177" s="15" t="s">
@@ -12942,8 +12966,8 @@
       </c>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="140"/>
-      <c r="B178" s="148"/>
+      <c r="A178" s="134"/>
+      <c r="B178" s="132"/>
       <c r="C178" s="16" t="s">
         <v>74</v>
       </c>
@@ -12960,10 +12984,10 @@
       <c r="L178" s="13"/>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="140">
+      <c r="A179" s="134">
         <v>89</v>
       </c>
-      <c r="B179" s="147" t="s">
+      <c r="B179" s="133" t="s">
         <v>308</v>
       </c>
       <c r="C179" s="15" t="s">
@@ -12975,7 +12999,7 @@
       <c r="G179" s="9"/>
       <c r="H179" s="15"/>
       <c r="I179" s="9"/>
-      <c r="J179" s="36" t="s">
+      <c r="J179" s="35" t="s">
         <v>351</v>
       </c>
       <c r="K179" s="10" t="s">
@@ -12986,8 +13010,8 @@
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="140"/>
-      <c r="B180" s="148"/>
+      <c r="A180" s="134"/>
+      <c r="B180" s="132"/>
       <c r="C180" s="16" t="s">
         <v>0</v>
       </c>
@@ -13004,10 +13028,10 @@
       <c r="L180" s="13"/>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="140">
+      <c r="A181" s="134">
         <v>90</v>
       </c>
-      <c r="B181" s="147" t="s">
+      <c r="B181" s="133" t="s">
         <v>309</v>
       </c>
       <c r="C181" s="15" t="s">
@@ -13028,8 +13052,8 @@
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="140"/>
-      <c r="B182" s="148"/>
+      <c r="A182" s="134"/>
+      <c r="B182" s="132"/>
       <c r="C182" s="16" t="s">
         <v>0</v>
       </c>
@@ -13046,10 +13070,10 @@
       <c r="L182" s="13"/>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="140">
+      <c r="A183" s="134">
         <v>91</v>
       </c>
-      <c r="B183" s="147" t="s">
+      <c r="B183" s="133" t="s">
         <v>310</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -13070,8 +13094,8 @@
       </c>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="140"/>
-      <c r="B184" s="148"/>
+      <c r="A184" s="134"/>
+      <c r="B184" s="132"/>
       <c r="C184" s="16" t="s">
         <v>0</v>
       </c>
@@ -13088,10 +13112,10 @@
       <c r="L184" s="13"/>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="140">
+      <c r="A185" s="134">
         <v>92</v>
       </c>
-      <c r="B185" s="152" t="s">
+      <c r="B185" s="131" t="s">
         <v>303</v>
       </c>
       <c r="C185" s="15" t="s">
@@ -13112,8 +13136,8 @@
       </c>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="140"/>
-      <c r="B186" s="148"/>
+      <c r="A186" s="134"/>
+      <c r="B186" s="132"/>
       <c r="C186" s="16" t="s">
         <v>0</v>
       </c>
@@ -13130,10 +13154,10 @@
       <c r="L186" s="13"/>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="140">
+      <c r="A187" s="134">
         <v>93</v>
       </c>
-      <c r="B187" s="152" t="s">
+      <c r="B187" s="131" t="s">
         <v>305</v>
       </c>
       <c r="C187" s="15" t="s">
@@ -13154,8 +13178,8 @@
       </c>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="140"/>
-      <c r="B188" s="148"/>
+      <c r="A188" s="134"/>
+      <c r="B188" s="132"/>
       <c r="C188" s="16" t="s">
         <v>0</v>
       </c>
@@ -13172,10 +13196,10 @@
       <c r="L188" s="13"/>
     </row>
     <row r="189" spans="1:12">
-      <c r="A189" s="140">
+      <c r="A189" s="134">
         <v>94</v>
       </c>
-      <c r="B189" s="147"/>
+      <c r="B189" s="133"/>
       <c r="C189" s="15"/>
       <c r="D189" s="9"/>
       <c r="E189" s="15"/>
@@ -13183,13 +13207,13 @@
       <c r="G189" s="9"/>
       <c r="H189" s="15"/>
       <c r="I189" s="9"/>
-      <c r="J189" s="36"/>
+      <c r="J189" s="35"/>
       <c r="K189" s="10"/>
       <c r="L189" s="11"/>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="140"/>
-      <c r="B190" s="148"/>
+      <c r="A190" s="134"/>
+      <c r="B190" s="132"/>
       <c r="C190" s="16"/>
       <c r="D190" s="12"/>
       <c r="E190" s="16"/>
@@ -13202,10 +13226,10 @@
       <c r="L190" s="13"/>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="140">
+      <c r="A191" s="134">
         <v>95</v>
       </c>
-      <c r="B191" s="152"/>
+      <c r="B191" s="131"/>
       <c r="C191" s="15"/>
       <c r="D191" s="9"/>
       <c r="E191" s="15"/>
@@ -13215,11 +13239,11 @@
       <c r="I191" s="9"/>
       <c r="J191" s="15"/>
       <c r="K191" s="9"/>
-      <c r="L191" s="47"/>
+      <c r="L191" s="44"/>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="140"/>
-      <c r="B192" s="148"/>
+      <c r="A192" s="134"/>
+      <c r="B192" s="132"/>
       <c r="C192" s="16"/>
       <c r="D192" s="12"/>
       <c r="E192" s="16"/>
@@ -13232,10 +13256,10 @@
       <c r="L192" s="13"/>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="140">
+      <c r="A193" s="134">
         <v>96</v>
       </c>
-      <c r="B193" s="152"/>
+      <c r="B193" s="131"/>
       <c r="C193" s="15"/>
       <c r="D193" s="9"/>
       <c r="E193" s="15"/>
@@ -13245,11 +13269,11 @@
       <c r="I193" s="9"/>
       <c r="J193" s="15"/>
       <c r="K193" s="9"/>
-      <c r="L193" s="47"/>
+      <c r="L193" s="44"/>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="140"/>
-      <c r="B194" s="148"/>
+      <c r="A194" s="134"/>
+      <c r="B194" s="132"/>
       <c r="C194" s="16"/>
       <c r="D194" s="12"/>
       <c r="E194" s="16"/>
@@ -13262,10 +13286,10 @@
       <c r="L194" s="13"/>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="140">
+      <c r="A195" s="134">
         <v>97</v>
       </c>
-      <c r="B195" s="152"/>
+      <c r="B195" s="131"/>
       <c r="C195" s="15"/>
       <c r="D195" s="9"/>
       <c r="E195" s="15"/>
@@ -13275,11 +13299,11 @@
       <c r="I195" s="9"/>
       <c r="J195" s="15"/>
       <c r="K195" s="9"/>
-      <c r="L195" s="47"/>
+      <c r="L195" s="44"/>
     </row>
     <row r="196" spans="1:12">
-      <c r="A196" s="140"/>
-      <c r="B196" s="148"/>
+      <c r="A196" s="134"/>
+      <c r="B196" s="132"/>
       <c r="C196" s="16"/>
       <c r="D196" s="12"/>
       <c r="E196" s="16"/>
@@ -13292,10 +13316,10 @@
       <c r="L196" s="13"/>
     </row>
     <row r="197" spans="1:12">
-      <c r="A197" s="140">
+      <c r="A197" s="134">
         <v>98</v>
       </c>
-      <c r="B197" s="152"/>
+      <c r="B197" s="131"/>
       <c r="C197" s="15"/>
       <c r="D197" s="9"/>
       <c r="E197" s="15"/>
@@ -13305,11 +13329,11 @@
       <c r="I197" s="9"/>
       <c r="J197" s="15"/>
       <c r="K197" s="9"/>
-      <c r="L197" s="47"/>
+      <c r="L197" s="44"/>
     </row>
     <row r="198" spans="1:12">
-      <c r="A198" s="140"/>
-      <c r="B198" s="148"/>
+      <c r="A198" s="134"/>
+      <c r="B198" s="132"/>
       <c r="C198" s="16"/>
       <c r="D198" s="12"/>
       <c r="E198" s="16"/>
@@ -13322,10 +13346,10 @@
       <c r="L198" s="13"/>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="140">
+      <c r="A199" s="134">
         <v>99</v>
       </c>
-      <c r="B199" s="152"/>
+      <c r="B199" s="131"/>
       <c r="C199" s="15"/>
       <c r="D199" s="9"/>
       <c r="E199" s="15"/>
@@ -13335,11 +13359,11 @@
       <c r="I199" s="9"/>
       <c r="J199" s="15"/>
       <c r="K199" s="9"/>
-      <c r="L199" s="47"/>
+      <c r="L199" s="44"/>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="140"/>
-      <c r="B200" s="148"/>
+      <c r="A200" s="134"/>
+      <c r="B200" s="132"/>
       <c r="C200" s="16"/>
       <c r="D200" s="12"/>
       <c r="E200" s="16"/>
@@ -13352,10 +13376,10 @@
       <c r="L200" s="13"/>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="140">
+      <c r="A201" s="134">
         <v>100</v>
       </c>
-      <c r="B201" s="152"/>
+      <c r="B201" s="131"/>
       <c r="C201" s="15"/>
       <c r="D201" s="9"/>
       <c r="E201" s="15"/>
@@ -13365,11 +13389,11 @@
       <c r="I201" s="9"/>
       <c r="J201" s="15"/>
       <c r="K201" s="9"/>
-      <c r="L201" s="47"/>
+      <c r="L201" s="44"/>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="140"/>
-      <c r="B202" s="148"/>
+      <c r="A202" s="134"/>
+      <c r="B202" s="132"/>
       <c r="C202" s="16"/>
       <c r="D202" s="12"/>
       <c r="E202" s="16"/>
@@ -13382,10 +13406,10 @@
       <c r="L202" s="13"/>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="140">
+      <c r="A203" s="134">
         <v>101</v>
       </c>
-      <c r="B203" s="152"/>
+      <c r="B203" s="131"/>
       <c r="C203" s="15"/>
       <c r="D203" s="9"/>
       <c r="E203" s="15"/>
@@ -13395,11 +13419,11 @@
       <c r="I203" s="9"/>
       <c r="J203" s="15"/>
       <c r="K203" s="9"/>
-      <c r="L203" s="47"/>
+      <c r="L203" s="44"/>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="140"/>
-      <c r="B204" s="148"/>
+      <c r="A204" s="134"/>
+      <c r="B204" s="132"/>
       <c r="C204" s="16"/>
       <c r="D204" s="12"/>
       <c r="E204" s="16"/>
@@ -13451,132 +13475,64 @@
       <c r="L223" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
+  <mergeCells count="205">
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A53:A54"/>
@@ -13601,63 +13557,130 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B187:B188"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -13967,504 +13990,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090B0416-F1D2-4A08-9C25-1FAF8F39F174}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="27.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="60" style="37" customWidth="1"/>
+    <col min="2" max="2" width="60" style="36" customWidth="1"/>
     <col min="3" max="3" width="111.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="84" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="149" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="94" t="s">
-        <v>407</v>
+      <c r="C2" s="85" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72">
-      <c r="A3" s="163"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="149"/>
+      <c r="B3" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="85" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36">
-      <c r="A4" s="163"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="149"/>
+      <c r="B4" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="85" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54">
-      <c r="A5" s="163"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="149"/>
+      <c r="B5" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="85" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="72.75" thickBot="1">
-      <c r="A6" s="164"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="150"/>
+      <c r="B6" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>408</v>
+      <c r="C6" s="86" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="151" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="85" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36">
-      <c r="A8" s="165"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="151"/>
+      <c r="B8" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="85" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72">
-      <c r="A9" s="165"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="151"/>
+      <c r="B9" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="85" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72">
-      <c r="A10" s="165"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="151"/>
+      <c r="B10" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="85" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="108">
-      <c r="A11" s="165"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="151"/>
+      <c r="B11" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="85" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="108">
-      <c r="A12" s="165"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="151"/>
+      <c r="B12" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="85" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="216.75" thickBot="1">
-      <c r="A13" s="166"/>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="152"/>
+      <c r="B13" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="86" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72">
-      <c r="A14" s="156" t="s">
+      <c r="A14" s="146" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="70" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="108">
-      <c r="A15" s="154"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="147"/>
+      <c r="B15" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="71" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="126">
-      <c r="A16" s="154"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="147"/>
+      <c r="B16" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="71" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72">
-      <c r="A17" s="154"/>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="147"/>
+      <c r="B17" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="71" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36.75" thickBot="1">
-      <c r="A18" s="155"/>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="148"/>
+      <c r="B18" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="81"/>
+      <c r="C18" s="76"/>
     </row>
     <row r="19" spans="1:3" ht="36">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="144" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="74" t="s">
         <v>313</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="87" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="126">
-      <c r="A20" s="154"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="147"/>
+      <c r="B20" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="71" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="126">
-      <c r="A21" s="154"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="147"/>
+      <c r="B21" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="71" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="90">
-      <c r="A22" s="154"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="147"/>
+      <c r="B22" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="71" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="144.75" thickBot="1">
-      <c r="A23" s="155"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="148"/>
+      <c r="B23" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="81" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="126">
-      <c r="A24" s="156" t="s">
+      <c r="A24" s="146" t="s">
         <v>323</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="70" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="126.75" thickBot="1">
-      <c r="A25" s="155"/>
-      <c r="B25" s="49" t="s">
+      <c r="A25" s="148"/>
+      <c r="B25" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="81" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72">
-      <c r="A26" s="156" t="s">
+      <c r="A26" s="146" t="s">
         <v>330</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="70" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="108">
-      <c r="A27" s="154"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="147"/>
+      <c r="B27" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="71" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="90">
-      <c r="A28" s="154"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="147"/>
+      <c r="B28" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="71" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="90">
-      <c r="A29" s="154"/>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="147"/>
+      <c r="B29" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="71" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="108.75" thickBot="1">
-      <c r="A30" s="155"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="148"/>
+      <c r="B30" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="C30" s="90" t="s">
+      <c r="C30" s="81" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="180">
-      <c r="A31" s="153" t="s">
+      <c r="A31" s="144" t="s">
         <v>343</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="C31" s="96" t="s">
-        <v>363</v>
+      <c r="C31" s="87" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="180.75" thickBot="1">
-      <c r="A32" s="157"/>
-      <c r="B32" s="71" t="s">
+      <c r="A32" s="145"/>
+      <c r="B32" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="C32" s="78" t="s">
-        <v>362</v>
+      <c r="C32" s="73" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="126">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="146" t="s">
+        <v>364</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="126">
+      <c r="A34" s="147"/>
+      <c r="B34" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="108.75" thickBot="1">
+      <c r="A35" s="145"/>
+      <c r="B35" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="B33" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="126">
-      <c r="A34" s="154"/>
-      <c r="B34" s="41" t="s">
+      <c r="C35" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="C34" s="76" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="108.75" thickBot="1">
-      <c r="A35" s="157"/>
-      <c r="B35" s="71" t="s">
-        <v>368</v>
-      </c>
-      <c r="C35" s="78" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="36" spans="1:3" ht="126">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="153" t="s">
+        <v>374</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="180">
+      <c r="A37" s="154"/>
+      <c r="B37" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="C37" s="71" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="108">
+      <c r="A38" s="154"/>
+      <c r="B38" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C38" s="71" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="180">
-      <c r="A37" s="159"/>
-      <c r="B37" s="41" t="s">
+    <row r="39" spans="1:3" ht="162.75" thickBot="1">
+      <c r="A39" s="154"/>
+      <c r="B39" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C39" s="71" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="108">
-      <c r="A38" s="159"/>
-      <c r="B38" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="C38" s="76" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="162.75" thickBot="1">
-      <c r="A39" s="159"/>
-      <c r="B39" s="41" t="s">
-        <v>380</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>384</v>
-      </c>
-    </row>
     <row r="40" spans="1:3" ht="144">
-      <c r="A40" s="156" t="s">
+      <c r="A40" s="146" t="s">
+        <v>386</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="90">
+      <c r="A41" s="147"/>
+      <c r="B41" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="C41" s="71" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="108.75" thickBot="1">
+      <c r="A42" s="145"/>
+      <c r="B42" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C42" s="73" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="90">
-      <c r="A41" s="154"/>
-      <c r="B41" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="C41" s="76" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="108.75" thickBot="1">
-      <c r="A42" s="157"/>
-      <c r="B42" s="71" t="s">
-        <v>391</v>
-      </c>
-      <c r="C42" s="78" t="s">
+    <row r="43" spans="1:3" ht="180">
+      <c r="A43" s="146" t="s">
+        <v>398</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" s="70" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="180">
-      <c r="A43" s="156" t="s">
+    <row r="44" spans="1:3" ht="54.75" thickBot="1">
+      <c r="A44" s="145"/>
+      <c r="B44" s="66" t="s">
+        <v>395</v>
+      </c>
+      <c r="C44" s="73" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="144">
+      <c r="A45" s="155" t="s">
         <v>400</v>
       </c>
-      <c r="B43" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="C43" s="75" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="54.75" thickBot="1">
-      <c r="A44" s="157"/>
-      <c r="B44" s="71" t="s">
-        <v>397</v>
-      </c>
-      <c r="C44" s="78" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="144">
-      <c r="A45" s="160" t="s">
+      <c r="B45" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="144">
+      <c r="A46" s="156"/>
+      <c r="B46" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="C46" s="71" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="36">
+      <c r="A47" s="156"/>
+      <c r="B47" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C47" s="71" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="198.75" thickBot="1">
+      <c r="A48" s="157"/>
+      <c r="B48" s="46" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="144">
-      <c r="A46" s="161"/>
-      <c r="B46" s="41" t="s">
-        <v>404</v>
-      </c>
-      <c r="C46" s="76" t="s">
+      <c r="C48" s="81" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="36">
-      <c r="A47" s="161"/>
-      <c r="B47" s="41" t="s">
-        <v>405</v>
-      </c>
-      <c r="C47" s="76" t="s">
+    <row r="49" spans="1:3" ht="144">
+      <c r="A49" s="144" t="s">
+        <v>409</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="180">
+      <c r="A50" s="147"/>
+      <c r="B50" s="40" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="198.75" thickBot="1">
-      <c r="A48" s="162"/>
-      <c r="B48" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="C48" s="90" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="144">
-      <c r="A49" s="153" t="s">
-        <v>411</v>
-      </c>
-      <c r="B49" s="39" t="s">
+      <c r="C50" s="71" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="72.75" thickBot="1">
+      <c r="A51" s="148"/>
+      <c r="B51" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="C49" s="96" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="180">
-      <c r="A50" s="154"/>
-      <c r="B50" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="C50" s="76" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="72.75" thickBot="1">
-      <c r="A51" s="155"/>
-      <c r="B51" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="C51" s="90" t="s">
-        <v>423</v>
+      <c r="C51" s="81" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A45:A48"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A2:A6"/>
@@ -14472,12 +14501,6 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A45:A48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14488,474 +14511,474 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D35423-1F38-4F2F-BC17-D0A66D822A8A}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="23.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="44.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="64.5" style="53" customWidth="1"/>
-    <col min="4" max="4" width="96.5" style="53" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="50" customWidth="1"/>
+    <col min="4" max="4" width="96.5" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="104" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="101" t="s">
         <v>429</v>
       </c>
-      <c r="C1" s="116" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="129.75" customHeight="1">
+      <c r="A2" s="144" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="B2" s="16" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="129.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="C2" s="99" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="162">
+      <c r="A3" s="147"/>
+      <c r="B3" s="89" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="162">
+      <c r="A4" s="147"/>
+      <c r="B4" s="89" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>465</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="180">
+      <c r="A5" s="147"/>
+      <c r="B5" s="89" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C5" s="97" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="180">
+      <c r="A6" s="147"/>
+      <c r="B6" s="89" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="144">
+      <c r="A7" s="147"/>
+      <c r="B7" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="C2" s="115" t="s">
-        <v>475</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="162">
-      <c r="A3" s="154"/>
-      <c r="B3" s="100" t="s">
+      <c r="C7" s="97" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="180">
+      <c r="A8" s="147"/>
+      <c r="B8" s="89" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="180">
+      <c r="A9" s="147"/>
+      <c r="B9" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>478</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="198">
+      <c r="A10" s="147"/>
+      <c r="B10" s="89" t="s">
+        <v>446</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="180">
+      <c r="A11" s="147"/>
+      <c r="B11" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>468</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="234">
+      <c r="A12" s="147"/>
+      <c r="B12" s="89" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>469</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="198">
+      <c r="A13" s="147"/>
+      <c r="B13" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>479</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="126">
+      <c r="A14" s="147"/>
+      <c r="B14" s="89" t="s">
+        <v>437</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="162">
+      <c r="A15" s="147"/>
+      <c r="B15" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="71" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="126">
+      <c r="A16" s="147"/>
+      <c r="B16" s="89" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="71" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="108">
+      <c r="A17" s="147"/>
+      <c r="B17" s="89" t="s">
+        <v>440</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="71" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36">
+      <c r="A18" s="147"/>
+      <c r="B18" s="89" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="97"/>
+      <c r="D18" s="71" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="216.75" thickBot="1">
+      <c r="A19" s="145"/>
+      <c r="B19" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="126">
+      <c r="A20" s="146" t="s">
+        <v>470</v>
+      </c>
+      <c r="B20" s="103" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="70" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="162">
+      <c r="A21" s="147"/>
+      <c r="B21" s="89" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="113" t="s">
-        <v>476</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="162">
-      <c r="A4" s="154"/>
-      <c r="B4" s="100" t="s">
-        <v>449</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>467</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="180">
-      <c r="A5" s="154"/>
-      <c r="B5" s="100" t="s">
-        <v>434</v>
-      </c>
-      <c r="C5" s="113" t="s">
-        <v>477</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="180">
-      <c r="A6" s="154"/>
-      <c r="B6" s="100" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="113" t="s">
-        <v>468</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="144">
-      <c r="A7" s="154"/>
-      <c r="B7" s="100" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" s="113" t="s">
-        <v>478</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="180">
-      <c r="A8" s="154"/>
-      <c r="B8" s="100" t="s">
-        <v>446</v>
-      </c>
-      <c r="C8" s="113" t="s">
-        <v>479</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="180">
-      <c r="A9" s="154"/>
-      <c r="B9" s="100" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="113" t="s">
-        <v>480</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="198">
-      <c r="A10" s="154"/>
-      <c r="B10" s="100" t="s">
+      <c r="C21" s="97"/>
+      <c r="D21" s="71" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="144">
+      <c r="A22" s="147"/>
+      <c r="B22" s="89" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" s="97"/>
+      <c r="D22" s="71" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="147"/>
+      <c r="B23" s="89" t="s">
+        <v>497</v>
+      </c>
+      <c r="C23" s="97"/>
+      <c r="D23" s="117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="162">
+      <c r="A24" s="147"/>
+      <c r="B24" s="89" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" s="97"/>
+      <c r="D24" s="71" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="126">
+      <c r="A25" s="147"/>
+      <c r="B25" s="89" t="s">
+        <v>471</v>
+      </c>
+      <c r="C25" s="97"/>
+      <c r="D25" s="71" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="144">
+      <c r="A26" s="147"/>
+      <c r="B26" s="89" t="s">
+        <v>490</v>
+      </c>
+      <c r="C26" s="97"/>
+      <c r="D26" s="71" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="180">
+      <c r="A27" s="147"/>
+      <c r="B27" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="C27" s="97"/>
+      <c r="D27" s="71" t="s">
         <v>448</v>
       </c>
-      <c r="C10" s="113" t="s">
-        <v>469</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="180">
-      <c r="A11" s="154"/>
-      <c r="B11" s="100" t="s">
-        <v>436</v>
-      </c>
-      <c r="C11" s="113" t="s">
-        <v>470</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="234">
-      <c r="A12" s="154"/>
-      <c r="B12" s="100" t="s">
-        <v>437</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>471</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="198">
-      <c r="A13" s="154"/>
-      <c r="B13" s="100" t="s">
-        <v>438</v>
-      </c>
-      <c r="C13" s="113" t="s">
-        <v>481</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="126">
-      <c r="A14" s="154"/>
-      <c r="B14" s="100" t="s">
-        <v>439</v>
-      </c>
-      <c r="C14" s="113" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="147"/>
+      <c r="B28" s="89" t="s">
+        <v>503</v>
+      </c>
+      <c r="C28" s="97"/>
+      <c r="D28" s="71"/>
+    </row>
+    <row r="29" spans="1:4" ht="162">
+      <c r="A29" s="147"/>
+      <c r="B29" s="89" t="s">
+        <v>504</v>
+      </c>
+      <c r="C29" s="97"/>
+      <c r="D29" s="71" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="144">
+      <c r="A30" s="147"/>
+      <c r="B30" s="89" t="s">
+        <v>507</v>
+      </c>
+      <c r="C30" s="97"/>
+      <c r="D30" s="71" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="147"/>
+      <c r="B31" s="89" t="s">
+        <v>510</v>
+      </c>
+      <c r="C31" s="97"/>
+      <c r="D31" s="71"/>
+    </row>
+    <row r="32" spans="1:4" ht="108.75" thickBot="1">
+      <c r="A32" s="145"/>
+      <c r="B32" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C32" s="114"/>
+      <c r="D32" s="73" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="126">
+      <c r="A33" s="158" t="s">
         <v>482</v>
       </c>
-      <c r="D14" s="76" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="162">
-      <c r="A15" s="154"/>
-      <c r="B15" s="100" t="s">
-        <v>440</v>
-      </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="76" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="126">
-      <c r="A16" s="154"/>
-      <c r="B16" s="100" t="s">
-        <v>441</v>
-      </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="76" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="108">
-      <c r="A17" s="154"/>
-      <c r="B17" s="100" t="s">
-        <v>442</v>
-      </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="76" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="36">
-      <c r="A18" s="154"/>
-      <c r="B18" s="100" t="s">
-        <v>443</v>
-      </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="76" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="216.75" thickBot="1">
-      <c r="A19" s="157"/>
-      <c r="B19" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="78" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="126">
-      <c r="A20" s="156" t="s">
-        <v>472</v>
-      </c>
-      <c r="B20" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="75" t="s">
+      <c r="B33" s="103" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="162">
-      <c r="A21" s="154"/>
-      <c r="B21" s="100" t="s">
-        <v>344</v>
-      </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="76" t="s">
+      <c r="C33" s="115"/>
+      <c r="D33" s="70" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="162">
+      <c r="A34" s="159"/>
+      <c r="B34" s="89" t="s">
+        <v>484</v>
+      </c>
+      <c r="C34" s="97"/>
+      <c r="D34" s="71" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="144">
+      <c r="A35" s="159"/>
+      <c r="B35" s="89" t="s">
+        <v>486</v>
+      </c>
+      <c r="C35" s="97"/>
+      <c r="D35" s="71" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="144">
-      <c r="A22" s="154"/>
-      <c r="B22" s="100" t="s">
+    <row r="36" spans="1:4" ht="180">
+      <c r="A36" s="159"/>
+      <c r="B36" s="89" t="s">
+        <v>497</v>
+      </c>
+      <c r="C36" s="97"/>
+      <c r="D36" s="71" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="162">
+      <c r="A37" s="159"/>
+      <c r="B37" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C37" s="97"/>
+      <c r="D37" s="71" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="180">
+      <c r="A38" s="159"/>
+      <c r="B38" s="89" t="s">
+        <v>487</v>
+      </c>
+      <c r="C38" s="97"/>
+      <c r="D38" s="71" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="180">
+      <c r="A39" s="159"/>
+      <c r="B39" s="89" t="s">
         <v>488</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="76" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="154"/>
-      <c r="B23" s="100" t="s">
-        <v>499</v>
-      </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="136" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="162">
-      <c r="A24" s="154"/>
-      <c r="B24" s="100" t="s">
-        <v>461</v>
-      </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="76" t="s">
+      <c r="C39" s="97"/>
+      <c r="D39" s="71" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="126">
-      <c r="A25" s="154"/>
-      <c r="B25" s="100" t="s">
-        <v>473</v>
-      </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="76" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="144">
-      <c r="A26" s="154"/>
-      <c r="B26" s="100" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="159"/>
+      <c r="B40" s="89" t="s">
+        <v>489</v>
+      </c>
+      <c r="C40" s="97"/>
+      <c r="D40" s="71"/>
+    </row>
+    <row r="41" spans="1:4" ht="126">
+      <c r="A41" s="159"/>
+      <c r="B41" s="89" t="s">
+        <v>490</v>
+      </c>
+      <c r="C41" s="97"/>
+      <c r="D41" s="71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="159"/>
+      <c r="B42" s="89" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" s="97"/>
+      <c r="D42" s="71"/>
+    </row>
+    <row r="43" spans="1:4" ht="72.75" thickBot="1">
+      <c r="A43" s="160"/>
+      <c r="B43" s="102" t="s">
         <v>492</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="76" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="180">
-      <c r="A27" s="154"/>
-      <c r="B27" s="41" t="s">
-        <v>514</v>
-      </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="76" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="154"/>
-      <c r="B28" s="100" t="s">
-        <v>505</v>
-      </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="76"/>
-    </row>
-    <row r="29" spans="1:4" ht="162">
-      <c r="A29" s="154"/>
-      <c r="B29" s="100" t="s">
-        <v>506</v>
-      </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="76" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="144">
-      <c r="A30" s="154"/>
-      <c r="B30" s="100" t="s">
-        <v>509</v>
-      </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="76" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="154"/>
-      <c r="B31" s="100" t="s">
-        <v>512</v>
-      </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="76"/>
-    </row>
-    <row r="32" spans="1:4" ht="108.75" thickBot="1">
-      <c r="A32" s="157"/>
-      <c r="B32" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C32" s="133"/>
-      <c r="D32" s="78" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="126">
-      <c r="A33" s="167" t="s">
-        <v>484</v>
-      </c>
-      <c r="B33" s="119" t="s">
-        <v>485</v>
-      </c>
-      <c r="C33" s="134"/>
-      <c r="D33" s="75" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="162">
-      <c r="A34" s="168"/>
-      <c r="B34" s="100" t="s">
-        <v>486</v>
-      </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="76" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="144">
-      <c r="A35" s="168"/>
-      <c r="B35" s="100" t="s">
-        <v>488</v>
-      </c>
-      <c r="C35" s="113"/>
-      <c r="D35" s="76" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="180">
-      <c r="A36" s="168"/>
-      <c r="B36" s="100" t="s">
-        <v>499</v>
-      </c>
-      <c r="C36" s="113"/>
-      <c r="D36" s="76" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="162">
-      <c r="A37" s="168"/>
-      <c r="B37" s="100" t="s">
-        <v>487</v>
-      </c>
-      <c r="C37" s="113"/>
-      <c r="D37" s="76" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="180">
-      <c r="A38" s="168"/>
-      <c r="B38" s="100" t="s">
-        <v>489</v>
-      </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="76" t="s">
+      <c r="C43" s="98"/>
+      <c r="D43" s="81" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="180">
-      <c r="A39" s="168"/>
-      <c r="B39" s="100" t="s">
-        <v>490</v>
-      </c>
-      <c r="C39" s="113"/>
-      <c r="D39" s="76" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="168"/>
-      <c r="B40" s="100" t="s">
-        <v>491</v>
-      </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="76"/>
-    </row>
-    <row r="41" spans="1:4" ht="126">
-      <c r="A41" s="168"/>
-      <c r="B41" s="100" t="s">
-        <v>492</v>
-      </c>
-      <c r="C41" s="113"/>
-      <c r="D41" s="76" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="168"/>
-      <c r="B42" s="100" t="s">
-        <v>493</v>
-      </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="76"/>
-    </row>
-    <row r="43" spans="1:4" ht="72.75" thickBot="1">
-      <c r="A43" s="169"/>
-      <c r="B43" s="118" t="s">
-        <v>494</v>
-      </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="90" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
